--- a/DoomPy/files/cards.xlsx
+++ b/DoomPy/files/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/DoomPy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326B089A-B68C-EF41-A0D5-49ECE07DD1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9B3C93-807F-1349-A8BF-1C10FCDE2946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21640" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
@@ -1311,7 +1311,7 @@
     <t>1 self_techlings 2 self_techlings_if_attachment_here</t>
   </si>
   <si>
-    <t>face_value</t>
+    <t>face</t>
   </si>
 </sst>
 </file>
@@ -1661,13 +1661,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}" name="Tabelle2" displayName="Tabelle2" ref="A1:Q178" totalsRowShown="0">
   <autoFilter ref="A1:Q178" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q178">
-    <sortCondition ref="J1:J178"/>
+    <sortCondition ref="M1:M178"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{8166F61C-4699-3D4C-9D61-28AD00136FEA}" name="name"/>
     <tableColumn id="3" xr3:uid="{F405C990-B29D-A045-9AF6-EE1B4CF409AC}" name="n_of_cards"/>
     <tableColumn id="4" xr3:uid="{EC3D3AE7-EA86-024F-A6FA-64A0E67A5FC7}" name="color"/>
-    <tableColumn id="5" xr3:uid="{5EA3E41F-9CF4-7D4B-A611-5E5B5050CE5B}" name="face_value" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{5EA3E41F-9CF4-7D4B-A611-5E5B5050CE5B}" name="face" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{FF792F6D-B33B-2C40-95CF-D0BE8D4CD076}" name="game" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{53A2A058-82DA-9540-A9DD-565700A09F6B}" name="dominant"/>
     <tableColumn id="7" xr3:uid="{3FFB57AE-FF0E-9644-8F53-12784AF069C0}" name="action" dataDxfId="6"/>
@@ -1987,7 +1987,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1995,7 +1995,7 @@
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -2006,7 +2006,7 @@
     <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.1640625" style="28" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="46.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2066,342 +2066,341 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>232</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="17">
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>408</v>
+        <v>107</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="27"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="23" t="s">
-        <v>244</v>
+      <c r="M2" s="27">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="13">
-        <v>1</v>
+      <c r="C3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="17">
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="27"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="27"/>
-      <c r="N3" t="s">
-        <v>246</v>
-      </c>
-      <c r="P3" t="s">
-        <v>255</v>
+      <c r="M3" s="27">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="13">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="27"/>
-      <c r="N4" t="s">
-        <v>246</v>
-      </c>
-      <c r="P4" t="s">
-        <v>255</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="28">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="17">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>408</v>
+        <v>107</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="27"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="27"/>
-      <c r="N5" t="s">
-        <v>246</v>
+      <c r="M5" s="27">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="D6" s="13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>408</v>
+        <v>107</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3"/>
       <c r="K6" s="27"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="27"/>
-      <c r="N6" t="s">
-        <v>246</v>
+      <c r="M6" s="27">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>415</v>
+      </c>
+      <c r="P6" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>248</v>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="27">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>1</v>
       </c>
       <c r="D8" s="17">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>247</v>
+        <v>107</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="27"/>
+      <c r="M8" s="28">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>418</v>
+      </c>
+      <c r="P8" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="13">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3"/>
       <c r="K9" s="27"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="27"/>
-      <c r="N9" t="s">
-        <v>246</v>
+      <c r="M9" s="28">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>419</v>
+      </c>
+      <c r="P9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="13">
-        <v>1</v>
+      <c r="D10" s="17">
+        <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>408</v>
+        <v>107</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="27"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="27"/>
-      <c r="N10" t="s">
-        <v>246</v>
+      <c r="M10" s="27">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="17">
+        <v>-1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>408</v>
+        <v>107</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="K11" s="27"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="27"/>
-      <c r="N11" t="s">
-        <v>246</v>
+      <c r="M11" s="27">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D12" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>408</v>
+        <v>107</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="K12" s="27"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="23" t="s">
-        <v>245</v>
+      <c r="M12" s="27">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>63</v>
+      <c r="C13" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D13" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>408</v>
@@ -2415,29 +2414,34 @@
       <c r="K13" s="27"/>
       <c r="L13" s="3"/>
       <c r="M13" s="27"/>
-      <c r="N13" t="s">
-        <v>246</v>
+      <c r="N13" s="23" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>88</v>
+      <c r="C14" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D14" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>408</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
@@ -2445,47 +2449,61 @@
       <c r="L14" s="3"/>
       <c r="M14" s="27"/>
       <c r="N14" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="P14" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>206</v>
+      <c r="C15" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D15" s="13">
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>224</v>
+        <v>408</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
       <c r="K15" s="27"/>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
+      <c r="L15" s="3"/>
       <c r="M15" s="27"/>
+      <c r="N15" t="s">
+        <v>246</v>
+      </c>
+      <c r="P15" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>66</v>
+      <c r="A16" t="s">
+        <v>70</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>408</v>
@@ -2493,132 +2511,135 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
       <c r="K16" s="27"/>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
+      <c r="L16" s="3"/>
       <c r="M16" s="27"/>
+      <c r="N16" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0</v>
+      <c r="C17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>408</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
       <c r="K17" s="27"/>
       <c r="L17" s="3"/>
       <c r="M17" s="27"/>
-      <c r="P17" t="s">
-        <v>264</v>
+      <c r="N17" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>88</v>
+      <c r="C18" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="D18" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>135</v>
       </c>
-      <c r="G18">
-        <v>1</v>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="13">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="27"/>
+      <c r="C19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>88</v>
+      <c r="C20" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D20" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
       <c r="K20" s="27"/>
       <c r="L20" s="3"/>
       <c r="M20" s="27"/>
-      <c r="P20" t="s">
-        <v>270</v>
+      <c r="N20" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>24</v>
+      <c r="C21" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D21" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>408</v>
@@ -2626,16 +2647,19 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
       <c r="K21" s="27"/>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
+      <c r="L21" s="3"/>
       <c r="M21" s="27"/>
+      <c r="N21" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2643,45 +2667,63 @@
       <c r="C22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>408</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="27"/>
+      <c r="N22" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>240</v>
+        <v>83</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="17">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>408</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
+      <c r="C23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="13">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="27"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="23" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>88</v>
+      <c r="C24" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D24" s="13">
         <v>1</v>
@@ -2689,28 +2731,31 @@
       <c r="E24" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
       <c r="K24" s="27"/>
       <c r="L24" s="3"/>
       <c r="M24" s="27"/>
+      <c r="N24" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>24</v>
+      <c r="C25" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D25" s="13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>408</v>
@@ -2718,42 +2763,45 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
       <c r="K25" s="27"/>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
+      <c r="L25" s="3"/>
       <c r="M25" s="27"/>
+      <c r="N25" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>24</v>
+      <c r="C26" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="D26" s="13">
         <v>2</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
+      <c r="E26" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="27"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
       <c r="M26" s="27"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>67</v>
+      <c r="A27" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2762,7 +2810,7 @@
         <v>63</v>
       </c>
       <c r="D27" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>408</v>
@@ -2779,74 +2827,68 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="11" t="s">
         <v>202</v>
       </c>
       <c r="D28" s="17">
         <v>0</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="27"/>
       <c r="L28" s="3"/>
       <c r="M28" s="27"/>
+      <c r="P28" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="27"/>
-      <c r="P29" t="s">
-        <v>423</v>
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>207</v>
+      <c r="C30" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D30" s="13">
-        <v>1</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>224</v>
+        <v>3</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -2860,172 +2902,169 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="17">
+      <c r="C31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="13">
         <v>4</v>
       </c>
-      <c r="E31" t="s">
-        <v>408</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
+      <c r="E31" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="27"/>
+      <c r="P31" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="17">
-        <v>4</v>
+      <c r="C32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="13">
+        <v>3</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>107</v>
+        <v>408</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="27"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="27">
-        <v>1</v>
-      </c>
-      <c r="O32" t="s">
-        <v>415</v>
-      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="27"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>88</v>
+      <c r="C33" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D33" s="17">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="27">
-        <v>1</v>
-      </c>
-      <c r="O33" t="s">
-        <v>417</v>
+        <v>-1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>408</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" s="13">
-        <v>2</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="27"/>
+      <c r="C34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>408</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="17">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>153</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="27"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>219</v>
+        <v>28</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>202</v>
+      <c r="C36" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D36" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>408</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3">
-        <v>1</v>
-      </c>
+      <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="27"/>
-      <c r="L36" s="3"/>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
       <c r="M36" s="27"/>
-      <c r="P36" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>202</v>
+      <c r="C37" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D37" s="13">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>408</v>
+        <v>2</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>409</v>
       </c>
       <c r="G37" s="3">
         <v>1</v>
@@ -3039,102 +3078,99 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>24</v>
+      <c r="C38" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="D38" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>408</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
+      <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="27"/>
-      <c r="L38" s="3"/>
+      <c r="L38" s="3">
+        <v>1</v>
+      </c>
       <c r="M38" s="27"/>
-      <c r="P38" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="13">
-        <v>1</v>
+      <c r="C39" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="17">
+        <v>0</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G39" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
       <c r="H39" s="3"/>
-      <c r="I39" s="3">
-        <v>1</v>
-      </c>
+      <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="27"/>
       <c r="L39" s="3"/>
       <c r="M39" s="27"/>
-      <c r="P39" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="13">
-        <v>2</v>
+      <c r="D40" s="17">
+        <v>-2</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="27"/>
       <c r="L40" s="3"/>
       <c r="M40" s="27"/>
+      <c r="P40" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" s="13">
         <v>1</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="25" t="s">
         <v>224</v>
       </c>
       <c r="G41" s="3"/>
@@ -3149,105 +3185,108 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>88</v>
+      <c r="C42" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D42" s="17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
-      </c>
-      <c r="F42">
+        <v>408</v>
+      </c>
+      <c r="L42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="17">
-        <v>4</v>
-      </c>
-      <c r="E43" t="s">
-        <v>153</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
+      <c r="C43" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="13">
+        <v>2</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="27"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="13">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3">
-        <v>1</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="17">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>63</v>
+      <c r="C45" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D45" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
+      <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="I45" s="3">
+        <v>1</v>
+      </c>
       <c r="J45" s="3"/>
       <c r="K45" s="27"/>
       <c r="L45" s="3"/>
       <c r="M45" s="27"/>
+      <c r="P45" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>1</v>
+      <c r="C46" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D46" s="13">
         <v>1</v>
@@ -3267,88 +3306,97 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>202</v>
+      <c r="C47" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D47" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>408</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
       <c r="J47" s="3"/>
       <c r="K47" s="27"/>
-      <c r="L47" s="3">
-        <v>1</v>
-      </c>
+      <c r="L47" s="3"/>
       <c r="M47" s="27"/>
+      <c r="P47" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>1</v>
+      <c r="C48" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D48" s="13">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
+      <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
       <c r="J48" s="3"/>
       <c r="K48" s="27"/>
       <c r="L48" s="3"/>
       <c r="M48" s="27"/>
+      <c r="P48" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D49" s="17">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>153</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="P49" t="s">
-        <v>222</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="13">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="27"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D50" s="13">
         <v>1</v>
@@ -3368,71 +3416,64 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="D51" s="17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
-      </c>
-      <c r="M51" s="28">
-        <v>1</v>
-      </c>
-      <c r="O51" t="s">
-        <v>416</v>
+        <v>153</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="13">
-        <v>2</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="3">
-        <v>1</v>
-      </c>
-      <c r="M52" s="27"/>
+      <c r="D52" s="17">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>153</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>202</v>
+      <c r="C53" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D53" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>408</v>
       </c>
       <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="27"/>
@@ -3441,24 +3482,23 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>202</v>
+      <c r="C54" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D54" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3"/>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -3468,274 +3508,283 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" s="17">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s">
-        <v>153</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
+      <c r="C55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="13">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="27"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D56" s="17">
-        <v>4</v>
-      </c>
-      <c r="E56" t="s">
-        <v>135</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
+      <c r="D56" s="13">
+        <v>-2</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="3">
+        <v>1</v>
+      </c>
+      <c r="M56" s="27"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>135</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
+      <c r="C57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="13">
+        <v>-2</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="27"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="13">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" s="17">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>153</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="P58" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>202</v>
+      <c r="C59" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="D59" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="27"/>
-      <c r="L59" s="3"/>
+      <c r="L59" s="3">
+        <v>1</v>
+      </c>
       <c r="M59" s="27"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" s="17">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>135</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1</v>
-      </c>
+      <c r="C60" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="13">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="27"/>
-      <c r="P60" t="s">
-        <v>235</v>
-      </c>
+      <c r="L60" s="3">
+        <v>1</v>
+      </c>
+      <c r="M60" s="27"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
-      <c r="C61" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="17">
+      <c r="C61" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" s="13">
         <v>4</v>
       </c>
-      <c r="E61" t="s">
-        <v>408</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
+      <c r="E61" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="27"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D62" s="17">
-        <v>-3</v>
-      </c>
-      <c r="E62" t="s">
-        <v>135</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
+      <c r="D62" s="13">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="27"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3">
-        <v>1</v>
-      </c>
-      <c r="J63" s="3"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="27"/>
-      <c r="P63" t="s">
-        <v>249</v>
+      <c r="C63" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" s="17">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>153</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>63</v>
+      <c r="C64" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="D64" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>153</v>
-      </c>
-      <c r="G64">
+        <v>135</v>
+      </c>
+      <c r="L64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" s="16" t="s">
-        <v>63</v>
+      <c r="C65" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D65" s="17">
-        <v>1</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="27">
-        <v>1</v>
-      </c>
-      <c r="O65" t="s">
-        <v>419</v>
+        <v>-1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="13">
         <v>1</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>107</v>
+        <v>408</v>
       </c>
       <c r="G66" s="3">
         <v>1</v>
@@ -3749,219 +3798,202 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="17">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>153</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
+      <c r="C67" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" s="13">
+        <v>2</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="27"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D68" s="13">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
+      <c r="C68" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="17">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>135</v>
+      </c>
+      <c r="I68" s="3">
+        <v>1</v>
+      </c>
       <c r="J68" s="3"/>
-      <c r="K68" s="27">
-        <v>1</v>
-      </c>
-      <c r="L68" s="3"/>
-      <c r="M68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="P68" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
-      <c r="C69" s="20" t="s">
-        <v>24</v>
+      <c r="C69" s="21" t="s">
+        <v>1</v>
       </c>
       <c r="D69" s="17">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="P69" t="s">
-        <v>225</v>
+        <v>408</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D70" s="13">
-        <v>1</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="27"/>
+      <c r="C70" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" s="17">
+        <v>-3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>135</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71" s="11" t="s">
-        <v>202</v>
+      <c r="C71" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D71" s="13">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="I71" s="3">
+        <v>1</v>
+      </c>
       <c r="J71" s="3"/>
-      <c r="K71" s="27">
-        <v>1</v>
-      </c>
+      <c r="K71" s="27"/>
       <c r="L71" s="3"/>
       <c r="M71" s="27"/>
-      <c r="Q71" t="s">
-        <v>422</v>
+      <c r="P71" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D72" s="13">
-        <v>1</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="3">
-        <v>1</v>
-      </c>
-      <c r="M72" s="27"/>
+      <c r="C72" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="17">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>153</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>243</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D73" s="13">
+      <c r="C73" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" s="17">
         <v>1</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G73" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="27"/>
-      <c r="L73" s="3">
-        <v>1</v>
-      </c>
+      <c r="L73" s="3"/>
       <c r="M73" s="27"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D74" s="13">
-        <v>2</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="3">
-        <v>1</v>
-      </c>
-      <c r="M74" s="27"/>
+      <c r="C74" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="17">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>153</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>88</v>
+      <c r="C75" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D75" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>408</v>
@@ -3970,57 +4002,52 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="3">
-        <v>1</v>
-      </c>
+      <c r="K75" s="27">
+        <v>1</v>
+      </c>
+      <c r="L75" s="3"/>
       <c r="M75" s="27"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D76" s="13">
-        <v>3</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="3">
-        <v>1</v>
-      </c>
-      <c r="M76" s="27"/>
+      <c r="C76" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>135</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="P76" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>1</v>
+      <c r="C77" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D77" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G77" s="3">
-        <v>1</v>
-      </c>
+      <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -4030,42 +4057,45 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>24</v>
+      <c r="C78" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D78" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>408</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="3">
-        <v>1</v>
-      </c>
+      <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="27"/>
+      <c r="K78" s="27">
+        <v>1</v>
+      </c>
       <c r="L78" s="3"/>
       <c r="M78" s="27"/>
-      <c r="P78" t="s">
-        <v>265</v>
+      <c r="Q78" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>24</v>
+      <c r="C79" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D79" s="13">
         <v>1</v>
@@ -4075,78 +4105,78 @@
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="3">
-        <v>1</v>
-      </c>
+      <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="27"/>
-      <c r="L79" s="3"/>
+      <c r="L79" s="3">
+        <v>1</v>
+      </c>
       <c r="M79" s="27"/>
-      <c r="P79" t="s">
-        <v>236</v>
-      </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="11" t="s">
         <v>202</v>
       </c>
       <c r="D80" s="13">
-        <v>2</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>224</v>
+        <v>1</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="27">
-        <v>1</v>
-      </c>
-      <c r="L80" s="3"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="3">
+        <v>1</v>
+      </c>
       <c r="M80" s="27"/>
-      <c r="Q80" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="C81" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="13">
+        <v>2</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="3">
+        <v>1</v>
+      </c>
+      <c r="M81" s="27"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="17">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s">
-        <v>135</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="D82" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>408</v>
@@ -4161,328 +4191,321 @@
       </c>
       <c r="M82" s="27"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>202</v>
       </c>
       <c r="D83" s="13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>107</v>
+        <v>408</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="3">
-        <v>1</v>
-      </c>
+      <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="27"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="27">
-        <v>1</v>
-      </c>
-      <c r="O83" t="s">
-        <v>415</v>
-      </c>
-      <c r="P83" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>1</v>
+      </c>
+      <c r="M83" s="27"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D84" s="17">
-        <v>0</v>
+      <c r="C84" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="13">
+        <v>2</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G84" s="3"/>
+      <c r="G84" s="3">
+        <v>1</v>
+      </c>
       <c r="H84" s="3"/>
-      <c r="I84" s="3">
-        <v>1</v>
-      </c>
+      <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="27"/>
       <c r="L84" s="3"/>
       <c r="M84" s="27"/>
-      <c r="P84" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D85" s="17">
-        <v>-1</v>
+      <c r="C85" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="13">
+        <v>0</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G85" s="3">
-        <v>1</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
+      <c r="I85" s="3">
+        <v>1</v>
+      </c>
       <c r="J85" s="3"/>
       <c r="K85" s="27"/>
       <c r="L85" s="3"/>
       <c r="M85" s="27"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P85" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>210</v>
+      <c r="C86" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D86" s="13">
         <v>1</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>224</v>
+        <v>408</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
+      <c r="I86" s="3">
+        <v>1</v>
+      </c>
       <c r="J86" s="3"/>
       <c r="K86" s="27"/>
-      <c r="L86" s="3">
-        <v>1</v>
-      </c>
+      <c r="L86" s="3"/>
       <c r="M86" s="27"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P86" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>88</v>
+      <c r="C87" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="D87" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>408</v>
+        <v>2</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>224</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3">
-        <v>1</v>
-      </c>
+      <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="27"/>
+      <c r="K87" s="27">
+        <v>1</v>
+      </c>
       <c r="L87" s="3"/>
       <c r="M87" s="27"/>
-      <c r="P87" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q87" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D88" s="13">
-        <v>7</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="27"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" s="17">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>135</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>88</v>
+      <c r="C89" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D89" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G89" s="3">
-        <v>1</v>
-      </c>
+      <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="27"/>
-      <c r="L89" s="3"/>
+      <c r="L89" s="3">
+        <v>1</v>
+      </c>
       <c r="M89" s="27"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D90" s="13">
-        <v>4</v>
+      <c r="C90" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D90" s="17">
+        <v>0</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
+      <c r="I90" s="3">
+        <v>1</v>
+      </c>
       <c r="J90" s="3"/>
-      <c r="K90" s="27">
-        <v>1</v>
-      </c>
+      <c r="K90" s="27"/>
       <c r="L90" s="3"/>
       <c r="M90" s="27"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P90" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
-      <c r="C91" s="16" t="s">
-        <v>63</v>
+      <c r="C91" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="D91" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G91" s="3"/>
+      <c r="G91" s="3">
+        <v>1</v>
+      </c>
       <c r="H91" s="3"/>
-      <c r="I91" s="3">
-        <v>1</v>
-      </c>
+      <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="27"/>
       <c r="L91" s="3"/>
       <c r="M91" s="27"/>
-      <c r="P91" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
-      <c r="C92" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" s="17">
-        <v>3</v>
-      </c>
-      <c r="E92" t="s">
-        <v>135</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C92" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D92" s="13">
+        <v>1</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="3">
+        <v>1</v>
+      </c>
+      <c r="M92" s="27"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
-      <c r="C93" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" s="17">
-        <v>4</v>
-      </c>
-      <c r="E93" t="s">
-        <v>408</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
+      <c r="C93" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
       <c r="I93" s="3">
         <v>1</v>
       </c>
       <c r="J93" s="3"/>
       <c r="K93" s="27"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="27"/>
       <c r="P93" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>63</v>
+      <c r="C94" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D94" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G94" s="3">
-        <v>1</v>
-      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
@@ -4490,18 +4513,18 @@
       <c r="L94" s="3"/>
       <c r="M94" s="27"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>202</v>
+      <c r="C95" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D95" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>408</v>
@@ -4516,122 +4539,121 @@
       <c r="L95" s="3"/>
       <c r="M95" s="27"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>63</v>
+      <c r="C96" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D96" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G96" s="3">
-        <v>1</v>
-      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="27"/>
+      <c r="K96" s="27">
+        <v>1</v>
+      </c>
       <c r="L96" s="3"/>
       <c r="M96" s="27"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="13">
-        <v>1</v>
+      <c r="C97" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" s="17">
+        <v>0</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G97" s="3">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G97" s="3"/>
       <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
+      <c r="I97" s="3">
+        <v>1</v>
+      </c>
       <c r="J97" s="3"/>
       <c r="K97" s="27"/>
       <c r="L97" s="3"/>
       <c r="M97" s="27"/>
+      <c r="P97" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D98" s="13">
-        <v>2</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="G98" s="3">
-        <v>1</v>
-      </c>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="27"/>
+      <c r="C98" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="17">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>135</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="B99">
-        <v>7</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D99" s="13">
-        <v>0</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="17">
+        <v>4</v>
+      </c>
+      <c r="E99" t="s">
+        <v>408</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
       <c r="I99" s="3">
         <v>1</v>
       </c>
       <c r="J99" s="3"/>
       <c r="K99" s="27"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="27"/>
       <c r="P99" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
-      <c r="C100" s="11" t="s">
-        <v>202</v>
+      <c r="C100" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D100" s="13">
         <v>1</v>
@@ -4639,10 +4661,10 @@
       <c r="E100" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3">
-        <v>1</v>
-      </c>
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+      <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="27"/>
@@ -4651,13 +4673,13 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>24</v>
+      <c r="C101" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D101" s="13">
         <v>1</v>
@@ -4665,154 +4687,161 @@
       <c r="E101" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G101" s="3"/>
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="27"/>
-      <c r="L101" s="3">
-        <v>1</v>
-      </c>
+      <c r="L101" s="3"/>
       <c r="M101" s="27"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102" s="17">
-        <v>8</v>
-      </c>
-      <c r="E102" t="s">
-        <v>135</v>
-      </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
+      <c r="C102" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" s="13">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1</v>
+      </c>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="27"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="B103">
-        <v>2</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D103" s="13">
         <v>1</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G103" s="3"/>
+        <v>408</v>
+      </c>
+      <c r="G103" s="3">
+        <v>1</v>
+      </c>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="27"/>
       <c r="L103" s="3"/>
-      <c r="M103" s="27">
-        <v>1</v>
-      </c>
-      <c r="O103" t="s">
-        <v>420</v>
-      </c>
+      <c r="M103" s="27"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B104">
-        <v>2</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" s="17">
-        <v>0</v>
-      </c>
-      <c r="E104" t="s">
-        <v>107</v>
-      </c>
-      <c r="I104" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" s="13">
+        <v>2</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="G104" s="3">
+        <v>1</v>
+      </c>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="27"/>
-      <c r="M104" s="28">
-        <v>1</v>
-      </c>
-      <c r="O104" t="s">
-        <v>418</v>
-      </c>
-      <c r="P104" t="s">
-        <v>252</v>
-      </c>
+      <c r="L104" s="3"/>
+      <c r="M104" s="27"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>63</v>
+        <v>7</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D105" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G105" s="3">
-        <v>1</v>
-      </c>
+      <c r="G105" s="3"/>
       <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
+      <c r="I105" s="3">
+        <v>1</v>
+      </c>
       <c r="J105" s="3"/>
       <c r="K105" s="27"/>
       <c r="L105" s="3"/>
       <c r="M105" s="27"/>
+      <c r="P105" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D106" s="17">
-        <v>2</v>
-      </c>
-      <c r="E106" t="s">
-        <v>135</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
+      <c r="C106" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D106" s="13">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3">
+        <v>1</v>
+      </c>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="27"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>1</v>
+      <c r="C107" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D107" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>408</v>
@@ -4829,166 +4858,163 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108" s="11" t="s">
-        <v>202</v>
+      <c r="C108" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D108" s="17">
-        <v>0</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3">
-        <v>1</v>
-      </c>
-      <c r="J108" s="3"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="27"/>
-      <c r="P108" t="s">
-        <v>251</v>
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
+        <v>135</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>211</v>
+      <c r="C109" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D109" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G109" s="3"/>
+        <v>408</v>
+      </c>
+      <c r="G109" s="3">
+        <v>1</v>
+      </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="27"/>
-      <c r="L109" s="3">
-        <v>1</v>
-      </c>
+      <c r="L109" s="3"/>
       <c r="M109" s="27"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
-      <c r="C110" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D110" s="13">
-        <v>5</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="27"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="27"/>
+      <c r="C110" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D110" s="17">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>135</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="B111">
-        <v>2</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D111" s="17">
-        <v>0</v>
-      </c>
-      <c r="E111" t="s">
-        <v>107</v>
-      </c>
-      <c r="I111" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="13">
+        <v>2</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="27"/>
-      <c r="M111" s="28">
-        <v>1</v>
-      </c>
-      <c r="O111" t="s">
-        <v>419</v>
-      </c>
-      <c r="P111" t="s">
-        <v>237</v>
-      </c>
+      <c r="L111" s="3">
+        <v>1</v>
+      </c>
+      <c r="M111" s="27"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112" s="16" t="s">
-        <v>63</v>
+      <c r="C112" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D112" s="17">
-        <v>1</v>
-      </c>
-      <c r="E112" t="s">
-        <v>135</v>
-      </c>
-      <c r="H112">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3">
+        <v>1</v>
+      </c>
+      <c r="J112" s="3"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="27"/>
+      <c r="P112" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
-      <c r="C113" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D113" s="17">
-        <v>2</v>
-      </c>
-      <c r="E113" t="s">
-        <v>107</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
+      <c r="C113" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D113" s="13">
+        <v>1</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="27"/>
+      <c r="L113" s="3">
+        <v>1</v>
+      </c>
+      <c r="M113" s="27"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114" s="7" t="s">
-        <v>63</v>
+      <c r="C114" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D114" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>408</v>
@@ -4998,125 +5024,113 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="27"/>
-      <c r="L114" s="3">
-        <v>1</v>
-      </c>
+      <c r="L114" s="3"/>
       <c r="M114" s="27"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D115" s="13">
-        <v>1</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G115" s="3">
-        <v>1</v>
-      </c>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="27"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="27"/>
+      <c r="D115" s="17">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>135</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
-      <c r="C116" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D116" s="13">
-        <v>4</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="27"/>
-      <c r="L116" s="3"/>
-      <c r="M116" s="27"/>
+      <c r="C116" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="17">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>107</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="B117">
-        <v>2</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D117" s="17">
-        <v>2</v>
-      </c>
-      <c r="E117" t="s">
-        <v>135</v>
-      </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" s="13">
+        <v>3</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="3">
+        <v>1</v>
+      </c>
+      <c r="M117" s="27"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>24</v>
+      <c r="C118" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D118" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G118" s="3"/>
+      <c r="G118" s="3">
+        <v>1</v>
+      </c>
       <c r="H118" s="3"/>
-      <c r="I118" s="3">
-        <v>1</v>
-      </c>
+      <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="27"/>
       <c r="L118" s="3"/>
       <c r="M118" s="27"/>
-      <c r="P118" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B119">
-        <v>2</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D119" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>408</v>
@@ -5126,104 +5140,102 @@
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
-      <c r="I119" s="3">
-        <v>1</v>
-      </c>
+      <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="27"/>
       <c r="L119" s="3"/>
       <c r="M119" s="27"/>
-      <c r="P119" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D120" s="13">
-        <v>1</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G120" s="3">
-        <v>1</v>
-      </c>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="27"/>
-      <c r="L120" s="3"/>
-      <c r="M120" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="17">
+        <v>2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>135</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>63</v>
+      <c r="C121" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D121" s="13">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>408</v>
       </c>
       <c r="G121" s="3"/>
-      <c r="H121" s="3">
-        <v>1</v>
-      </c>
-      <c r="I121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3">
+        <v>1</v>
+      </c>
       <c r="J121" s="3"/>
       <c r="K121" s="27"/>
       <c r="L121" s="3"/>
       <c r="M121" s="27"/>
+      <c r="P121" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B122">
-        <v>1</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D122" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G122" s="3">
-        <v>1</v>
-      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3"/>
       <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
+      <c r="I122" s="3">
+        <v>1</v>
+      </c>
       <c r="J122" s="3"/>
       <c r="K122" s="27"/>
       <c r="L122" s="3"/>
       <c r="M122" s="27"/>
+      <c r="P122" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>24</v>
+      <c r="C123" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D123" s="13">
         <v>1</v>
@@ -5243,24 +5255,24 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-      <c r="C124" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D124" s="17">
-        <v>2</v>
+      <c r="C124" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" s="13">
+        <v>-2</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G124" s="3">
-        <v>1</v>
-      </c>
-      <c r="H124" s="3"/>
+        <v>408</v>
+      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3">
+        <v>1</v>
+      </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="27"/>
@@ -5269,7 +5281,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -5278,7 +5290,7 @@
         <v>63</v>
       </c>
       <c r="D125" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>408</v>
@@ -5295,7 +5307,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -5309,60 +5321,57 @@
       <c r="E126" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G126" s="3"/>
+      <c r="G126" s="3">
+        <v>1</v>
+      </c>
       <c r="H126" s="3"/>
-      <c r="I126" s="3">
-        <v>1</v>
-      </c>
+      <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="27"/>
       <c r="L126" s="3"/>
       <c r="M126" s="27"/>
-      <c r="P126" t="s">
-        <v>259</v>
-      </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
-      <c r="C127" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D127" s="13">
+      <c r="C127" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D127" s="17">
         <v>2</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G127" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="G127" s="3">
+        <v>1</v>
+      </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
-      <c r="K127" s="27">
-        <v>1</v>
-      </c>
+      <c r="K127" s="27"/>
       <c r="L127" s="3"/>
       <c r="M127" s="27"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>88</v>
+      <c r="C128" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D128" s="13">
         <v>2</v>
       </c>
-      <c r="E128" s="25" t="s">
-        <v>409</v>
+      <c r="E128" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
@@ -5376,7 +5385,7 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -5390,71 +5399,86 @@
       <c r="E129" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G129" s="3">
-        <v>1</v>
-      </c>
+      <c r="G129" s="3"/>
       <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
+      <c r="I129" s="3">
+        <v>1</v>
+      </c>
       <c r="J129" s="3"/>
       <c r="K129" s="27"/>
       <c r="L129" s="3"/>
       <c r="M129" s="27"/>
+      <c r="P129" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
-      <c r="C130" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D130" s="17">
-        <v>-2</v>
-      </c>
-      <c r="E130" t="s">
-        <v>153</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
+      <c r="C130" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D130" s="13">
+        <v>2</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="27">
+        <v>1</v>
+      </c>
+      <c r="L130" s="3"/>
+      <c r="M130" s="27"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="B131">
-        <v>2</v>
-      </c>
-      <c r="C131" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D131" s="17">
-        <v>1</v>
-      </c>
-      <c r="E131" t="s">
-        <v>153</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D131" s="13">
+        <v>2</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="27"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="27"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
-      <c r="C132" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D132" s="17">
-        <v>1</v>
-      </c>
-      <c r="E132" t="s">
-        <v>153</v>
+      <c r="C132" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" s="13">
+        <v>1</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="G132" s="3">
         <v>1</v>
@@ -5463,85 +5487,76 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="27"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="27"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
-      <c r="C133" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D133" s="13">
-        <v>2</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="27"/>
-      <c r="L133" s="3">
-        <v>1</v>
-      </c>
-      <c r="M133" s="27"/>
+      <c r="C133" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" s="17">
+        <v>-2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>153</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B134">
         <v>2</v>
       </c>
-      <c r="C134" s="19" t="s">
-        <v>202</v>
+      <c r="C134" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D134" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>135</v>
-      </c>
-      <c r="H134">
+        <v>153</v>
+      </c>
+      <c r="G134">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D135" s="13">
-        <v>0</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G135" s="3"/>
+      <c r="C135" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D135" s="17">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>153</v>
+      </c>
+      <c r="G135" s="3">
+        <v>1</v>
+      </c>
       <c r="H135" s="3"/>
-      <c r="I135" s="3">
-        <v>1</v>
-      </c>
+      <c r="I135" s="3"/>
       <c r="J135" s="3"/>
       <c r="K135" s="27"/>
-      <c r="L135" s="3"/>
-      <c r="M135" s="27"/>
-      <c r="P135" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -5550,107 +5565,111 @@
         <v>88</v>
       </c>
       <c r="D136" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G136" s="3">
-        <v>1</v>
-      </c>
+      <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="27"/>
-      <c r="L136" s="3"/>
+      <c r="L136" s="3">
+        <v>1</v>
+      </c>
       <c r="M136" s="27"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="B137">
         <v>2</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137" s="13">
-        <v>0</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
-      <c r="K137" s="27"/>
-      <c r="L137" s="3"/>
-      <c r="M137" s="27"/>
+      <c r="C137" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D137" s="17">
+        <v>2</v>
+      </c>
+      <c r="E137" t="s">
+        <v>135</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
-      <c r="C138" s="8" t="s">
-        <v>88</v>
+      <c r="C138" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D138" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>408</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
+      <c r="I138" s="3">
+        <v>1</v>
+      </c>
       <c r="J138" s="3"/>
       <c r="K138" s="27"/>
       <c r="L138" s="3"/>
       <c r="M138" s="27"/>
+      <c r="P138" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
-      <c r="C139" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D139" s="17">
-        <v>1</v>
-      </c>
-      <c r="E139" t="s">
-        <v>135</v>
-      </c>
-      <c r="H139">
-        <v>1</v>
-      </c>
+      <c r="C139" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D139" s="13">
+        <v>3</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G139" s="3">
+        <v>1</v>
+      </c>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="27"/>
+      <c r="L139" s="3"/>
+      <c r="M139" s="27"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="B140">
         <v>2</v>
       </c>
-      <c r="C140" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D140" s="17">
-        <v>4</v>
+      <c r="C140" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140" s="13">
+        <v>0</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F140" s="3">
-        <v>1</v>
+        <v>408</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
@@ -5658,140 +5677,127 @@
       <c r="J140" s="3"/>
       <c r="K140" s="27"/>
       <c r="L140" s="3"/>
-      <c r="M140" s="27">
-        <v>1</v>
-      </c>
-      <c r="O140" t="s">
-        <v>415</v>
-      </c>
+      <c r="M140" s="27"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
-      <c r="C141" s="11" t="s">
-        <v>202</v>
+      <c r="C141" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D141" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>408</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
-      <c r="I141" s="3">
-        <v>1</v>
-      </c>
+      <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="27"/>
       <c r="L141" s="3"/>
       <c r="M141" s="27"/>
-      <c r="P141" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
-      <c r="C142" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D142" s="13">
-        <v>2</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
-      <c r="K142" s="27"/>
-      <c r="L142" s="3">
-        <v>1</v>
-      </c>
-      <c r="M142" s="27"/>
+      <c r="C142" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" s="17">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>135</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>1</v>
+      <c r="C143" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D143" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G143" s="3">
-        <v>1</v>
-      </c>
+      <c r="G143" s="3"/>
       <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
+      <c r="I143" s="3">
+        <v>1</v>
+      </c>
       <c r="J143" s="3"/>
       <c r="K143" s="27"/>
       <c r="L143" s="3"/>
       <c r="M143" s="27"/>
+      <c r="P143" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>1</v>
+      <c r="C144" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D144" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G144" s="3">
-        <v>1</v>
-      </c>
+      <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="27"/>
-      <c r="L144" s="3"/>
+      <c r="L144" s="3">
+        <v>1</v>
+      </c>
       <c r="M144" s="27"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
-      <c r="C145" s="11" t="s">
-        <v>202</v>
+      <c r="C145" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D145" s="13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3">
-        <v>1</v>
-      </c>
+      <c r="G145" s="3">
+        <v>1</v>
+      </c>
+      <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="27"/>
@@ -5800,13 +5806,13 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B146">
-        <v>2</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D146" s="13">
         <v>0</v>
@@ -5826,24 +5832,24 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
-      <c r="C147" s="7" t="s">
-        <v>63</v>
+      <c r="C147" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D147" s="13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G147" s="3">
-        <v>1</v>
-      </c>
-      <c r="H147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3">
+        <v>1</v>
+      </c>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="27"/>
@@ -5852,116 +5858,116 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="B148">
-        <v>1</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>88</v>
+        <v>2</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D148" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F148">
-        <v>1</v>
-      </c>
-      <c r="G148" s="3"/>
+      <c r="G148" s="3">
+        <v>1</v>
+      </c>
       <c r="H148" s="3"/>
-      <c r="I148" s="3">
-        <v>1</v>
-      </c>
+      <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="27">
-        <v>1</v>
-      </c>
+      <c r="K148" s="27"/>
       <c r="L148" s="3"/>
       <c r="M148" s="27"/>
-      <c r="Q148" t="s">
-        <v>269</v>
-      </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="B149">
-        <v>2</v>
-      </c>
-      <c r="C149" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D149" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E149" t="s">
-        <v>153</v>
-      </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-      <c r="P149" t="s">
-        <v>214</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" s="13">
+        <v>1</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G149" s="3">
+        <v>1</v>
+      </c>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="27"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="27"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
-      <c r="C150" s="7" t="s">
-        <v>63</v>
+      <c r="C150" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D150" s="13">
         <v>2</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>408</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
+      <c r="I150" s="3">
+        <v>1</v>
+      </c>
       <c r="J150" s="3"/>
       <c r="K150" s="27">
         <v>1</v>
       </c>
       <c r="L150" s="3"/>
       <c r="M150" s="27"/>
+      <c r="Q150" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>19</v>
+        <v>407</v>
       </c>
       <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D151" s="13">
-        <v>1</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
-      <c r="K151" s="27"/>
-      <c r="L151" s="3">
-        <v>1</v>
-      </c>
-      <c r="M151" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D151" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>153</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="P151" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -5970,36 +5976,33 @@
         <v>63</v>
       </c>
       <c r="D152" s="13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>408</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
-      <c r="I152" s="3">
-        <v>1</v>
-      </c>
+      <c r="I152" s="3"/>
       <c r="J152" s="3"/>
-      <c r="K152" s="27"/>
+      <c r="K152" s="27">
+        <v>1</v>
+      </c>
       <c r="L152" s="3"/>
       <c r="M152" s="27"/>
-      <c r="P152" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
-      <c r="C153" s="8" t="s">
-        <v>88</v>
+      <c r="C153" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D153" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>408</v>
@@ -6016,175 +6019,175 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="B154">
-        <v>2</v>
-      </c>
-      <c r="C154" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D154" s="17">
+      <c r="D154" s="13">
         <v>-1</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>107</v>
+        <v>408</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
+      <c r="I154" s="3">
+        <v>1</v>
+      </c>
       <c r="J154" s="3"/>
       <c r="K154" s="27"/>
       <c r="L154" s="3"/>
-      <c r="M154" s="27">
-        <v>1</v>
-      </c>
-      <c r="O154" t="s">
-        <v>419</v>
+      <c r="M154" s="27"/>
+      <c r="P154" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="B155">
-        <v>6</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D155" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>408</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
-      <c r="I155" s="3">
-        <v>1</v>
-      </c>
+      <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="27"/>
-      <c r="L155" s="3"/>
+      <c r="L155" s="3">
+        <v>1</v>
+      </c>
       <c r="M155" s="27"/>
-      <c r="P155" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D156" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G156" s="3">
-        <v>1</v>
-      </c>
+      <c r="G156" s="3"/>
       <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
+      <c r="I156" s="3">
+        <v>1</v>
+      </c>
       <c r="J156" s="3"/>
       <c r="K156" s="27"/>
       <c r="L156" s="3"/>
       <c r="M156" s="27"/>
+      <c r="P156" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>24</v>
+      <c r="C157" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D157" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-      <c r="G157" s="3"/>
+      <c r="G157" s="3">
+        <v>1</v>
+      </c>
       <c r="H157" s="3"/>
-      <c r="I157" s="3">
-        <v>1</v>
-      </c>
+      <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="27"/>
       <c r="L157" s="3"/>
       <c r="M157" s="27"/>
-      <c r="P157" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
-      <c r="C158" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D158" s="17">
-        <v>2</v>
-      </c>
-      <c r="E158" t="s">
-        <v>153</v>
-      </c>
-      <c r="L158">
-        <v>1</v>
+      <c r="C158" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158" s="13">
+        <v>3</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3">
+        <v>1</v>
+      </c>
+      <c r="J158" s="3"/>
+      <c r="K158" s="27"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="27"/>
+      <c r="P158" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="B159">
-        <v>2</v>
-      </c>
-      <c r="C159" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D159" s="13">
-        <v>1</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G159" s="3">
-        <v>1</v>
-      </c>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
-      <c r="K159" s="27"/>
-      <c r="L159" s="3"/>
-      <c r="M159" s="27"/>
+      <c r="D159" s="17">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s">
+        <v>153</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B160">
         <v>2</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>1</v>
+      <c r="C160" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D160" s="13">
         <v>1</v>
@@ -6204,13 +6207,13 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="B161">
         <v>2</v>
       </c>
-      <c r="C161" s="8" t="s">
-        <v>88</v>
+      <c r="C161" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D161" s="13">
         <v>1</v>
@@ -6230,60 +6233,62 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="B162">
-        <v>1</v>
-      </c>
-      <c r="C162" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D162" s="17">
-        <v>3</v>
-      </c>
-      <c r="E162" t="s">
-        <v>153</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D162" s="13">
+        <v>1</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G162" s="3">
+        <v>1</v>
+      </c>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="27"/>
+      <c r="L162" s="3"/>
+      <c r="M162" s="27"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
-      <c r="C163" s="20" t="s">
-        <v>24</v>
+      <c r="C163" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D163" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E163" t="s">
         <v>153</v>
       </c>
-      <c r="G163" s="3">
-        <v>1</v>
-      </c>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="27"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
-      <c r="C164" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D164" s="13">
-        <v>0</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>408</v>
+      <c r="C164" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" s="17">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>153</v>
       </c>
       <c r="G164" s="3">
         <v>1</v>
@@ -6292,118 +6297,113 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="27"/>
-      <c r="L164" s="3"/>
-      <c r="M164" s="27"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
-      <c r="C165" s="4" t="s">
-        <v>1</v>
+      <c r="C165" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D165" s="13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F165" s="3">
-        <v>1</v>
-      </c>
-      <c r="G165" s="3"/>
+      <c r="G165" s="3">
+        <v>1</v>
+      </c>
       <c r="H165" s="3"/>
-      <c r="I165" s="3">
-        <v>1</v>
-      </c>
+      <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="27"/>
       <c r="L165" s="3"/>
       <c r="M165" s="27"/>
-      <c r="P165" s="23" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
-      <c r="C166" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D166" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E166" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
-      <c r="P166" t="s">
-        <v>239</v>
+      <c r="C166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" s="13">
+        <v>17</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F166" s="3">
+        <v>1</v>
+      </c>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3">
+        <v>1</v>
+      </c>
+      <c r="J166" s="3"/>
+      <c r="K166" s="27"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="27"/>
+      <c r="P166" s="23" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D167" s="13">
-        <v>1</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G167" s="3">
-        <v>1</v>
-      </c>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
-      <c r="K167" s="27"/>
-      <c r="L167" s="3"/>
-      <c r="M167" s="27"/>
+      <c r="C167" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D167" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E167" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="P167" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="B168">
-        <v>2</v>
-      </c>
-      <c r="C168" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D168" s="13">
         <v>1</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G168" s="3"/>
+        <v>408</v>
+      </c>
+      <c r="G168" s="3">
+        <v>1</v>
+      </c>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="27"/>
       <c r="L168" s="3"/>
-      <c r="M168" s="27">
-        <v>1</v>
-      </c>
-      <c r="O168" t="s">
-        <v>421</v>
-      </c>
+      <c r="M168" s="27"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">

--- a/DoomPy/files/cards.xlsx
+++ b/DoomPy/files/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/DoomPy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9B3C93-807F-1349-A8BF-1C10FCDE2946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA6A151-CBFF-BF40-A524-F48E0C35797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21640" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
+    <workbookView xWindow="7600" yWindow="500" windowWidth="36000" windowHeight="21640" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
   <sheets>
     <sheet name="traits" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="428">
   <si>
     <t>Echolocation</t>
   </si>
@@ -378,9 +378,6 @@
     <t>Nano</t>
   </si>
   <si>
-    <t>Transgenic Modification</t>
-  </si>
-  <si>
     <t>Ruggedized</t>
   </si>
   <si>
@@ -675,9 +672,6 @@
     <t>Purple_Blue</t>
   </si>
   <si>
-    <t>Bone Reinforcement (5)</t>
-  </si>
-  <si>
     <t>Automimicry (-1)</t>
   </si>
   <si>
@@ -735,9 +729,6 @@
     <t>Saudade (1)</t>
   </si>
   <si>
-    <t>Bone Reinforcement (1)</t>
-  </si>
-  <si>
     <t>Camouflage (2)</t>
   </si>
   <si>
@@ -1284,27 +1275,6 @@
     <t>effect_worlds_end</t>
   </si>
   <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>self_non_blue host_is_blue</t>
-  </si>
-  <si>
-    <t>self_negative_face</t>
-  </si>
-  <si>
-    <t>self_only_effectless</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>any host_inactive</t>
-  </si>
-  <si>
-    <t>self_non_green host_is_green</t>
-  </si>
-  <si>
     <t>self_change_one_color</t>
   </si>
   <si>
@@ -1312,6 +1282,45 @@
   </si>
   <si>
     <t>face</t>
+  </si>
+  <si>
+    <t>Bone Reinf. (1)</t>
+  </si>
+  <si>
+    <t>Bone Reinf. (5)</t>
+  </si>
+  <si>
+    <t>Transg. Modific.</t>
+  </si>
+  <si>
+    <t>any none</t>
+  </si>
+  <si>
+    <t>effectless none</t>
+  </si>
+  <si>
+    <t>color none</t>
+  </si>
+  <si>
+    <t>negative_face none</t>
+  </si>
+  <si>
+    <t>any NoDiscard</t>
+  </si>
+  <si>
+    <t>any NoRemove</t>
+  </si>
+  <si>
+    <t>any NoSwap_NoSteal</t>
+  </si>
+  <si>
+    <t>non_blue IsBlue</t>
+  </si>
+  <si>
+    <t>non_green IsGreen</t>
+  </si>
+  <si>
+    <t>any Inactive</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1470,9 +1479,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1501,24 +1507,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1635,6 +1623,24 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
   </dxfs>
@@ -1661,7 +1667,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}" name="Tabelle2" displayName="Tabelle2" ref="A1:Q178" totalsRowShown="0">
   <autoFilter ref="A1:Q178" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q178">
-    <sortCondition ref="M1:M178"/>
+    <sortCondition ref="A1:A178"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{8166F61C-4699-3D4C-9D61-28AD00136FEA}" name="name"/>
@@ -1671,12 +1677,12 @@
     <tableColumn id="6" xr3:uid="{FF792F6D-B33B-2C40-95CF-D0BE8D4CD076}" name="game" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{53A2A058-82DA-9540-A9DD-565700A09F6B}" name="dominant"/>
     <tableColumn id="7" xr3:uid="{3FFB57AE-FF0E-9644-8F53-12784AF069C0}" name="action" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{A26550B3-7686-9147-A17E-A2143ABAFB1A}" name="play_when" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{7DAFF981-8046-974A-8FAC-73FD3B185F2C}" name="drop" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{56C331E6-086C-B74A-B509-520DFB7181F6}" name="gene_pool" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{76418466-3B9D-6048-80E3-690DEC50E74E}" name="worlds_end" dataDxfId="0"/>
+    <tableColumn id="20" xr3:uid="{A26550B3-7686-9147-A17E-A2143ABAFB1A}" name="play_when" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{7DAFF981-8046-974A-8FAC-73FD3B185F2C}" name="drop" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{56C331E6-086C-B74A-B509-520DFB7181F6}" name="gene_pool" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{76418466-3B9D-6048-80E3-690DEC50E74E}" name="worlds_end" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{5FC9496A-D300-0447-A155-EF65E2E0A70D}" name="effectless" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{4FE6ABC4-B4EE-1242-BA77-A00BB170BB1F}" name="attachment" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{4FE6ABC4-B4EE-1242-BA77-A00BB170BB1F}" name="attachment" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{158FD56B-9FED-6144-BC1B-BC4F62C6C809}" name="effect_gene_pool"/>
     <tableColumn id="13" xr3:uid="{0E4D733B-AB86-5546-A677-552DF9EA7E44}" name="effect_attachment"/>
     <tableColumn id="14" xr3:uid="{DACAC41D-17E5-1D4B-80BB-50B9E1EE313B}" name="effect_drop"/>
@@ -1987,12 +1993,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="17" bestFit="1" customWidth="1"/>
@@ -2002,9 +2008,9 @@
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="46.1640625" bestFit="1" customWidth="1"/>
@@ -2013,908 +2019,837 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>196</v>
-      </c>
       <c r="D1" s="15" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" t="s">
+        <v>407</v>
+      </c>
+      <c r="O1" t="s">
+        <v>409</v>
+      </c>
+      <c r="P1" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q1" t="s">
         <v>411</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="N1" t="s">
-        <v>410</v>
-      </c>
-      <c r="O1" t="s">
-        <v>412</v>
-      </c>
-      <c r="P1" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="17">
-        <v>4</v>
+      <c r="C2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="27">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>415</v>
-      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>212</v>
+      <c r="A3" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="17">
-        <v>5</v>
+      <c r="C3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="13">
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>107</v>
+        <v>405</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="27">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>417</v>
-      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D4" s="17">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>107</v>
-      </c>
-      <c r="M4" s="28">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>416</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="P4" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="27">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>419</v>
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>202</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D6" s="13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>107</v>
+        <v>405</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="27">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>415</v>
-      </c>
-      <c r="P6" t="s">
-        <v>250</v>
-      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D7" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>107</v>
+        <v>405</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="27"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="27">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
-        <v>420</v>
+      <c r="M7" s="3"/>
+      <c r="P7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="13">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="27"/>
-      <c r="M8" s="28">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>418</v>
-      </c>
-      <c r="P8" t="s">
-        <v>252</v>
-      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D9" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="27"/>
-      <c r="M9" s="28">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>419</v>
-      </c>
-      <c r="P9" t="s">
-        <v>237</v>
+        <v>405</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>202</v>
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D10" s="17">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="27">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>415</v>
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>405</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="17">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="27"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="27">
-        <v>1</v>
-      </c>
-      <c r="O11" t="s">
-        <v>419</v>
-      </c>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>107</v>
+        <v>405</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="27">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
-        <v>421</v>
-      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>88</v>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="13">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="27"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="23" t="s">
-        <v>244</v>
-      </c>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="16" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="27"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="27"/>
-      <c r="N14" t="s">
-        <v>246</v>
-      </c>
-      <c r="P14" t="s">
-        <v>255</v>
-      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="13">
-        <v>2</v>
+      <c r="C15" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="27"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="27"/>
-      <c r="N15" t="s">
-        <v>246</v>
-      </c>
-      <c r="P15" t="s">
-        <v>255</v>
-      </c>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="13">
-        <v>1</v>
+      <c r="C16" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="17">
+        <v>-2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>408</v>
+        <v>107</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="K16" s="27"/>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="27"/>
-      <c r="N16" t="s">
-        <v>246</v>
+      <c r="M16" s="3"/>
+      <c r="P16" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>24</v>
+      <c r="C17" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>408</v>
+      <c r="E17" s="25" t="s">
+        <v>222</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="27"/>
-      <c r="N17" t="s">
-        <v>246</v>
-      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D18" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>248</v>
+        <v>405</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>415</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>24</v>
+      <c r="C19" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="D19" s="17">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>247</v>
+        <v>4</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>416</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D20" s="13">
-        <v>2</v>
+      <c r="C20" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="17">
+        <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>408</v>
+        <v>107</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="27"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="27"/>
-      <c r="N20" t="s">
-        <v>246</v>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G21" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="27"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="27"/>
-      <c r="N21" t="s">
-        <v>246</v>
-      </c>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="27"/>
-      <c r="N22" t="s">
-        <v>246</v>
+        <v>2</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="17">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>63</v>
+      <c r="C23" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D23" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="27"/>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="23" t="s">
-        <v>245</v>
+      <c r="M23" s="3"/>
+      <c r="P23" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>63</v>
+      <c r="C24" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D24" s="13">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G24" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
-      <c r="K24" s="27"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="27"/>
-      <c r="N24" t="s">
-        <v>246</v>
-      </c>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>88</v>
+      <c r="C25" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D25" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3">
-        <v>1</v>
-      </c>
-      <c r="K25" s="27"/>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="27"/>
-      <c r="N25" t="s">
-        <v>247</v>
+      <c r="M25" s="3"/>
+      <c r="P25" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>206</v>
+      <c r="C26" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D26" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>224</v>
+        <v>405</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
-      <c r="M26" s="27"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="P26" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>66</v>
+      <c r="A27" t="s">
+        <v>239</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>63</v>
+      <c r="C27" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D27" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G27" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="M27" s="27"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="17">
-        <v>0</v>
+      <c r="C28" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="13">
+        <v>4</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="27"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="27"/>
-      <c r="P28" t="s">
-        <v>264</v>
+      <c r="M28" s="3"/>
+      <c r="N28" s="23" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="17">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>88</v>
+      <c r="C30" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D30" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
-      <c r="M30" s="27"/>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" t="s">
+        <v>243</v>
+      </c>
+      <c r="P30" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>88</v>
+      <c r="C31" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D31" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2924,63 +2859,62 @@
       <c r="I31" s="3">
         <v>1</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="27"/>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="27"/>
+      <c r="M31" s="3"/>
+      <c r="N31" t="s">
+        <v>243</v>
+      </c>
       <c r="P31" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="13">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="3">
-        <v>1</v>
-      </c>
-      <c r="M32" s="27"/>
+      <c r="C32" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="17">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>1</v>
+      <c r="C33" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="D33" s="17">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>408</v>
-      </c>
-      <c r="H33">
+        <v>152</v>
+      </c>
+      <c r="L33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2988,31 +2922,37 @@
       <c r="C34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="13">
         <v>0</v>
       </c>
-      <c r="E34" t="s">
-        <v>408</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
+      <c r="E34" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>88</v>
+      <c r="C35" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D35" s="13">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
@@ -3020,363 +2960,338 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="27"/>
+      <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="27"/>
+      <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>24</v>
+      <c r="C36" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D36" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G36" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="3">
-        <v>1</v>
-      </c>
-      <c r="M36" s="27"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>24</v>
+      <c r="C37" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D37" s="13">
-        <v>2</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
+        <v>-2</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="27"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
+      <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>63</v>
+      <c r="C38" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D38" s="13">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G38" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="3">
-        <v>1</v>
-      </c>
-      <c r="M38" s="27"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D39" s="17">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>152</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="17">
-        <v>-2</v>
+      <c r="C40" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" s="13">
+        <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3">
-        <v>1</v>
-      </c>
+      <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="27"/>
-      <c r="P40" t="s">
-        <v>423</v>
-      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" s="13">
-        <v>1</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="3">
-        <v>1</v>
-      </c>
-      <c r="M41" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="17">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>107</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="17">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>408</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
+      <c r="C42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="13">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D43" s="13">
-        <v>2</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="27"/>
+      <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-      <c r="M43" s="27"/>
+      <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="17">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>153</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="13">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D45" s="13">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3">
-        <v>1</v>
-      </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="27"/>
-      <c r="P45" t="s">
-        <v>266</v>
+      <c r="C45" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="17">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D46" s="13">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="27"/>
+      <c r="C46" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D46" s="17">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>134</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="13">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3">
-        <v>1</v>
-      </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="27"/>
-      <c r="P47" t="s">
-        <v>226</v>
+      <c r="C47" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>134</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>241</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>88</v>
+      <c r="C48" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D48" s="13">
         <v>1</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G48" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
       <c r="H48" s="3"/>
-      <c r="I48" s="3">
-        <v>1</v>
-      </c>
+      <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="27"/>
+      <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-      <c r="M48" s="27"/>
-      <c r="P48" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>242</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>88</v>
+      <c r="C49" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D49" s="13">
         <v>2</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -3384,195 +3299,197 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="27"/>
+      <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-      <c r="M49" s="27"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D50" s="13">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="C50" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="17">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
       <c r="J50" s="3"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="3">
-        <v>1</v>
-      </c>
-      <c r="M50" s="27"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K50" s="3"/>
+      <c r="P50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="17">
-        <v>9</v>
-      </c>
-      <c r="E51" t="s">
-        <v>153</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="13">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3">
+        <v>1</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" s="20" t="s">
-        <v>24</v>
+      <c r="C52" s="21" t="s">
+        <v>1</v>
       </c>
       <c r="D52" s="17">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="13">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3">
-        <v>1</v>
-      </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="27"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C53" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" s="17">
+        <v>-3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3">
+        <v>1</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="P54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="13">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="27"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="13">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="27"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D55" s="17">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D56" s="13">
-        <v>-2</v>
+      <c r="C56" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="17">
+        <v>1</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>408</v>
+        <v>107</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="3">
-        <v>1</v>
-      </c>
-      <c r="M56" s="27"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>240</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="13">
-        <v>-2</v>
+      <c r="C57" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="17">
+        <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>408</v>
+        <v>107</v>
       </c>
       <c r="G57" s="3">
         <v>1</v>
@@ -3580,124 +3497,118 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="27"/>
+      <c r="K57" s="3"/>
       <c r="L57" s="3"/>
-      <c r="M57" s="27"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>202</v>
+        <v>1</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D58" s="17">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="P58" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>209</v>
+      <c r="C59" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D59" s="13">
         <v>1</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>224</v>
+        <v>405</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="3">
-        <v>1</v>
-      </c>
-      <c r="M59" s="27"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K59" s="3">
+        <v>1</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="13">
-        <v>2</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="3">
-        <v>1</v>
-      </c>
-      <c r="M60" s="27"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D60" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>134</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="P60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>202</v>
+      <c r="C61" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D61" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="27"/>
+      <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-      <c r="M61" s="27"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D62" s="13">
         <v>4</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -3706,202 +3617,241 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="27"/>
+      <c r="K62" s="3">
+        <v>1</v>
+      </c>
       <c r="L62" s="3"/>
-      <c r="M62" s="27"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+      <c r="Q62" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D63" s="17">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s">
-        <v>153</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C63" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="13">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3">
+        <v>1</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D64" s="17">
-        <v>4</v>
-      </c>
-      <c r="E64" t="s">
-        <v>135</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
+      <c r="C64" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="13">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3">
+        <v>1</v>
+      </c>
+      <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>135</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
+      <c r="C65" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="13">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3">
+        <v>1</v>
+      </c>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" s="13">
-        <v>1</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="17">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>134</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" s="11" t="s">
-        <v>202</v>
+      <c r="C67" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D67" s="13">
         <v>2</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="27"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3">
+        <v>1</v>
+      </c>
+      <c r="M67" s="3"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="17">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>135</v>
-      </c>
-      <c r="I68" s="3">
-        <v>1</v>
-      </c>
+      <c r="D68" s="13">
+        <v>3</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="27"/>
-      <c r="P68" t="s">
-        <v>235</v>
-      </c>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3">
+        <v>1</v>
+      </c>
+      <c r="M68" s="3"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
-      <c r="C69" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="17">
-        <v>4</v>
-      </c>
-      <c r="E69" t="s">
-        <v>408</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
+      <c r="C69" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69" s="13">
+        <v>3</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3">
+        <v>1</v>
+      </c>
+      <c r="M69" s="3"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="C70" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D70" s="17">
-        <v>-3</v>
-      </c>
-      <c r="E70" t="s">
-        <v>135</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
+      <c r="C70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="13">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>1</v>
+      <c r="C71" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D71" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -3909,355 +3859,381 @@
         <v>1</v>
       </c>
       <c r="J71" s="3"/>
-      <c r="K71" s="27"/>
+      <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-      <c r="M71" s="27"/>
+      <c r="M71" s="3"/>
       <c r="P71" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="C72" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D72" s="17">
-        <v>1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>153</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
+      <c r="C72" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="13">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3">
+        <v>1</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="P72" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D73" s="17">
-        <v>1</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
+      <c r="C73" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="13">
+        <v>2</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="27"/>
+      <c r="K73" s="3">
+        <v>1</v>
+      </c>
       <c r="L73" s="3"/>
-      <c r="M73" s="27"/>
+      <c r="M73" s="3"/>
+      <c r="Q73" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
-      <c r="C74" s="22" t="s">
-        <v>1</v>
+      <c r="C74" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="D74" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>153</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
+        <v>152</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D75" s="13">
-        <v>1</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="27">
-        <v>1</v>
-      </c>
-      <c r="L75" s="3"/>
-      <c r="M75" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" s="17">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>134</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="C76" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E76" t="s">
-        <v>135</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="P76" t="s">
-        <v>225</v>
-      </c>
+      <c r="C76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="13">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3">
+        <v>1</v>
+      </c>
+      <c r="M76" s="3"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>88</v>
+        <v>2</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="D77" s="13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>408</v>
+        <v>107</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+      <c r="I77" s="3">
+        <v>1</v>
+      </c>
       <c r="J77" s="3"/>
-      <c r="K77" s="27"/>
+      <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-      <c r="M77" s="27"/>
+      <c r="M77" s="3">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>420</v>
+      </c>
+      <c r="P77" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D78" s="13">
-        <v>4</v>
+        <v>201</v>
+      </c>
+      <c r="D78" s="17">
+        <v>0</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
+      <c r="I78" s="3">
+        <v>1</v>
+      </c>
       <c r="J78" s="3"/>
-      <c r="K78" s="27">
-        <v>1</v>
-      </c>
+      <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="27"/>
-      <c r="Q78" t="s">
-        <v>422</v>
+      <c r="M78" s="3"/>
+      <c r="P78" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D79" s="13">
-        <v>1</v>
+      <c r="C79" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" s="17">
+        <v>-1</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G79" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1</v>
+      </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="3">
-        <v>1</v>
-      </c>
-      <c r="M79" s="27"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>202</v>
+      <c r="C80" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="D80" s="13">
         <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>408</v>
+        <v>222</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="27"/>
+      <c r="K80" s="3"/>
       <c r="L80" s="3">
         <v>1</v>
       </c>
-      <c r="M80" s="27"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M80" s="3"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>63</v>
+      <c r="C81" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D81" s="13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
+      <c r="I81" s="3">
+        <v>1</v>
+      </c>
       <c r="J81" s="3"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="3">
-        <v>1</v>
-      </c>
-      <c r="M81" s="27"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="P81" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>88</v>
+      <c r="C82" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D82" s="13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="3">
-        <v>1</v>
-      </c>
-      <c r="M82" s="27"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-      <c r="C83" s="11" t="s">
-        <v>202</v>
+      <c r="C83" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D83" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G83" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="3">
-        <v>1</v>
-      </c>
-      <c r="M83" s="27"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>1</v>
+      <c r="C84" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D84" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G84" s="3">
-        <v>1</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="27"/>
+      <c r="K84" s="3">
+        <v>1</v>
+      </c>
       <c r="L84" s="3"/>
-      <c r="M84" s="27"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D85" s="13">
+      <c r="C85" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" s="17">
         <v>0</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>408</v>
+        <v>107</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -4265,161 +4241,154 @@
         <v>1</v>
       </c>
       <c r="J85" s="3"/>
-      <c r="K85" s="27"/>
+      <c r="K85" s="3"/>
       <c r="L85" s="3"/>
-      <c r="M85" s="27"/>
+      <c r="M85" s="3"/>
       <c r="P85" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86" s="13">
-        <v>1</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3">
-        <v>1</v>
-      </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="27"/>
-      <c r="P86" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C86" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="17">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>134</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D87" s="13">
-        <v>2</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
+      <c r="C87" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="17">
+        <v>4</v>
+      </c>
+      <c r="E87" t="s">
+        <v>405</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="I87" s="3">
+        <v>1</v>
+      </c>
       <c r="J87" s="3"/>
-      <c r="K87" s="27">
-        <v>1</v>
-      </c>
-      <c r="L87" s="3"/>
-      <c r="M87" s="27"/>
-      <c r="Q87" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K87" s="3"/>
+      <c r="P87" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D88" s="17">
-        <v>2</v>
-      </c>
-      <c r="E88" t="s">
-        <v>135</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" s="13">
+        <v>1</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G88" s="3">
+        <v>1</v>
+      </c>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>1</v>
+      <c r="C89" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D89" s="13">
         <v>1</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G89" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1</v>
+      </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="3">
-        <v>1</v>
-      </c>
-      <c r="M89" s="27"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D90" s="17">
-        <v>0</v>
+      <c r="C90" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" s="13">
+        <v>1</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G90" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G90" s="3">
+        <v>1</v>
+      </c>
       <c r="H90" s="3"/>
-      <c r="I90" s="3">
-        <v>1</v>
-      </c>
+      <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="27"/>
+      <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-      <c r="M90" s="27"/>
-      <c r="P90" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
-      <c r="C91" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D91" s="17">
-        <v>-1</v>
+      <c r="C91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="13">
+        <v>1</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>107</v>
+        <v>405</v>
       </c>
       <c r="G91" s="3">
         <v>1</v>
@@ -4427,227 +4396,229 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="27"/>
+      <c r="K91" s="3"/>
       <c r="L91" s="3"/>
-      <c r="M91" s="27"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>210</v>
+      <c r="C92" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D92" s="13">
-        <v>1</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G92" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="3">
-        <v>1</v>
-      </c>
-      <c r="M92" s="27"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>88</v>
+      <c r="C93" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D93" s="13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-      <c r="I93" s="3">
-        <v>1</v>
-      </c>
-      <c r="J93" s="3"/>
-      <c r="K93" s="27"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3">
+        <v>1</v>
+      </c>
+      <c r="K93" s="3"/>
       <c r="L93" s="3"/>
-      <c r="M93" s="27"/>
-      <c r="P93" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M93" s="3"/>
+      <c r="N93" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D94" s="13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
+      <c r="I94" s="3">
+        <v>1</v>
+      </c>
       <c r="J94" s="3"/>
-      <c r="K94" s="27"/>
+      <c r="K94" s="3"/>
       <c r="L94" s="3"/>
-      <c r="M94" s="27"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+      <c r="P94" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95" s="8" t="s">
-        <v>88</v>
+      <c r="C95" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D95" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G95" s="3">
-        <v>1</v>
-      </c>
-      <c r="H95" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3">
+        <v>1</v>
+      </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="27"/>
+      <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-      <c r="M95" s="27"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
-      <c r="C96" s="8" t="s">
-        <v>88</v>
+      <c r="C96" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D96" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="27">
-        <v>1</v>
-      </c>
-      <c r="L96" s="3"/>
-      <c r="M96" s="27"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3">
+        <v>1</v>
+      </c>
+      <c r="M96" s="3"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97" s="16" t="s">
-        <v>63</v>
+      <c r="C97" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D97" s="17">
-        <v>0</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3">
-        <v>1</v>
-      </c>
-      <c r="J97" s="3"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="27"/>
-      <c r="P97" t="s">
-        <v>217</v>
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>134</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" s="17">
-        <v>3</v>
-      </c>
-      <c r="E98" t="s">
-        <v>135</v>
-      </c>
-      <c r="L98">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="13">
+        <v>1</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>408</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="I99" s="3">
         <v>1</v>
       </c>
       <c r="J99" s="3"/>
-      <c r="K99" s="27"/>
+      <c r="K99" s="3"/>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>419</v>
+      </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4656,10 +4627,10 @@
         <v>63</v>
       </c>
       <c r="D100" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -4667,409 +4638,424 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="27"/>
+      <c r="K100" s="3"/>
       <c r="L100" s="3"/>
-      <c r="M100" s="27"/>
+      <c r="M100" s="3"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D101" s="13">
-        <v>1</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1</v>
-      </c>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="27"/>
+      <c r="C101" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" s="17">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>134</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>63</v>
+      <c r="C102" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D102" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G102" s="3">
-        <v>1</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="27"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3">
+        <v>1</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" s="13">
-        <v>1</v>
+      <c r="C103" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D103" s="17">
+        <v>0</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G103" s="3">
-        <v>1</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="G103" s="3"/>
       <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
+      <c r="I103" s="3">
+        <v>1</v>
+      </c>
       <c r="J103" s="3"/>
-      <c r="K103" s="27"/>
+      <c r="K103" s="3"/>
       <c r="L103" s="3"/>
-      <c r="M103" s="27"/>
+      <c r="M103" s="3"/>
+      <c r="P103" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>63</v>
+      <c r="C104" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D104" s="13">
-        <v>2</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="G104" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="27"/>
+      <c r="J104" s="3">
+        <v>1</v>
+      </c>
+      <c r="K104" s="3"/>
       <c r="L104" s="3"/>
-      <c r="M104" s="27"/>
+      <c r="M104" s="3"/>
+      <c r="N104" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B105">
-        <v>7</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>88</v>
+        <v>1</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="D105" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>408</v>
+        <v>222</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
-      <c r="I105" s="3">
-        <v>1</v>
-      </c>
+      <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="27"/>
-      <c r="P105" t="s">
-        <v>267</v>
-      </c>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3">
+        <v>1</v>
+      </c>
+      <c r="M105" s="3"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D106" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G106" s="3"/>
-      <c r="H106" s="3">
-        <v>1</v>
-      </c>
+      <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="27"/>
+      <c r="K106" s="3"/>
       <c r="L106" s="3"/>
-      <c r="M106" s="27"/>
+      <c r="M106" s="3"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D107" s="13">
-        <v>1</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
+      <c r="D107" s="17">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>107</v>
+      </c>
+      <c r="I107" s="3">
+        <v>1</v>
+      </c>
       <c r="J107" s="3"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="3">
-        <v>1</v>
-      </c>
-      <c r="M107" s="27"/>
+      <c r="K107" s="3"/>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>418</v>
+      </c>
+      <c r="P107" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108" s="22" t="s">
-        <v>1</v>
+      <c r="C108" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="D108" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>135</v>
-      </c>
-      <c r="F108">
+        <v>134</v>
+      </c>
+      <c r="H108">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
-      <c r="C109" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D109" s="13">
-        <v>2</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G109" s="3">
-        <v>1</v>
-      </c>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="27"/>
+      <c r="C109" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="17">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>107</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
-      <c r="C110" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D110" s="17">
-        <v>2</v>
-      </c>
-      <c r="E110" t="s">
-        <v>135</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
+      <c r="C110" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" s="13">
+        <v>3</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3">
+        <v>1</v>
+      </c>
+      <c r="M110" s="3"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>1</v>
+      <c r="C111" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D111" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G111" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="3">
-        <v>1</v>
-      </c>
-      <c r="M111" s="27"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D112" s="17">
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="D112" s="13">
+        <v>4</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
-      <c r="I112" s="3">
-        <v>1</v>
-      </c>
+      <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="27"/>
+      <c r="K112" s="3"/>
       <c r="L112" s="3"/>
-      <c r="M112" s="27"/>
-      <c r="P112" t="s">
-        <v>251</v>
-      </c>
+      <c r="M112" s="3"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B113">
-        <v>1</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D113" s="13">
-        <v>1</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="3">
-        <v>1</v>
-      </c>
-      <c r="M113" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="17">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>134</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114" s="11" t="s">
-        <v>202</v>
+      <c r="C114" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D114" s="13">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
+      <c r="I114" s="3">
+        <v>1</v>
+      </c>
       <c r="J114" s="3"/>
-      <c r="K114" s="27"/>
+      <c r="K114" s="3"/>
       <c r="L114" s="3"/>
-      <c r="M114" s="27"/>
+      <c r="M114" s="3"/>
+      <c r="P114" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D115" s="17">
-        <v>1</v>
-      </c>
-      <c r="E115" t="s">
-        <v>135</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" s="13">
+        <v>3</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3">
+        <v>1</v>
+      </c>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="P115" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
-      <c r="C116" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" s="17">
-        <v>2</v>
-      </c>
-      <c r="E116" t="s">
-        <v>107</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
+      <c r="C116" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="13">
+        <v>1</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -5078,24 +5064,24 @@
         <v>63</v>
       </c>
       <c r="D117" s="13">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
+      <c r="H117" s="3">
+        <v>1</v>
+      </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="3">
-        <v>1</v>
-      </c>
-      <c r="M117" s="27"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -5107,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G118" s="3">
         <v>1</v>
@@ -5115,104 +5101,103 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
-      <c r="K118" s="27"/>
+      <c r="K118" s="3"/>
       <c r="L118" s="3"/>
-      <c r="M118" s="27"/>
+      <c r="M118" s="3"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
-      <c r="C119" s="11" t="s">
-        <v>202</v>
+      <c r="C119" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D119" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G119" s="3">
+        <v>1</v>
+      </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
-      <c r="K119" s="27"/>
+      <c r="K119" s="3"/>
       <c r="L119" s="3"/>
-      <c r="M119" s="27"/>
+      <c r="M119" s="3"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B120">
-        <v>2</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="D120" s="17">
         <v>2</v>
       </c>
-      <c r="E120" t="s">
-        <v>135</v>
-      </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
+      <c r="E120" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G120" s="3">
+        <v>1</v>
+      </c>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>24</v>
+      <c r="C121" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D121" s="13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G121" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G121" s="3">
+        <v>1</v>
+      </c>
       <c r="H121" s="3"/>
-      <c r="I121" s="3">
-        <v>1</v>
-      </c>
+      <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="27"/>
+      <c r="K121" s="3"/>
       <c r="L121" s="3"/>
-      <c r="M121" s="27"/>
-      <c r="P121" t="s">
-        <v>253</v>
-      </c>
+      <c r="M121" s="3"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B122">
-        <v>2</v>
-      </c>
-      <c r="C122" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D122" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -5220,80 +5205,80 @@
         <v>1</v>
       </c>
       <c r="J122" s="3"/>
-      <c r="K122" s="27"/>
+      <c r="K122" s="3"/>
       <c r="L122" s="3"/>
-      <c r="M122" s="27"/>
+      <c r="M122" s="3"/>
       <c r="P122" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>1</v>
+      <c r="C123" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D123" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G123" s="3">
-        <v>1</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="27"/>
+      <c r="K123" s="3">
+        <v>1</v>
+      </c>
       <c r="L123" s="3"/>
-      <c r="M123" s="27"/>
+      <c r="M123" s="3"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>63</v>
+      <c r="C124" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D124" s="13">
-        <v>-2</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="G124" s="3">
+        <v>1</v>
+      </c>
+      <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="27"/>
+      <c r="K124" s="3"/>
       <c r="L124" s="3"/>
-      <c r="M124" s="27"/>
+      <c r="M124" s="3"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
-      <c r="C125" s="7" t="s">
-        <v>63</v>
+      <c r="C125" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D125" s="13">
         <v>1</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
@@ -5301,77 +5286,65 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="27"/>
+      <c r="K125" s="3"/>
       <c r="L125" s="3"/>
-      <c r="M125" s="27"/>
+      <c r="M125" s="3"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D126" s="13">
-        <v>1</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G126" s="3">
-        <v>1</v>
-      </c>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="27"/>
-      <c r="L126" s="3"/>
-      <c r="M126" s="27"/>
+      <c r="C126" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" s="17">
+        <v>-2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>152</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>88</v>
+        <v>2</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D127" s="17">
-        <v>2</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G127" s="3">
-        <v>1</v>
-      </c>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="27"/>
-      <c r="L127" s="3"/>
-      <c r="M127" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>152</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D128" s="13">
-        <v>2</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>408</v>
+      <c r="C128" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D128" s="17">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>152</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
@@ -5379,106 +5352,98 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="27"/>
-      <c r="L128" s="3"/>
-      <c r="M128" s="27"/>
+      <c r="K128" s="3"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>24</v>
+      <c r="C129" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D129" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
-      <c r="I129" s="3">
-        <v>1</v>
-      </c>
+      <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="27"/>
-      <c r="L129" s="3"/>
-      <c r="M129" s="27"/>
-      <c r="P129" t="s">
-        <v>259</v>
-      </c>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3">
+        <v>1</v>
+      </c>
+      <c r="M129" s="3"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D130" s="13">
-        <v>2</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="27">
-        <v>1</v>
-      </c>
-      <c r="L130" s="3"/>
-      <c r="M130" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D130" s="17">
+        <v>2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>134</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>88</v>
+      <c r="C131" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D131" s="13">
-        <v>2</v>
-      </c>
-      <c r="E131" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="G131" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G131" s="3"/>
       <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
+      <c r="I131" s="3">
+        <v>1</v>
+      </c>
       <c r="J131" s="3"/>
-      <c r="K131" s="27"/>
+      <c r="K131" s="3"/>
       <c r="L131" s="3"/>
-      <c r="M131" s="27"/>
+      <c r="M131" s="3"/>
+      <c r="P131" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
-      <c r="C132" s="6" t="s">
-        <v>24</v>
+      <c r="C132" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D132" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G132" s="3">
         <v>1</v>
@@ -5486,135 +5451,154 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="27"/>
+      <c r="K132" s="3"/>
       <c r="L132" s="3"/>
-      <c r="M132" s="27"/>
+      <c r="M132" s="3"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D133" s="17">
-        <v>-2</v>
-      </c>
-      <c r="E133" t="s">
-        <v>153</v>
-      </c>
-      <c r="G133">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="13">
+        <v>0</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="B134">
-        <v>2</v>
-      </c>
-      <c r="C134" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134" s="17">
-        <v>1</v>
-      </c>
-      <c r="E134" t="s">
-        <v>153</v>
-      </c>
-      <c r="G134">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D134" s="13">
+        <v>5</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
-      <c r="C135" s="19" t="s">
-        <v>202</v>
+      <c r="C135" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D135" s="17">
         <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>153</v>
-      </c>
-      <c r="G135" s="3">
-        <v>1</v>
-      </c>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="27"/>
+        <v>134</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B136">
-        <v>1</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D136" s="13">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D136" s="17">
+        <v>4</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>408</v>
+        <v>107</v>
+      </c>
+      <c r="F136" s="3">
+        <v>1</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
-      <c r="K136" s="27"/>
-      <c r="L136" s="3">
-        <v>1</v>
-      </c>
-      <c r="M136" s="27"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="B137">
-        <v>2</v>
-      </c>
-      <c r="C137" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D137" s="17">
-        <v>2</v>
-      </c>
-      <c r="E137" t="s">
-        <v>135</v>
-      </c>
-      <c r="H137">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" s="13">
+        <v>1</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3">
+        <v>1</v>
+      </c>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>24</v>
+      <c r="C138" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D138" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
@@ -5622,269 +5606,281 @@
         <v>1</v>
       </c>
       <c r="J138" s="3"/>
-      <c r="K138" s="27"/>
+      <c r="K138" s="3"/>
       <c r="L138" s="3"/>
-      <c r="M138" s="27"/>
+      <c r="M138" s="3"/>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
-      <c r="C139" s="8" t="s">
-        <v>88</v>
+      <c r="C139" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D139" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G139" s="3">
-        <v>1</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
-      <c r="K139" s="27"/>
-      <c r="L139" s="3"/>
-      <c r="M139" s="27"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3">
+        <v>1</v>
+      </c>
+      <c r="M139" s="3"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D140" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G140" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G140" s="3">
+        <v>1</v>
+      </c>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="27"/>
+      <c r="K140" s="3"/>
       <c r="L140" s="3"/>
-      <c r="M140" s="27"/>
+      <c r="M140" s="3"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
-      <c r="C141" s="8" t="s">
-        <v>88</v>
+      <c r="C141" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D141" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G141" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G141" s="3">
+        <v>1</v>
+      </c>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="27"/>
+      <c r="K141" s="3"/>
       <c r="L141" s="3"/>
-      <c r="M141" s="27"/>
+      <c r="M141" s="3"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
-      <c r="C142" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D142" s="17">
-        <v>1</v>
-      </c>
-      <c r="E142" t="s">
-        <v>135</v>
-      </c>
-      <c r="H142">
-        <v>1</v>
-      </c>
+      <c r="C142" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D142" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3">
+        <v>1</v>
+      </c>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="3"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="B143">
-        <v>1</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>202</v>
+        <v>2</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D143" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G143" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G143" s="3">
+        <v>1</v>
+      </c>
       <c r="H143" s="3"/>
-      <c r="I143" s="3">
-        <v>1</v>
-      </c>
+      <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="27"/>
+      <c r="K143" s="3"/>
       <c r="L143" s="3"/>
-      <c r="M143" s="27"/>
-      <c r="P143" t="s">
-        <v>256</v>
-      </c>
+      <c r="M143" s="3"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
-      <c r="C144" s="11" t="s">
-        <v>202</v>
+      <c r="C144" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D144" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G144" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G144" s="3">
+        <v>1</v>
+      </c>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="27"/>
-      <c r="L144" s="3">
-        <v>1</v>
-      </c>
-      <c r="M144" s="27"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="3"/>
+      <c r="M144" s="3"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>1</v>
+      <c r="C145" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D145" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G145" s="3">
-        <v>1</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145" s="3"/>
       <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
+      <c r="I145" s="3">
+        <v>1</v>
+      </c>
       <c r="J145" s="3"/>
-      <c r="K145" s="27"/>
+      <c r="K145" s="3">
+        <v>1</v>
+      </c>
       <c r="L145" s="3"/>
-      <c r="M145" s="27"/>
+      <c r="M145" s="3"/>
+      <c r="Q145" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>18</v>
+        <v>404</v>
       </c>
       <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D146" s="13">
-        <v>0</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G146" s="3">
-        <v>1</v>
-      </c>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="27"/>
-      <c r="L146" s="3"/>
-      <c r="M146" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D146" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>152</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="P146" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
-      <c r="C147" s="11" t="s">
-        <v>202</v>
+      <c r="C147" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D147" s="13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G147" s="3"/>
-      <c r="H147" s="3">
-        <v>1</v>
-      </c>
+      <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-      <c r="K147" s="27"/>
+      <c r="K147" s="3">
+        <v>1</v>
+      </c>
       <c r="L147" s="3"/>
-      <c r="M147" s="27"/>
+      <c r="M147" s="3"/>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B148">
-        <v>2</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D148" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G148" s="3">
-        <v>1</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="27"/>
-      <c r="L148" s="3"/>
-      <c r="M148" s="27"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3">
+        <v>1</v>
+      </c>
+      <c r="M148" s="3"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -5893,24 +5889,27 @@
         <v>63</v>
       </c>
       <c r="D149" s="13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G149" s="3">
-        <v>1</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="G149" s="3"/>
       <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
+      <c r="I149" s="3">
+        <v>1</v>
+      </c>
       <c r="J149" s="3"/>
-      <c r="K149" s="27"/>
+      <c r="K149" s="3"/>
       <c r="L149" s="3"/>
-      <c r="M149" s="27"/>
+      <c r="M149" s="3"/>
+      <c r="P149" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -5922,52 +5921,52 @@
         <v>2</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F150">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
-      <c r="I150" s="3">
-        <v>1</v>
-      </c>
+      <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="27">
-        <v>1</v>
-      </c>
-      <c r="L150" s="3"/>
-      <c r="M150" s="27"/>
-      <c r="Q150" t="s">
-        <v>269</v>
-      </c>
+      <c r="K150" s="3"/>
+      <c r="L150" s="3">
+        <v>1</v>
+      </c>
+      <c r="M150" s="3"/>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>407</v>
+        <v>119</v>
       </c>
       <c r="B151">
         <v>2</v>
       </c>
-      <c r="C151" s="18" t="s">
-        <v>88</v>
+      <c r="C151" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="D151" s="17">
         <v>-1</v>
       </c>
-      <c r="E151" t="s">
-        <v>153</v>
-      </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
-      <c r="P151" t="s">
-        <v>214</v>
+      <c r="E151" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3">
+        <v>1</v>
+      </c>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
+      <c r="M151" s="3">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -5979,221 +5978,224 @@
         <v>2</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
-      <c r="K152" s="27">
-        <v>1</v>
-      </c>
+      <c r="J152" s="3">
+        <v>1</v>
+      </c>
+      <c r="K152" s="3"/>
       <c r="L152" s="3"/>
-      <c r="M152" s="27"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="23" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D153" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
+      <c r="I153" s="3">
+        <v>1</v>
+      </c>
       <c r="J153" s="3"/>
-      <c r="K153" s="27"/>
-      <c r="L153" s="3">
-        <v>1</v>
-      </c>
-      <c r="M153" s="27"/>
+      <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
+      <c r="M153" s="3"/>
+      <c r="P153" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
-      <c r="C154" s="7" t="s">
-        <v>63</v>
+      <c r="C154" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D154" s="13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G154" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G154" s="3">
+        <v>1</v>
+      </c>
       <c r="H154" s="3"/>
-      <c r="I154" s="3">
-        <v>1</v>
-      </c>
+      <c r="I154" s="3"/>
       <c r="J154" s="3"/>
-      <c r="K154" s="27"/>
+      <c r="K154" s="3"/>
       <c r="L154" s="3"/>
-      <c r="M154" s="27"/>
-      <c r="P154" t="s">
-        <v>257</v>
-      </c>
+      <c r="M154" s="3"/>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
-      <c r="C155" s="8" t="s">
-        <v>88</v>
+      <c r="C155" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D155" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
+      <c r="I155" s="3">
+        <v>1</v>
+      </c>
       <c r="J155" s="3"/>
-      <c r="K155" s="27"/>
-      <c r="L155" s="3">
-        <v>1</v>
-      </c>
-      <c r="M155" s="27"/>
+      <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="3"/>
+      <c r="P155" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="B156">
-        <v>6</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D156" s="13">
-        <v>0</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3">
-        <v>1</v>
-      </c>
-      <c r="J156" s="3"/>
-      <c r="K156" s="27"/>
-      <c r="L156" s="3"/>
-      <c r="M156" s="27"/>
-      <c r="P156" t="s">
-        <v>216</v>
+        <v>1</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" s="17">
+        <v>2</v>
+      </c>
+      <c r="E156" t="s">
+        <v>152</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>1</v>
+      <c r="C157" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D157" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G157" s="3">
-        <v>1</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
-      <c r="K157" s="27"/>
+      <c r="J157" s="3">
+        <v>1</v>
+      </c>
+      <c r="K157" s="3"/>
       <c r="L157" s="3"/>
-      <c r="M157" s="27"/>
+      <c r="M157" s="3"/>
+      <c r="N157" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D158" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F158">
-        <v>1</v>
-      </c>
-      <c r="G158" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G158" s="3">
+        <v>1</v>
+      </c>
       <c r="H158" s="3"/>
-      <c r="I158" s="3">
-        <v>1</v>
-      </c>
+      <c r="I158" s="3"/>
       <c r="J158" s="3"/>
-      <c r="K158" s="27"/>
+      <c r="K158" s="3"/>
       <c r="L158" s="3"/>
-      <c r="M158" s="27"/>
-      <c r="P158" t="s">
-        <v>261</v>
-      </c>
+      <c r="M158" s="3"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D159" s="17">
-        <v>2</v>
-      </c>
-      <c r="E159" t="s">
-        <v>153</v>
-      </c>
-      <c r="L159">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159" s="13">
+        <v>1</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G159" s="3">
+        <v>1</v>
+      </c>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B160">
         <v>2</v>
       </c>
-      <c r="C160" s="7" t="s">
-        <v>63</v>
+      <c r="C160" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D160" s="13">
         <v>1</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G160" s="3">
         <v>1</v>
@@ -6201,51 +6203,42 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
-      <c r="K160" s="27"/>
+      <c r="K160" s="3"/>
       <c r="L160" s="3"/>
-      <c r="M160" s="27"/>
+      <c r="M160" s="3"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="B161">
-        <v>2</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D161" s="13">
-        <v>1</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G161" s="3">
-        <v>1</v>
-      </c>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="27"/>
-      <c r="L161" s="3"/>
-      <c r="M161" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="C161" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D161" s="17">
+        <v>3</v>
+      </c>
+      <c r="E161" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="B162">
-        <v>2</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D162" s="13">
-        <v>1</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>408</v>
+        <v>1</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D162" s="17">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>152</v>
       </c>
       <c r="G162" s="3">
         <v>1</v>
@@ -6253,135 +6246,147 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="27"/>
-      <c r="L162" s="3"/>
-      <c r="M162" s="27"/>
+      <c r="K162" s="3"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
-      <c r="C163" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D163" s="17">
-        <v>3</v>
-      </c>
-      <c r="E163" t="s">
-        <v>153</v>
-      </c>
+      <c r="C163" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D163" s="13">
+        <v>0</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G163" s="3">
+        <v>1</v>
+      </c>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
+      <c r="M163" s="3"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
-      <c r="C164" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D164" s="17">
-        <v>1</v>
-      </c>
-      <c r="E164" t="s">
-        <v>153</v>
-      </c>
-      <c r="G164" s="3">
-        <v>1</v>
-      </c>
+      <c r="C164" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D164" s="13">
+        <v>17</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F164" s="3">
+        <v>1</v>
+      </c>
+      <c r="G164" s="3"/>
       <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
+      <c r="I164" s="3">
+        <v>1</v>
+      </c>
       <c r="J164" s="3"/>
-      <c r="K164" s="27"/>
+      <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
+      <c r="M164" s="3"/>
+      <c r="P164" s="23" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
-      <c r="C165" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D165" s="13">
-        <v>0</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G165" s="3">
-        <v>1</v>
-      </c>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="27"/>
-      <c r="L165" s="3"/>
-      <c r="M165" s="27"/>
+      <c r="C165" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D165" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E165" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="P165" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>1</v>
+      <c r="C166" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D166" s="13">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F166" s="3">
-        <v>1</v>
-      </c>
-      <c r="G166" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G166" s="3">
+        <v>1</v>
+      </c>
       <c r="H166" s="3"/>
-      <c r="I166" s="3">
-        <v>1</v>
-      </c>
+      <c r="I166" s="3"/>
       <c r="J166" s="3"/>
-      <c r="K166" s="27"/>
+      <c r="K166" s="3"/>
       <c r="L166" s="3"/>
-      <c r="M166" s="27"/>
-      <c r="P166" s="23" t="s">
-        <v>268</v>
-      </c>
+      <c r="M166" s="3"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>417</v>
       </c>
       <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D167" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E167" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
-      <c r="P167" t="s">
-        <v>239</v>
+        <v>2</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D167" s="13">
+        <v>1</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+      <c r="K167" s="3"/>
+      <c r="L167" s="3"/>
+      <c r="M167" s="3">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -6393,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G168" s="3">
         <v>1</v>
@@ -6401,25 +6406,25 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="27"/>
+      <c r="K168" s="3"/>
       <c r="L168" s="3"/>
-      <c r="M168" s="27"/>
+      <c r="M168" s="3"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>24</v>
+      <c r="C169" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D169" s="13">
-        <v>1</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>408</v>
+        <v>2</v>
+      </c>
+      <c r="E169" s="25" t="s">
+        <v>406</v>
       </c>
       <c r="G169" s="3">
         <v>1</v>
@@ -6427,39 +6432,40 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="27"/>
+      <c r="K169" s="3"/>
       <c r="L169" s="3"/>
-      <c r="M169" s="27"/>
+      <c r="M169" s="3"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>1</v>
+      <c r="C170" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D170" s="13">
-        <v>2</v>
-      </c>
-      <c r="E170" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="G170" s="3">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="27"/>
+      <c r="K170" s="3"/>
       <c r="L170" s="3"/>
-      <c r="M170" s="27"/>
+      <c r="M170" s="3"/>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -6468,85 +6474,84 @@
         <v>63</v>
       </c>
       <c r="D171" s="13">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F171">
-        <v>1</v>
-      </c>
-      <c r="G171" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G171" s="3">
+        <v>1</v>
+      </c>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="27"/>
+      <c r="K171" s="3"/>
       <c r="L171" s="3"/>
-      <c r="M171" s="27"/>
+      <c r="M171" s="3"/>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
-      <c r="C172" s="7" t="s">
+      <c r="C172" s="16" t="s">
         <v>63</v>
       </c>
       <c r="D172" s="13">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G172" s="3">
-        <v>1</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172" s="3"/>
       <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
+      <c r="I172" s="3">
+        <v>1</v>
+      </c>
       <c r="J172" s="3"/>
-      <c r="K172" s="27"/>
+      <c r="K172" s="3">
+        <v>1</v>
+      </c>
       <c r="L172" s="3"/>
-      <c r="M172" s="27"/>
+      <c r="M172" s="3"/>
+      <c r="Q172" s="23" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
-      <c r="C173" s="16" t="s">
-        <v>63</v>
+      <c r="C173" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D173" s="13">
         <v>2</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F173">
-        <v>1</v>
-      </c>
-      <c r="G173" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G173" s="3">
+        <v>1</v>
+      </c>
       <c r="H173" s="3"/>
-      <c r="I173" s="3">
-        <v>1</v>
-      </c>
+      <c r="I173" s="3"/>
       <c r="J173" s="3"/>
-      <c r="K173" s="27">
-        <v>1</v>
-      </c>
+      <c r="K173" s="3"/>
       <c r="L173" s="3"/>
-      <c r="M173" s="27"/>
-      <c r="Q173" s="23" t="s">
-        <v>238</v>
-      </c>
+      <c r="M173" s="3"/>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -6555,36 +6560,39 @@
         <v>88</v>
       </c>
       <c r="D174" s="13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G174" s="3">
-        <v>1</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
-      <c r="K174" s="27"/>
+      <c r="J174" s="3">
+        <v>1</v>
+      </c>
+      <c r="K174" s="3"/>
       <c r="L174" s="3"/>
-      <c r="M174" s="27"/>
+      <c r="M174" s="3"/>
+      <c r="N174" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>203</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175" t="s">
         <v>204</v>
-      </c>
-      <c r="B175">
-        <v>2</v>
-      </c>
-      <c r="C175" t="s">
-        <v>205</v>
       </c>
       <c r="D175" s="17">
         <v>4</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -6593,15 +6601,15 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="27"/>
+      <c r="K175" s="3"/>
       <c r="L175" s="3">
         <v>1</v>
       </c>
-      <c r="M175" s="27"/>
+      <c r="M175" s="3"/>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -6613,7 +6621,7 @@
         <v>2</v>
       </c>
       <c r="E176" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -6633,21 +6641,21 @@
         <v>1</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
-      <c r="K177" s="27"/>
+      <c r="K177" s="3"/>
       <c r="L177" s="3">
         <v>1</v>
       </c>
-      <c r="M177" s="27"/>
+      <c r="M177" s="3"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -6659,7 +6667,7 @@
         <v>-2</v>
       </c>
       <c r="E178" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -6671,6 +6679,7 @@
     <sortCondition ref="A1:A184"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -6695,25 +6704,25 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -6721,19 +6730,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
         <v>170</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>171</v>
-      </c>
-      <c r="E2" t="s">
-        <v>172</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -6741,19 +6750,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
         <v>171</v>
-      </c>
-      <c r="E3" t="s">
-        <v>172</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -6761,19 +6770,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" t="s">
         <v>171</v>
-      </c>
-      <c r="E4" t="s">
-        <v>172</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -6781,19 +6790,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
         <v>171</v>
-      </c>
-      <c r="E5" t="s">
-        <v>172</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
@@ -6801,19 +6810,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" t="s">
         <v>171</v>
-      </c>
-      <c r="E6" t="s">
-        <v>172</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
@@ -6821,19 +6830,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" t="s">
         <v>171</v>
-      </c>
-      <c r="E7" t="s">
-        <v>172</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
@@ -6841,19 +6850,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" t="s">
         <v>171</v>
-      </c>
-      <c r="E8" t="s">
-        <v>172</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
@@ -6861,19 +6870,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" t="s">
         <v>171</v>
-      </c>
-      <c r="E9" t="s">
-        <v>172</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -6881,19 +6890,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" t="s">
         <v>171</v>
-      </c>
-      <c r="E10" t="s">
-        <v>172</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
@@ -6901,19 +6910,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" t="s">
         <v>171</v>
-      </c>
-      <c r="E11" t="s">
-        <v>172</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
@@ -6921,19 +6930,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" t="s">
         <v>171</v>
-      </c>
-      <c r="E12" t="s">
-        <v>172</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -6941,19 +6950,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" t="s">
         <v>171</v>
-      </c>
-      <c r="E13" t="s">
-        <v>172</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
@@ -6961,19 +6970,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" t="s">
         <v>171</v>
-      </c>
-      <c r="E14" t="s">
-        <v>172</v>
       </c>
       <c r="F14" t="s">
         <v>3</v>
@@ -6981,19 +6990,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" t="s">
         <v>171</v>
-      </c>
-      <c r="E15" t="s">
-        <v>172</v>
       </c>
       <c r="F15" t="s">
         <v>3</v>
@@ -7001,19 +7010,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" t="s">
         <v>171</v>
-      </c>
-      <c r="E16" t="s">
-        <v>172</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
@@ -7021,19 +7030,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
         <v>171</v>
-      </c>
-      <c r="E17" t="s">
-        <v>172</v>
       </c>
       <c r="F17" t="s">
         <v>3</v>
@@ -7041,19 +7050,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" t="s">
         <v>171</v>
-      </c>
-      <c r="E18" t="s">
-        <v>172</v>
       </c>
       <c r="F18" t="s">
         <v>3</v>
@@ -7061,19 +7070,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" t="s">
         <v>171</v>
-      </c>
-      <c r="E19" t="s">
-        <v>172</v>
       </c>
       <c r="F19" t="s">
         <v>3</v>
@@ -7101,33 +7110,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -7136,18 +7145,18 @@
         <v>-1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -7156,78 +7165,78 @@
         <v>-1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E5">
         <v>-1</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E6">
         <v>-1</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D7" t="s">
         <v>107</v>
@@ -7236,38 +7245,38 @@
         <v>-1</v>
       </c>
       <c r="F7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E8">
         <v>-1</v>
       </c>
       <c r="F8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>2</v>
@@ -7276,19 +7285,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>2</v>
@@ -7297,79 +7306,79 @@
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E11">
         <v>-1</v>
       </c>
       <c r="F11" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E12">
         <v>-1</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13">
         <v>-1</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>2</v>
@@ -7378,38 +7387,38 @@
         <v>-1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E15">
         <v>-1</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>2</v>
@@ -7418,18 +7427,18 @@
         <v>0</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>2</v>
@@ -7438,79 +7447,79 @@
         <v>-1</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18">
         <v>-1</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E19">
         <v>-1</v>
       </c>
       <c r="F19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E20">
         <v>-1</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>2</v>
@@ -7519,19 +7528,19 @@
         <v>-1</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>2</v>
@@ -7540,18 +7549,18 @@
         <v>-1</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>2</v>
@@ -7560,18 +7569,18 @@
         <v>-1</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>2</v>
@@ -7580,18 +7589,18 @@
         <v>-2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>2</v>
@@ -7600,38 +7609,38 @@
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E26">
         <v>-1</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>2</v>
@@ -7640,18 +7649,18 @@
         <v>-1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>2</v>
@@ -7660,38 +7669,38 @@
         <v>-1</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E29">
         <v>-1</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>2</v>
@@ -7700,38 +7709,38 @@
         <v>-1</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E31">
         <v>-1</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>2</v>
@@ -7740,18 +7749,18 @@
         <v>-1</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>2</v>
@@ -7760,18 +7769,18 @@
         <v>-1</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>2</v>
@@ -7780,135 +7789,135 @@
         <v>-1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E35">
         <v>-1</v>
       </c>
       <c r="F35" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E36">
         <v>-1</v>
       </c>
       <c r="F36" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E37">
         <v>-1</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>2</v>
@@ -7916,27 +7925,27 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D44" t="s">
         <v>107</v>
@@ -7944,13 +7953,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>2</v>
@@ -7958,13 +7967,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>2</v>
@@ -7972,13 +7981,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>2</v>
@@ -7986,13 +7995,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>2</v>
@@ -8000,13 +8009,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>2</v>
@@ -8014,13 +8023,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>2</v>
@@ -8028,13 +8037,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>2</v>
@@ -8043,13 +8052,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>2</v>
@@ -8057,41 +8066,41 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>2</v>
@@ -8099,27 +8108,27 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>2</v>
@@ -8127,13 +8136,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>2</v>
@@ -8141,41 +8150,41 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>2</v>
@@ -8183,13 +8192,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>2</v>
@@ -8197,13 +8206,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>2</v>
@@ -8211,13 +8220,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>2</v>
@@ -8225,13 +8234,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>2</v>
@@ -8239,41 +8248,41 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>2</v>
@@ -8281,55 +8290,55 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>2</v>
@@ -8337,27 +8346,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>2</v>
@@ -8365,13 +8374,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>2</v>
@@ -8379,41 +8388,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>2</v>
@@ -8421,41 +8430,41 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>2</v>
@@ -8463,27 +8472,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>2</v>
@@ -8491,83 +8500,83 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>2</v>
@@ -8575,13 +8584,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>2</v>
@@ -8589,41 +8598,41 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>2</v>
@@ -8631,41 +8640,41 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>2</v>

--- a/DoomPy/files/cards.xlsx
+++ b/DoomPy/files/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/DoomPy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA6A151-CBFF-BF40-A524-F48E0C35797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0039171-89BC-0F49-AA0B-2FFB2318698B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="500" windowWidth="36000" windowHeight="21640" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
+    <workbookView xWindow="11400" yWindow="5660" windowWidth="36000" windowHeight="21640" activeTab="2" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
   <sheets>
     <sheet name="traits" sheetId="1" r:id="rId1"/>
@@ -1667,7 +1667,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}" name="Tabelle2" displayName="Tabelle2" ref="A1:Q178" totalsRowShown="0">
   <autoFilter ref="A1:Q178" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q178">
-    <sortCondition ref="A1:A178"/>
+    <sortCondition ref="O1:O178"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{8166F61C-4699-3D4C-9D61-28AD00136FEA}" name="name"/>
@@ -1687,6 +1687,24 @@
     <tableColumn id="13" xr3:uid="{0E4D733B-AB86-5546-A677-552DF9EA7E44}" name="effect_attachment"/>
     <tableColumn id="14" xr3:uid="{DACAC41D-17E5-1D4B-80BB-50B9E1EE313B}" name="effect_drop"/>
     <tableColumn id="15" xr3:uid="{1EAC9979-1BCC-1D4C-A9CA-291C531B4E2F}" name="effect_worlds_end"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{562E77D7-246C-DD40-AEF5-8E56110370D5}" name="Tabelle1" displayName="Tabelle1" ref="A1:F1048576" totalsRowShown="0">
+  <autoFilter ref="A1:F1048576" xr:uid="{562E77D7-246C-DD40-AEF5-8E56110370D5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F1048576">
+    <sortCondition descending="1" ref="C1:C1048576"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{751F9D4F-1E12-CF40-AA53-E3261D4E8910}" name="name"/>
+    <tableColumn id="2" xr3:uid="{C3925B65-1781-6C45-975B-D14C5781A14B}" name="n_of_cards"/>
+    <tableColumn id="3" xr3:uid="{3D8ADDFF-973C-A048-84DF-EFF3B7EE3753}" name="type"/>
+    <tableColumn id="4" xr3:uid="{9775E41C-004A-0048-801D-D59C4FEED604}" name="game"/>
+    <tableColumn id="5" xr3:uid="{843C96EB-4D1A-9649-AA9D-6469BFA2469A}" name="gene_pool"/>
+    <tableColumn id="6" xr3:uid="{0C5E06B6-03B1-634F-820D-81A5201CC419}" name="worlds_end"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1991,9 +2009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AE435C-BBFF-4D4C-B457-AFC1FAEE6491}">
   <dimension ref="A1:Q178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2072,310 +2090,360 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>205</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D2" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>66</v>
+      <c r="A3" t="s">
+        <v>119</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="13">
-        <v>4</v>
+      <c r="D3" s="17">
+        <v>-1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>405</v>
+        <v>107</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>201</v>
+      <c r="C4" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="D4" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>405</v>
+        <v>107</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="P4" t="s">
-        <v>261</v>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>88</v>
+      <c r="C5" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>418</v>
+      </c>
+      <c r="P5" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="13">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="17">
+        <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>405</v>
+        <v>107</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>415</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="17">
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
+      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="P7" t="s">
-        <v>267</v>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="D8" s="13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>405</v>
+        <v>107</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>420</v>
+      </c>
+      <c r="P8" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>405</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>419</v>
+      </c>
+      <c r="P9" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>416</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
+      <c r="C10" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="D10" s="17">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>405</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>417</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>405</v>
+        <v>107</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
+      <c r="C13" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="D13" s="13">
         <v>2</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
+      <c r="E13" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>67</v>
+      <c r="A14" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2384,7 +2452,7 @@
         <v>63</v>
       </c>
       <c r="D14" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>405</v>
@@ -2401,74 +2469,68 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="11" t="s">
         <v>201</v>
       </c>
       <c r="D15" s="17">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
+      <c r="P15" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D16" s="17">
-        <v>-2</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="P16" t="s">
-        <v>413</v>
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>206</v>
+      <c r="C17" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>222</v>
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2482,172 +2544,169 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="17">
+      <c r="C18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="13">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
-        <v>405</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
+      <c r="E18" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="P18" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>415</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="17">
-        <v>4</v>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="13">
+        <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>107</v>
+        <v>405</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3">
-        <v>1</v>
-      </c>
-      <c r="O19" t="s">
-        <v>424</v>
-      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>416</v>
+        <v>211</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>88</v>
+      <c r="C20" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D20" s="17">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
-        <v>421</v>
+        <v>-1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>405</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" s="13">
-        <v>2</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="C21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>405</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="17">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>201</v>
+      <c r="C23" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D23" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>405</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
+      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
       <c r="M23" s="3"/>
-      <c r="P23" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>201</v>
+      <c r="C24" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D24" s="13">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>405</v>
+        <v>2</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>406</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -2661,266 +2720,241 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>24</v>
+      <c r="C25" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="D25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>405</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
+      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
       <c r="M25" s="3"/>
-      <c r="P25" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="13">
-        <v>1</v>
+      <c r="C26" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G26" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
+      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="P26" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="13">
-        <v>2</v>
+      <c r="D27" s="17">
+        <v>-2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
+      <c r="P27" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>88</v>
+      <c r="C28" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="D28" s="13">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>405</v>
+        <v>1</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>222</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3">
-        <v>1</v>
-      </c>
+      <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
       <c r="M28" s="3"/>
-      <c r="N28" s="23" t="s">
-        <v>241</v>
-      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" s="13">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
-      <c r="M29" s="3"/>
+      <c r="C29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>405</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>231</v>
+        <v>124</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>63</v>
+      <c r="C30" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D30" s="13">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
       <c r="H30" s="3"/>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1</v>
-      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" t="s">
-        <v>243</v>
-      </c>
-      <c r="P30" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="13">
-        <v>2</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" t="s">
-        <v>243</v>
-      </c>
-      <c r="P31" t="s">
-        <v>252</v>
+        <v>2</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="17">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="17">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>152</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
+      <c r="C32" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="P32" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="17">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>152</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
+      <c r="C33" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>1</v>
+      <c r="C34" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D34" s="13">
         <v>0</v>
@@ -2929,24 +2963,27 @@
         <v>405</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
+      <c r="P34" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>63</v>
+      <c r="C35" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D35" s="13">
         <v>1</v>
@@ -2954,28 +2991,31 @@
       <c r="E35" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
+      <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
+      <c r="P35" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>1</v>
+      <c r="C36" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D36" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>405</v>
@@ -2992,16 +3032,16 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>201</v>
+      <c r="C37" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D37" s="13">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>405</v>
@@ -3009,155 +3049,176 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
       <c r="K37" s="3"/>
-      <c r="L37" s="3">
-        <v>1</v>
-      </c>
+      <c r="L37" s="3"/>
       <c r="M37" s="3"/>
+      <c r="N37" s="23" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>1</v>
+      <c r="C38" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="D38" s="13">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
+      <c r="L38" s="3">
+        <v>1</v>
+      </c>
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" s="17">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>152</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" t="s">
+        <v>243</v>
       </c>
       <c r="P39" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>208</v>
+      <c r="C40" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D40" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>222</v>
+        <v>405</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
       <c r="K40" s="3"/>
-      <c r="L40" s="3">
-        <v>1</v>
-      </c>
+      <c r="L40" s="3"/>
       <c r="M40" s="3"/>
+      <c r="N40" t="s">
+        <v>243</v>
+      </c>
+      <c r="P40" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="D41" s="17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="O41" t="s">
-        <v>425</v>
+        <v>152</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="13">
-        <v>2</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
-      <c r="M42" s="3"/>
+      <c r="D42" s="17">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>152</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>201</v>
+      <c r="C43" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D43" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>405</v>
       </c>
       <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -3166,24 +3227,23 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>201</v>
+      <c r="C44" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D44" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3"/>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -3193,153 +3253,169 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="17">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>152</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
+      <c r="C45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="D46" s="17">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s">
-        <v>134</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
+      <c r="D46" s="13">
+        <v>-2</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3">
+        <v>1</v>
+      </c>
+      <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>134</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
+      <c r="C47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="13">
+        <v>-2</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="13">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="17">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>152</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="P48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>201</v>
+      <c r="C49" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="D49" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
+      <c r="L49" s="3">
+        <v>1</v>
+      </c>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="17">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>134</v>
-      </c>
-      <c r="I50" s="3">
-        <v>1</v>
-      </c>
+      <c r="C50" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="13">
+        <v>2</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="P50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>1</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>63</v>
+      <c r="C51" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D51" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>405</v>
@@ -3347,39 +3423,41 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="3">
-        <v>1</v>
-      </c>
+      <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-      <c r="N51" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="17">
+      <c r="C52" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="13">
         <v>4</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>405</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -3388,108 +3466,96 @@
         <v>201</v>
       </c>
       <c r="D53" s="17">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="17">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
         <v>134</v>
       </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="13">
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="17">
         <v>-1</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3">
-        <v>1</v>
-      </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="P54" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>163</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" s="16" t="s">
+      <c r="E55" t="s">
+        <v>134</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="17">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>152</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="17">
+      <c r="D56" s="13">
         <v>1</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G56" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-      <c r="M56" s="3">
-        <v>1</v>
-      </c>
-      <c r="O56" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="17">
-        <v>1</v>
+      <c r="C57" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" s="13">
+        <v>2</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>107</v>
+        <v>405</v>
       </c>
       <c r="G57" s="3">
         <v>1</v>
@@ -3501,35 +3567,40 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>1</v>
+      <c r="C58" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="D58" s="17">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>152</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="P58" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>227</v>
+        <v>70</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>201</v>
+      <c r="C59" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D59" s="13">
         <v>1</v>
@@ -3540,228 +3611,203 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3">
-        <v>1</v>
-      </c>
+      <c r="J59" s="3">
+        <v>1</v>
+      </c>
+      <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N59" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="20" t="s">
-        <v>24</v>
+      <c r="C60" s="21" t="s">
+        <v>1</v>
       </c>
       <c r="D60" s="17">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>405</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D61" s="17">
+        <v>-3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>134</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="13">
         <v>-1</v>
       </c>
-      <c r="E60" t="s">
-        <v>134</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="P60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" s="13">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D62" s="13">
-        <v>4</v>
-      </c>
       <c r="E62" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="I62" s="3">
+        <v>1</v>
+      </c>
       <c r="J62" s="3"/>
-      <c r="K62" s="3">
-        <v>1</v>
-      </c>
+      <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
-      <c r="Q62" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D63" s="13">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3">
-        <v>1</v>
-      </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C63" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="17">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>152</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D64" s="13">
+      <c r="C64" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="17">
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G64" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="3">
-        <v>1</v>
-      </c>
+      <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="13">
-        <v>1</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3">
-        <v>1</v>
-      </c>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" t="s">
-        <v>243</v>
+      <c r="C65" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="17">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>152</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="B66">
-        <v>2</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="17">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
-        <v>134</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="N66" t="s">
-        <v>245</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="13">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3">
+        <v>1</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="13">
-        <v>2</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3">
-        <v>1</v>
-      </c>
-      <c r="M67" s="3"/>
+      <c r="C67" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>134</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="P67" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3770,7 +3816,7 @@
         <v>88</v>
       </c>
       <c r="D68" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>405</v>
@@ -3780,14 +3826,12 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="3">
-        <v>1</v>
-      </c>
+      <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3796,79 +3840,82 @@
         <v>201</v>
       </c>
       <c r="D69" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>405</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3">
-        <v>1</v>
-      </c>
+      <c r="K69" s="3">
+        <v>1</v>
+      </c>
+      <c r="L69" s="3"/>
       <c r="M69" s="3"/>
+      <c r="Q69" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>1</v>
+      <c r="C70" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D70" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
+      <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
+      <c r="L70" s="3">
+        <v>1</v>
+      </c>
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>24</v>
+      <c r="C71" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D71" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>405</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="3">
-        <v>1</v>
-      </c>
+      <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
+      <c r="L71" s="3">
+        <v>1</v>
+      </c>
       <c r="M71" s="3"/>
-      <c r="P71" t="s">
-        <v>262</v>
-      </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3884,101 +3931,107 @@
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="3">
-        <v>1</v>
-      </c>
-      <c r="J72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3">
+        <v>1</v>
+      </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
-      <c r="P72" t="s">
-        <v>233</v>
+      <c r="N72" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D73" s="13">
-        <v>2</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3">
-        <v>1</v>
-      </c>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="Q73" t="s">
-        <v>221</v>
+        <v>2</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="17">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>134</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
-      <c r="C74" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="17">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>152</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="N74" t="s">
-        <v>244</v>
-      </c>
+      <c r="C74" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" s="13">
+        <v>2</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3">
+        <v>1</v>
+      </c>
+      <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D75" s="17">
-        <v>2</v>
-      </c>
-      <c r="E75" t="s">
-        <v>134</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
+      <c r="D75" s="13">
+        <v>3</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3">
+        <v>1</v>
+      </c>
+      <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>1</v>
+      <c r="C76" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D76" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>405</v>
@@ -3995,49 +4048,41 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>201</v>
+        <v>1</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D77" s="13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G77" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
       <c r="H77" s="3"/>
-      <c r="I77" s="3">
-        <v>1</v>
-      </c>
+      <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-      <c r="M77" s="3">
-        <v>1</v>
-      </c>
-      <c r="O77" t="s">
-        <v>420</v>
-      </c>
-      <c r="P77" t="s">
-        <v>247</v>
-      </c>
+      <c r="M77" s="3"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D78" s="17">
+      <c r="C78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="13">
         <v>0</v>
       </c>
       <c r="E78" s="3" t="s">
@@ -4053,268 +4098,266 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="P78" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="C79" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D79" s="17">
-        <v>-1</v>
+      <c r="C79" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="13">
+        <v>1</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G79" s="3">
-        <v>1</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
+      <c r="I79" s="3">
+        <v>1</v>
+      </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
+      <c r="P79" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>209</v>
+      <c r="C80" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="D80" s="13">
-        <v>1</v>
-      </c>
-      <c r="E80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="25" t="s">
         <v>222</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3">
-        <v>1</v>
-      </c>
+      <c r="K80" s="3">
+        <v>1</v>
+      </c>
+      <c r="L80" s="3"/>
       <c r="M80" s="3"/>
+      <c r="Q80" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D81" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3">
-        <v>1</v>
-      </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="P81" t="s">
-        <v>255</v>
+      <c r="C81" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="17">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>152</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" s="13">
-        <v>7</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="17">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>134</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>88</v>
+      <c r="C83" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D83" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G83" s="3">
-        <v>1</v>
-      </c>
+      <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
+      <c r="L83" s="3">
+        <v>1</v>
+      </c>
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D84" s="13">
-        <v>4</v>
+      <c r="C84" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D84" s="17">
+        <v>0</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
+      <c r="I84" s="3">
+        <v>1</v>
+      </c>
       <c r="J84" s="3"/>
-      <c r="K84" s="3">
-        <v>1</v>
-      </c>
+      <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
+      <c r="P84" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85" s="16" t="s">
-        <v>63</v>
+      <c r="C85" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="D85" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G85" s="3"/>
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
       <c r="H85" s="3"/>
-      <c r="I85" s="3">
-        <v>1</v>
-      </c>
+      <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
-      <c r="P85" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="C86" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="17">
-        <v>3</v>
-      </c>
-      <c r="E86" t="s">
-        <v>134</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
+      <c r="C86" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" s="13">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3">
+        <v>1</v>
+      </c>
+      <c r="M86" s="3"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
-      <c r="C87" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87" s="17">
-        <v>4</v>
-      </c>
-      <c r="E87" t="s">
-        <v>405</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
+      <c r="C87" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
       <c r="I87" s="3">
         <v>1</v>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
       <c r="P87" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>63</v>
+      <c r="C88" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D88" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G88" s="3">
-        <v>1</v>
-      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -4324,16 +4367,16 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89" s="11" t="s">
-        <v>201</v>
+      <c r="C89" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D89" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>405</v>
@@ -4350,143 +4393,139 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>63</v>
+      <c r="C90" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D90" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G90" s="3">
-        <v>1</v>
-      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
+      <c r="K90" s="3">
+        <v>1</v>
+      </c>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" s="13">
-        <v>1</v>
+      <c r="C91" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" s="17">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G91" s="3">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
+      <c r="I91" s="3">
+        <v>1</v>
+      </c>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
+      <c r="P91" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D92" s="13">
-        <v>2</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="G92" s="3">
-        <v>1</v>
-      </c>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
+      <c r="C92" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="17">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>134</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
-      <c r="C93" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D93" s="13">
-        <v>2</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3">
-        <v>1</v>
-      </c>
+      <c r="C93" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="17">
+        <v>4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>405</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="I93" s="3">
+        <v>1</v>
+      </c>
+      <c r="J93" s="3"/>
       <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" t="s">
-        <v>243</v>
+      <c r="P93" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B94">
-        <v>7</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>88</v>
+        <v>1</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D94" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G94" s="3"/>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
       <c r="H94" s="3"/>
-      <c r="I94" s="3">
-        <v>1</v>
-      </c>
+      <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
-      <c r="P94" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -4500,10 +4539,10 @@
       <c r="E95" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3">
-        <v>1</v>
-      </c>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
+      <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
@@ -4512,13 +4551,13 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>24</v>
+      <c r="C96" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D96" s="13">
         <v>1</v>
@@ -4526,154 +4565,164 @@
       <c r="E96" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G96" s="3"/>
+      <c r="G96" s="3">
+        <v>1</v>
+      </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
-      <c r="L96" s="3">
-        <v>1</v>
-      </c>
+      <c r="L96" s="3"/>
       <c r="M96" s="3"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="17">
-        <v>8</v>
-      </c>
-      <c r="E97" t="s">
-        <v>134</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
+      <c r="C97" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="13">
+        <v>1</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G97" s="3">
+        <v>1</v>
+      </c>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B98">
-        <v>2</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D98" s="13">
-        <v>1</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G98" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1</v>
+      </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
-      <c r="M98" s="3">
-        <v>1</v>
-      </c>
-      <c r="O98" t="s">
-        <v>427</v>
-      </c>
+      <c r="M98" s="3"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B99">
-        <v>2</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" s="17">
-        <v>0</v>
-      </c>
-      <c r="E99" t="s">
-        <v>107</v>
-      </c>
-      <c r="I99" s="3">
-        <v>1</v>
-      </c>
-      <c r="J99" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D99" s="13">
+        <v>2</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3">
+        <v>1</v>
+      </c>
       <c r="K99" s="3"/>
-      <c r="M99">
-        <v>1</v>
-      </c>
-      <c r="O99" t="s">
-        <v>419</v>
-      </c>
-      <c r="P99" t="s">
-        <v>249</v>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>63</v>
+        <v>7</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D100" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G100" s="3">
-        <v>1</v>
-      </c>
+      <c r="G100" s="3"/>
       <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
+      <c r="I100" s="3">
+        <v>1</v>
+      </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
+      <c r="P100" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D101" s="17">
-        <v>2</v>
-      </c>
-      <c r="E101" t="s">
-        <v>134</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
+      <c r="C101" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101" s="13">
+        <v>1</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3">
+        <v>1</v>
+      </c>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>1</v>
+      <c r="C102" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D102" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>405</v>
@@ -4690,100 +4739,82 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
-      <c r="C103" s="11" t="s">
-        <v>201</v>
+      <c r="C103" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D103" s="17">
-        <v>0</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3">
-        <v>1</v>
-      </c>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="P103" t="s">
-        <v>248</v>
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>134</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
-      <c r="C104" s="11" t="s">
-        <v>201</v>
+      <c r="C104" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D104" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G104" s="3"/>
+      <c r="G104" s="3">
+        <v>1</v>
+      </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
-      <c r="J104" s="3">
-        <v>1</v>
-      </c>
+      <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
-      <c r="N104" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D105" s="13">
-        <v>1</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3">
-        <v>1</v>
-      </c>
-      <c r="M105" s="3"/>
+      <c r="C105" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D105" s="17">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>134</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106" s="11" t="s">
-        <v>201</v>
+      <c r="C106" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D106" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>405</v>
@@ -4793,92 +4824,107 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
+      <c r="L106" s="3">
+        <v>1</v>
+      </c>
       <c r="M106" s="3"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="B107">
-        <v>2</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D107" s="17">
         <v>0</v>
       </c>
-      <c r="E107" t="s">
-        <v>107</v>
-      </c>
+      <c r="E107" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
       <c r="I107" s="3">
         <v>1</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
-      <c r="M107">
-        <v>1</v>
-      </c>
-      <c r="O107" t="s">
-        <v>418</v>
-      </c>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D108" s="17">
-        <v>1</v>
-      </c>
-      <c r="E108" t="s">
-        <v>134</v>
-      </c>
-      <c r="H108">
-        <v>1</v>
+      <c r="C108" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D108" s="13">
+        <v>1</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3">
+        <v>1</v>
+      </c>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
-      <c r="C109" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" s="17">
-        <v>2</v>
-      </c>
-      <c r="E109" t="s">
-        <v>107</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
+      <c r="C109" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" s="13">
+        <v>1</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3">
+        <v>1</v>
+      </c>
+      <c r="M109" s="3"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
-      <c r="C110" s="7" t="s">
-        <v>63</v>
+      <c r="C110" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D110" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>405</v>
@@ -4888,125 +4934,113 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="L110" s="3">
-        <v>1</v>
-      </c>
+      <c r="L110" s="3"/>
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D111" s="13">
-        <v>1</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G111" s="3">
-        <v>1</v>
-      </c>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
+      <c r="D111" s="17">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>134</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D112" s="13">
-        <v>4</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
+      <c r="C112" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="17">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>107</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="B113">
-        <v>2</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D113" s="17">
-        <v>2</v>
-      </c>
-      <c r="E113" t="s">
-        <v>134</v>
-      </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" s="13">
+        <v>3</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3">
+        <v>1</v>
+      </c>
+      <c r="M113" s="3"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>24</v>
+      <c r="C114" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D114" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G114" s="3"/>
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
       <c r="H114" s="3"/>
-      <c r="I114" s="3">
-        <v>1</v>
-      </c>
+      <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
-      <c r="P114" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B115">
-        <v>2</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D115" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>405</v>
@@ -5016,104 +5050,102 @@
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
-      <c r="I115" s="3">
-        <v>1</v>
-      </c>
+      <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
-      <c r="P115" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" s="13">
-        <v>1</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G116" s="3">
-        <v>1</v>
-      </c>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" s="17">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>134</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
-      <c r="C117" s="7" t="s">
-        <v>63</v>
+      <c r="C117" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D117" s="13">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>405</v>
       </c>
       <c r="G117" s="3"/>
-      <c r="H117" s="3">
-        <v>1</v>
-      </c>
-      <c r="I117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3">
+        <v>1</v>
+      </c>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
+      <c r="P117" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D118" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G118" s="3">
-        <v>1</v>
-      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3"/>
       <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
+      <c r="I118" s="3">
+        <v>1</v>
+      </c>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
+      <c r="P118" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>24</v>
+      <c r="C119" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D119" s="13">
         <v>1</v>
@@ -5133,24 +5165,24 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
-      <c r="C120" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D120" s="17">
-        <v>2</v>
+      <c r="C120" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" s="13">
+        <v>-2</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G120" s="3">
-        <v>1</v>
-      </c>
-      <c r="H120" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3">
+        <v>1</v>
+      </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -5159,7 +5191,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -5168,7 +5200,7 @@
         <v>63</v>
       </c>
       <c r="D121" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>405</v>
@@ -5185,7 +5217,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -5199,60 +5231,57 @@
       <c r="E122" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G122" s="3"/>
+      <c r="G122" s="3">
+        <v>1</v>
+      </c>
       <c r="H122" s="3"/>
-      <c r="I122" s="3">
-        <v>1</v>
-      </c>
+      <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
-      <c r="P122" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
-      <c r="C123" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D123" s="13">
+      <c r="C123" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D123" s="17">
         <v>2</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G123" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="G123" s="3">
+        <v>1</v>
+      </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="3">
-        <v>1</v>
-      </c>
+      <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-      <c r="C124" s="8" t="s">
-        <v>88</v>
+      <c r="C124" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D124" s="13">
         <v>2</v>
       </c>
-      <c r="E124" s="25" t="s">
-        <v>406</v>
+      <c r="E124" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
@@ -5266,7 +5295,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -5280,71 +5309,86 @@
       <c r="E125" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G125" s="3">
-        <v>1</v>
-      </c>
+      <c r="G125" s="3"/>
       <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
+      <c r="I125" s="3">
+        <v>1</v>
+      </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
+      <c r="P125" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
-      <c r="C126" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D126" s="17">
-        <v>-2</v>
-      </c>
-      <c r="E126" t="s">
-        <v>152</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
+      <c r="C126" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D126" s="13">
+        <v>2</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3">
+        <v>1</v>
+      </c>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>2</v>
-      </c>
-      <c r="C127" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D127" s="17">
-        <v>1</v>
-      </c>
-      <c r="E127" t="s">
-        <v>152</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D127" s="13">
+        <v>2</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="G127" s="3">
+        <v>1</v>
+      </c>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
-      <c r="C128" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D128" s="17">
-        <v>1</v>
-      </c>
-      <c r="E128" t="s">
-        <v>152</v>
+      <c r="C128" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" s="13">
+        <v>1</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
@@ -5353,85 +5397,76 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
-      <c r="C129" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D129" s="13">
-        <v>2</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-      <c r="L129" s="3">
-        <v>1</v>
-      </c>
-      <c r="M129" s="3"/>
+      <c r="C129" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" s="17">
+        <v>-2</v>
+      </c>
+      <c r="E129" t="s">
+        <v>152</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B130">
         <v>2</v>
       </c>
-      <c r="C130" s="19" t="s">
-        <v>201</v>
+      <c r="C130" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D130" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>134</v>
-      </c>
-      <c r="H130">
+        <v>152</v>
+      </c>
+      <c r="G130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
-      <c r="C131" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D131" s="13">
-        <v>0</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G131" s="3"/>
+      <c r="C131" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D131" s="17">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>152</v>
+      </c>
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
       <c r="H131" s="3"/>
-      <c r="I131" s="3">
-        <v>1</v>
-      </c>
+      <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
-      <c r="L131" s="3"/>
-      <c r="M131" s="3"/>
-      <c r="P131" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -5440,107 +5475,111 @@
         <v>88</v>
       </c>
       <c r="D132" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G132" s="3">
-        <v>1</v>
-      </c>
+      <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
+      <c r="L132" s="3">
+        <v>1</v>
+      </c>
       <c r="M132" s="3"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="B133">
         <v>2</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D133" s="13">
-        <v>0</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
-      <c r="L133" s="3"/>
-      <c r="M133" s="3"/>
+      <c r="C133" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D133" s="17">
+        <v>2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>134</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
-      <c r="C134" s="8" t="s">
-        <v>88</v>
+      <c r="C134" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D134" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>405</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
+      <c r="I134" s="3">
+        <v>1</v>
+      </c>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
+      <c r="P134" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
-      <c r="C135" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D135" s="17">
-        <v>1</v>
-      </c>
-      <c r="E135" t="s">
-        <v>134</v>
-      </c>
-      <c r="H135">
-        <v>1</v>
-      </c>
+      <c r="C135" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D135" s="13">
+        <v>3</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G135" s="3">
+        <v>1</v>
+      </c>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
-      <c r="C136" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D136" s="17">
-        <v>4</v>
+      <c r="C136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" s="13">
+        <v>0</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F136" s="3">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
@@ -5548,25 +5587,20 @@
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
-      <c r="M136" s="3">
-        <v>1</v>
-      </c>
-      <c r="O136" t="s">
-        <v>423</v>
-      </c>
+      <c r="M136" s="3"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>1</v>
+      <c r="C137" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D137" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>405</v>
@@ -5574,57 +5608,43 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
-      <c r="J137" s="3">
-        <v>1</v>
-      </c>
+      <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
-      <c r="N137" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
-      <c r="C138" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D138" s="13">
-        <v>2</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3">
-        <v>1</v>
-      </c>
-      <c r="J138" s="3"/>
-      <c r="K138" s="3"/>
-      <c r="L138" s="3"/>
-      <c r="M138" s="3"/>
-      <c r="P138" t="s">
-        <v>253</v>
+      <c r="C138" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" s="17">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>134</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
-      <c r="C139" s="11" t="s">
-        <v>201</v>
+      <c r="C139" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D139" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>405</v>
@@ -5632,85 +5652,91 @@
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
+      <c r="J139" s="3">
+        <v>1</v>
+      </c>
       <c r="K139" s="3"/>
-      <c r="L139" s="3">
-        <v>1</v>
-      </c>
+      <c r="L139" s="3"/>
       <c r="M139" s="3"/>
+      <c r="N139" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>1</v>
+      <c r="C140" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D140" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G140" s="3">
-        <v>1</v>
-      </c>
+      <c r="G140" s="3"/>
       <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
+      <c r="I140" s="3">
+        <v>1</v>
+      </c>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
+      <c r="P140" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>1</v>
+      <c r="C141" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D141" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G141" s="3">
-        <v>1</v>
-      </c>
+      <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
-      <c r="L141" s="3"/>
+      <c r="L141" s="3">
+        <v>1</v>
+      </c>
       <c r="M141" s="3"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
-      <c r="C142" s="11" t="s">
-        <v>201</v>
+      <c r="C142" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D142" s="13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3">
-        <v>1</v>
-      </c>
+      <c r="G142" s="3">
+        <v>1</v>
+      </c>
+      <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -5719,13 +5745,13 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B143">
-        <v>2</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D143" s="13">
         <v>0</v>
@@ -5745,24 +5771,24 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
-      <c r="C144" s="7" t="s">
-        <v>63</v>
+      <c r="C144" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D144" s="13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G144" s="3">
-        <v>1</v>
-      </c>
-      <c r="H144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3">
+        <v>1</v>
+      </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -5771,116 +5797,116 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>88</v>
+        <v>2</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D145" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-      <c r="G145" s="3"/>
+      <c r="G145" s="3">
+        <v>1</v>
+      </c>
       <c r="H145" s="3"/>
-      <c r="I145" s="3">
-        <v>1</v>
-      </c>
+      <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="3">
-        <v>1</v>
-      </c>
+      <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
-      <c r="Q145" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="B146">
-        <v>2</v>
-      </c>
-      <c r="C146" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D146" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E146" t="s">
-        <v>152</v>
-      </c>
-      <c r="I146">
-        <v>1</v>
-      </c>
-      <c r="P146" t="s">
-        <v>212</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" s="13">
+        <v>1</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G146" s="3">
+        <v>1</v>
+      </c>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
-      <c r="C147" s="7" t="s">
-        <v>63</v>
+      <c r="C147" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D147" s="13">
         <v>2</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>405</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
+      <c r="I147" s="3">
+        <v>1</v>
+      </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3">
         <v>1</v>
       </c>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
+      <c r="Q147" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="B148">
-        <v>1</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D148" s="13">
-        <v>1</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
-      <c r="L148" s="3">
-        <v>1</v>
-      </c>
-      <c r="M148" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D148" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>152</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="P148" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -5889,36 +5915,33 @@
         <v>63</v>
       </c>
       <c r="D149" s="13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>405</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
-      <c r="I149" s="3">
-        <v>1</v>
-      </c>
+      <c r="I149" s="3"/>
       <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
+      <c r="K149" s="3">
+        <v>1</v>
+      </c>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
-      <c r="P149" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
-      <c r="C150" s="8" t="s">
-        <v>88</v>
+      <c r="C150" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D150" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>405</v>
@@ -5935,44 +5958,42 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="B151">
-        <v>2</v>
-      </c>
-      <c r="C151" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D151" s="17">
+      <c r="D151" s="13">
         <v>-1</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>107</v>
+        <v>405</v>
       </c>
       <c r="G151" s="3"/>
-      <c r="H151" s="3">
-        <v>1</v>
-      </c>
-      <c r="I151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3">
+        <v>1</v>
+      </c>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
-      <c r="M151" s="3">
-        <v>1</v>
-      </c>
-      <c r="O151" t="s">
-        <v>422</v>
+      <c r="M151" s="3"/>
+      <c r="P151" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
-      <c r="C152" s="7" t="s">
-        <v>63</v>
+      <c r="C152" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D152" s="13">
         <v>2</v>
@@ -5983,158 +6004,155 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
-      <c r="J152" s="3">
-        <v>1</v>
-      </c>
+      <c r="J152" s="3"/>
       <c r="K152" s="3"/>
-      <c r="L152" s="3"/>
+      <c r="L152" s="3">
+        <v>1</v>
+      </c>
       <c r="M152" s="3"/>
-      <c r="N152" s="23" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B153">
-        <v>6</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D153" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>405</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
-      <c r="I153" s="3">
-        <v>1</v>
-      </c>
-      <c r="J153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3">
+        <v>1</v>
+      </c>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
-      <c r="P153" t="s">
-        <v>214</v>
+      <c r="N153" s="23" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D154" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G154" s="3">
-        <v>1</v>
-      </c>
+      <c r="G154" s="3"/>
       <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
+      <c r="I154" s="3">
+        <v>1</v>
+      </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
+      <c r="P154" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>24</v>
+      <c r="C155" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D155" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="G155" s="3"/>
+      <c r="G155" s="3">
+        <v>1</v>
+      </c>
       <c r="H155" s="3"/>
-      <c r="I155" s="3">
-        <v>1</v>
-      </c>
+      <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
-      <c r="P155" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
-      <c r="C156" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D156" s="17">
-        <v>2</v>
-      </c>
-      <c r="E156" t="s">
-        <v>152</v>
-      </c>
-      <c r="L156">
-        <v>1</v>
+      <c r="C156" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" s="13">
+        <v>3</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3">
+        <v>1</v>
+      </c>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="3"/>
+      <c r="P156" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C157" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D157" s="13">
-        <v>1</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="3">
-        <v>1</v>
-      </c>
-      <c r="K157" s="3"/>
-      <c r="L157" s="3"/>
-      <c r="M157" s="3"/>
-      <c r="N157" t="s">
-        <v>243</v>
+      <c r="D157" s="17">
+        <v>2</v>
+      </c>
+      <c r="E157" t="s">
+        <v>152</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>63</v>
@@ -6145,25 +6163,28 @@
       <c r="E158" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G158" s="3">
-        <v>1</v>
-      </c>
+      <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
+      <c r="J158" s="3">
+        <v>1</v>
+      </c>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
       <c r="M158" s="3"/>
+      <c r="N158" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B159">
         <v>2</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>1</v>
+      <c r="C159" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D159" s="13">
         <v>1</v>
@@ -6183,13 +6204,13 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="B160">
         <v>2</v>
       </c>
-      <c r="C160" s="8" t="s">
-        <v>88</v>
+      <c r="C160" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D160" s="13">
         <v>1</v>
@@ -6209,60 +6230,62 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D161" s="17">
-        <v>3</v>
-      </c>
-      <c r="E161" t="s">
-        <v>152</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D161" s="13">
+        <v>1</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G161" s="3">
+        <v>1</v>
+      </c>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
+      <c r="M161" s="3"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
-      <c r="C162" s="20" t="s">
-        <v>24</v>
+      <c r="C162" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D162" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E162" t="s">
         <v>152</v>
       </c>
-      <c r="G162" s="3">
-        <v>1</v>
-      </c>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
-      <c r="C163" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D163" s="13">
-        <v>0</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>405</v>
+      <c r="C163" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D163" s="17">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>152</v>
       </c>
       <c r="G163" s="3">
         <v>1</v>
@@ -6271,118 +6294,113 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
-      <c r="L163" s="3"/>
-      <c r="M163" s="3"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
-      <c r="C164" s="4" t="s">
-        <v>1</v>
+      <c r="C164" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D164" s="13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="F164" s="3">
-        <v>1</v>
-      </c>
-      <c r="G164" s="3"/>
+      <c r="G164" s="3">
+        <v>1</v>
+      </c>
       <c r="H164" s="3"/>
-      <c r="I164" s="3">
-        <v>1</v>
-      </c>
+      <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
-      <c r="P164" s="23" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>5</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
-      <c r="C165" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D165" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E165" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
-      <c r="P165" t="s">
-        <v>236</v>
+      <c r="C165" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D165" s="13">
+        <v>17</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F165" s="3">
+        <v>1</v>
+      </c>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3">
+        <v>1</v>
+      </c>
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="3"/>
+      <c r="P165" s="23" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
-      <c r="C166" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D166" s="13">
-        <v>1</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G166" s="3">
-        <v>1</v>
-      </c>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3"/>
-      <c r="L166" s="3"/>
-      <c r="M166" s="3"/>
+      <c r="C166" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D166" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E166" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="P166" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>417</v>
+        <v>41</v>
       </c>
       <c r="B167">
-        <v>2</v>
-      </c>
-      <c r="C167" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D167" s="13">
         <v>1</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G167" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="G167" s="3">
+        <v>1</v>
+      </c>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
-      <c r="M167" s="3">
-        <v>1</v>
-      </c>
-      <c r="O167" t="s">
-        <v>426</v>
-      </c>
+      <c r="M167" s="3"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
@@ -7097,14 +7115,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9B9F73-5D52-3444-807A-5E9BBA1301C4}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7170,7 +7190,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7179,18 +7199,18 @@
         <v>298</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>366</v>
+      <c r="F4" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7199,18 +7219,18 @@
         <v>298</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>368</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -7219,38 +7239,38 @@
         <v>298</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>-1</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>370</v>
+      <c r="F6" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>317</v>
+      <c r="A7" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D7" t="s">
-        <v>107</v>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>401</v>
+        <v>0</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>371</v>
+        <v>302</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -7259,18 +7279,18 @@
         <v>298</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>-1</v>
       </c>
-      <c r="F8" t="s">
-        <v>372</v>
+      <c r="F8" s="24" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -7282,19 +7302,19 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>321</v>
+        <v>399</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>298</v>
@@ -7303,16 +7323,16 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>322</v>
+        <v>398</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -7321,18 +7341,18 @@
         <v>298</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>-1</v>
       </c>
-      <c r="F11" t="s">
-        <v>374</v>
+      <c r="F11" s="3" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -7341,41 +7361,41 @@
         <v>298</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>376</v>
+        <v>-2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>315</v>
+      <c r="A13" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D13" t="s">
-        <v>134</v>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>-1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>324</v>
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>298</v>
@@ -7387,12 +7407,12 @@
         <v>-1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -7401,18 +7421,18 @@
         <v>298</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>-1</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>378</v>
+      <c r="F15" s="24" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -7424,15 +7444,15 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7447,32 +7467,32 @@
         <v>-1</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>313</v>
+      <c r="A18" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D18" t="s">
-        <v>152</v>
+      <c r="D18" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="E18">
         <v>-1</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>327</v>
+      <c r="F18" s="24" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7481,80 +7501,80 @@
         <v>298</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>-1</v>
       </c>
-      <c r="F19" t="s">
-        <v>380</v>
+      <c r="F19" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>381</v>
+      <c r="A20" t="s">
+        <v>313</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>298</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>364</v>
+      <c r="D20" t="s">
+        <v>152</v>
       </c>
       <c r="E20">
         <v>-1</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>303</v>
+      <c r="A21" t="s">
+        <v>315</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>298</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>2</v>
+      <c r="D21" t="s">
+        <v>134</v>
       </c>
       <c r="E21">
         <v>-1</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>399</v>
+      <c r="F21" t="s">
+        <v>324</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>298</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
       <c r="E22">
-        <v>-1</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>398</v>
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -7563,38 +7583,38 @@
         <v>298</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
       <c r="E23">
         <v>-1</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>397</v>
+      <c r="F23" s="23" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>298</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
       <c r="E24">
-        <v>-2</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>397</v>
+        <v>-1</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -7603,21 +7623,21 @@
         <v>298</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
       <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>330</v>
+        <v>-1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>298</v>
@@ -7628,13 +7648,13 @@
       <c r="E26">
         <v>-1</v>
       </c>
-      <c r="F26" s="23" t="s">
-        <v>384</v>
+      <c r="F26" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -7643,18 +7663,18 @@
         <v>298</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
       <c r="E27">
         <v>-1</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>396</v>
+      <c r="F27" s="23" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>307</v>
+        <v>377</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -7663,18 +7683,18 @@
         <v>298</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
       <c r="E28">
         <v>-1</v>
       </c>
-      <c r="F28" s="24" t="s">
-        <v>331</v>
+      <c r="F28" s="23" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -7688,13 +7708,13 @@
       <c r="E29">
         <v>-1</v>
       </c>
-      <c r="F29" s="23" t="s">
-        <v>386</v>
+      <c r="F29" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>308</v>
+        <v>381</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -7703,21 +7723,21 @@
         <v>298</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
       <c r="E30">
         <v>-1</v>
       </c>
-      <c r="F30" s="24" t="s">
-        <v>332</v>
+      <c r="F30" s="23" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>298</v>
@@ -7729,12 +7749,12 @@
         <v>-1</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>309</v>
+        <v>385</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7743,18 +7763,18 @@
         <v>298</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
       <c r="E32">
         <v>-1</v>
       </c>
-      <c r="F32" s="24" t="s">
-        <v>333</v>
+      <c r="F32" s="23" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -7763,18 +7783,18 @@
         <v>298</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
       <c r="E33">
         <v>-1</v>
       </c>
-      <c r="F33" s="24" t="s">
-        <v>334</v>
+      <c r="F33" s="23" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -7783,18 +7803,18 @@
         <v>298</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
       <c r="E34">
         <v>-1</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>335</v>
+      <c r="F34" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7809,12 +7829,12 @@
         <v>-1</v>
       </c>
       <c r="F35" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -7828,33 +7848,33 @@
       <c r="E36">
         <v>-1</v>
       </c>
-      <c r="F36" t="s">
-        <v>393</v>
+      <c r="F36" s="3" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>395</v>
+      <c r="A37" t="s">
+        <v>317</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" t="s">
         <v>298</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>364</v>
+      <c r="D37" t="s">
+        <v>107</v>
       </c>
       <c r="E37">
         <v>-1</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>394</v>
+      <c r="F37" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -7863,12 +7883,12 @@
         <v>269</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -7877,13 +7897,13 @@
         <v>269</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>351</v>
+        <v>268</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -7892,12 +7912,12 @@
         <v>269</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -7906,12 +7926,12 @@
         <v>269</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -7925,7 +7945,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>361</v>
+        <v>274</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -7934,12 +7954,12 @@
         <v>269</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>316</v>
+      <c r="A44" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -7947,13 +7967,13 @@
       <c r="C44" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D44" t="s">
-        <v>107</v>
+      <c r="D44" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -7967,7 +7987,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -7981,7 +8001,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -7995,7 +8015,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -8009,7 +8029,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -8023,7 +8043,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8037,7 +8057,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -8052,7 +8072,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -8066,7 +8086,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8075,12 +8095,12 @@
         <v>269</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>312</v>
+      <c r="A54" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -8088,13 +8108,13 @@
       <c r="C54" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D54" t="s">
-        <v>152</v>
+      <c r="D54" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -8108,7 +8128,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>359</v>
+        <v>287</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -8117,12 +8137,12 @@
         <v>269</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -8136,7 +8156,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -8150,7 +8170,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -8159,12 +8179,12 @@
         <v>269</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>354</v>
+        <v>291</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -8173,12 +8193,12 @@
         <v>269</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -8192,7 +8212,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -8206,7 +8226,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -8220,7 +8240,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -8234,7 +8254,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8247,8 +8267,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>338</v>
+      <c r="A66" t="s">
+        <v>312</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -8256,13 +8276,13 @@
       <c r="C66" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>364</v>
+      <c r="D66" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>356</v>
+      <c r="A67" t="s">
+        <v>314</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -8270,13 +8290,13 @@
       <c r="C67" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>364</v>
+      <c r="D67" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>286</v>
+        <v>345</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8285,12 +8305,12 @@
         <v>269</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8304,7 +8324,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -8318,7 +8338,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8332,7 +8352,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>287</v>
+        <v>361</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -8341,12 +8361,12 @@
         <v>269</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -8360,7 +8380,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -8369,12 +8389,12 @@
         <v>269</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -8383,12 +8403,12 @@
         <v>269</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -8401,8 +8421,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>314</v>
+      <c r="A77" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -8410,13 +8430,13 @@
       <c r="C77" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D77" t="s">
-        <v>134</v>
+      <c r="D77" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -8425,12 +8445,12 @@
         <v>269</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -8444,7 +8464,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -8458,7 +8478,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -8467,12 +8487,12 @@
         <v>269</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -8486,7 +8506,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -8495,12 +8515,12 @@
         <v>269</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -8514,7 +8534,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -8528,7 +8548,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -8542,7 +8562,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -8556,7 +8576,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -8570,7 +8590,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>293</v>
+        <v>360</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -8579,12 +8599,12 @@
         <v>269</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -8593,12 +8613,12 @@
         <v>269</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -8612,7 +8632,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -8626,7 +8646,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -8635,7 +8655,7 @@
         <v>269</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -8667,8 +8687,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>296</v>
+      <c r="A96" t="s">
+        <v>316</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -8676,8 +8696,8 @@
       <c r="C96" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>2</v>
+      <c r="D96" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -8687,5 +8707,8 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/DoomPy/files/cards.xlsx
+++ b/DoomPy/files/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/DoomPy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0039171-89BC-0F49-AA0B-2FFB2318698B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED320E4-71FE-ED4A-AC1F-A10847C16346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="5660" windowWidth="36000" windowHeight="21640" activeTab="2" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
+    <workbookView xWindow="7460" yWindow="5660" windowWidth="36000" windowHeight="21640" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
   <sheets>
     <sheet name="traits" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="429">
   <si>
     <t>Echolocation</t>
   </si>
@@ -690,9 +690,6 @@
     <t>Boredom (1)</t>
   </si>
   <si>
-    <t>Boredom (+)</t>
-  </si>
-  <si>
     <t>action</t>
   </si>
   <si>
@@ -714,9 +711,6 @@
     <t>1 other_green_pairs</t>
   </si>
   <si>
-    <t>Fortunate (+)</t>
-  </si>
-  <si>
     <t>Fortunate (1)</t>
   </si>
   <si>
@@ -1321,6 +1315,15 @@
   </si>
   <si>
     <t>any Inactive</t>
+  </si>
+  <si>
+    <t>Boredom (~)</t>
+  </si>
+  <si>
+    <t>Fortunate (~)</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1670,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}" name="Tabelle2" displayName="Tabelle2" ref="A1:Q178" totalsRowShown="0">
   <autoFilter ref="A1:Q178" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q178">
-    <sortCondition ref="O1:O178"/>
+    <sortCondition ref="A1:A178"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{8166F61C-4699-3D4C-9D61-28AD00136FEA}" name="name"/>
@@ -2009,9 +2012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AE435C-BBFF-4D4C-B457-AFC1FAEE6491}">
   <dimension ref="A1:Q178"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2046,7 +2049,7 @@
         <v>195</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>197</v>
@@ -2055,395 +2058,345 @@
         <v>199</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>202</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>213</v>
       </c>
       <c r="N1" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1" t="s">
         <v>407</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q1" t="s">
         <v>409</v>
-      </c>
-      <c r="P1" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="D2" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>107</v>
+        <v>221</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>427</v>
-      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>119</v>
+      <c r="A3" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="17">
-        <v>-1</v>
+      <c r="D3" s="13">
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>107</v>
+        <v>403</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>422</v>
-      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="17">
-        <v>1</v>
+      <c r="C4" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>428</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>107</v>
+        <v>403</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>418</v>
+      <c r="M4" s="3"/>
+      <c r="P4" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>24</v>
+      <c r="C5" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="D5" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>418</v>
-      </c>
-      <c r="P5" t="s">
-        <v>234</v>
+        <v>134</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="17">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="13">
+        <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>423</v>
-      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="13">
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>107</v>
+        <v>403</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
-        <v>424</v>
+      <c r="M7" s="3"/>
+      <c r="P7" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>201</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>107</v>
+        <v>403</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>420</v>
-      </c>
-      <c r="P8" t="s">
-        <v>247</v>
-      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>419</v>
-      </c>
-      <c r="P9" t="s">
-        <v>249</v>
+        <v>403</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>416</v>
+        <v>235</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>88</v>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D10" s="17">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>421</v>
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>403</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="O11" t="s">
-        <v>425</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>417</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>107</v>
+        <v>403</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
-        <v>426</v>
-      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>205</v>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="13">
         <v>2</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="3"/>
+      <c r="E13" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
+      <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>66</v>
+      <c r="A14" t="s">
+        <v>67</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2452,10 +2405,10 @@
         <v>63</v>
       </c>
       <c r="D14" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2469,68 +2422,74 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D15" s="17">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="P15" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D16" s="17">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
+        <v>-2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="P16" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>88</v>
+      <c r="C17" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="D17" s="13">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>405</v>
+        <v>1</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>221</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2544,169 +2503,172 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="17">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="P18" t="s">
-        <v>267</v>
+      <c r="E18" t="s">
+        <v>403</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>413</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="13">
-        <v>3</v>
+      <c r="C19" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="17">
+        <v>4</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>405</v>
+        <v>107</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>414</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>1</v>
+      <c r="C20" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="D20" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>405</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="17">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>405</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
+      <c r="C21" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="13">
+        <v>2</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="17">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>426</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="13">
-        <v>2</v>
+      <c r="C23" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>428</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3">
-        <v>1</v>
-      </c>
+      <c r="L23" s="3"/>
       <c r="M23" s="3"/>
+      <c r="P23" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>24</v>
+      <c r="C24" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D24" s="13">
-        <v>2</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>406</v>
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -2720,305 +2682,324 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>63</v>
+      <c r="C25" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
+      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
+      <c r="P25" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0</v>
+      <c r="C26" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
+      <c r="P26" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>237</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="17">
-        <v>-2</v>
+      <c r="D27" s="13">
+        <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="3">
-        <v>1</v>
-      </c>
+      <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="P27" t="s">
-        <v>413</v>
-      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>206</v>
+      <c r="C28" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D28" s="13">
-        <v>1</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>222</v>
+        <v>4</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
       <c r="K28" s="3"/>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
+      <c r="L28" s="3"/>
       <c r="M28" s="3"/>
+      <c r="N28" s="23" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="17">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>405</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
+      <c r="C29" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>201</v>
+      <c r="C30" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D30" s="13">
-        <v>2</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
+      <c r="N30" t="s">
+        <v>241</v>
+      </c>
+      <c r="P30" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="17">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="13">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" t="s">
+        <v>241</v>
+      </c>
+      <c r="P31" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" s="13">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="P32" t="s">
-        <v>263</v>
+      <c r="C32" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="17">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D33" s="13">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+      <c r="C33" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="17">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>152</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>24</v>
+      <c r="C34" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D34" s="13">
         <v>0</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3">
-        <v>1</v>
-      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="P34" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>238</v>
+        <v>68</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>88</v>
+      <c r="C35" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D35" s="13">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G35" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
       <c r="H35" s="3"/>
-      <c r="I35" s="3">
-        <v>1</v>
-      </c>
+      <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="P35" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>88</v>
+      <c r="C36" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D36" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -3032,193 +3013,172 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>88</v>
+      <c r="C37" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D37" s="13">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3">
-        <v>1</v>
-      </c>
+      <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
       <c r="M37" s="3"/>
-      <c r="N37" s="23" t="s">
-        <v>241</v>
-      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>207</v>
+      <c r="C38" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D38" s="13">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G38" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="3">
-        <v>1</v>
-      </c>
+      <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="13">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3">
-        <v>1</v>
-      </c>
-      <c r="J39" s="3">
-        <v>1</v>
-      </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" t="s">
-        <v>243</v>
+        <v>2</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="17">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>152</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>63</v>
+      <c r="C40" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="D40" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3">
-        <v>1</v>
-      </c>
-      <c r="J40" s="3">
-        <v>1</v>
-      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
       <c r="M40" s="3"/>
-      <c r="N40" t="s">
-        <v>243</v>
-      </c>
-      <c r="P40" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>88</v>
+        <v>2</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>1</v>
       </c>
       <c r="D41" s="17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>152</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="17">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>152</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
+      <c r="D42" s="13">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>1</v>
+      <c r="C43" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D43" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G43" s="3"/>
-      <c r="H43" s="3">
-        <v>1</v>
-      </c>
+      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -3227,23 +3187,24 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>63</v>
+      <c r="C44" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D44" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -3253,211 +3214,193 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="13">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
+      <c r="C45" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="17">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D46" s="13">
-        <v>-2</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3">
-        <v>1</v>
-      </c>
-      <c r="M46" s="3"/>
+      <c r="D46" s="17">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>134</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="13">
-        <v>-2</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
+      <c r="C47" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>134</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="D48" s="17">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>152</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="P48" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D49" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G49" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="3">
-        <v>1</v>
-      </c>
+      <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="13">
-        <v>2</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="C50" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="17">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="3">
-        <v>1</v>
-      </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>201</v>
+      <c r="C51" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D51" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="J51" s="3">
+        <v>1</v>
+      </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N51" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="13">
+      <c r="C52" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="17">
         <v>4</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>405</v>
+      <c r="E52" t="s">
+        <v>403</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -3466,96 +3409,108 @@
         <v>201</v>
       </c>
       <c r="D53" s="17">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E53" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3">
+        <v>1</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="P54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="17">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
         <v>152</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>142</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="17">
-        <v>4</v>
-      </c>
-      <c r="E54" t="s">
-        <v>134</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>134</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="17">
         <v>1</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M56" s="3">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D57" s="13">
-        <v>2</v>
+      <c r="C57" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="17">
+        <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>405</v>
+        <v>107</v>
       </c>
       <c r="G57" s="3">
         <v>1</v>
@@ -3567,247 +3522,267 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>88</v>
+      <c r="C58" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D58" s="17">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>134</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1</v>
-      </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="P58" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>63</v>
+      <c r="C59" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D59" s="13">
         <v>1</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="3">
-        <v>1</v>
-      </c>
-      <c r="K59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3">
+        <v>1</v>
+      </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
-      <c r="N59" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="21" t="s">
-        <v>1</v>
+      <c r="C60" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="D60" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>134</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="P60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="13">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" s="13">
         <v>4</v>
       </c>
-      <c r="E60" t="s">
-        <v>405</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>143</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D61" s="17">
-        <v>-3</v>
-      </c>
-      <c r="E61" t="s">
-        <v>134</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="13">
-        <v>-1</v>
-      </c>
       <c r="E62" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="3">
-        <v>1</v>
-      </c>
+      <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
+      <c r="K62" s="3">
+        <v>1</v>
+      </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
-      <c r="P62" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q62" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" s="17">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>152</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C63" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="13">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3">
+        <v>1</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="17">
+      <c r="C64" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="13">
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G64" s="3">
-        <v>1</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
+      <c r="L64" s="3">
+        <v>1</v>
+      </c>
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="17">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>152</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
+      <c r="C65" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="13">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3">
+        <v>1</v>
+      </c>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D66" s="13">
-        <v>1</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3">
-        <v>1</v>
-      </c>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="17">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>134</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>134</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="P67" t="s">
-        <v>223</v>
-      </c>
+      <c r="C67" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="13">
+        <v>2</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3">
+        <v>1</v>
+      </c>
+      <c r="M67" s="3"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3816,22 +3791,24 @@
         <v>88</v>
       </c>
       <c r="D68" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
+      <c r="L68" s="3">
+        <v>1</v>
+      </c>
       <c r="M68" s="3"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3840,82 +3817,79 @@
         <v>201</v>
       </c>
       <c r="D69" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="3">
-        <v>1</v>
-      </c>
-      <c r="L69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3">
+        <v>1</v>
+      </c>
       <c r="M69" s="3"/>
-      <c r="Q69" t="s">
-        <v>412</v>
-      </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>88</v>
+      <c r="C70" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D70" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G70" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="3">
-        <v>1</v>
-      </c>
+      <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>427</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D71" s="13">
-        <v>1</v>
+      <c r="C71" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>428</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="I71" s="3">
+        <v>1</v>
+      </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="3">
-        <v>1</v>
-      </c>
+      <c r="L71" s="3"/>
       <c r="M71" s="3"/>
+      <c r="P71" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3927,114 +3901,108 @@
         <v>1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3">
-        <v>1</v>
-      </c>
+      <c r="I72" s="3">
+        <v>1</v>
+      </c>
+      <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
-      <c r="N72" t="s">
-        <v>243</v>
+      <c r="P72" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B73">
-        <v>2</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="17">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>134</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="N73" t="s">
-        <v>245</v>
+        <v>1</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="13">
+        <v>2</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3">
+        <v>1</v>
+      </c>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="Q73" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D74" s="13">
-        <v>2</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3">
-        <v>1</v>
-      </c>
-      <c r="M74" s="3"/>
+      <c r="C74" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="17">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>152</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D75" s="13">
-        <v>3</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3">
-        <v>1</v>
-      </c>
-      <c r="M75" s="3"/>
+      <c r="D75" s="17">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>134</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>201</v>
+      <c r="C76" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D76" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -4048,45 +4016,53 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="D77" s="13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G77" s="3">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+      <c r="I77" s="3">
+        <v>1</v>
+      </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
+      <c r="M77" s="3">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>418</v>
+      </c>
+      <c r="P77" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>225</v>
+        <v>53</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="13">
-        <v>0</v>
+      <c r="C78" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>428</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -4098,266 +4074,268 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="P78" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="13">
-        <v>1</v>
+      <c r="C79" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" s="17">
+        <v>-1</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G79" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1</v>
+      </c>
       <c r="H79" s="3"/>
-      <c r="I79" s="3">
-        <v>1</v>
-      </c>
+      <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
-      <c r="P79" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>201</v>
+      <c r="C80" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="D80" s="13">
-        <v>2</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>222</v>
+        <v>1</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="3">
-        <v>1</v>
-      </c>
-      <c r="L80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3">
+        <v>1</v>
+      </c>
       <c r="M80" s="3"/>
-      <c r="Q80" t="s">
-        <v>221</v>
-      </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" s="17">
-        <v>0</v>
-      </c>
-      <c r="E81" t="s">
-        <v>152</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="N81" t="s">
-        <v>244</v>
+      <c r="C81" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3">
+        <v>1</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="P81" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D82" s="17">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s">
-        <v>134</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="13">
+        <v>7</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>1</v>
+      <c r="C83" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D83" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G83" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="L83" s="3">
-        <v>1</v>
-      </c>
+      <c r="L83" s="3"/>
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D84" s="17">
-        <v>0</v>
+      <c r="C84" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="13">
+        <v>4</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
-      <c r="I84" s="3">
-        <v>1</v>
-      </c>
+      <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
+      <c r="K84" s="3">
+        <v>1</v>
+      </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
-      <c r="P84" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D85" s="17">
-        <v>-1</v>
+      <c r="C85" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>428</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G85" s="3">
-        <v>1</v>
-      </c>
+      <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
+      <c r="I85" s="3">
+        <v>1</v>
+      </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
+      <c r="P85" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D86" s="13">
-        <v>1</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3">
-        <v>1</v>
-      </c>
-      <c r="M86" s="3"/>
+      <c r="C86" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="17">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>134</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D87" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
+      <c r="C87" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="17">
+        <v>4</v>
+      </c>
+      <c r="E87" t="s">
+        <v>403</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
       <c r="I87" s="3">
         <v>1</v>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
       <c r="P87" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>24</v>
+      <c r="C88" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D88" s="13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G88" s="3">
+        <v>1</v>
+      </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -4367,19 +4345,19 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>88</v>
+      <c r="C89" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D89" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G89" s="3">
         <v>1</v>
@@ -4393,139 +4371,143 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>88</v>
+      <c r="C90" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D90" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G90" s="3">
+        <v>1</v>
+      </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="3">
-        <v>1</v>
-      </c>
+      <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
-      <c r="C91" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D91" s="17">
-        <v>0</v>
+      <c r="C91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="13">
+        <v>1</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G91" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1</v>
+      </c>
       <c r="H91" s="3"/>
-      <c r="I91" s="3">
-        <v>1</v>
-      </c>
+      <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
-      <c r="P91" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
-      <c r="C92" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" s="17">
-        <v>3</v>
-      </c>
-      <c r="E92" t="s">
-        <v>134</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
+      <c r="C92" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" s="13">
+        <v>2</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
-      <c r="C93" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" s="17">
-        <v>4</v>
-      </c>
-      <c r="E93" t="s">
-        <v>405</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="I93" s="3">
-        <v>1</v>
-      </c>
-      <c r="J93" s="3"/>
+      <c r="C93" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="13">
+        <v>2</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3">
+        <v>1</v>
+      </c>
       <c r="K93" s="3"/>
-      <c r="P93" t="s">
-        <v>259</v>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D94" s="13">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>428</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G94" s="3">
-        <v>1</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G94" s="3"/>
       <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
+      <c r="I94" s="3">
+        <v>1</v>
+      </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
+      <c r="P94" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -4537,12 +4519,12 @@
         <v>1</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G95" s="3">
-        <v>1</v>
-      </c>
-      <c r="H95" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3">
+        <v>1</v>
+      </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
@@ -4551,181 +4533,171 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>63</v>
+      <c r="C96" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D96" s="13">
         <v>1</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G96" s="3">
-        <v>1</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
+      <c r="L96" s="3">
+        <v>1</v>
+      </c>
       <c r="M96" s="3"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="13">
-        <v>1</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G97" s="3">
-        <v>1</v>
-      </c>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
+      <c r="C97" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="17">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>134</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D98" s="13">
-        <v>2</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="G98" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
+      <c r="M98" s="3">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D99" s="13">
-        <v>2</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="17">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>107</v>
+      </c>
+      <c r="I99" s="3">
+        <v>1</v>
+      </c>
+      <c r="J99" s="3"/>
       <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" t="s">
-        <v>243</v>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>417</v>
+      </c>
+      <c r="P99" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B100">
-        <v>7</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>88</v>
+        <v>1</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D100" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G100" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
       <c r="H100" s="3"/>
-      <c r="I100" s="3">
-        <v>1</v>
-      </c>
+      <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
-      <c r="P100" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D101" s="13">
-        <v>1</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3">
-        <v>1</v>
-      </c>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
+      <c r="C101" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" s="17">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>134</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>24</v>
+      <c r="C102" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D102" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -4739,419 +4711,436 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
-      <c r="C103" s="22" t="s">
-        <v>1</v>
+      <c r="C103" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D103" s="17">
-        <v>8</v>
-      </c>
-      <c r="E103" t="s">
-        <v>134</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3">
+        <v>1</v>
+      </c>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="P103" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>63</v>
+      <c r="C104" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D104" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G104" s="3">
-        <v>1</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
+      <c r="J104" s="3">
+        <v>1</v>
+      </c>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
+      <c r="N104" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D105" s="17">
-        <v>2</v>
-      </c>
-      <c r="E105" t="s">
-        <v>134</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
+      <c r="C105" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D105" s="13">
+        <v>1</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3">
+        <v>1</v>
+      </c>
+      <c r="M105" s="3"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>1</v>
+      <c r="C106" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D106" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
-      <c r="L106" s="3">
-        <v>1</v>
-      </c>
+      <c r="L106" s="3"/>
       <c r="M106" s="3"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D107" s="17">
-        <v>0</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E107" t="s">
+        <v>107</v>
+      </c>
       <c r="I107" s="3">
         <v>1</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>416</v>
+      </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D108" s="13">
-        <v>1</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3">
-        <v>1</v>
-      </c>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" t="s">
-        <v>243</v>
+      <c r="C108" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" s="17">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>134</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D109" s="13">
-        <v>1</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3">
-        <v>1</v>
-      </c>
-      <c r="M109" s="3"/>
+      <c r="C109" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="17">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>107</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
-      <c r="C110" s="11" t="s">
-        <v>201</v>
+      <c r="C110" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D110" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
+      <c r="L110" s="3">
+        <v>1</v>
+      </c>
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C111" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D111" s="17">
-        <v>1</v>
-      </c>
-      <c r="E111" t="s">
-        <v>134</v>
-      </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
+      <c r="D111" s="13">
+        <v>1</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="17">
-        <v>2</v>
-      </c>
-      <c r="E112" t="s">
-        <v>107</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
+      <c r="C112" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D112" s="13">
+        <v>4</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="B113">
-        <v>1</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D113" s="13">
-        <v>3</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3">
-        <v>1</v>
-      </c>
-      <c r="M113" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="17">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>134</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114" s="7" t="s">
-        <v>63</v>
+      <c r="C114" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D114" s="13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G114" s="3">
-        <v>1</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G114" s="3"/>
       <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
+      <c r="I114" s="3">
+        <v>1</v>
+      </c>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
+      <c r="P114" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>201</v>
+        <v>2</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D115" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
+      <c r="I115" s="3">
+        <v>1</v>
+      </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
+      <c r="P115" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="B116">
-        <v>2</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D116" s="17">
-        <v>2</v>
-      </c>
-      <c r="E116" t="s">
-        <v>134</v>
-      </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="13">
+        <v>1</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>24</v>
+      <c r="C117" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D117" s="13">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3">
-        <v>1</v>
-      </c>
+      <c r="H117" s="3">
+        <v>1</v>
+      </c>
+      <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
-      <c r="P117" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B118">
-        <v>2</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D118" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G118" s="3">
+        <v>1</v>
+      </c>
       <c r="H118" s="3"/>
-      <c r="I118" s="3">
-        <v>1</v>
-      </c>
+      <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
-      <c r="P118" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>1</v>
+      <c r="C119" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D119" s="13">
         <v>1</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G119" s="3">
         <v>1</v>
@@ -5165,24 +5154,24 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D120" s="13">
-        <v>-2</v>
+      <c r="C120" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D120" s="17">
+        <v>2</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G120" s="3">
+        <v>1</v>
+      </c>
+      <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -5191,7 +5180,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -5200,10 +5189,10 @@
         <v>63</v>
       </c>
       <c r="D121" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G121" s="3">
         <v>1</v>
@@ -5217,7 +5206,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -5229,59 +5218,62 @@
         <v>1</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G122" s="3">
-        <v>1</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G122" s="3"/>
       <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
+      <c r="I122" s="3">
+        <v>1</v>
+      </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
+      <c r="P122" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
-      <c r="C123" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D123" s="17">
+      <c r="C123" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D123" s="13">
         <v>2</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G123" s="3">
-        <v>1</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
+      <c r="K123" s="3">
+        <v>1</v>
+      </c>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>63</v>
+      <c r="C124" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D124" s="13">
         <v>2</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>405</v>
+      <c r="E124" s="25" t="s">
+        <v>404</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
@@ -5295,7 +5287,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -5307,88 +5299,73 @@
         <v>1</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G125" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G125" s="3">
+        <v>1</v>
+      </c>
       <c r="H125" s="3"/>
-      <c r="I125" s="3">
-        <v>1</v>
-      </c>
+      <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
-      <c r="P125" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
-      <c r="C126" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D126" s="13">
-        <v>2</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3">
-        <v>1</v>
-      </c>
-      <c r="L126" s="3"/>
-      <c r="M126" s="3"/>
+      <c r="C126" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" s="17">
+        <v>-2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>152</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D127" s="13">
-        <v>2</v>
-      </c>
-      <c r="E127" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="G127" s="3">
-        <v>1</v>
-      </c>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
-      <c r="M127" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" s="17">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>152</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D128" s="13">
-        <v>1</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>405</v>
+      <c r="C128" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D128" s="17">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>152</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
@@ -5397,76 +5374,85 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
-      <c r="M128" s="3"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
-      <c r="C129" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D129" s="17">
-        <v>-2</v>
-      </c>
-      <c r="E129" t="s">
-        <v>152</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
+      <c r="C129" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D129" s="13">
+        <v>2</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3">
+        <v>1</v>
+      </c>
+      <c r="M129" s="3"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B130">
         <v>2</v>
       </c>
-      <c r="C130" s="22" t="s">
-        <v>1</v>
+      <c r="C130" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="D130" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>152</v>
-      </c>
-      <c r="G130">
+        <v>134</v>
+      </c>
+      <c r="H130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
-      <c r="C131" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D131" s="17">
-        <v>1</v>
-      </c>
-      <c r="E131" t="s">
-        <v>152</v>
-      </c>
-      <c r="G131" s="3">
-        <v>1</v>
-      </c>
+      <c r="C131" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G131" s="3"/>
       <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
+      <c r="I131" s="3">
+        <v>1</v>
+      </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="P131" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -5475,111 +5461,107 @@
         <v>88</v>
       </c>
       <c r="D132" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G132" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G132" s="3">
+        <v>1</v>
+      </c>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
-      <c r="L132" s="3">
-        <v>1</v>
-      </c>
+      <c r="L132" s="3"/>
       <c r="M132" s="3"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="B133">
         <v>2</v>
       </c>
-      <c r="C133" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D133" s="17">
-        <v>2</v>
-      </c>
-      <c r="E133" t="s">
-        <v>134</v>
-      </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
+      <c r="C133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="13">
+        <v>0</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>24</v>
+      <c r="C134" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D134" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
-      <c r="I134" s="3">
-        <v>1</v>
-      </c>
+      <c r="I134" s="3"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
-      <c r="P134" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
-      <c r="C135" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D135" s="13">
-        <v>3</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G135" s="3">
-        <v>1</v>
-      </c>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="3"/>
-      <c r="M135" s="3"/>
+      <c r="C135" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135" s="17">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>134</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136" s="13">
-        <v>0</v>
+      <c r="C136" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D136" s="17">
+        <v>4</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>405</v>
+        <v>107</v>
+      </c>
+      <c r="F136" s="3">
+        <v>1</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
@@ -5587,156 +5569,169 @@
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
-      <c r="M136" s="3"/>
+      <c r="M136" s="3">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>88</v>
+      <c r="C137" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D137" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
+      <c r="J137" s="3">
+        <v>1</v>
+      </c>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
+      <c r="N137" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
-      <c r="C138" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D138" s="17">
-        <v>1</v>
-      </c>
-      <c r="E138" t="s">
-        <v>134</v>
-      </c>
-      <c r="H138">
-        <v>1</v>
+      <c r="C138" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D138" s="13">
+        <v>2</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3">
+        <v>1</v>
+      </c>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
+      <c r="P138" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>1</v>
+      <c r="C139" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D139" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
-      <c r="J139" s="3">
-        <v>1</v>
-      </c>
+      <c r="J139" s="3"/>
       <c r="K139" s="3"/>
-      <c r="L139" s="3"/>
+      <c r="L139" s="3">
+        <v>1</v>
+      </c>
       <c r="M139" s="3"/>
-      <c r="N139" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
-      <c r="C140" s="11" t="s">
-        <v>201</v>
+      <c r="C140" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D140" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G140" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G140" s="3">
+        <v>1</v>
+      </c>
       <c r="H140" s="3"/>
-      <c r="I140" s="3">
-        <v>1</v>
-      </c>
+      <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
-      <c r="P140" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
-      <c r="C141" s="11" t="s">
-        <v>201</v>
+      <c r="C141" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D141" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G141" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G141" s="3">
+        <v>1</v>
+      </c>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
-      <c r="L141" s="3">
-        <v>1</v>
-      </c>
+      <c r="L141" s="3"/>
       <c r="M141" s="3"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>1</v>
+      <c r="C142" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="D142" s="13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G142" s="3">
-        <v>1</v>
-      </c>
-      <c r="H142" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3">
+        <v>1</v>
+      </c>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -5745,19 +5740,19 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B143">
-        <v>1</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D143" s="13">
         <v>0</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G143" s="3">
         <v>1</v>
@@ -5771,24 +5766,24 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
-      <c r="C144" s="11" t="s">
-        <v>201</v>
+      <c r="C144" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D144" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3">
-        <v>1</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G144" s="3">
+        <v>1</v>
+      </c>
+      <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -5797,116 +5792,116 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B145">
-        <v>2</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D145" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G145" s="3">
-        <v>1</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145" s="3"/>
       <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
+      <c r="I145" s="3">
+        <v>1</v>
+      </c>
       <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
+      <c r="K145" s="3">
+        <v>1</v>
+      </c>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
+      <c r="Q145" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D146" s="13">
-        <v>1</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G146" s="3">
-        <v>1</v>
-      </c>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
-      <c r="L146" s="3"/>
-      <c r="M146" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D146" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>152</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="P146" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
-      <c r="C147" s="8" t="s">
-        <v>88</v>
+      <c r="C147" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D147" s="13">
         <v>2</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F147">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
-      <c r="I147" s="3">
-        <v>1</v>
-      </c>
+      <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3">
         <v>1</v>
       </c>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
-      <c r="Q147" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>404</v>
+        <v>19</v>
       </c>
       <c r="B148">
-        <v>2</v>
-      </c>
-      <c r="C148" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D148" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E148" t="s">
-        <v>152</v>
-      </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-      <c r="P148" t="s">
-        <v>212</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148" s="13">
+        <v>1</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3">
+        <v>1</v>
+      </c>
+      <c r="M148" s="3"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -5915,36 +5910,39 @@
         <v>63</v>
       </c>
       <c r="D149" s="13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
+      <c r="I149" s="3">
+        <v>1</v>
+      </c>
       <c r="J149" s="3"/>
-      <c r="K149" s="3">
-        <v>1</v>
-      </c>
+      <c r="K149" s="3"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
+      <c r="P149" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>1</v>
+      <c r="C150" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D150" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -5958,201 +5956,206 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="C151" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D151" s="13">
+      <c r="D151" s="17">
         <v>-1</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>405</v>
+        <v>107</v>
       </c>
       <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3">
-        <v>1</v>
-      </c>
+      <c r="H151" s="3">
+        <v>1</v>
+      </c>
+      <c r="I151" s="3"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
-      <c r="M151" s="3"/>
-      <c r="P151" t="s">
-        <v>254</v>
+      <c r="M151" s="3">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
-      <c r="C152" s="8" t="s">
-        <v>88</v>
+      <c r="C152" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D152" s="13">
         <v>2</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
+      <c r="J152" s="3">
+        <v>1</v>
+      </c>
       <c r="K152" s="3"/>
-      <c r="L152" s="3">
-        <v>1</v>
-      </c>
+      <c r="L152" s="3"/>
       <c r="M152" s="3"/>
+      <c r="N152" s="23" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D153" s="13">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D153" s="13" t="s">
+        <v>428</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3">
-        <v>1</v>
-      </c>
+      <c r="I153" s="3">
+        <v>1</v>
+      </c>
+      <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
-      <c r="N153" s="23" t="s">
-        <v>242</v>
+      <c r="P153" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B154">
-        <v>6</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D154" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G154" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G154" s="3">
+        <v>1</v>
+      </c>
       <c r="H154" s="3"/>
-      <c r="I154" s="3">
-        <v>1</v>
-      </c>
+      <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
-      <c r="P154" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>1</v>
+      <c r="C155" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D155" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G155" s="3">
-        <v>1</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155" s="3"/>
       <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
+      <c r="I155" s="3">
+        <v>1</v>
+      </c>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
+      <c r="P155" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D156" s="13">
-        <v>3</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3">
-        <v>1</v>
-      </c>
-      <c r="J156" s="3"/>
-      <c r="K156" s="3"/>
-      <c r="L156" s="3"/>
-      <c r="M156" s="3"/>
-      <c r="P156" t="s">
-        <v>258</v>
+      <c r="C156" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" s="17">
+        <v>2</v>
+      </c>
+      <c r="E156" t="s">
+        <v>152</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
-      <c r="C157" s="16" t="s">
+      <c r="C157" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D157" s="17">
-        <v>2</v>
-      </c>
-      <c r="E157" t="s">
-        <v>152</v>
-      </c>
-      <c r="L157">
-        <v>1</v>
+      <c r="D157" s="13">
+        <v>1</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3">
+        <v>1</v>
+      </c>
+      <c r="K157" s="3"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+      <c r="N157" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>63</v>
@@ -6161,36 +6164,33 @@
         <v>1</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G158" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G158" s="3">
+        <v>1</v>
+      </c>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
-      <c r="J158" s="3">
-        <v>1</v>
-      </c>
+      <c r="J158" s="3"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
       <c r="M158" s="3"/>
-      <c r="N158" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B159">
         <v>2</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>63</v>
+      <c r="C159" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D159" s="13">
         <v>1</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G159" s="3">
         <v>1</v>
@@ -6204,19 +6204,19 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B160">
         <v>2</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>1</v>
+      <c r="C160" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D160" s="13">
         <v>1</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G160" s="3">
         <v>1</v>
@@ -6230,62 +6230,60 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="B161">
-        <v>2</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D161" s="13">
-        <v>1</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G161" s="3">
-        <v>1</v>
-      </c>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
-      <c r="L161" s="3"/>
-      <c r="M161" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C161" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D161" s="17">
+        <v>3</v>
+      </c>
+      <c r="E161" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
-      <c r="C162" s="22" t="s">
-        <v>1</v>
+      <c r="C162" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="D162" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E162" t="s">
         <v>152</v>
       </c>
+      <c r="G162" s="3">
+        <v>1</v>
+      </c>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
-      <c r="C163" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D163" s="17">
-        <v>1</v>
-      </c>
-      <c r="E163" t="s">
-        <v>152</v>
+      <c r="C163" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D163" s="13">
+        <v>0</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="G163" s="3">
         <v>1</v>
@@ -6294,113 +6292,118 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
+      <c r="M163" s="3"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
-      <c r="C164" s="11" t="s">
-        <v>201</v>
+      <c r="C164" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D164" s="13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G164" s="3">
-        <v>1</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="F164" s="3">
+        <v>1</v>
+      </c>
+      <c r="G164" s="3"/>
       <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
+      <c r="I164" s="3">
+        <v>1</v>
+      </c>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
+      <c r="P164" s="23" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
-      <c r="C165" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D165" s="13">
-        <v>17</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F165" s="3">
-        <v>1</v>
-      </c>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3">
-        <v>1</v>
-      </c>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
-      <c r="L165" s="3"/>
-      <c r="M165" s="3"/>
-      <c r="P165" s="23" t="s">
-        <v>265</v>
+      <c r="C165" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D165" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E165" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="P165" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
-      <c r="C166" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D166" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E166" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
-      <c r="P166" t="s">
-        <v>236</v>
-      </c>
+      <c r="C166" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166" s="13">
+        <v>1</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G166" s="3">
+        <v>1</v>
+      </c>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>41</v>
+        <v>415</v>
       </c>
       <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D167" s="13">
         <v>1</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G167" s="3">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
-      <c r="M167" s="3"/>
+      <c r="M167" s="3">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
@@ -6416,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G168" s="3">
         <v>1</v>
@@ -6442,7 +6445,7 @@
         <v>2</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G169" s="3">
         <v>1</v>
@@ -6468,7 +6471,7 @@
         <v>3</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -6495,7 +6498,7 @@
         <v>-2</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G171" s="3">
         <v>1</v>
@@ -6521,7 +6524,7 @@
         <v>2</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -6538,7 +6541,7 @@
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
       <c r="Q172" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
@@ -6555,7 +6558,7 @@
         <v>2</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G173" s="3">
         <v>1</v>
@@ -6581,7 +6584,7 @@
         <v>-1</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -6593,7 +6596,7 @@
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
       <c r="N174" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
@@ -6610,7 +6613,7 @@
         <v>4</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -6659,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
@@ -7115,7 +7118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9B9F73-5D52-3444-807A-5E9BBA1301C4}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
@@ -7136,7 +7139,7 @@
         <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D1" t="s">
         <v>197</v>
@@ -7145,18 +7148,18 @@
         <v>202</v>
       </c>
       <c r="F1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -7165,18 +7168,18 @@
         <v>-1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -7185,18 +7188,18 @@
         <v>-1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -7205,18 +7208,18 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -7225,18 +7228,18 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
@@ -7245,18 +7248,18 @@
         <v>-1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>2</v>
@@ -7265,18 +7268,18 @@
         <v>0</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>2</v>
@@ -7285,18 +7288,18 @@
         <v>-1</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>2</v>
@@ -7305,19 +7308,19 @@
         <v>-1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>2</v>
@@ -7326,19 +7329,19 @@
         <v>-1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>2</v>
@@ -7347,18 +7350,18 @@
         <v>-1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>2</v>
@@ -7367,18 +7370,18 @@
         <v>-2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>2</v>
@@ -7387,18 +7390,18 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>2</v>
@@ -7407,18 +7410,18 @@
         <v>-1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>2</v>
@@ -7427,18 +7430,18 @@
         <v>-1</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>2</v>
@@ -7447,18 +7450,18 @@
         <v>-1</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>2</v>
@@ -7467,18 +7470,18 @@
         <v>-1</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>2</v>
@@ -7487,18 +7490,18 @@
         <v>-1</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>2</v>
@@ -7507,18 +7510,18 @@
         <v>-1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D20" t="s">
         <v>152</v>
@@ -7527,19 +7530,19 @@
         <v>-1</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D21" t="s">
         <v>134</v>
@@ -7548,319 +7551,319 @@
         <v>-1</v>
       </c>
       <c r="F21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E23">
         <v>-1</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E24">
         <v>-1</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E25">
         <v>-1</v>
       </c>
       <c r="F25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E26">
         <v>-1</v>
       </c>
       <c r="F26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E27">
         <v>-1</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E28">
         <v>-1</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E29">
         <v>-1</v>
       </c>
       <c r="F29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E30">
         <v>-1</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E31">
         <v>-1</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E32">
         <v>-1</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E33">
         <v>-1</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E34">
         <v>-1</v>
       </c>
       <c r="F34" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E35">
         <v>-1</v>
       </c>
       <c r="F35" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E36">
         <v>-1</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D37" t="s">
         <v>107</v>
@@ -7869,18 +7872,18 @@
         <v>-1</v>
       </c>
       <c r="F37" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>2</v>
@@ -7888,13 +7891,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>2</v>
@@ -7903,13 +7906,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>2</v>
@@ -7917,13 +7920,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>2</v>
@@ -7931,13 +7934,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>2</v>
@@ -7945,13 +7948,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>2</v>
@@ -7959,13 +7962,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>2</v>
@@ -7973,13 +7976,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>2</v>
@@ -7987,13 +7990,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>2</v>
@@ -8001,13 +8004,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>2</v>
@@ -8015,13 +8018,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>2</v>
@@ -8029,13 +8032,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>2</v>
@@ -8043,13 +8046,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>2</v>
@@ -8057,13 +8060,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>2</v>
@@ -8072,13 +8075,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>2</v>
@@ -8086,13 +8089,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>2</v>
@@ -8100,13 +8103,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>2</v>
@@ -8114,13 +8117,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>2</v>
@@ -8128,13 +8131,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>2</v>
@@ -8142,13 +8145,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>2</v>
@@ -8156,13 +8159,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>2</v>
@@ -8170,13 +8173,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>2</v>
@@ -8184,13 +8187,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>2</v>
@@ -8198,13 +8201,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>2</v>
@@ -8212,13 +8215,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>2</v>
@@ -8226,13 +8229,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>2</v>
@@ -8240,13 +8243,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>2</v>
@@ -8254,13 +8257,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>2</v>
@@ -8268,13 +8271,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D66" t="s">
         <v>152</v>
@@ -8282,13 +8285,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D67" t="s">
         <v>134</v>
@@ -8296,405 +8299,405 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D96" t="s">
         <v>107</v>

--- a/DoomPy/files/cards.xlsx
+++ b/DoomPy/files/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/DoomPy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED320E4-71FE-ED4A-AC1F-A10847C16346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FA23E7-9FFB-3449-A9EC-F6315FD417CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="5660" windowWidth="36000" windowHeight="21640" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
+    <workbookView xWindow="240" yWindow="3160" windowWidth="45760" windowHeight="21640" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
   <sheets>
     <sheet name="traits" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="430">
   <si>
     <t>Echolocation</t>
   </si>
@@ -306,9 +306,6 @@
     <t>Red</t>
   </si>
   <si>
-    <t>Hyper-Inetelligence</t>
-  </si>
-  <si>
     <t>Sentience</t>
   </si>
   <si>
@@ -738,9 +735,6 @@
     <t>equal host</t>
   </si>
   <si>
-    <t>-1 other_color_of_choice</t>
-  </si>
-  <si>
     <t>1 discarded_dinolings</t>
   </si>
   <si>
@@ -831,9 +825,6 @@
     <t>-1 self_traits</t>
   </si>
   <si>
-    <t>1 self_color_of_choice</t>
-  </si>
-  <si>
     <t>4 self_if_most_traits</t>
   </si>
   <si>
@@ -1269,9 +1260,6 @@
     <t>effect_worlds_end</t>
   </si>
   <si>
-    <t>self_change_one_color</t>
-  </si>
-  <si>
     <t>1 self_techlings 2 self_techlings_if_attachment_here</t>
   </si>
   <si>
@@ -1324,6 +1312,21 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>1 self_color_worlds_end</t>
+  </si>
+  <si>
+    <t>-1 other_color_worlds_end</t>
+  </si>
+  <si>
+    <t>choose_color</t>
+  </si>
+  <si>
+    <t>may_change_one_color</t>
+  </si>
+  <si>
+    <t>Hyper-Intelligence</t>
   </si>
 </sst>
 </file>
@@ -2014,7 +2017,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2040,72 +2043,72 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>195</v>
-      </c>
       <c r="D1" s="15" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="M1" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" t="s">
+        <v>402</v>
+      </c>
+      <c r="O1" t="s">
+        <v>404</v>
+      </c>
+      <c r="P1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q1" t="s">
         <v>406</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="N1" t="s">
-        <v>405</v>
-      </c>
-      <c r="O1" t="s">
-        <v>407</v>
-      </c>
-      <c r="P1" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D2" s="13">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2131,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2151,13 +2154,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2169,12 +2172,12 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="P4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2186,7 +2189,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2194,7 +2197,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2206,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -2232,7 +2235,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2247,7 +2250,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="P7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -2264,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2278,7 +2281,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2290,7 +2293,7 @@
         <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -2298,7 +2301,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2310,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2330,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -2356,7 +2359,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2370,7 +2373,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2382,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -2408,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2422,19 +2425,19 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D15" s="17">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -2448,7 +2451,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2460,7 +2463,7 @@
         <v>-2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2472,24 +2475,24 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="P16" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2515,7 +2518,7 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -2523,7 +2526,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2535,7 +2538,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2547,12 +2550,12 @@
         <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2564,7 +2567,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2576,24 +2579,24 @@
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D21" s="13">
         <v>2</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
@@ -2607,7 +2610,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -2619,7 +2622,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2627,19 +2630,19 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2651,24 +2654,24 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="P23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D24" s="13">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -2694,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2706,12 +2709,12 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="P25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2723,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2735,12 +2738,12 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="P26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2752,7 +2755,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
@@ -2766,7 +2769,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2778,7 +2781,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2790,24 +2793,24 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D29" s="13">
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -2821,7 +2824,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2833,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2850,15 +2853,15 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2870,7 +2873,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2887,15 +2890,15 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2907,7 +2910,7 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2915,7 +2918,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2927,7 +2930,7 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -2947,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
@@ -2973,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
@@ -2999,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -3019,13 +3022,13 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D37" s="13">
         <v>-2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -3051,7 +3054,7 @@
         <v>-2</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G38" s="3">
         <v>1</v>
@@ -3065,42 +3068,42 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D39" s="17">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D40" s="13">
         <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -3114,7 +3117,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -3126,13 +3129,13 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -3149,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -3169,13 +3172,13 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D43" s="13">
         <v>4</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -3193,13 +3196,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D44" s="13">
         <v>4</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3214,19 +3217,19 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D45" s="17">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -3234,19 +3237,19 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D46" s="17">
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -3254,7 +3257,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3266,7 +3269,7 @@
         <v>-1</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -3286,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>1</v>
@@ -3306,13 +3309,13 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D49" s="13">
         <v>2</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -3326,7 +3329,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3338,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I50" s="3">
         <v>1</v>
@@ -3346,7 +3349,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="P50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -3363,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -3375,7 +3378,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -3392,7 +3395,7 @@
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -3400,19 +3403,19 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D53" s="17">
         <v>-3</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -3432,7 +3435,7 @@
         <v>-1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -3444,12 +3447,12 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="P54" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3461,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -3469,7 +3472,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3481,7 +3484,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -3493,12 +3496,12 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3510,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G57" s="3">
         <v>1</v>
@@ -3524,7 +3527,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3536,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -3544,19 +3547,19 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D59" s="13">
         <v>1</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -3570,7 +3573,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3582,18 +3585,18 @@
         <v>-1</v>
       </c>
       <c r="E60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3605,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -3623,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D62" s="13">
         <v>4</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -3644,12 +3647,12 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="Q62" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -3661,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -3681,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D64" s="13">
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -3713,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -3725,12 +3728,12 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -3742,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -3751,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -3768,7 +3771,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -3782,7 +3785,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3794,7 +3797,7 @@
         <v>3</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -3814,13 +3817,13 @@
         <v>1</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="13">
         <v>3</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -3846,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G70" s="3">
         <v>1</v>
@@ -3860,7 +3863,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -3869,10 +3872,10 @@
         <v>24</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -3884,12 +3887,12 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="P71" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3901,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -3913,24 +3916,24 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="P72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D73" s="13">
         <v>2</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -3942,12 +3945,12 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="Q73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -3959,18 +3962,18 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -3982,7 +3985,7 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -4002,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -4016,19 +4019,19 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D77" s="13">
         <v>-1</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -4042,10 +4045,10 @@
         <v>1</v>
       </c>
       <c r="O77" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P77" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -4056,13 +4059,13 @@
         <v>1</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -4074,24 +4077,24 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="P78" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D79" s="17">
         <v>-1</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G79" s="3">
         <v>1</v>
@@ -4105,19 +4108,19 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D80" s="13">
         <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -4129,9 +4132,9 @@
       </c>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4143,7 +4146,7 @@
         <v>-1</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -4155,10 +4158,10 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="P81" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>7</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -4185,9 +4188,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -4199,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>1</v>
@@ -4211,9 +4214,9 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>429</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -4225,7 +4228,7 @@
         <v>4</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -4239,10 +4242,13 @@
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4251,10 +4257,10 @@
         <v>63</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -4266,12 +4272,12 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="P85" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4283,13 +4289,13 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -4303,7 +4309,7 @@
         <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -4314,10 +4320,10 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="P87" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>72</v>
       </c>
@@ -4331,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G88" s="3">
         <v>1</v>
@@ -4343,7 +4349,7 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>54</v>
       </c>
@@ -4351,13 +4357,13 @@
         <v>1</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D89" s="13">
         <v>1</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G89" s="3">
         <v>1</v>
@@ -4369,7 +4375,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>73</v>
       </c>
@@ -4383,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G90" s="3">
         <v>1</v>
@@ -4395,7 +4401,7 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -4409,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G91" s="3">
         <v>1</v>
@@ -4421,9 +4427,9 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -4435,7 +4441,7 @@
         <v>2</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -4447,7 +4453,7 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>55</v>
       </c>
@@ -4455,13 +4461,13 @@
         <v>1</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D93" s="13">
         <v>2</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -4473,12 +4479,12 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94">
         <v>7</v>
@@ -4487,10 +4493,10 @@
         <v>88</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -4502,10 +4508,10 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="P94" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>56</v>
       </c>
@@ -4513,13 +4519,13 @@
         <v>1</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D95" s="13">
         <v>1</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3">
@@ -4531,7 +4537,7 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>32</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -4559,7 +4565,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4571,7 +4577,7 @@
         <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -4579,7 +4585,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -4591,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -4603,12 +4609,12 @@
         <v>1</v>
       </c>
       <c r="O98" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -4620,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I99" s="3">
         <v>1</v>
@@ -4631,10 +4637,10 @@
         <v>1</v>
       </c>
       <c r="O99" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
@@ -4651,7 +4657,7 @@
         <v>2</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -4665,7 +4671,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -4677,7 +4683,7 @@
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -4697,7 +4703,7 @@
         <v>2</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -4717,13 +4723,13 @@
         <v>1</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D103" s="17">
         <v>0</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -4735,7 +4741,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="P103" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
@@ -4746,13 +4752,13 @@
         <v>1</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D104" s="13">
         <v>1</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -4764,24 +4770,24 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="N104" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D105" s="13">
         <v>1</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -4801,13 +4807,13 @@
         <v>1</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D106" s="13">
         <v>5</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -4819,7 +4825,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -4828,10 +4834,10 @@
         <v>24</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I107" s="3">
         <v>1</v>
@@ -4842,15 +4848,15 @@
         <v>1</v>
       </c>
       <c r="O107" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -4862,7 +4868,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -4870,7 +4876,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -4882,7 +4888,7 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -4902,7 +4908,7 @@
         <v>3</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -4928,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G111" s="3">
         <v>1</v>
@@ -4948,13 +4954,13 @@
         <v>1</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D112" s="13">
         <v>4</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -4969,7 +4975,7 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -4981,7 +4987,7 @@
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -5001,7 +5007,7 @@
         <v>-1</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -5013,7 +5019,7 @@
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
       <c r="P114" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
@@ -5030,7 +5036,7 @@
         <v>3</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -5045,7 +5051,7 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
       <c r="P115" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
@@ -5062,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
@@ -5088,7 +5094,7 @@
         <v>-2</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3">
@@ -5114,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G118" s="3">
         <v>1</v>
@@ -5140,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G119" s="3">
         <v>1</v>
@@ -5154,7 +5160,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -5166,7 +5172,7 @@
         <v>2</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G120" s="3">
         <v>1</v>
@@ -5192,7 +5198,7 @@
         <v>2</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G121" s="3">
         <v>1</v>
@@ -5218,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -5230,7 +5236,7 @@
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
       <c r="P122" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
@@ -5241,13 +5247,13 @@
         <v>1</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D123" s="13">
         <v>2</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -5261,7 +5267,7 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -5273,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
@@ -5299,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
@@ -5313,7 +5319,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -5325,7 +5331,7 @@
         <v>-2</v>
       </c>
       <c r="E126" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -5333,7 +5339,7 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -5345,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -5353,19 +5359,19 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D128" s="17">
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
@@ -5377,7 +5383,7 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -5389,7 +5395,7 @@
         <v>2</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -5403,19 +5409,19 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B130">
         <v>2</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D130" s="17">
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -5432,10 +5438,10 @@
         <v>24</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -5447,12 +5453,12 @@
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -5464,7 +5470,7 @@
         <v>3</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G132" s="3">
         <v>1</v>
@@ -5490,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
@@ -5502,7 +5508,7 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -5514,7 +5520,7 @@
         <v>5</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -5526,7 +5532,7 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -5538,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -5546,19 +5552,19 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D136" s="17">
         <v>4</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -5573,7 +5579,7 @@
         <v>1</v>
       </c>
       <c r="O136" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
@@ -5590,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
@@ -5602,24 +5608,24 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
       <c r="N137" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D138" s="13">
         <v>2</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
@@ -5631,24 +5637,24 @@
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
       <c r="P138" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D139" s="13">
         <v>2</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
@@ -5674,7 +5680,7 @@
         <v>3</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G140" s="3">
         <v>1</v>
@@ -5700,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G141" s="3">
         <v>1</v>
@@ -5720,13 +5726,13 @@
         <v>1</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D142" s="13">
         <v>-1</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3">
@@ -5752,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G143" s="3">
         <v>1</v>
@@ -5778,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G144" s="3">
         <v>1</v>
@@ -5792,7 +5798,7 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -5804,7 +5810,7 @@
         <v>2</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -5820,13 +5826,16 @@
       </c>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
-      <c r="Q145" t="s">
-        <v>264</v>
+      <c r="P145" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q145" s="23" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B146">
         <v>2</v>
@@ -5838,13 +5847,13 @@
         <v>-1</v>
       </c>
       <c r="E146" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
@@ -5861,7 +5870,7 @@
         <v>2</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -5887,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -5913,7 +5922,7 @@
         <v>-1</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
@@ -5925,12 +5934,12 @@
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
       <c r="P149" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -5942,7 +5951,7 @@
         <v>2</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -5956,7 +5965,7 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B151">
         <v>2</v>
@@ -5968,7 +5977,7 @@
         <v>-1</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3">
@@ -5982,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="O151" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
@@ -5999,7 +6008,7 @@
         <v>2</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -6011,7 +6020,7 @@
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
       <c r="N152" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
@@ -6025,10 +6034,10 @@
         <v>24</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
@@ -6040,7 +6049,7 @@
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
       <c r="P153" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
@@ -6057,7 +6066,7 @@
         <v>2</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G154" s="3">
         <v>1</v>
@@ -6083,7 +6092,7 @@
         <v>3</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -6098,12 +6107,12 @@
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
       <c r="P155" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -6115,7 +6124,7 @@
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L156">
         <v>1</v>
@@ -6135,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
@@ -6147,7 +6156,7 @@
       <c r="L157" s="3"/>
       <c r="M157" s="3"/>
       <c r="N157" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
@@ -6164,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G158" s="3">
         <v>1</v>
@@ -6190,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G159" s="3">
         <v>1</v>
@@ -6204,7 +6213,7 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -6216,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G160" s="3">
         <v>1</v>
@@ -6230,7 +6239,7 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -6242,12 +6251,12 @@
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -6259,7 +6268,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G162" s="3">
         <v>1</v>
@@ -6277,13 +6286,13 @@
         <v>1</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D163" s="13">
         <v>0</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G163" s="3">
         <v>1</v>
@@ -6309,7 +6318,7 @@
         <v>17</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F164" s="3">
         <v>1</v>
@@ -6324,12 +6333,12 @@
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
       <c r="P164" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -6341,13 +6350,13 @@
         <v>-1</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
@@ -6364,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G166" s="3">
         <v>1</v>
@@ -6378,7 +6387,7 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B167">
         <v>2</v>
@@ -6390,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
@@ -6402,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="O167" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
@@ -6419,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G168" s="3">
         <v>1</v>
@@ -6433,7 +6442,7 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -6445,7 +6454,7 @@
         <v>2</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G169" s="3">
         <v>1</v>
@@ -6471,7 +6480,7 @@
         <v>3</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -6498,7 +6507,7 @@
         <v>-2</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G171" s="3">
         <v>1</v>
@@ -6524,7 +6533,7 @@
         <v>2</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -6540,13 +6549,16 @@
       </c>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
+      <c r="P172" s="23" t="s">
+        <v>426</v>
+      </c>
       <c r="Q172" s="23" t="s">
-        <v>233</v>
+        <v>427</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -6558,7 +6570,7 @@
         <v>2</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G173" s="3">
         <v>1</v>
@@ -6572,7 +6584,7 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -6584,7 +6596,7 @@
         <v>-1</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -6596,24 +6608,24 @@
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
       <c r="N174" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>202</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175" t="s">
         <v>203</v>
-      </c>
-      <c r="B175">
-        <v>2</v>
-      </c>
-      <c r="C175" t="s">
-        <v>204</v>
       </c>
       <c r="D175" s="17">
         <v>4</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -6630,7 +6642,7 @@
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -6642,7 +6654,7 @@
         <v>2</v>
       </c>
       <c r="E176" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -6662,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
@@ -6676,7 +6688,7 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -6688,7 +6700,7 @@
         <v>-2</v>
       </c>
       <c r="E178" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -6725,25 +6737,25 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -6751,19 +6763,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
         <v>169</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>170</v>
-      </c>
-      <c r="E2" t="s">
-        <v>171</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -6771,19 +6783,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" t="s">
         <v>170</v>
-      </c>
-      <c r="E3" t="s">
-        <v>171</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -6791,19 +6803,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
         <v>170</v>
-      </c>
-      <c r="E4" t="s">
-        <v>171</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -6811,19 +6823,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" t="s">
         <v>170</v>
-      </c>
-      <c r="E5" t="s">
-        <v>171</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
@@ -6831,19 +6843,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" t="s">
         <v>170</v>
-      </c>
-      <c r="E6" t="s">
-        <v>171</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
@@ -6851,19 +6863,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" t="s">
         <v>170</v>
-      </c>
-      <c r="E7" t="s">
-        <v>171</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
@@ -6871,19 +6883,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" t="s">
         <v>170</v>
-      </c>
-      <c r="E8" t="s">
-        <v>171</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
@@ -6891,19 +6903,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" t="s">
         <v>170</v>
-      </c>
-      <c r="E9" t="s">
-        <v>171</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -6911,19 +6923,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" t="s">
         <v>170</v>
-      </c>
-      <c r="E10" t="s">
-        <v>171</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
@@ -6931,19 +6943,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" t="s">
         <v>170</v>
-      </c>
-      <c r="E11" t="s">
-        <v>171</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
@@ -6951,19 +6963,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" t="s">
         <v>170</v>
-      </c>
-      <c r="E12" t="s">
-        <v>171</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -6971,19 +6983,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" t="s">
         <v>170</v>
-      </c>
-      <c r="E13" t="s">
-        <v>171</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
@@ -6991,19 +7003,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" t="s">
         <v>170</v>
-      </c>
-      <c r="E14" t="s">
-        <v>171</v>
       </c>
       <c r="F14" t="s">
         <v>3</v>
@@ -7011,19 +7023,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" t="s">
         <v>170</v>
-      </c>
-      <c r="E15" t="s">
-        <v>171</v>
       </c>
       <c r="F15" t="s">
         <v>3</v>
@@ -7031,19 +7043,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" t="s">
         <v>170</v>
-      </c>
-      <c r="E16" t="s">
-        <v>171</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
@@ -7051,19 +7063,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" t="s">
         <v>170</v>
-      </c>
-      <c r="E17" t="s">
-        <v>171</v>
       </c>
       <c r="F17" t="s">
         <v>3</v>
@@ -7071,19 +7083,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" t="s">
         <v>170</v>
-      </c>
-      <c r="E18" t="s">
-        <v>171</v>
       </c>
       <c r="F18" t="s">
         <v>3</v>
@@ -7091,19 +7103,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" t="s">
         <v>170</v>
-      </c>
-      <c r="E19" t="s">
-        <v>171</v>
       </c>
       <c r="F19" t="s">
         <v>3</v>
@@ -7133,33 +7145,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -7168,18 +7180,18 @@
         <v>-1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -7188,18 +7200,18 @@
         <v>-1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -7208,18 +7220,18 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -7228,18 +7240,18 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
@@ -7248,18 +7260,18 @@
         <v>-1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>2</v>
@@ -7268,18 +7280,18 @@
         <v>0</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>2</v>
@@ -7288,18 +7300,18 @@
         <v>-1</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>2</v>
@@ -7308,19 +7320,19 @@
         <v>-1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>2</v>
@@ -7329,19 +7341,19 @@
         <v>-1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>2</v>
@@ -7350,18 +7362,18 @@
         <v>-1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>2</v>
@@ -7370,18 +7382,18 @@
         <v>-2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>2</v>
@@ -7390,18 +7402,18 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>2</v>
@@ -7410,18 +7422,18 @@
         <v>-1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>2</v>
@@ -7430,18 +7442,18 @@
         <v>-1</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>2</v>
@@ -7450,18 +7462,18 @@
         <v>-1</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>2</v>
@@ -7470,18 +7482,18 @@
         <v>-1</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>2</v>
@@ -7490,18 +7502,18 @@
         <v>-1</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>2</v>
@@ -7510,380 +7522,380 @@
         <v>-1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E20">
         <v>-1</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21">
         <v>-1</v>
       </c>
       <c r="F21" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E23">
         <v>-1</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E24">
         <v>-1</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E25">
         <v>-1</v>
       </c>
       <c r="F25" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E26">
         <v>-1</v>
       </c>
       <c r="F26" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E27">
         <v>-1</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E28">
         <v>-1</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E29">
         <v>-1</v>
       </c>
       <c r="F29" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E30">
         <v>-1</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E31">
         <v>-1</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E32">
         <v>-1</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E33">
         <v>-1</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E34">
         <v>-1</v>
       </c>
       <c r="F34" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E35">
         <v>-1</v>
       </c>
       <c r="F35" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E36">
         <v>-1</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37">
         <v>-1</v>
       </c>
       <c r="F37" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>2</v>
@@ -7891,13 +7903,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>2</v>
@@ -7906,13 +7918,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>2</v>
@@ -7920,13 +7932,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>2</v>
@@ -7934,13 +7946,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>2</v>
@@ -7948,13 +7960,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>2</v>
@@ -7962,13 +7974,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>2</v>
@@ -7976,13 +7988,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>2</v>
@@ -7990,13 +8002,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>2</v>
@@ -8004,13 +8016,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>2</v>
@@ -8018,13 +8030,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>2</v>
@@ -8032,13 +8044,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>2</v>
@@ -8046,13 +8058,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>2</v>
@@ -8060,13 +8072,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>2</v>
@@ -8075,13 +8087,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>2</v>
@@ -8089,13 +8101,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>2</v>
@@ -8103,13 +8115,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>2</v>
@@ -8117,13 +8129,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>2</v>
@@ -8131,13 +8143,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>2</v>
@@ -8145,13 +8157,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>2</v>
@@ -8159,13 +8171,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>2</v>
@@ -8173,13 +8185,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>2</v>
@@ -8187,13 +8199,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>2</v>
@@ -8201,13 +8213,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>2</v>
@@ -8215,13 +8227,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>2</v>
@@ -8229,13 +8241,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>2</v>
@@ -8243,13 +8255,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>2</v>
@@ -8257,13 +8269,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>2</v>
@@ -8271,436 +8283,436 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/DoomPy/files/cards.xlsx
+++ b/DoomPy/files/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/DoomPy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDD2680-2C0E-7F44-B6B1-B19A42ED5629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9C7BCD-63C3-1E4A-9B40-27419EE22764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="880" windowWidth="32360" windowHeight="24400" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
+    <workbookView xWindow="620" yWindow="880" windowWidth="39460" windowHeight="24400" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
   <sheets>
     <sheet name="traits" sheetId="1" r:id="rId1"/>
@@ -672,18 +672,9 @@
     <t>Automimicry (-1)</t>
   </si>
   <si>
-    <t>1 discarded_dominant</t>
-  </si>
-  <si>
     <t>attachment</t>
   </si>
   <si>
-    <t>equal all_swarm</t>
-  </si>
-  <si>
-    <t>equal max_gene_pool</t>
-  </si>
-  <si>
     <t>Boredom (1)</t>
   </si>
   <si>
@@ -693,21 +684,12 @@
     <t>effectless</t>
   </si>
   <si>
-    <t>1 discarded_3_negative_traits</t>
-  </si>
-  <si>
     <t>is_color_of_choice</t>
   </si>
   <si>
     <t>Multi-Color</t>
   </si>
   <si>
-    <t>1 all_mythlings</t>
-  </si>
-  <si>
-    <t>1 other_green_pairs</t>
-  </si>
-  <si>
     <t>Fortunate (1)</t>
   </si>
   <si>
@@ -726,18 +708,6 @@
     <t>Camouflage (1)</t>
   </si>
   <si>
-    <t>4 if_all_colors</t>
-  </si>
-  <si>
-    <t>2 if_green_most_traits</t>
-  </si>
-  <si>
-    <t>equal host</t>
-  </si>
-  <si>
-    <t>1 discarded_dinolings</t>
-  </si>
-  <si>
     <t>Automimicry (0)</t>
   </si>
   <si>
@@ -765,69 +735,6 @@
     <t>1 all</t>
   </si>
   <si>
-    <t>1 self_blue</t>
-  </si>
-  <si>
-    <t>1 self_color_host</t>
-  </si>
-  <si>
-    <t>1 self_colorless</t>
-  </si>
-  <si>
-    <t>1 self_effectless</t>
-  </si>
-  <si>
-    <t>1 self_green</t>
-  </si>
-  <si>
-    <t>1 self_green_pairs</t>
-  </si>
-  <si>
-    <t>1 self_hand</t>
-  </si>
-  <si>
-    <t>1 self_hand_different_colors</t>
-  </si>
-  <si>
-    <t>1 self_purple</t>
-  </si>
-  <si>
-    <t>1 self_red</t>
-  </si>
-  <si>
-    <t>1 self_value_1</t>
-  </si>
-  <si>
-    <t>2 self_hand_dominant</t>
-  </si>
-  <si>
-    <t>2 self_lowest_color_count</t>
-  </si>
-  <si>
-    <t>2 self_negative</t>
-  </si>
-  <si>
-    <t>equal self_different_colors</t>
-  </si>
-  <si>
-    <t>equal self_gene_pool</t>
-  </si>
-  <si>
-    <t>equal self_hand</t>
-  </si>
-  <si>
-    <t>equal self_hand_cards_with_effects</t>
-  </si>
-  <si>
-    <t>equal self_kidney</t>
-  </si>
-  <si>
-    <t>-1 self_traits</t>
-  </si>
-  <si>
-    <t>4 self_if_most_traits</t>
-  </si>
-  <si>
     <t>Age of Peace</t>
   </si>
   <si>
@@ -1257,9 +1164,6 @@
     <t>effect_worlds_end</t>
   </si>
   <si>
-    <t>1 self_techlings 2 self_techlings_if_attachment_here</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
@@ -1323,13 +1227,109 @@
     <t>choose_color</t>
   </si>
   <si>
-    <t>1 self_color_worlds_end</t>
-  </si>
-  <si>
-    <t>-1 other_color_worlds_end</t>
-  </si>
-  <si>
     <t>drops</t>
+  </si>
+  <si>
+    <t>1 self n_colorless own</t>
+  </si>
+  <si>
+    <t>-1 other n_color_worlds_end own</t>
+  </si>
+  <si>
+    <t>-1 self n_traits own</t>
+  </si>
+  <si>
+    <t>1 self n_mythlings all</t>
+  </si>
+  <si>
+    <t>1 self n_3_negative_traits discarded</t>
+  </si>
+  <si>
+    <t>1 self n_dinolings discarded</t>
+  </si>
+  <si>
+    <t>1 self n_dominant discarded</t>
+  </si>
+  <si>
+    <t>1 self n_green_pairs other</t>
+  </si>
+  <si>
+    <t>1 self n_blue own</t>
+  </si>
+  <si>
+    <t>1 self n_color_host own</t>
+  </si>
+  <si>
+    <t>1 self n_color_worlds_end own</t>
+  </si>
+  <si>
+    <t>1 self n_effectless own</t>
+  </si>
+  <si>
+    <t>1 self n_green own</t>
+  </si>
+  <si>
+    <t>1 self n_green_pairs own</t>
+  </si>
+  <si>
+    <t>1 self n_hand own</t>
+  </si>
+  <si>
+    <t>1 self n_purple own</t>
+  </si>
+  <si>
+    <t>1 self n_red own</t>
+  </si>
+  <si>
+    <t>1 self n_techlings own 2 self n_techlings_if_BionicArms_is_host own</t>
+  </si>
+  <si>
+    <t>1 self n_face_is_1 own</t>
+  </si>
+  <si>
+    <t>2 self if_green_most_traits own</t>
+  </si>
+  <si>
+    <t>2 self n_dominant hand</t>
+  </si>
+  <si>
+    <t>2 self lowest_color_count own</t>
+  </si>
+  <si>
+    <t>2 self n_negative own</t>
+  </si>
+  <si>
+    <t>4 self if_all_colors own</t>
+  </si>
+  <si>
+    <t>4 self if_most_traits all</t>
+  </si>
+  <si>
+    <t>n self n_swarm all</t>
+  </si>
+  <si>
+    <t>n self hand_cards_with_effects</t>
+  </si>
+  <si>
+    <t>n self n_kidney own</t>
+  </si>
+  <si>
+    <t>n self gene_pool_max all</t>
+  </si>
+  <si>
+    <t>n self gene_pool own</t>
+  </si>
+  <si>
+    <t>n self n_colors own</t>
+  </si>
+  <si>
+    <t>n self n_hand own</t>
+  </si>
+  <si>
+    <t>1 self n_solors_hand own</t>
+  </si>
+  <si>
+    <t>n self host own</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1676,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}" name="Tabelle2" displayName="Tabelle2" ref="A1:P213" totalsRowShown="0">
   <autoFilter ref="A1:P213" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P213">
-    <sortCondition ref="L1:L213"/>
+    <sortCondition ref="A1:A213"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{8166F61C-4699-3D4C-9D61-28AD00136FEA}" name="trait"/>
@@ -2018,7 +2018,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2037,19 +2037,19 @@
     <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>194</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>196</v>
@@ -2058,200 +2058,183 @@
         <v>198</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M1" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="N1" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="O1" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="P1" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="17">
-        <v>4</v>
+        <v>126</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="13">
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>417</v>
-      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>409</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="17">
-        <v>5</v>
+      <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="13">
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>106</v>
+        <v>368</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>414</v>
-      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>418</v>
+        <v>47</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="O4" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="C5" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>418</v>
+        <v>133</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>63</v>
+        <v>147</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="C6" s="17">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>411</v>
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>200</v>
+        <v>90</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C7" s="13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>106</v>
+        <v>368</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>413</v>
-      </c>
-      <c r="O7" t="s">
-        <v>243</v>
-      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>200</v>
+        <v>87</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C8" s="13">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>106</v>
+        <v>368</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -2261,329 +2244,258 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>413</v>
-      </c>
+      <c r="L8" s="3"/>
       <c r="O8" t="s">
-        <v>243</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>106</v>
+        <v>368</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>420</v>
-      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>420</v>
+        <v>210</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
+        <v>-1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>412</v>
-      </c>
-      <c r="O11" t="s">
-        <v>245</v>
+        <v>368</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="17">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>412</v>
-      </c>
-      <c r="O12" t="s">
-        <v>245</v>
-      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="D13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
+      <c r="C13" s="13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>411</v>
-      </c>
-      <c r="O13" t="s">
-        <v>231</v>
-      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="D14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
+      <c r="C14" s="13">
+        <v>2</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>411</v>
-      </c>
-      <c r="O14" t="s">
-        <v>231</v>
-      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="17">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>416</v>
-      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>200</v>
       </c>
       <c r="C16" s="17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>416</v>
-      </c>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>63</v>
+        <v>119</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="C17" s="17">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>106</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>415</v>
+      <c r="L17" s="3"/>
+      <c r="O17" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>106</v>
+        <v>127</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>216</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>415</v>
-      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>410</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>419</v>
+        <v>6</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="17">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>368</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>410</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="13">
-        <v>1</v>
+        <v>376</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="17">
+        <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>106</v>
@@ -2598,93 +2510,87 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21" s="13">
-        <v>2</v>
+        <v>377</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="17">
+        <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>63</v>
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C22" s="13">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F22" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
+      <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="O23" t="s">
-        <v>257</v>
+        <v>155</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="17">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>88</v>
+        <v>155</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="C24" s="17">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2692,59 +2598,65 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="17">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
+        <v>389</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="O25" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>88</v>
+        <v>212</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C26" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F26" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
+      <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>88</v>
+        <v>29</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C27" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2756,596 +2668,586 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="O27" t="s">
-        <v>262</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>24</v>
+        <v>224</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C28" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
+      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
+      <c r="O28" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>210</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>399</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="13">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>233</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="17">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>399</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="13">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="23" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>88</v>
+        <v>128</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="C31" s="13">
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>24</v>
+        <v>222</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C32" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
       <c r="J32" s="3"/>
-      <c r="K32" s="3">
-        <v>1</v>
-      </c>
+      <c r="K32" s="3"/>
       <c r="L32" s="3"/>
+      <c r="M32" t="s">
+        <v>229</v>
+      </c>
+      <c r="O32" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>24</v>
+        <v>221</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C33" s="13">
         <v>2</v>
       </c>
-      <c r="D33" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
+      <c r="D33" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
+      <c r="M33" t="s">
+        <v>229</v>
+      </c>
+      <c r="O33" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="13">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3">
-        <v>1</v>
-      </c>
-      <c r="L34" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="17">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>200</v>
+        <v>156</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="C35" s="17">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>151</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="17">
-        <v>-2</v>
+        <v>7</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>106</v>
+        <v>368</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-      <c r="O36" t="s">
-        <v>406</v>
-      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>205</v>
+        <v>68</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C37" s="13">
         <v>1</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="F37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="3">
-        <v>1</v>
-      </c>
+      <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="17">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>399</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
+      <c r="C38" s="13">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>200</v>
       </c>
       <c r="C39" s="13">
-        <v>2</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
+        <v>-2</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
       <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>155</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="17">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>151</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="13">
+        <v>-2</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>24</v>
+        <v>159</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="C41" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>151</v>
       </c>
-      <c r="F41">
-        <v>1</v>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>421</v>
-      </c>
-      <c r="B42" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
+      <c r="C42" s="17">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
       <c r="O42" t="s">
-        <v>259</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>215</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>200</v>
+        <v>129</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="C43" s="13">
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
+      <c r="K43" s="3">
+        <v>1</v>
+      </c>
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="13">
-        <v>0</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3">
-        <v>1</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="O44" t="s">
-        <v>222</v>
+        <v>107</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="17">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>106</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>234</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="13">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3">
-        <v>1</v>
-      </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="O45" t="s">
-        <v>253</v>
+        <v>107</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="17">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>106</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>235</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>88</v>
+        <v>30</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C46" s="13">
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>88</v>
+        <v>49</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C47" s="13">
         <v>4</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="3">
-        <v>1</v>
-      </c>
+      <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
-      <c r="M47" s="23" t="s">
-        <v>237</v>
-      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>128</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>206</v>
+        <v>44</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C48" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>220</v>
+        <v>368</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="3">
-        <v>1</v>
-      </c>
+      <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>228</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="13">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3">
-        <v>1</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1</v>
-      </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" t="s">
-        <v>239</v>
-      </c>
-      <c r="O49" t="s">
-        <v>248</v>
+        <v>160</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="17">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>227</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="13">
-        <v>2</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3">
-        <v>1</v>
-      </c>
-      <c r="I50" s="3">
-        <v>1</v>
-      </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" t="s">
-        <v>239</v>
-      </c>
-      <c r="O50" t="s">
-        <v>248</v>
+        <v>141</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="17">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>133</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>165</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>88</v>
+        <v>135</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="C51" s="17">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51">
+        <v>133</v>
+      </c>
+      <c r="K51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="17">
-        <v>4</v>
-      </c>
-      <c r="D52" t="s">
-        <v>151</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C53" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -3354,122 +3256,118 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="13">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="17">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
+      <c r="O54" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C55" s="13">
         <v>1</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="I55" s="3">
+        <v>1</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
+      <c r="M55" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C56" s="13">
-        <v>-2</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3">
-        <v>1</v>
-      </c>
-      <c r="L56" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="17">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>368</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="13">
-        <v>-2</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="17">
+        <v>-3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C58" s="17">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>151</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="13">
+        <v>-1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
       <c r="O58" t="s">
-        <v>218</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>200</v>
+        <v>162</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="C59" s="17">
         <v>1</v>
@@ -3477,338 +3375,368 @@
       <c r="D59" t="s">
         <v>151</v>
       </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="O59" t="s">
-        <v>218</v>
+      <c r="F59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>129</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C60" s="13">
+        <v>116</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="17">
         <v>1</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="3">
-        <v>1</v>
-      </c>
-      <c r="L60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="13">
-        <v>2</v>
+        <v>226</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="17">
+        <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F61" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="3">
-        <v>1</v>
-      </c>
+      <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C62" s="13">
-        <v>4</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="17">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>200</v>
       </c>
       <c r="C63" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="J63" s="3">
+        <v>1</v>
+      </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>200</v>
+        <v>138</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="C64" s="17">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D64" t="s">
-        <v>151</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>141</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C65" s="17">
-        <v>4</v>
-      </c>
-      <c r="D65" t="s">
-        <v>133</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="13">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>135</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>133</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="13">
+        <v>4</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="P66" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>63</v>
+        <v>94</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C67" s="13">
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="K67" s="3">
+        <v>1</v>
+      </c>
       <c r="L67" s="3"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>200</v>
       </c>
       <c r="C68" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F68" s="3">
-        <v>1</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
+      <c r="K68" s="3">
+        <v>1</v>
+      </c>
       <c r="L68" s="3"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>148</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="17">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>133</v>
-      </c>
-      <c r="H69" s="3">
-        <v>1</v>
-      </c>
-      <c r="I69" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="13">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3">
+        <v>1</v>
+      </c>
       <c r="J69" s="3"/>
-      <c r="O69" t="s">
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="13">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3">
-        <v>1</v>
-      </c>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="17">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
       <c r="M70" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>1</v>
+        <v>139</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="C71" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>399</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="M71" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C72" s="17">
-        <v>-3</v>
-      </c>
-      <c r="D72" t="s">
-        <v>133</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="13">
+        <v>2</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3">
+        <v>1</v>
+      </c>
+      <c r="L72" s="3"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C73" s="13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="3">
-        <v>1</v>
-      </c>
+      <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
+      <c r="K73" s="3">
+        <v>1</v>
+      </c>
       <c r="L73" s="3"/>
-      <c r="O73" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>162</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C74" s="17">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
-        <v>151</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="13">
+        <v>3</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3">
+        <v>1</v>
+      </c>
+      <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>236</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75" s="17">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="13">
+        <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>106</v>
+        <v>368</v>
       </c>
       <c r="F75" s="3">
         <v>1</v>
@@ -3822,149 +3750,148 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>152</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="17">
-        <v>1</v>
-      </c>
-      <c r="D76" t="s">
-        <v>151</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
+        <v>390</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3">
+        <v>1</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="O76" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>224</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>200</v>
+        <v>217</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C77" s="13">
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
+      <c r="H77" s="3">
+        <v>1</v>
+      </c>
       <c r="I77" s="3"/>
-      <c r="J77" s="3">
-        <v>1</v>
-      </c>
+      <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
+      <c r="O77" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>138</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D78" t="s">
-        <v>133</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="O78" t="s">
-        <v>221</v>
+        <v>132</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="13">
+        <v>2</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3">
+        <v>1</v>
+      </c>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="P78" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>93</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" s="13">
-        <v>1</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="17">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>151</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="M79" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>45</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C80" s="13">
-        <v>4</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3">
-        <v>1</v>
-      </c>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="P80" t="s">
-        <v>426</v>
+        <v>149</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="17">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>133</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="13">
-        <v>1</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3">
-        <v>1</v>
-      </c>
-      <c r="L81" s="3"/>
+      <c r="C81" s="17">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>133</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>51</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C82" s="13">
         <v>1</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -3978,111 +3905,127 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>31</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>24</v>
+        <v>114</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="C83" s="13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>399</v>
+        <v>106</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3">
-        <v>1</v>
-      </c>
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
+      <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" t="s">
-        <v>239</v>
+      <c r="L83" s="3">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>381</v>
+      </c>
+      <c r="O83" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>139</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C84" s="17">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>133</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="M84" t="s">
-        <v>241</v>
+        <v>114</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" s="13">
+        <v>-1</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>381</v>
+      </c>
+      <c r="O84" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>139</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C85" s="17">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>133</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="M85" t="s">
-        <v>241</v>
+        <v>53</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3">
+        <v>1</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="O85" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>71</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" s="13">
-        <v>2</v>
+        <v>115</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" s="17">
+        <v>-1</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F86" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="3">
-        <v>1</v>
-      </c>
+      <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>95</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>88</v>
+        <v>130</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="C87" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>399</v>
+        <v>216</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -4096,43 +4039,47 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>52</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>200</v>
+        <v>96</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C88" s="13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
+      <c r="H88" s="3">
+        <v>1</v>
+      </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="3">
-        <v>1</v>
-      </c>
+      <c r="K88" s="3"/>
       <c r="L88" s="3"/>
+      <c r="O88" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C89" s="13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -4142,197 +4089,205 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>422</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>424</v>
+        <v>97</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="13">
+        <v>2</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F90" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="F90" s="3">
+        <v>1</v>
+      </c>
       <c r="G90" s="3"/>
-      <c r="H90" s="3">
-        <v>1</v>
-      </c>
+      <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-      <c r="O90" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>223</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>24</v>
+        <v>393</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C91" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="3">
-        <v>1</v>
-      </c>
+      <c r="H91" s="3"/>
       <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
+      <c r="J91" s="3">
+        <v>1</v>
+      </c>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
-      <c r="O91" t="s">
-        <v>230</v>
+      <c r="P91" s="23" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>132</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C92" s="13">
-        <v>2</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>220</v>
+        <v>117</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
+      <c r="H92" s="3">
+        <v>1</v>
+      </c>
       <c r="I92" s="3"/>
-      <c r="J92" s="3">
-        <v>1</v>
-      </c>
+      <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
-      <c r="P92" t="s">
-        <v>219</v>
+      <c r="O92" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>157</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>24</v>
+        <v>136</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>1</v>
       </c>
       <c r="C93" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>151</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-      <c r="M93" t="s">
-        <v>240</v>
+        <v>133</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>149</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>88</v>
+        <v>4</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>1</v>
       </c>
       <c r="C94" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>133</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
+        <v>368</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="H94" s="3">
+        <v>1</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="O94" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>149</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C95" s="17">
-        <v>2</v>
-      </c>
-      <c r="D95" t="s">
-        <v>133</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="13">
+        <v>1</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>12</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C96" s="13">
         <v>1</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F96" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="3">
-        <v>1</v>
-      </c>
+      <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>53</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>424</v>
+        <v>73</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F97" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
       <c r="G97" s="3"/>
-      <c r="H97" s="3">
-        <v>1</v>
-      </c>
+      <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
-      <c r="O97" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>115</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C98" s="17">
-        <v>-1</v>
+        <v>13</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="13">
+        <v>1</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>106</v>
+        <v>368</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -4344,143 +4299,145 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>130</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>208</v>
+        <v>124</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C99" s="13">
-        <v>1</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F99" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="3">
-        <v>1</v>
-      </c>
+      <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>96</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>88</v>
+        <v>55</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C100" s="13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="3">
-        <v>1</v>
-      </c>
-      <c r="I100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3">
+        <v>1</v>
+      </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
-      <c r="O100" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M100" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>23</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C101" s="13">
-        <v>7</v>
+        <v>98</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>392</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
+      <c r="H101" s="3">
+        <v>1</v>
+      </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O101" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C102" s="13">
-        <v>2</v>
+      <c r="C102" s="17" t="s">
+        <v>392</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
+      <c r="H102" s="3">
+        <v>1</v>
+      </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O102" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>425</v>
+        <v>98</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C103" s="13">
-        <v>4</v>
+      <c r="C103" s="17" t="s">
+        <v>392</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
+      <c r="H103" s="3">
+        <v>1</v>
+      </c>
       <c r="I103" s="3"/>
-      <c r="J103" s="3">
-        <v>1</v>
-      </c>
+      <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
-      <c r="P103" s="23" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O103" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>117</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>63</v>
+        <v>98</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>106</v>
+        <v>368</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -4492,77 +4449,90 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="O104" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>136</v>
-      </c>
-      <c r="B105" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="17">
-        <v>3</v>
-      </c>
-      <c r="D105" t="s">
-        <v>133</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3">
+        <v>1</v>
+      </c>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="O105" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>4</v>
-      </c>
-      <c r="B106" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" s="17">
-        <v>4</v>
-      </c>
-      <c r="D106" t="s">
-        <v>399</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
       <c r="H106" s="3">
         <v>1</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
       <c r="O106" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>72</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C107" s="13">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>392</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F107" s="3">
-        <v>1</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
+      <c r="H107" s="3">
+        <v>1</v>
+      </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O107" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>200</v>
@@ -4571,255 +4541,241 @@
         <v>1</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F108" s="3">
-        <v>1</v>
-      </c>
-      <c r="G108" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3">
+        <v>1</v>
+      </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>73</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C109" s="13">
         <v>1</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F109" s="3">
-        <v>1</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
+      <c r="K109" s="3">
+        <v>1</v>
+      </c>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110" s="13">
-        <v>1</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F110" s="3">
-        <v>1</v>
-      </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="17">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>124</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>63</v>
+        <v>110</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C111" s="13">
-        <v>2</v>
-      </c>
-      <c r="D111" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F111" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L111" s="3">
+        <v>1</v>
+      </c>
+      <c r="N111" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>55</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>200</v>
+        <v>110</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C112" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>399</v>
+        <v>106</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
-      <c r="I112" s="3">
-        <v>1</v>
-      </c>
+      <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" t="s">
-        <v>239</v>
+      <c r="L112" s="3">
+        <v>1</v>
+      </c>
+      <c r="N112" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>98</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="17">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>106</v>
+      </c>
       <c r="H113" s="3">
         <v>1</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="N113" t="s">
+        <v>380</v>
+      </c>
       <c r="O113" t="s">
-        <v>260</v>
+        <v>408</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>98</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="17">
+        <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>106</v>
+      </c>
       <c r="H114" s="3">
         <v>1</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="N114" t="s">
+        <v>380</v>
+      </c>
       <c r="O114" t="s">
-        <v>260</v>
+        <v>408</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>98</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>424</v>
+        <v>74</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" s="13">
+        <v>2</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F115" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
       <c r="G115" s="3"/>
-      <c r="H115" s="3">
-        <v>1</v>
-      </c>
+      <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
-      <c r="O115" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>98</v>
-      </c>
-      <c r="B116" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B116" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C116" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3">
-        <v>1</v>
-      </c>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-      <c r="O116" t="s">
-        <v>260</v>
+      <c r="C116" s="17">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>133</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>98</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>424</v>
+        <v>14</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="13">
+        <v>2</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
-      <c r="H117" s="3">
-        <v>1</v>
-      </c>
+      <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
+      <c r="K117" s="3">
+        <v>1</v>
+      </c>
       <c r="L117" s="3"/>
-      <c r="O117" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>98</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>424</v>
+        <v>57</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C118" s="17">
+        <v>0</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
@@ -4831,266 +4787,265 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="O118" t="s">
-        <v>260</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>98</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>424</v>
+        <v>58</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C119" s="13">
+        <v>1</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
-      <c r="H119" s="3">
-        <v>1</v>
-      </c>
-      <c r="I119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3">
+        <v>1</v>
+      </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
-      <c r="O119" t="s">
-        <v>260</v>
+      <c r="M119" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>56</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>200</v>
+        <v>131</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="C120" s="13">
         <v>1</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>399</v>
+        <v>216</v>
       </c>
       <c r="F120" s="3"/>
-      <c r="G120" s="3">
-        <v>1</v>
-      </c>
+      <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
+      <c r="K120" s="3">
+        <v>1</v>
+      </c>
       <c r="L120" s="3"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>32</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>24</v>
+        <v>59</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C121" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="3">
-        <v>1</v>
-      </c>
+      <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>134</v>
-      </c>
-      <c r="B122" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C122" s="17">
-        <v>8</v>
+        <v>111</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>392</v>
       </c>
       <c r="D122" t="s">
-        <v>133</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="H122" s="3">
+        <v>1</v>
+      </c>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="N122" t="s">
+        <v>379</v>
+      </c>
+      <c r="O122" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>74</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C123" s="13">
-        <v>2</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F123" s="3">
-        <v>1</v>
-      </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D123" t="s">
+        <v>106</v>
+      </c>
+      <c r="H123" s="3">
+        <v>1</v>
+      </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
-      <c r="L123" s="3"/>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="N123" t="s">
+        <v>379</v>
+      </c>
+      <c r="O123" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>150</v>
-      </c>
-      <c r="B124" s="18" t="s">
-        <v>88</v>
+        <v>144</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="C124" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124" t="s">
         <v>133</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>14</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125" s="13">
-        <v>2</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3">
-        <v>1</v>
-      </c>
-      <c r="L125" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="17">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>106</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>57</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C126" s="17">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" s="13">
+        <v>3</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="3">
-        <v>1</v>
-      </c>
+      <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
+      <c r="K126" s="3">
+        <v>1</v>
+      </c>
       <c r="L126" s="3"/>
-      <c r="O126" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>58</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>200</v>
+        <v>76</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C127" s="13">
         <v>1</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F127" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="F127" s="3">
+        <v>1</v>
+      </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
-      <c r="I127" s="3">
-        <v>1</v>
-      </c>
+      <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
-      <c r="M127" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>131</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>209</v>
+        <v>46</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C128" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>220</v>
+        <v>368</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="3">
-        <v>1</v>
-      </c>
+      <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>59</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C129" s="13">
-        <v>5</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-      <c r="L129" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" s="17">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>133</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>144</v>
-      </c>
-      <c r="B130" s="16" t="s">
-        <v>63</v>
+        <v>140</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="C130" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130" t="s">
         <v>133</v>
@@ -5101,84 +5056,104 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>109</v>
-      </c>
-      <c r="B131" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C131" s="17">
-        <v>2</v>
-      </c>
-      <c r="D131" t="s">
-        <v>106</v>
-      </c>
-      <c r="F131">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" s="13">
+        <v>-1</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3">
+        <v>1</v>
+      </c>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="O131" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>75</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>63</v>
+        <v>25</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C132" s="13">
         <v>3</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
+      <c r="H132" s="3">
+        <v>1</v>
+      </c>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="3">
-        <v>1</v>
-      </c>
+      <c r="K132" s="3"/>
       <c r="L132" s="3"/>
+      <c r="O132" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>76</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>63</v>
+        <v>25</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C133" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F133" s="3">
-        <v>1</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" s="3"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
+      <c r="H133" s="3">
+        <v>1</v>
+      </c>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
+      <c r="O133" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>46</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>200</v>
+        <v>15</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C134" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-      <c r="F134" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="F134" s="3">
+        <v>1</v>
+      </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
@@ -5188,180 +5163,180 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>140</v>
-      </c>
-      <c r="B135" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C135" s="17">
-        <v>2</v>
-      </c>
-      <c r="D135" t="s">
-        <v>133</v>
-      </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C135" s="13">
+        <v>-2</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3">
+        <v>1</v>
+      </c>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>140</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C136" s="17">
-        <v>2</v>
-      </c>
-      <c r="D136" t="s">
-        <v>133</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C136" s="13">
+        <v>1</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F136" s="3">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C137" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F137" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="F137" s="3">
+        <v>1</v>
+      </c>
       <c r="G137" s="3"/>
-      <c r="H137" s="3">
-        <v>1</v>
-      </c>
+      <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
-      <c r="O137" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>25</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C138" s="13">
-        <v>3</v>
+        <v>120</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C138" s="17">
+        <v>2</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="F138" s="3">
+        <v>1</v>
+      </c>
       <c r="G138" s="3"/>
-      <c r="H138" s="3">
-        <v>1</v>
-      </c>
+      <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
-      <c r="O138" t="s">
-        <v>247</v>
-      </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>25</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>24</v>
+        <v>79</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C139" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="F139" s="3">
+        <v>1</v>
+      </c>
       <c r="G139" s="3"/>
-      <c r="H139" s="3">
-        <v>1</v>
-      </c>
+      <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
-      <c r="O139" t="s">
-        <v>247</v>
-      </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>15</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C140" s="13">
         <v>1</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F140" s="3">
-        <v>1</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="F140" s="3"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
+      <c r="H140" s="3">
+        <v>1</v>
+      </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
+      <c r="O140" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>77</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C141" s="13">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F141" s="3"/>
-      <c r="G141" s="3">
-        <v>1</v>
-      </c>
+      <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
+      <c r="J141" s="3">
+        <v>1</v>
+      </c>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>78</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>63</v>
+        <v>125</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C142" s="13">
-        <v>1</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>399</v>
+        <v>2</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>369</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -5375,7 +5350,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>24</v>
@@ -5384,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F143" s="3">
         <v>1</v>
@@ -5398,102 +5373,79 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>120</v>
-      </c>
-      <c r="B144" s="18" t="s">
-        <v>88</v>
+        <v>163</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="C144" s="17">
-        <v>2</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F144" s="3">
-        <v>1</v>
-      </c>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
-      <c r="L144" s="3"/>
+        <v>-2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>151</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>79</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C145" s="13">
-        <v>2</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F145" s="3">
-        <v>1</v>
-      </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
-      <c r="L145" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="17">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>151</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>35</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C146" s="13">
-        <v>1</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3">
-        <v>1</v>
-      </c>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
-      <c r="L146" s="3"/>
-      <c r="O146" t="s">
-        <v>252</v>
+        <v>153</v>
+      </c>
+      <c r="B146" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="17">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>151</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>60</v>
-      </c>
-      <c r="B147" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B147" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C147" s="13">
-        <v>2</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F147" s="3"/>
+      <c r="C147" s="17">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>151</v>
+      </c>
+      <c r="F147" s="3">
+        <v>1</v>
+      </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
-      <c r="J147" s="3">
-        <v>1</v>
-      </c>
-      <c r="K147" s="3"/>
-      <c r="L147" s="3"/>
+      <c r="J147" s="3"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>88</v>
@@ -5501,163 +5453,174 @@
       <c r="C148" s="13">
         <v>2</v>
       </c>
-      <c r="D148" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F148" s="3">
-        <v>1</v>
-      </c>
+      <c r="D148" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
+      <c r="K148" s="3">
+        <v>1</v>
+      </c>
       <c r="L148" s="3"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>36</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C149" s="13">
-        <v>1</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F149" s="3">
-        <v>1</v>
-      </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
-      <c r="L149" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C149" s="17">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>133</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>163</v>
-      </c>
-      <c r="B150" s="16" t="s">
-        <v>63</v>
+        <v>143</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="C150" s="17">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>151</v>
-      </c>
-      <c r="F150">
+        <v>133</v>
+      </c>
+      <c r="G150">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>153</v>
-      </c>
-      <c r="B151" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C151" s="17">
-        <v>1</v>
-      </c>
-      <c r="D151" t="s">
-        <v>151</v>
-      </c>
-      <c r="F151">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3">
+        <v>1</v>
+      </c>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
+      <c r="O151" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>153</v>
-      </c>
-      <c r="B152" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C152" s="17">
-        <v>1</v>
-      </c>
-      <c r="D152" t="s">
-        <v>151</v>
-      </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C152" s="13">
+        <v>3</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F152" s="3">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>161</v>
-      </c>
-      <c r="B153" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C153" s="17">
-        <v>1</v>
-      </c>
-      <c r="D153" t="s">
-        <v>151</v>
-      </c>
-      <c r="F153" s="3">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="13">
+        <v>0</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>99</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>88</v>
+        <v>16</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C154" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
-      <c r="K154" s="3">
-        <v>1</v>
-      </c>
+      <c r="K154" s="3"/>
       <c r="L154" s="3"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>143</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C155" s="17">
-        <v>2</v>
-      </c>
-      <c r="D155" t="s">
-        <v>133</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C155" s="13">
+        <v>5</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>143</v>
-      </c>
-      <c r="B156" s="19" t="s">
-        <v>200</v>
+        <v>137</v>
+      </c>
+      <c r="B156" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="C156" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156" t="s">
         <v>133</v>
@@ -5668,220 +5631,241 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>37</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>424</v>
+        <v>112</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C157" s="17">
+        <v>4</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>399</v>
+        <v>106</v>
+      </c>
+      <c r="E157" s="3">
+        <v>1</v>
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
-      <c r="H157" s="3">
-        <v>1</v>
-      </c>
+      <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
-      <c r="L157" s="3"/>
-      <c r="O157" t="s">
-        <v>257</v>
+      <c r="L157" s="3">
+        <v>1</v>
+      </c>
+      <c r="N157" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>100</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C158" s="13">
-        <v>3</v>
+        <v>112</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C158" s="17">
+        <v>4</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F158" s="3">
-        <v>1</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E158" s="3">
+        <v>1</v>
+      </c>
+      <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
-      <c r="L158" s="3"/>
+      <c r="L158" s="3">
+        <v>1</v>
+      </c>
+      <c r="N158" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C159" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
+      <c r="I159" s="3">
+        <v>1</v>
+      </c>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
+      <c r="M159" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>16</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>1</v>
+        <v>220</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C160" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
+      <c r="H160" s="3">
+        <v>1</v>
+      </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
+      <c r="O160" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>101</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>88</v>
+        <v>219</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C161" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
+      <c r="K161" s="3">
+        <v>1</v>
+      </c>
       <c r="L161" s="3"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>137</v>
-      </c>
-      <c r="B162" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C162" s="17">
-        <v>1</v>
-      </c>
-      <c r="D162" t="s">
-        <v>133</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="13">
+        <v>3</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F162" s="3">
+        <v>1</v>
+      </c>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C163" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F163" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="F163" s="3">
+        <v>1</v>
+      </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
-      <c r="I163" s="3">
-        <v>1</v>
-      </c>
+      <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
-      <c r="M163" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>226</v>
+        <v>61</v>
       </c>
       <c r="B164" s="11" t="s">
         <v>200</v>
       </c>
       <c r="C164" s="13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3">
-        <v>1</v>
-      </c>
+      <c r="G164" s="3">
+        <v>1</v>
+      </c>
+      <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
-      <c r="O164" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>225</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>200</v>
+        <v>38</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C165" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F165" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="F165" s="3">
+        <v>1</v>
+      </c>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="3">
-        <v>1</v>
-      </c>
+      <c r="K165" s="3"/>
       <c r="L165" s="3"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>22</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C166" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F166" s="3">
         <v>1</v>
@@ -5895,16 +5879,16 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>18</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C167" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F167" s="3">
         <v>1</v>
@@ -5918,289 +5902,305 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>61</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>200</v>
+        <v>89</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C168" s="13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
       </c>
       <c r="F168" s="3"/>
-      <c r="G168" s="3">
-        <v>1</v>
-      </c>
-      <c r="H168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3">
+        <v>1</v>
+      </c>
       <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
+      <c r="J168" s="3">
+        <v>1</v>
+      </c>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
+      <c r="O168" t="s">
+        <v>407</v>
+      </c>
+      <c r="P168" s="23" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>38</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C169" s="13">
-        <v>0</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F169" s="3">
-        <v>1</v>
-      </c>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
-      <c r="L169" s="3"/>
+        <v>367</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C169" s="17">
+        <v>-1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>151</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="O169" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>38</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C170" s="13">
-        <v>0</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F170" s="3">
-        <v>1</v>
-      </c>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3"/>
-      <c r="L170" s="3"/>
+        <v>367</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C170" s="17">
+        <v>-1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>151</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C171" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F171" s="3">
-        <v>1</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
+      <c r="J171" s="3">
+        <v>1</v>
+      </c>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>89</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>88</v>
+        <v>19</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C172" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E172">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
-      <c r="H172" s="3">
-        <v>1</v>
-      </c>
+      <c r="H172" s="3"/>
       <c r="I172" s="3"/>
-      <c r="J172" s="3">
-        <v>1</v>
-      </c>
-      <c r="K172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3">
+        <v>1</v>
+      </c>
       <c r="L172" s="3"/>
-      <c r="O172" t="s">
-        <v>428</v>
-      </c>
-      <c r="P172" s="23" t="s">
-        <v>427</v>
-      </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>398</v>
-      </c>
-      <c r="B173" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C173" s="17">
+        <v>82</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C173" s="13">
         <v>-1</v>
       </c>
-      <c r="D173" t="s">
-        <v>151</v>
-      </c>
-      <c r="H173">
-        <v>1</v>
-      </c>
+      <c r="D173" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3">
+        <v>1</v>
+      </c>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
+      <c r="L173" s="3"/>
       <c r="O173" t="s">
-        <v>211</v>
+        <v>412</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>398</v>
-      </c>
-      <c r="B174" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B174" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C174" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D174" t="s">
-        <v>151</v>
-      </c>
-      <c r="H174">
-        <v>1</v>
-      </c>
-      <c r="O174" t="s">
-        <v>211</v>
-      </c>
+      <c r="C174" s="13">
+        <v>2</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3">
+        <v>1</v>
+      </c>
+      <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>81</v>
-      </c>
-      <c r="B175" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B175" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C175" s="13">
-        <v>2</v>
+      <c r="C175" s="17">
+        <v>-1</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>399</v>
+        <v>106</v>
       </c>
       <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
+      <c r="G175" s="3">
+        <v>1</v>
+      </c>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
-      <c r="J175" s="3">
-        <v>1</v>
-      </c>
+      <c r="J175" s="3"/>
       <c r="K175" s="3"/>
-      <c r="L175" s="3"/>
+      <c r="L175" s="3">
+        <v>1</v>
+      </c>
+      <c r="N175" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>19</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C176" s="13">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="B176" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C176" s="17">
+        <v>-1</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>399</v>
+        <v>106</v>
       </c>
       <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
+      <c r="G176" s="3">
+        <v>1</v>
+      </c>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="3">
-        <v>1</v>
-      </c>
-      <c r="L176" s="3"/>
+      <c r="K176" s="3"/>
+      <c r="L176" s="3">
+        <v>1</v>
+      </c>
+      <c r="N176" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C177" s="13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
-      <c r="H177" s="3">
-        <v>1</v>
-      </c>
-      <c r="I177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3">
+        <v>1</v>
+      </c>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
-      <c r="O177" t="s">
-        <v>250</v>
+      <c r="M177" s="23" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>102</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C178" s="13">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>392</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
+      <c r="H178" s="3">
+        <v>1</v>
+      </c>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="3">
-        <v>1</v>
-      </c>
+      <c r="K178" s="3"/>
       <c r="L178" s="3"/>
+      <c r="O178" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>83</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C179" s="13">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>392</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3">
-        <v>1</v>
-      </c>
+      <c r="H179" s="3">
+        <v>1</v>
+      </c>
+      <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
-      <c r="M179" s="23" t="s">
-        <v>238</v>
+      <c r="O179" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.2">
@@ -6211,10 +6211,10 @@
         <v>24</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
@@ -6226,7 +6226,7 @@
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
       <c r="O180" t="s">
-        <v>213</v>
+        <v>422</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.2">
@@ -6237,10 +6237,10 @@
         <v>24</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
@@ -6252,7 +6252,7 @@
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
       <c r="O181" t="s">
-        <v>213</v>
+        <v>422</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.2">
@@ -6263,10 +6263,10 @@
         <v>24</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
@@ -6278,7 +6278,7 @@
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
       <c r="O182" t="s">
-        <v>213</v>
+        <v>422</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.2">
@@ -6289,10 +6289,10 @@
         <v>24</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
@@ -6304,47 +6304,47 @@
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="O183" t="s">
-        <v>213</v>
+        <v>422</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>39</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C184" s="17" t="s">
-        <v>424</v>
+        <v>20</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="13">
+        <v>2</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F184" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="F184" s="3">
+        <v>1</v>
+      </c>
       <c r="G184" s="3"/>
-      <c r="H184" s="3">
-        <v>1</v>
-      </c>
+      <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
-      <c r="O184" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>39</v>
-      </c>
-      <c r="B185" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B185" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C185" s="17" t="s">
-        <v>424</v>
+      <c r="C185" s="13">
+        <v>3</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
@@ -6356,81 +6356,78 @@
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
       <c r="O185" t="s">
-        <v>213</v>
+        <v>418</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>20</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C186" s="13">
-        <v>2</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F186" s="3">
-        <v>1</v>
-      </c>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
-      <c r="K186" s="3"/>
-      <c r="L186" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C186" s="17">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s">
+        <v>151</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>26</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>24</v>
+        <v>84</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C187" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E187">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
-      <c r="H187" s="3">
-        <v>1</v>
-      </c>
-      <c r="I187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3">
+        <v>1</v>
+      </c>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
-      <c r="O187" t="s">
-        <v>254</v>
+      <c r="M187" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>164</v>
-      </c>
-      <c r="B188" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B188" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C188" s="17">
-        <v>2</v>
-      </c>
-      <c r="D188" t="s">
-        <v>151</v>
-      </c>
-      <c r="K188">
-        <v>1</v>
-      </c>
+      <c r="C188" s="13">
+        <v>1</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F188" s="3">
+        <v>1</v>
+      </c>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+      <c r="L188" s="3"/>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>63</v>
@@ -6439,33 +6436,30 @@
         <v>1</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F189" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="F189" s="3">
+        <v>1</v>
+      </c>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
-      <c r="I189" s="3">
-        <v>1</v>
-      </c>
+      <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
-      <c r="M189" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>85</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C190" s="13">
         <v>1</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F190" s="3">
         <v>1</v>
@@ -6479,16 +6473,16 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>85</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C191" s="13">
         <v>1</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F191" s="3">
         <v>1</v>
@@ -6502,16 +6496,16 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>21</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C192" s="13">
         <v>1</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F192" s="3">
         <v>1</v>
@@ -6525,16 +6519,16 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>21</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C193" s="13">
         <v>1</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F193" s="3">
         <v>1</v>
@@ -6548,39 +6542,30 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>103</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C194" s="13">
-        <v>1</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F194" s="3">
-        <v>1</v>
-      </c>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
-      <c r="K194" s="3"/>
-      <c r="L194" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="B194" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="17">
+        <v>3</v>
+      </c>
+      <c r="D194" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>103</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C195" s="13">
-        <v>1</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>399</v>
+        <v>158</v>
+      </c>
+      <c r="B195" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C195" s="17">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>151</v>
       </c>
       <c r="F195" s="3">
         <v>1</v>
@@ -6589,138 +6574,153 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
-      <c r="K195" s="3"/>
-      <c r="L195" s="3"/>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>154</v>
-      </c>
-      <c r="B196" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C196" s="17">
-        <v>3</v>
-      </c>
-      <c r="D196" t="s">
-        <v>151</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C196" s="13">
+        <v>0</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F196" s="3">
+        <v>1</v>
+      </c>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
+      <c r="L196" s="3"/>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>158</v>
-      </c>
-      <c r="B197" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C197" s="17">
-        <v>1</v>
-      </c>
-      <c r="D197" t="s">
-        <v>151</v>
-      </c>
-      <c r="F197" s="3">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="13">
+        <v>17</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E197" s="3">
+        <v>1</v>
+      </c>
+      <c r="F197" s="3"/>
       <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
+      <c r="H197" s="3">
+        <v>1</v>
+      </c>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
+      <c r="O197" s="23" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>62</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C198" s="13">
-        <v>0</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F198" s="3">
-        <v>1</v>
-      </c>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
-      <c r="K198" s="3"/>
-      <c r="L198" s="3"/>
+        <v>166</v>
+      </c>
+      <c r="B198" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C198" s="17">
+        <v>-1</v>
+      </c>
+      <c r="D198" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="O198" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C199" s="13">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E199" s="3">
-        <v>1</v>
-      </c>
-      <c r="F199" s="3"/>
+        <v>368</v>
+      </c>
+      <c r="F199" s="3">
+        <v>1</v>
+      </c>
       <c r="G199" s="3"/>
-      <c r="H199" s="3">
-        <v>1</v>
-      </c>
+      <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
-      <c r="O199" s="23" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>166</v>
-      </c>
-      <c r="B200" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C200" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D200" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="H200">
-        <v>1</v>
-      </c>
-      <c r="O200" t="s">
-        <v>232</v>
+        <v>378</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C200" s="13">
+        <v>1</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="3"/>
+      <c r="L200" s="3">
+        <v>1</v>
+      </c>
+      <c r="N200" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>41</v>
-      </c>
-      <c r="B201" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B201" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C201" s="13">
         <v>1</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F201" s="3">
-        <v>1</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
-      <c r="L201" s="3"/>
+      <c r="L201" s="3">
+        <v>1</v>
+      </c>
+      <c r="N201" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
@@ -6733,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F202" s="3">
         <v>1</v>
@@ -6756,7 +6756,7 @@
         <v>2</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="F203" s="3">
         <v>1</v>
@@ -6779,7 +6779,7 @@
         <v>3</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -6803,7 +6803,7 @@
         <v>-2</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F205" s="3">
         <v>1</v>
@@ -6826,7 +6826,7 @@
         <v>2</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -6843,10 +6843,10 @@
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
       <c r="O206" s="23" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="P206" s="23" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.2">
@@ -6860,7 +6860,7 @@
         <v>2</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F207" s="3">
         <v>1</v>
@@ -6883,7 +6883,7 @@
         <v>-1</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
@@ -6895,7 +6895,7 @@
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
       <c r="M208" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
@@ -6909,7 +6909,7 @@
         <v>4</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -6935,7 +6935,7 @@
         <v>4</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -6978,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -7448,7 +7448,7 @@
         <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="C1" t="s">
         <v>196</v>
@@ -7457,59 +7457,59 @@
         <v>201</v>
       </c>
       <c r="E1" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
@@ -7517,21 +7517,21 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C8" t="s">
         <v>106</v>
@@ -7539,10 +7539,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
@@ -7551,10 +7551,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
@@ -7562,10 +7562,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
@@ -7573,10 +7573,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
@@ -7584,10 +7584,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
@@ -7595,10 +7595,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>2</v>
@@ -7606,10 +7606,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>2</v>
@@ -7617,10 +7617,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>2</v>
@@ -7628,21 +7628,21 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C18" t="s">
         <v>151</v>
@@ -7650,10 +7650,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>2</v>
@@ -7661,22 +7661,22 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>2</v>
@@ -7685,10 +7685,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>2</v>
@@ -7696,32 +7696,32 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>2</v>
@@ -7729,10 +7729,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>2</v>
@@ -7740,10 +7740,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>2</v>
@@ -7751,10 +7751,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>2</v>
@@ -7762,10 +7762,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>2</v>
@@ -7773,32 +7773,32 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>2</v>
@@ -7806,43 +7806,43 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>2</v>
@@ -7850,21 +7850,21 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>2</v>
@@ -7872,10 +7872,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>2</v>
@@ -7884,21 +7884,21 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C41" t="s">
         <v>133</v>
@@ -7906,10 +7906,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>2</v>
@@ -7917,32 +7917,32 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>2</v>
@@ -7950,21 +7950,21 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>2</v>
@@ -7972,66 +7972,66 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>2</v>
@@ -8039,10 +8039,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>2</v>
@@ -8050,32 +8050,32 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>2</v>
@@ -8083,32 +8083,32 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>2</v>
@@ -8116,10 +8116,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>2</v>
@@ -8128,15 +8128,15 @@
         <v>-1</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>2</v>
@@ -8145,83 +8145,83 @@
         <v>-1</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D64">
         <v>-1</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D65">
         <v>-1</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D66">
         <v>-1</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="B67" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C67" t="s">
         <v>106</v>
@@ -8230,32 +8230,32 @@
         <v>-1</v>
       </c>
       <c r="E67" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D68">
         <v>-1</v>
       </c>
       <c r="E68" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>2</v>
@@ -8264,15 +8264,15 @@
         <v>0</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>2</v>
@@ -8281,49 +8281,49 @@
         <v>0</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D71">
         <v>-1</v>
       </c>
       <c r="E71" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D72">
         <v>-1</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="B73" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C73" t="s">
         <v>133</v>
@@ -8332,15 +8332,15 @@
         <v>-1</v>
       </c>
       <c r="E73" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>2</v>
@@ -8349,15 +8349,15 @@
         <v>-1</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>2</v>
@@ -8366,32 +8366,32 @@
         <v>-1</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D76">
         <v>-1</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>2</v>
@@ -8400,15 +8400,15 @@
         <v>0</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>2</v>
@@ -8417,15 +8417,15 @@
         <v>-1</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="B79" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C79" t="s">
         <v>151</v>
@@ -8434,49 +8434,49 @@
         <v>-1</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D80">
         <v>-1</v>
       </c>
       <c r="E80" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D81">
         <v>-1</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>2</v>
@@ -8485,15 +8485,15 @@
         <v>-1</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>2</v>
@@ -8502,15 +8502,15 @@
         <v>-1</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>2</v>
@@ -8519,15 +8519,15 @@
         <v>-1</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>2</v>
@@ -8536,15 +8536,15 @@
         <v>-1</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>2</v>
@@ -8553,15 +8553,15 @@
         <v>-2</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>2</v>
@@ -8570,49 +8570,49 @@
         <v>1</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D88">
         <v>-1</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D89">
         <v>-1</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>2</v>
@@ -8621,15 +8621,15 @@
         <v>-1</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>2</v>
@@ -8638,32 +8638,32 @@
         <v>-1</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D92">
         <v>-1</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>2</v>
@@ -8672,32 +8672,32 @@
         <v>-1</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D94">
         <v>-1</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>2</v>
@@ -8706,15 +8706,15 @@
         <v>-1</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>2</v>
@@ -8723,15 +8723,15 @@
         <v>-1</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>2</v>
@@ -8740,58 +8740,58 @@
         <v>-1</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D98">
         <v>-1</v>
       </c>
       <c r="E98" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D99">
         <v>-1</v>
       </c>
       <c r="E99" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D100">
         <v>-1</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/DoomPy/files/cards.xlsx
+++ b/DoomPy/files/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/DoomPy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9C7BCD-63C3-1E4A-9B40-27419EE22764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6A127E-262A-CD42-B340-5148E072D2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="880" windowWidth="39460" windowHeight="24400" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
+    <workbookView xWindow="9420" yWindow="520" windowWidth="41600" windowHeight="26140" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
   <sheets>
     <sheet name="traits" sheetId="1" r:id="rId1"/>
@@ -1233,9 +1233,6 @@
     <t>1 self n_colorless own</t>
   </si>
   <si>
-    <t>-1 other n_color_worlds_end own</t>
-  </si>
-  <si>
     <t>-1 self n_traits own</t>
   </si>
   <si>
@@ -1269,12 +1266,6 @@
     <t>1 self n_green own</t>
   </si>
   <si>
-    <t>1 self n_green_pairs own</t>
-  </si>
-  <si>
-    <t>1 self n_hand own</t>
-  </si>
-  <si>
     <t>1 self n_purple own</t>
   </si>
   <si>
@@ -1290,9 +1281,6 @@
     <t>2 self if_green_most_traits own</t>
   </si>
   <si>
-    <t>2 self n_dominant hand</t>
-  </si>
-  <si>
     <t>2 self lowest_color_count own</t>
   </si>
   <si>
@@ -1308,9 +1296,6 @@
     <t>n self n_swarm all</t>
   </si>
   <si>
-    <t>n self hand_cards_with_effects</t>
-  </si>
-  <si>
     <t>n self n_kidney own</t>
   </si>
   <si>
@@ -1323,13 +1308,28 @@
     <t>n self n_colors own</t>
   </si>
   <si>
-    <t>n self n_hand own</t>
-  </si>
-  <si>
-    <t>1 self n_solors_hand own</t>
-  </si>
-  <si>
     <t>n self host own</t>
+  </si>
+  <si>
+    <t>2 self n_dominant own_hand</t>
+  </si>
+  <si>
+    <t>1 self n_hand own_hand</t>
+  </si>
+  <si>
+    <t>n self cards_with_effects own_hand</t>
+  </si>
+  <si>
+    <t>n self n_hand own_hand</t>
+  </si>
+  <si>
+    <t>1 self n_color_pairs own</t>
+  </si>
+  <si>
+    <t>1 self n_colors_hand own_hand</t>
+  </si>
+  <si>
+    <t>-1 opponents n_color_worlds_end own</t>
   </si>
 </sst>
 </file>
@@ -2017,8 +2017,8 @@
   <dimension ref="A1:P213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O34" sqref="O34"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2160,7 +2160,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="O4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -2246,7 +2246,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="O8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -2444,7 +2444,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="O17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -2619,7 +2619,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="O25" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -2668,7 +2668,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="O27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -2694,7 +2694,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="O28" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2800,7 +2800,7 @@
         <v>229</v>
       </c>
       <c r="O32" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -2834,7 +2834,7 @@
         <v>229</v>
       </c>
       <c r="O33" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -3003,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -3023,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -3273,7 +3273,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="O54" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -3359,7 +3359,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="O58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -3771,7 +3771,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="O76" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -3797,7 +3797,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="O77" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -3931,7 +3931,7 @@
         <v>381</v>
       </c>
       <c r="O83" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -3962,7 +3962,7 @@
         <v>381</v>
       </c>
       <c r="O84" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
@@ -3988,7 +3988,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="O85" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
@@ -4060,7 +4060,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="O88" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
@@ -4162,7 +4162,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="O92" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
@@ -4204,7 +4204,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="O94" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
@@ -4371,7 +4371,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="O101" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
@@ -4397,7 +4397,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="O102" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
@@ -4423,7 +4423,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="O103" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
@@ -4449,7 +4449,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="O104" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
@@ -4475,7 +4475,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="O105" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
@@ -4501,7 +4501,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="O106" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
@@ -4527,7 +4527,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="O107" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
@@ -4670,7 +4670,7 @@
         <v>380</v>
       </c>
       <c r="O113" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
@@ -4698,7 +4698,7 @@
         <v>380</v>
       </c>
       <c r="O114" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
@@ -4885,7 +4885,7 @@
         <v>379</v>
       </c>
       <c r="O122" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
@@ -4913,7 +4913,7 @@
         <v>379</v>
       </c>
       <c r="O123" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
@@ -5077,7 +5077,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="O131" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
@@ -5106,7 +5106,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="O132" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
@@ -5135,7 +5135,7 @@
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="O133" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
@@ -5299,7 +5299,7 @@
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
       <c r="O140" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
@@ -5523,7 +5523,7 @@
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
       <c r="O151" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
@@ -5928,7 +5928,7 @@
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="O168" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P168" s="23" t="s">
         <v>395</v>
@@ -5951,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="O169" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
@@ -5971,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="O170" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
@@ -6043,7 +6043,7 @@
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
       <c r="O173" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
@@ -6174,7 +6174,7 @@
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
       <c r="O178" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.2">
@@ -6200,7 +6200,7 @@
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
       <c r="O179" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.2">
@@ -6226,7 +6226,7 @@
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
       <c r="O180" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.2">
@@ -6252,7 +6252,7 @@
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
       <c r="O181" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.2">
@@ -6278,7 +6278,7 @@
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
       <c r="O182" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.2">
@@ -6304,7 +6304,7 @@
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="O183" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.2">
@@ -6356,7 +6356,7 @@
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
       <c r="O185" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.2">
@@ -6624,7 +6624,7 @@
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
       <c r="O197" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.2">
@@ -6644,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="O198" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
@@ -6843,7 +6843,7 @@
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
       <c r="O206" s="23" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="P206" s="23" t="s">
         <v>395</v>
@@ -7008,7 +7008,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:S219">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:R219">
     <sortCondition descending="1" ref="F1:F219"/>
     <sortCondition ref="A1:A219"/>
   </sortState>

--- a/DoomPy/files/cards.xlsx
+++ b/DoomPy/files/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/DoomPy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6A127E-262A-CD42-B340-5148E072D2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242AED1E-3A1B-C041-AE11-96E2579B1E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="520" windowWidth="41600" windowHeight="26140" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
+    <workbookView xWindow="11020" yWindow="500" windowWidth="32860" windowHeight="26140" activeTab="2" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
   <sheets>
     <sheet name="traits" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="433">
   <si>
     <t>Echolocation</t>
   </si>
@@ -1330,6 +1330,12 @@
   </si>
   <si>
     <t>-1 opponents n_color_worlds_end own</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1673,12 +1679,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}" name="Tabelle2" displayName="Tabelle2" ref="A1:P213" totalsRowShown="0">
-  <autoFilter ref="A1:P213" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P213">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}" name="Tabelle2" displayName="Tabelle2" ref="A1:Q213" totalsRowShown="0">
+  <autoFilter ref="A1:Q213" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q213">
     <sortCondition ref="A1:A213"/>
   </sortState>
-  <tableColumns count="16">
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{8166F61C-4699-3D4C-9D61-28AD00136FEA}" name="trait"/>
     <tableColumn id="4" xr3:uid="{EC3D3AE7-EA86-024F-A6FA-64A0E67A5FC7}" name="color"/>
     <tableColumn id="5" xr3:uid="{5EA3E41F-9CF4-7D4B-A611-5E5B5050CE5B}" name="face" dataDxfId="8"/>
@@ -1695,23 +1701,25 @@
     <tableColumn id="13" xr3:uid="{0E4D733B-AB86-5546-A677-552DF9EA7E44}" name="effect_attachment"/>
     <tableColumn id="14" xr3:uid="{DACAC41D-17E5-1D4B-80BB-50B9E1EE313B}" name="effect_drop"/>
     <tableColumn id="15" xr3:uid="{1EAC9979-1BCC-1D4C-A9CA-291C531B4E2F}" name="effect_worlds_end"/>
+    <tableColumn id="3" xr3:uid="{F35E4567-14CB-9741-8C79-F7ABE066199C}" name="id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{562E77D7-246C-DD40-AEF5-8E56110370D5}" name="Tabelle1" displayName="Tabelle1" ref="A1:E1048576" totalsRowShown="0">
-  <autoFilter ref="A1:E1048576" xr:uid="{562E77D7-246C-DD40-AEF5-8E56110370D5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E100">
-    <sortCondition ref="B1:B1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{562E77D7-246C-DD40-AEF5-8E56110370D5}" name="Tabelle1" displayName="Tabelle1" ref="A1:F1048576" totalsRowShown="0">
+  <autoFilter ref="A1:F1048576" xr:uid="{562E77D7-246C-DD40-AEF5-8E56110370D5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F100">
+    <sortCondition descending="1" ref="B1:B1048576"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{751F9D4F-1E12-CF40-AA53-E3261D4E8910}" name="name"/>
     <tableColumn id="3" xr3:uid="{3D8ADDFF-973C-A048-84DF-EFF3B7EE3753}" name="type"/>
     <tableColumn id="4" xr3:uid="{9775E41C-004A-0048-801D-D59C4FEED604}" name="game"/>
     <tableColumn id="5" xr3:uid="{843C96EB-4D1A-9649-AA9D-6469BFA2469A}" name="gene_pool"/>
     <tableColumn id="6" xr3:uid="{0C5E06B6-03B1-634F-820D-81A5201CC419}" name="worlds_end"/>
+    <tableColumn id="2" xr3:uid="{2E51BE6E-143F-354A-BCC7-12A774F87F66}" name="id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2014,11 +2022,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AE435C-BBFF-4D4C-B457-AFC1FAEE6491}">
-  <dimension ref="A1:P213"/>
+  <dimension ref="A1:Q213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S8" sqref="S8"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T51" sqref="T51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2041,7 +2049,7 @@
     <col min="16" max="16" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>391</v>
       </c>
@@ -2090,8 +2098,11 @@
       <c r="P1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -2113,8 +2124,11 @@
         <v>1</v>
       </c>
       <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
@@ -2136,8 +2150,11 @@
         <v>1</v>
       </c>
       <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2162,8 +2179,11 @@
       <c r="O4" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -2179,8 +2199,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -2196,8 +2219,11 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -2219,8 +2245,11 @@
         <v>1</v>
       </c>
       <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -2248,8 +2277,11 @@
       <c r="O8" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -2271,8 +2303,11 @@
         <v>1</v>
       </c>
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>210</v>
       </c>
@@ -2288,8 +2323,11 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>223</v>
       </c>
@@ -2305,8 +2343,11 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -2328,8 +2369,11 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2351,8 +2395,11 @@
         <v>1</v>
       </c>
       <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -2374,8 +2421,11 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -2397,8 +2447,11 @@
         <v>1</v>
       </c>
       <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2420,8 +2473,11 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -2446,8 +2502,11 @@
       <c r="O17" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -2469,8 +2528,11 @@
         <v>1</v>
       </c>
       <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2486,8 +2548,11 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>376</v>
       </c>
@@ -2512,8 +2577,11 @@
       <c r="N20" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>377</v>
       </c>
@@ -2538,8 +2606,11 @@
       <c r="N21" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -2561,8 +2632,11 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -2578,8 +2652,11 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>155</v>
       </c>
@@ -2595,8 +2672,11 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>389</v>
       </c>
@@ -2621,8 +2701,11 @@
       <c r="O25" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>212</v>
       </c>
@@ -2644,8 +2727,11 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2670,8 +2756,11 @@
       <c r="O27" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>224</v>
       </c>
@@ -2696,8 +2785,11 @@
       <c r="O28" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>225</v>
       </c>
@@ -2719,8 +2811,11 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -2745,8 +2840,11 @@
       <c r="M30" s="23" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>128</v>
       </c>
@@ -2768,8 +2866,11 @@
         <v>1</v>
       </c>
       <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>222</v>
       </c>
@@ -2802,8 +2903,11 @@
       <c r="O32" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>221</v>
       </c>
@@ -2836,8 +2940,11 @@
       <c r="O33" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -2853,8 +2960,11 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>156</v>
       </c>
@@ -2870,8 +2980,11 @@
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2893,8 +3006,11 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -2916,8 +3032,11 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2939,8 +3058,11 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -2962,8 +3084,11 @@
         <v>1</v>
       </c>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2985,8 +3110,11 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -3005,8 +3133,11 @@
       <c r="O41" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>159</v>
       </c>
@@ -3025,8 +3156,11 @@
       <c r="O42" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -3048,8 +3182,11 @@
         <v>1</v>
       </c>
       <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>107</v>
       </c>
@@ -3068,8 +3205,11 @@
       <c r="N44" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>107</v>
       </c>
@@ -3088,8 +3228,11 @@
       <c r="N45" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -3111,8 +3254,11 @@
         <v>1</v>
       </c>
       <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3132,8 +3278,11 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -3156,8 +3305,11 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -3173,8 +3325,11 @@
       <c r="F49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -3190,8 +3345,11 @@
       <c r="K50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>135</v>
       </c>
@@ -3207,8 +3365,11 @@
       <c r="K51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -3230,8 +3391,11 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -3253,8 +3417,11 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>148</v>
       </c>
@@ -3275,8 +3442,11 @@
       <c r="O54" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -3301,8 +3471,11 @@
       <c r="M55" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -3318,8 +3491,11 @@
       <c r="E56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>142</v>
       </c>
@@ -3335,8 +3511,11 @@
       <c r="G57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3361,8 +3540,11 @@
       <c r="O58" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>162</v>
       </c>
@@ -3378,8 +3560,11 @@
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -3404,8 +3589,11 @@
       <c r="N60" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>226</v>
       </c>
@@ -3427,8 +3615,11 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>152</v>
       </c>
@@ -3444,8 +3635,11 @@
       <c r="F62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>218</v>
       </c>
@@ -3467,8 +3661,11 @@
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>138</v>
       </c>
@@ -3487,8 +3684,11 @@
       <c r="O64" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>93</v>
       </c>
@@ -3508,8 +3708,11 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -3537,8 +3740,11 @@
       <c r="P66" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>94</v>
       </c>
@@ -3560,8 +3766,11 @@
         <v>1</v>
       </c>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -3583,8 +3792,11 @@
         <v>1</v>
       </c>
       <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -3609,8 +3821,11 @@
       <c r="M69" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -3632,8 +3847,11 @@
       <c r="M70" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>139</v>
       </c>
@@ -3655,8 +3873,11 @@
       <c r="M71" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3678,8 +3899,11 @@
         <v>1</v>
       </c>
       <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>95</v>
       </c>
@@ -3701,8 +3925,11 @@
         <v>1</v>
       </c>
       <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>52</v>
       </c>
@@ -3724,8 +3951,11 @@
         <v>1</v>
       </c>
       <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -3747,8 +3977,11 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>390</v>
       </c>
@@ -3773,8 +4006,11 @@
       <c r="O76" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>217</v>
       </c>
@@ -3799,8 +4035,11 @@
       <c r="O77" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>132</v>
       </c>
@@ -3825,8 +4064,11 @@
       <c r="P78" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -3845,8 +4087,11 @@
       <c r="M79" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>149</v>
       </c>
@@ -3862,8 +4107,11 @@
       <c r="G80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>149</v>
       </c>
@@ -3879,8 +4127,11 @@
       <c r="G81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q81">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -3902,8 +4153,11 @@
         <v>1</v>
       </c>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q82">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>114</v>
       </c>
@@ -3933,8 +4187,11 @@
       <c r="O83" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q83">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -3964,8 +4221,11 @@
       <c r="O84" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q84">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -3990,8 +4250,11 @@
       <c r="O85" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>115</v>
       </c>
@@ -4013,8 +4276,11 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>130</v>
       </c>
@@ -4036,8 +4302,11 @@
         <v>1</v>
       </c>
       <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -4062,8 +4331,11 @@
       <c r="O88" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -4086,8 +4358,11 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>97</v>
       </c>
@@ -4109,8 +4384,11 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>393</v>
       </c>
@@ -4138,8 +4416,11 @@
       <c r="P91" s="23" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>117</v>
       </c>
@@ -4164,8 +4445,11 @@
       <c r="O92" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>136</v>
       </c>
@@ -4181,8 +4465,11 @@
       <c r="K93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -4206,8 +4493,11 @@
       <c r="O94" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>72</v>
       </c>
@@ -4229,8 +4519,11 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>54</v>
       </c>
@@ -4252,8 +4545,11 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -4275,8 +4571,11 @@
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -4298,8 +4597,11 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>124</v>
       </c>
@@ -4321,8 +4623,11 @@
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>55</v>
       </c>
@@ -4347,8 +4652,11 @@
       <c r="M100" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -4373,8 +4681,11 @@
       <c r="O101" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -4399,8 +4710,11 @@
       <c r="O102" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -4425,8 +4739,11 @@
       <c r="O103" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -4451,8 +4768,11 @@
       <c r="O104" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -4477,8 +4797,11 @@
       <c r="O105" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>98</v>
       </c>
@@ -4503,8 +4826,11 @@
       <c r="O106" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -4529,8 +4855,11 @@
       <c r="O107" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>56</v>
       </c>
@@ -4552,8 +4881,11 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>32</v>
       </c>
@@ -4575,8 +4907,11 @@
         <v>1</v>
       </c>
       <c r="L109" s="3"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>134</v>
       </c>
@@ -4592,8 +4927,11 @@
       <c r="E110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4618,8 +4956,11 @@
       <c r="N111" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -4644,8 +4985,11 @@
       <c r="N112" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -4672,8 +5016,11 @@
       <c r="O113" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>108</v>
       </c>
@@ -4700,8 +5047,11 @@
       <c r="O114" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>74</v>
       </c>
@@ -4723,8 +5073,11 @@
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>150</v>
       </c>
@@ -4740,8 +5093,11 @@
       <c r="F116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -4763,8 +5119,11 @@
         <v>1</v>
       </c>
       <c r="L117" s="3"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>57</v>
       </c>
@@ -4789,8 +5148,11 @@
       <c r="O118" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>58</v>
       </c>
@@ -4815,8 +5177,11 @@
       <c r="M119" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>131</v>
       </c>
@@ -4838,8 +5203,11 @@
         <v>1</v>
       </c>
       <c r="L120" s="3"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>59</v>
       </c>
@@ -4859,8 +5227,11 @@
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>111</v>
       </c>
@@ -4887,8 +5258,11 @@
       <c r="O122" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>111</v>
       </c>
@@ -4915,8 +5289,11 @@
       <c r="O123" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>144</v>
       </c>
@@ -4932,8 +5309,11 @@
       <c r="G124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>109</v>
       </c>
@@ -4949,8 +5329,11 @@
       <c r="F125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>75</v>
       </c>
@@ -4972,8 +5355,11 @@
         <v>1</v>
       </c>
       <c r="L126" s="3"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>76</v>
       </c>
@@ -4995,8 +5381,11 @@
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>46</v>
       </c>
@@ -5019,8 +5408,11 @@
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>140</v>
       </c>
@@ -5036,8 +5428,11 @@
       <c r="G129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>140</v>
       </c>
@@ -5053,8 +5448,11 @@
       <c r="G130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -5079,8 +5477,11 @@
       <c r="O131" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>25</v>
       </c>
@@ -5108,8 +5509,11 @@
       <c r="O132" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>25</v>
       </c>
@@ -5137,8 +5541,11 @@
       <c r="O133" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q133">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -5160,8 +5567,11 @@
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>77</v>
       </c>
@@ -5183,8 +5593,11 @@
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>78</v>
       </c>
@@ -5206,8 +5619,11 @@
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q136">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>34</v>
       </c>
@@ -5229,8 +5645,11 @@
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>120</v>
       </c>
@@ -5252,8 +5671,11 @@
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q138">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>79</v>
       </c>
@@ -5275,8 +5697,11 @@
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q139">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>35</v>
       </c>
@@ -5301,8 +5726,11 @@
       <c r="O140" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q140">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>60</v>
       </c>
@@ -5324,8 +5752,11 @@
       </c>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q141">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>125</v>
       </c>
@@ -5347,8 +5778,11 @@
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>36</v>
       </c>
@@ -5370,8 +5804,11 @@
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>163</v>
       </c>
@@ -5387,8 +5824,11 @@
       <c r="F144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>153</v>
       </c>
@@ -5404,8 +5844,11 @@
       <c r="F145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q145">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>153</v>
       </c>
@@ -5421,8 +5864,11 @@
       <c r="F146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q146">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -5442,8 +5888,11 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q147">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -5465,8 +5914,11 @@
         <v>1</v>
       </c>
       <c r="L148" s="3"/>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q148">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>143</v>
       </c>
@@ -5482,8 +5934,11 @@
       <c r="G149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q149">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>143</v>
       </c>
@@ -5499,8 +5954,11 @@
       <c r="G150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q150">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>37</v>
       </c>
@@ -5525,8 +5983,11 @@
       <c r="O151" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q151">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>100</v>
       </c>
@@ -5548,8 +6009,11 @@
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q152">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>16</v>
       </c>
@@ -5569,8 +6033,11 @@
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q153">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>16</v>
       </c>
@@ -5590,8 +6057,11 @@
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q154">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>101</v>
       </c>
@@ -5611,8 +6081,11 @@
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q155">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>137</v>
       </c>
@@ -5628,8 +6101,11 @@
       <c r="G156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q156">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -5657,8 +6133,11 @@
       <c r="N157" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q157">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>112</v>
       </c>
@@ -5686,8 +6165,11 @@
       <c r="N158" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q158">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -5712,8 +6194,11 @@
       <c r="M159" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q159">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>220</v>
       </c>
@@ -5738,8 +6223,11 @@
       <c r="O160" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q160">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>219</v>
       </c>
@@ -5761,8 +6249,11 @@
         <v>1</v>
       </c>
       <c r="L161" s="3"/>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q161">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>22</v>
       </c>
@@ -5784,8 +6275,11 @@
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q162">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>18</v>
       </c>
@@ -5807,8 +6301,11 @@
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q163">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>61</v>
       </c>
@@ -5830,8 +6327,11 @@
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q164">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>38</v>
       </c>
@@ -5853,8 +6353,11 @@
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q165">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>38</v>
       </c>
@@ -5876,8 +6379,11 @@
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q166">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>80</v>
       </c>
@@ -5899,8 +6405,11 @@
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q167">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -5933,8 +6442,11 @@
       <c r="P168" s="23" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q168">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>367</v>
       </c>
@@ -5953,8 +6465,11 @@
       <c r="O169" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q169">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>367</v>
       </c>
@@ -5973,8 +6488,11 @@
       <c r="O170" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q170">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>81</v>
       </c>
@@ -5996,8 +6514,11 @@
       </c>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q171">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>19</v>
       </c>
@@ -6019,8 +6540,11 @@
         <v>1</v>
       </c>
       <c r="L172" s="3"/>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q172">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>82</v>
       </c>
@@ -6045,8 +6569,11 @@
       <c r="O173" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q173">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>102</v>
       </c>
@@ -6068,8 +6595,11 @@
         <v>1</v>
       </c>
       <c r="L174" s="3"/>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q174">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>118</v>
       </c>
@@ -6096,8 +6626,11 @@
       <c r="N175" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q175">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>118</v>
       </c>
@@ -6124,8 +6657,11 @@
       <c r="N176" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q176">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>83</v>
       </c>
@@ -6150,8 +6686,11 @@
       <c r="M177" s="23" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q177">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>39</v>
       </c>
@@ -6176,8 +6715,11 @@
       <c r="O178" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q178">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>39</v>
       </c>
@@ -6202,8 +6744,11 @@
       <c r="O179" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q179">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>39</v>
       </c>
@@ -6228,8 +6773,11 @@
       <c r="O180" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q180">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>39</v>
       </c>
@@ -6254,8 +6802,11 @@
       <c r="O181" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q181">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>39</v>
       </c>
@@ -6280,8 +6831,11 @@
       <c r="O182" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q182">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>39</v>
       </c>
@@ -6306,8 +6860,11 @@
       <c r="O183" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q183">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -6329,8 +6886,11 @@
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q184">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>26</v>
       </c>
@@ -6358,8 +6918,11 @@
       <c r="O185" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q185">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>164</v>
       </c>
@@ -6375,8 +6938,11 @@
       <c r="K186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q186">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>84</v>
       </c>
@@ -6401,8 +6967,11 @@
       <c r="M187" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q187">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>85</v>
       </c>
@@ -6424,8 +6993,11 @@
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q188">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>85</v>
       </c>
@@ -6447,8 +7019,11 @@
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q189">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -6470,8 +7045,11 @@
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q190">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -6493,8 +7071,11 @@
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q191">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>103</v>
       </c>
@@ -6516,8 +7097,11 @@
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q192">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>103</v>
       </c>
@@ -6539,8 +7123,11 @@
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q193">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>154</v>
       </c>
@@ -6553,8 +7140,11 @@
       <c r="D194" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q194">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>158</v>
       </c>
@@ -6574,8 +7164,11 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q195">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>62</v>
       </c>
@@ -6597,8 +7190,11 @@
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q196">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -6626,8 +7222,11 @@
       <c r="O197" s="23" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q197">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>166</v>
       </c>
@@ -6646,8 +7245,11 @@
       <c r="O198" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q198">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>41</v>
       </c>
@@ -6669,8 +7271,11 @@
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q199">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>378</v>
       </c>
@@ -6695,8 +7300,11 @@
       <c r="N200" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q200">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>378</v>
       </c>
@@ -6721,8 +7329,11 @@
       <c r="N201" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q201">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>42</v>
       </c>
@@ -6744,8 +7355,11 @@
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q202">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>121</v>
       </c>
@@ -6767,8 +7381,11 @@
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q203">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>64</v>
       </c>
@@ -6791,8 +7408,11 @@
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q204">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>86</v>
       </c>
@@ -6814,8 +7434,11 @@
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q205">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>65</v>
       </c>
@@ -6848,8 +7471,11 @@
       <c r="P206" s="23" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q206">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>104</v>
       </c>
@@ -6871,8 +7497,11 @@
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q207">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>105</v>
       </c>
@@ -6897,8 +7526,11 @@
       <c r="M208" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q208">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>202</v>
       </c>
@@ -6923,8 +7555,11 @@
         <v>1</v>
       </c>
       <c r="L209" s="3"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q209">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>202</v>
       </c>
@@ -6949,8 +7584,11 @@
         <v>1</v>
       </c>
       <c r="L210" s="3"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q210">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>145</v>
       </c>
@@ -6966,8 +7604,11 @@
       <c r="G211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q211">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>43</v>
       </c>
@@ -6989,8 +7630,11 @@
         <v>1</v>
       </c>
       <c r="L212" s="3"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q212">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>146</v>
       </c>
@@ -7005,6 +7649,9 @@
       </c>
       <c r="G213">
         <v>1</v>
+      </c>
+      <c r="Q213">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -7429,11 +8076,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9B9F73-5D52-3444-807A-5E9BBA1301C4}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7443,7 +8090,7 @@
     <col min="5" max="5" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>193</v>
       </c>
@@ -7459,465 +8106,834 @@
       <c r="E1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>234</v>
+        <v>333</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>233</v>
+        <v>281</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
       </c>
       <c r="C8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>364</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>235</v>
+        <v>335</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>336</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>237</v>
+        <v>337</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>338</v>
+      </c>
+      <c r="F12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>238</v>
+        <v>339</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>276</v>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="F17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20">
+        <v>49</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>344</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F22">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F23">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F26">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>-2</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F27">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F28">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>249</v>
+        <v>347</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="F29">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="F30">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F31">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="F32">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="F33">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="F34">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="F35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="F36">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="F37">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F38">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>253</v>
+        <v>353</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="D39">
+        <v>-1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>354</v>
+      </c>
+      <c r="F39">
+        <v>95</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>278</v>
+      <c r="D40">
+        <v>-1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>356</v>
+      </c>
+      <c r="F40">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D41">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F41">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>254</v>
+        <v>309</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>233</v>
@@ -7925,10 +8941,13 @@
       <c r="C43" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>233</v>
@@ -7936,99 +8955,126 @@
       <c r="C44" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>308</v>
+        <v>328</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>280</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>324</v>
+        <v>232</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>11</v>
+      </c>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>233</v>
@@ -8036,10 +9082,13 @@
       <c r="C53" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>233</v>
@@ -8047,751 +9096,652 @@
       <c r="C54" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>326</v>
+        <v>240</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>316</v>
+        <v>241</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>259</v>
+        <v>317</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>301</v>
+        <v>328</v>
+      </c>
+      <c r="F57">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>276</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>327</v>
+        <v>242</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="F60">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D61">
-        <v>-1</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D62">
-        <v>-1</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D64">
-        <v>-1</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D65">
-        <v>-1</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>333</v>
+        <v>246</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D66">
-        <v>-1</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>281</v>
-      </c>
-      <c r="B67" t="s">
-        <v>262</v>
-      </c>
-      <c r="C67" t="s">
-        <v>106</v>
-      </c>
-      <c r="D67">
-        <v>-1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>335</v>
+        <v>248</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D68">
-        <v>-1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="F70">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D71">
-        <v>-1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>339</v>
+        <v>250</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D72">
-        <v>-1</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>279</v>
-      </c>
-      <c r="B73" t="s">
-        <v>262</v>
-      </c>
-      <c r="C73" t="s">
-        <v>133</v>
-      </c>
-      <c r="D73">
-        <v>-1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F74">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F75">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D74">
-        <v>-1</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75">
-        <v>-1</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="F76">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D76">
-        <v>-1</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D78">
-        <v>-1</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>277</v>
-      </c>
-      <c r="B79" t="s">
-        <v>262</v>
-      </c>
-      <c r="C79" t="s">
-        <v>151</v>
-      </c>
-      <c r="D79">
-        <v>-1</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D80">
-        <v>-1</v>
-      </c>
-      <c r="E80" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>345</v>
+      <c r="F80">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>278</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D81">
-        <v>-1</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="C81" t="s">
+        <v>133</v>
+      </c>
+      <c r="F81">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D82">
-        <v>-1</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83">
-        <v>-1</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="F83">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84">
-        <v>-1</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="F84">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D85">
-        <v>-1</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86">
-        <v>-2</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="F86">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D88">
-        <v>-1</v>
-      </c>
-      <c r="E88" s="23" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D89">
-        <v>-1</v>
-      </c>
-      <c r="E89" s="23" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90">
-        <v>-1</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="F90">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91">
-        <v>-1</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="F91">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D92">
-        <v>-1</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D93">
-        <v>-1</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>351</v>
+        <v>258</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D94">
-        <v>-1</v>
-      </c>
-      <c r="E94" s="23" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95">
-        <v>-1</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96">
-        <v>-1</v>
-      </c>
-      <c r="E96" s="24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="F96">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D97">
-        <v>-1</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D98">
-        <v>-1</v>
-      </c>
-      <c r="E98" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D99">
-        <v>-1</v>
-      </c>
-      <c r="E99" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D100">
-        <v>-1</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>357</v>
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/DoomPy/files/cards.xlsx
+++ b/DoomPy/files/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/DoomPy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242AED1E-3A1B-C041-AE11-96E2579B1E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D003FC8F-11B2-B849-A3D1-E67F85297923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="500" windowWidth="32860" windowHeight="26140" activeTab="2" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
+    <workbookView xWindow="11020" yWindow="500" windowWidth="32860" windowHeight="26140" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
   <sheets>
     <sheet name="traits" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="434">
   <si>
     <t>Echolocation</t>
   </si>
@@ -828,9 +828,6 @@
     <t>Catastrophe</t>
   </si>
   <si>
-    <t>Deus ex Machina</t>
-  </si>
-  <si>
     <t>Glacial Meltdown</t>
   </si>
   <si>
@@ -900,9 +897,6 @@
     <t>draw_card_add_face_value_max.5</t>
   </si>
   <si>
-    <t>Deus ex Machina (max.5)</t>
-  </si>
-  <si>
     <t>discard_highest_face_value</t>
   </si>
   <si>
@@ -1335,7 +1329,16 @@
     <t>id</t>
   </si>
   <si>
-    <t>done</t>
+    <t>Glacial Meltdown (random)</t>
+  </si>
+  <si>
+    <t>Mega Tsunami (random)</t>
+  </si>
+  <si>
+    <t>Deus Ex Machina</t>
+  </si>
+  <si>
+    <t>Deus Ex Machina (max.5)</t>
   </si>
 </sst>
 </file>
@@ -1708,18 +1711,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{562E77D7-246C-DD40-AEF5-8E56110370D5}" name="Tabelle1" displayName="Tabelle1" ref="A1:F1048576" totalsRowShown="0">
-  <autoFilter ref="A1:F1048576" xr:uid="{562E77D7-246C-DD40-AEF5-8E56110370D5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F100">
-    <sortCondition descending="1" ref="B1:B1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{562E77D7-246C-DD40-AEF5-8E56110370D5}" name="Tabelle1" displayName="Tabelle1" ref="A1:E1048576" totalsRowShown="0">
+  <autoFilter ref="A1:E1048576" xr:uid="{562E77D7-246C-DD40-AEF5-8E56110370D5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E100">
+    <sortCondition ref="A1:A1048576"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{751F9D4F-1E12-CF40-AA53-E3261D4E8910}" name="name"/>
     <tableColumn id="3" xr3:uid="{3D8ADDFF-973C-A048-84DF-EFF3B7EE3753}" name="type"/>
     <tableColumn id="4" xr3:uid="{9775E41C-004A-0048-801D-D59C4FEED604}" name="game"/>
     <tableColumn id="5" xr3:uid="{843C96EB-4D1A-9649-AA9D-6469BFA2469A}" name="gene_pool"/>
     <tableColumn id="6" xr3:uid="{0C5E06B6-03B1-634F-820D-81A5201CC419}" name="worlds_end"/>
-    <tableColumn id="2" xr3:uid="{2E51BE6E-143F-354A-BCC7-12A774F87F66}" name="id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2024,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AE435C-BBFF-4D4C-B457-AFC1FAEE6491}">
   <dimension ref="A1:Q213"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="T51" sqref="T51"/>
     </sheetView>
   </sheetViews>
@@ -2051,13 +2053,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>194</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>196</v>
@@ -2069,16 +2071,16 @@
         <v>213</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>214</v>
@@ -2087,19 +2089,19 @@
         <v>211</v>
       </c>
       <c r="M1" t="s">
+        <v>368</v>
+      </c>
+      <c r="N1" t="s">
         <v>370</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>371</v>
+      </c>
+      <c r="P1" t="s">
         <v>372</v>
       </c>
-      <c r="O1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P1" t="s">
-        <v>374</v>
-      </c>
       <c r="Q1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -2139,7 +2141,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2162,10 +2164,10 @@
         <v>200</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2177,7 +2179,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="O4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2234,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -2260,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2275,7 +2277,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="O8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2292,7 +2294,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2318,7 +2320,7 @@
         <v>-1</v>
       </c>
       <c r="D10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2338,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2358,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -2384,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2410,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -2436,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2500,7 +2502,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="O17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Q17">
         <v>15</v>
@@ -2543,7 +2545,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2554,7 +2556,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>88</v>
@@ -2575,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q20">
         <v>18</v>
@@ -2583,7 +2585,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>88</v>
@@ -2604,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Q21">
         <v>19</v>
@@ -2621,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -2678,16 +2680,16 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>200</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2699,7 +2701,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="O25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="Q25">
         <v>23</v>
@@ -2716,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -2742,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2754,7 +2756,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="O27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Q27">
         <v>25</v>
@@ -2771,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2783,7 +2785,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="O28" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Q28">
         <v>26</v>
@@ -2800,7 +2802,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -2826,7 +2828,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2881,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2901,7 +2903,7 @@
         <v>229</v>
       </c>
       <c r="O32" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Q32">
         <v>30</v>
@@ -2918,7 +2920,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2938,7 +2940,7 @@
         <v>229</v>
       </c>
       <c r="O33" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Q33">
         <v>31</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3">
@@ -3021,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -3047,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -3073,7 +3075,7 @@
         <v>-2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -3099,7 +3101,7 @@
         <v>-2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
@@ -3131,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Q41">
         <v>39</v>
@@ -3154,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Q42">
         <v>40</v>
@@ -3203,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Q44">
         <v>42</v>
@@ -3226,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Q45">
         <v>43</v>
@@ -3243,7 +3245,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -3269,7 +3271,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -3293,7 +3295,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3380,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F52" s="3">
         <v>1</v>
@@ -3406,7 +3408,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F53" s="3">
         <v>1</v>
@@ -3440,7 +3442,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="O54" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Q54">
         <v>52</v>
@@ -3457,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -3486,7 +3488,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3526,7 +3528,7 @@
         <v>-1</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -3538,7 +3540,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="O58" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q58">
         <v>56</v>
@@ -3587,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Q60">
         <v>58</v>
@@ -3650,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -3682,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Q64">
         <v>62</v>
@@ -3699,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -3723,7 +3725,7 @@
         <v>4</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3738,7 +3740,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="P66" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q66">
         <v>64</v>
@@ -3755,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -3781,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3807,7 +3809,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -3888,7 +3890,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -3914,7 +3916,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -3940,7 +3942,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -3966,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F75" s="3">
         <v>1</v>
@@ -3983,16 +3985,16 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -4004,7 +4006,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="O76" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="Q76">
         <v>74</v>
@@ -4021,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -4033,7 +4035,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="O77" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="Q77">
         <v>75</v>
@@ -4142,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -4182,10 +4184,10 @@
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O83" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q83">
         <v>78</v>
@@ -4216,10 +4218,10 @@
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O84" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q84">
         <v>79</v>
@@ -4233,10 +4235,10 @@
         <v>200</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -4248,7 +4250,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="O85" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="Q85">
         <v>83</v>
@@ -4317,7 +4319,7 @@
         <v>-1</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -4329,7 +4331,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="O88" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Q88">
         <v>86</v>
@@ -4346,7 +4348,7 @@
         <v>7</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4373,7 +4375,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F90" s="3">
         <v>1</v>
@@ -4390,7 +4392,7 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>88</v>
@@ -4399,7 +4401,7 @@
         <v>4</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4414,7 +4416,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="P91" s="23" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q91">
         <v>89</v>
@@ -4428,7 +4430,7 @@
         <v>63</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>106</v>
@@ -4443,7 +4445,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="O92" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="Q92">
         <v>90</v>
@@ -4480,7 +4482,7 @@
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -4491,7 +4493,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="O94" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q94">
         <v>92</v>
@@ -4508,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F95" s="3">
         <v>1</v>
@@ -4534,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
@@ -4560,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F97" s="3">
         <v>1</v>
@@ -4586,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -4612,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F99" s="3">
         <v>1</v>
@@ -4638,7 +4640,7 @@
         <v>2</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -4664,10 +4666,10 @@
         <v>88</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -4679,7 +4681,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="O101" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q101">
         <v>99</v>
@@ -4693,10 +4695,10 @@
         <v>88</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -4708,7 +4710,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="O102" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q102">
         <v>100</v>
@@ -4722,10 +4724,10 @@
         <v>88</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -4737,7 +4739,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="O103" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q103">
         <v>101</v>
@@ -4751,10 +4753,10 @@
         <v>88</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -4766,7 +4768,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="O104" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q104">
         <v>102</v>
@@ -4780,10 +4782,10 @@
         <v>88</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -4795,7 +4797,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="O105" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q105">
         <v>103</v>
@@ -4809,10 +4811,10 @@
         <v>88</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -4824,7 +4826,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="O106" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q106">
         <v>104</v>
@@ -4838,10 +4840,10 @@
         <v>88</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -4853,7 +4855,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="O107" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q107">
         <v>105</v>
@@ -4870,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3">
@@ -4896,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -4954,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="N111" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q111">
         <v>109</v>
@@ -4983,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="N112" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q112">
         <v>110</v>
@@ -5011,10 +5013,10 @@
         <v>1</v>
       </c>
       <c r="N113" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="O113" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q113">
         <v>111</v>
@@ -5042,10 +5044,10 @@
         <v>1</v>
       </c>
       <c r="N114" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="O114" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q114">
         <v>112</v>
@@ -5062,7 +5064,7 @@
         <v>2</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F115" s="3">
         <v>1</v>
@@ -5108,7 +5110,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
@@ -5134,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
@@ -5146,7 +5148,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="O118" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Q118">
         <v>116</v>
@@ -5163,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
@@ -5218,7 +5220,7 @@
         <v>5</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -5239,7 +5241,7 @@
         <v>24</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D122" t="s">
         <v>106</v>
@@ -5253,10 +5255,10 @@
         <v>1</v>
       </c>
       <c r="N122" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O122" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q122">
         <v>120</v>
@@ -5270,7 +5272,7 @@
         <v>24</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D123" t="s">
         <v>106</v>
@@ -5284,10 +5286,10 @@
         <v>1</v>
       </c>
       <c r="N123" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O123" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q123">
         <v>121</v>
@@ -5344,7 +5346,7 @@
         <v>3</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -5370,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F127" s="3">
         <v>1</v>
@@ -5396,7 +5398,7 @@
         <v>4</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -5463,7 +5465,7 @@
         <v>-1</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -5475,7 +5477,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="O131" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q131">
         <v>129</v>
@@ -5492,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -5507,7 +5509,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="O132" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q132">
         <v>130</v>
@@ -5524,7 +5526,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -5539,7 +5541,7 @@
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="O133" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q133">
         <v>131</v>
@@ -5556,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F134" s="3">
         <v>1</v>
@@ -5582,7 +5584,7 @@
         <v>-2</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3">
@@ -5608,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -5634,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F137" s="3">
         <v>1</v>
@@ -5686,7 +5688,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F139" s="3">
         <v>1</v>
@@ -5712,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
@@ -5724,7 +5726,7 @@
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
       <c r="O140" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Q140">
         <v>138</v>
@@ -5741,7 +5743,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -5767,7 +5769,7 @@
         <v>2</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -5793,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F143" s="3">
         <v>1</v>
@@ -5903,7 +5905,7 @@
         <v>2</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -5966,10 +5968,10 @@
         <v>24</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -5981,7 +5983,7 @@
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
       <c r="O151" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q151">
         <v>149</v>
@@ -5998,7 +6000,7 @@
         <v>3</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -6024,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
@@ -6048,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -6072,7 +6074,7 @@
         <v>5</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
@@ -6131,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="N157" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q157">
         <v>155</v>
@@ -6163,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="N158" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q158">
         <v>156</v>
@@ -6180,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
@@ -6209,7 +6211,7 @@
         <v>2</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
@@ -6221,7 +6223,7 @@
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
       <c r="O160" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Q160">
         <v>158</v>
@@ -6238,7 +6240,7 @@
         <v>2</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
@@ -6264,7 +6266,7 @@
         <v>3</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F162" s="3">
         <v>1</v>
@@ -6290,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F163" s="3">
         <v>1</v>
@@ -6316,7 +6318,7 @@
         <v>-1</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3">
@@ -6342,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F165" s="3">
         <v>1</v>
@@ -6368,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F166" s="3">
         <v>1</v>
@@ -6394,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F167" s="3">
         <v>1</v>
@@ -6420,7 +6422,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -6437,10 +6439,10 @@
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="O168" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P168" s="23" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q168">
         <v>166</v>
@@ -6448,7 +6450,7 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B169" s="18" t="s">
         <v>88</v>
@@ -6463,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="O169" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Q169">
         <v>167</v>
@@ -6471,7 +6473,7 @@
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B170" s="18" t="s">
         <v>88</v>
@@ -6486,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="O170" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Q170">
         <v>168</v>
@@ -6503,7 +6505,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -6529,7 +6531,7 @@
         <v>1</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
@@ -6555,7 +6557,7 @@
         <v>-1</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
@@ -6567,7 +6569,7 @@
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
       <c r="O173" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q173">
         <v>171</v>
@@ -6584,7 +6586,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -6624,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="N175" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q175">
         <v>173</v>
@@ -6655,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="N176" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q176">
         <v>174</v>
@@ -6672,7 +6674,7 @@
         <v>2</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
@@ -6698,10 +6700,10 @@
         <v>24</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
@@ -6713,7 +6715,7 @@
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
       <c r="O178" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Q178">
         <v>176</v>
@@ -6727,10 +6729,10 @@
         <v>24</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
@@ -6742,7 +6744,7 @@
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
       <c r="O179" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Q179">
         <v>177</v>
@@ -6756,10 +6758,10 @@
         <v>24</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
@@ -6771,7 +6773,7 @@
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
       <c r="O180" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Q180">
         <v>178</v>
@@ -6785,10 +6787,10 @@
         <v>24</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
@@ -6800,7 +6802,7 @@
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
       <c r="O181" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Q181">
         <v>179</v>
@@ -6814,10 +6816,10 @@
         <v>24</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
@@ -6829,7 +6831,7 @@
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
       <c r="O182" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Q182">
         <v>180</v>
@@ -6843,10 +6845,10 @@
         <v>24</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
@@ -6858,7 +6860,7 @@
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="O183" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Q183">
         <v>181</v>
@@ -6875,7 +6877,7 @@
         <v>2</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F184" s="3">
         <v>1</v>
@@ -6901,7 +6903,7 @@
         <v>3</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -6916,7 +6918,7 @@
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
       <c r="O185" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Q185">
         <v>183</v>
@@ -6953,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -6982,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F188" s="3">
         <v>1</v>
@@ -7008,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F189" s="3">
         <v>1</v>
@@ -7034,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F190" s="3">
         <v>1</v>
@@ -7060,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F191" s="3">
         <v>1</v>
@@ -7086,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F192" s="3">
         <v>1</v>
@@ -7112,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F193" s="3">
         <v>1</v>
@@ -7179,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F196" s="3">
         <v>1</v>
@@ -7205,7 +7207,7 @@
         <v>17</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E197" s="3">
         <v>1</v>
@@ -7220,7 +7222,7 @@
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
       <c r="O197" s="23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q197">
         <v>195</v>
@@ -7243,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="O198" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="Q198">
         <v>196</v>
@@ -7260,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F199" s="3">
         <v>1</v>
@@ -7277,7 +7279,7 @@
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>24</v>
@@ -7298,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="N200" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q200">
         <v>198</v>
@@ -7306,7 +7308,7 @@
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>24</v>
@@ -7327,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="N201" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q201">
         <v>199</v>
@@ -7344,7 +7346,7 @@
         <v>1</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F202" s="3">
         <v>1</v>
@@ -7370,7 +7372,7 @@
         <v>2</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F203" s="3">
         <v>1</v>
@@ -7396,7 +7398,7 @@
         <v>3</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -7423,7 +7425,7 @@
         <v>-2</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F205" s="3">
         <v>1</v>
@@ -7449,7 +7451,7 @@
         <v>2</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -7466,10 +7468,10 @@
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
       <c r="O206" s="23" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P206" s="23" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q206">
         <v>204</v>
@@ -7486,7 +7488,7 @@
         <v>2</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F207" s="3">
         <v>1</v>
@@ -7512,7 +7514,7 @@
         <v>-1</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
@@ -7619,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -8076,11 +8078,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9B9F73-5D52-3444-807A-5E9BBA1301C4}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8090,12 +8092,12 @@
     <col min="5" max="5" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
         <v>196</v>
@@ -8104,621 +8106,390 @@
         <v>201</v>
       </c>
       <c r="E1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F1" t="s">
-        <v>431</v>
-      </c>
-      <c r="G1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>-1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>330</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="F6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="F7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" t="s">
-        <v>262</v>
+        <v>279</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="C8" t="s">
         <v>106</v>
       </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>364</v>
-      </c>
-      <c r="F8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>336</v>
-      </c>
-      <c r="F9">
-        <v>25</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D12">
-        <v>-1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>338</v>
-      </c>
-      <c r="F12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>339</v>
+        <v>261</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>328</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>-1</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="F13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="E13" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D14">
         <v>-1</v>
       </c>
-      <c r="E14" t="s">
-        <v>288</v>
-      </c>
-      <c r="F14">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="D15">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F15">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D16">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F16">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D17">
         <v>-1</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="F17">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="F18">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>266</v>
+        <v>331</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="D19">
         <v>-1</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="F19">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>277</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="E19" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C20" t="s">
-        <v>151</v>
+      <c r="C20" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="D20">
         <v>-1</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="F20">
-        <v>49</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>343</v>
+        <v>240</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" t="s">
         <v>262</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D21">
-        <v>-1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>344</v>
-      </c>
-      <c r="F21">
-        <v>50</v>
-      </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D22">
-        <v>-1</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="F22">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="F23">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F24">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>2</v>
+      <c r="C25" t="s">
+        <v>106</v>
       </c>
       <c r="D25">
         <v>-1</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F25">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D26">
-        <v>-1</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F26">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D27">
-        <v>-2</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F27">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C28" s="3" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F28">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D29">
-        <v>-1</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="F29">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D30">
-        <v>-1</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="F30">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>-1</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F31">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>271</v>
+        <v>432</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>262</v>
@@ -8727,297 +8498,239 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>-1</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="F32">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>349</v>
+        <v>433</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>328</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>-1</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="F33">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D34">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="F34">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D35">
-        <v>-1</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="F35">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="D36">
         <v>-1</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="F36">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="D37">
         <v>-1</v>
       </c>
-      <c r="E37" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="F37">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E37" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D38">
-        <v>-1</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F38">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B39" s="3" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>278</v>
+      </c>
+      <c r="B39" t="s">
         <v>262</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>328</v>
+      <c r="C39" t="s">
+        <v>133</v>
       </c>
       <c r="D39">
         <v>-1</v>
       </c>
       <c r="E39" t="s">
-        <v>354</v>
-      </c>
-      <c r="F39">
-        <v>95</v>
-      </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>355</v>
+        <v>247</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D40">
-        <v>-1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>356</v>
-      </c>
-      <c r="F40">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D41">
-        <v>-1</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F41">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>315</v>
+        <v>430</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>234</v>
+        <v>339</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>280</v>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C48" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C48" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>233</v>
@@ -9025,182 +8738,184 @@
       <c r="C49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F49">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51">
-        <v>11</v>
-      </c>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>-1</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>276</v>
+      </c>
+      <c r="B51" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="D52">
+        <v>-1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F53">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="D53">
+        <v>-1</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F54">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>317</v>
+        <v>251</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F57">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>276</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C58" t="s">
-        <v>151</v>
-      </c>
-      <c r="F58">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>-1</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F59">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>-1</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>323</v>
+        <v>431</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F60">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>243</v>
+        <v>319</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>233</v>
@@ -9208,237 +8923,234 @@
       <c r="C62" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F62">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F63">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F64">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F65">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>-1</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F66">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>-2</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F67">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>248</v>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>277</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F68">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>249</v>
+        <v>345</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="D69">
+        <v>-1</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F70">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="D70">
+        <v>-1</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F71">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F72">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>-1</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F73">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F74">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F75">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F76">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>-1</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F77">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>252</v>
+        <v>347</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F78">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="D78">
+        <v>-1</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>233</v>
@@ -9446,11 +9158,8 @@
       <c r="C79" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F79">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>306</v>
       </c>
@@ -9458,197 +9167,185 @@
         <v>233</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F80">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>278</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C81" t="s">
-        <v>133</v>
-      </c>
-      <c r="F81">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>-1</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>254</v>
+        <v>309</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F83">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="D83">
+        <v>-1</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F84">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F85">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>-1</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F86">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F87">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F88">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F89">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>-1</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>-1</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F90">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F91">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F92">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F93">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>233</v>
@@ -9656,96 +9353,93 @@
       <c r="C94" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F94">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F95">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F96">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>259</v>
+        <v>351</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F97">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="D97">
+        <v>-1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F98">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F99">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="D99">
+        <v>-1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>260</v>
+        <v>356</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F100">
-        <v>96</v>
+        <v>326</v>
+      </c>
+      <c r="D100">
+        <v>-1</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F96">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E96">
     <sortCondition descending="1" ref="B2:B96"/>
     <sortCondition ref="A2:A96"/>
   </sortState>

--- a/DoomPy/files/cards.xlsx
+++ b/DoomPy/files/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/DoomPy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DDA940-35D3-734D-B609-5B8FEC79DDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B06FA2B-9399-924D-9BB8-0FEE6E277C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="720" windowWidth="34360" windowHeight="26140" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
+    <workbookView xWindow="440" yWindow="880" windowWidth="34360" windowHeight="21640" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
   <sheets>
     <sheet name="traits" sheetId="1" r:id="rId1"/>
@@ -1986,7 +1986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2006,7 +2006,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2016,14 +2015,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF09EA3"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <b val="0"/>
@@ -2206,22 +2198,22 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}" name="Tabelle2" displayName="Tabelle2" ref="A1:Q367" totalsRowShown="0">
   <autoFilter ref="A1:Q367" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q367">
-    <sortCondition ref="A1:A367"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:Q366">
+    <sortCondition ref="J1:J367"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{8166F61C-4699-3D4C-9D61-28AD00136FEA}" name="trait"/>
     <tableColumn id="4" xr3:uid="{EC3D3AE7-EA86-024F-A6FA-64A0E67A5FC7}" name="color"/>
-    <tableColumn id="5" xr3:uid="{5EA3E41F-9CF4-7D4B-A611-5E5B5050CE5B}" name="face" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{FF792F6D-B33B-2C40-95CF-D0BE8D4CD076}" name="game" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{5EA3E41F-9CF4-7D4B-A611-5E5B5050CE5B}" name="face" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{FF792F6D-B33B-2C40-95CF-D0BE8D4CD076}" name="game" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{53A2A058-82DA-9540-A9DD-565700A09F6B}" name="dominant"/>
-    <tableColumn id="7" xr3:uid="{3FFB57AE-FF0E-9644-8F53-12784AF069C0}" name="action" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{A26550B3-7686-9147-A17E-A2143ABAFB1A}" name="play_when" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{7DAFF981-8046-974A-8FAC-73FD3B185F2C}" name="drops" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{56C331E6-086C-B74A-B509-520DFB7181F6}" name="gene_pool" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{76418466-3B9D-6048-80E3-690DEC50E74E}" name="worlds_end" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{5FC9496A-D300-0447-A155-EF65E2E0A70D}" name="effectless" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{4FE6ABC4-B4EE-1242-BA77-A00BB170BB1F}" name="attachment" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{3FFB57AE-FF0E-9644-8F53-12784AF069C0}" name="action" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{A26550B3-7686-9147-A17E-A2143ABAFB1A}" name="play_when" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{7DAFF981-8046-974A-8FAC-73FD3B185F2C}" name="drops" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{56C331E6-086C-B74A-B509-520DFB7181F6}" name="gene_pool" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{76418466-3B9D-6048-80E3-690DEC50E74E}" name="worlds_end" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{5FC9496A-D300-0447-A155-EF65E2E0A70D}" name="effectless" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{4FE6ABC4-B4EE-1242-BA77-A00BB170BB1F}" name="attachment" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{158FD56B-9FED-6144-BC1B-BC4F62C6C809}" name="effect_gene_pool"/>
     <tableColumn id="13" xr3:uid="{0E4D733B-AB86-5546-A677-552DF9EA7E44}" name="effect_attachment"/>
     <tableColumn id="14" xr3:uid="{DACAC41D-17E5-1D4B-80BB-50B9E1EE313B}" name="effect_drop"/>
@@ -2548,9 +2540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AE435C-BBFF-4D4C-B457-AFC1FAEE6491}">
   <dimension ref="A1:Q367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E12" sqref="E12:E51"/>
+      <selection pane="topRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2680,55 +2672,68 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>481</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>198</v>
+        <v>522</v>
+      </c>
+      <c r="B4" t="s">
+        <v>596</v>
       </c>
       <c r="C4" s="13">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="O4" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="P4" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="Q4">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>582</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>87</v>
+        <v>450</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C5" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
       <c r="Q5">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -2762,13 +2767,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>522</v>
-      </c>
-      <c r="B7" t="s">
-        <v>596</v>
+        <v>504</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C7" s="13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>321</v>
@@ -2776,25 +2781,17 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="O7" s="16" t="s">
-        <v>605</v>
-      </c>
-      <c r="P7" t="s">
-        <v>603</v>
-      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="Q7">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -2839,28 +2836,39 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>24</v>
+        <v>580</v>
+      </c>
+      <c r="B10" t="s">
+        <v>202</v>
       </c>
       <c r="C10" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F10" s="19">
-        <v>1</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="O10" t="s">
+        <v>581</v>
+      </c>
+      <c r="P10" t="s">
+        <v>604</v>
+      </c>
       <c r="Q10">
-        <v>8</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -2925,7 +2933,7 @@
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="9">
@@ -2949,13 +2957,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>1</v>
+        <v>539</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>321</v>
@@ -2963,48 +2971,66 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="P14" t="s">
+        <v>388</v>
+      </c>
       <c r="Q14">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>554</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="13">
-        <v>2</v>
+        <v>526</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>527</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="O15" t="s">
+        <v>527</v>
+      </c>
+      <c r="P15" t="s">
+        <v>527</v>
+      </c>
       <c r="Q15">
-        <v>13</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="13">
@@ -3024,7 +3050,7 @@
       <c r="A17" t="s">
         <v>218</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="13">
@@ -3042,10 +3068,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>462</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>87</v>
+        <v>494</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
@@ -3053,20 +3079,20 @@
       <c r="D18" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19">
-        <v>1</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="O18" t="s">
-        <v>472</v>
-      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
       <c r="Q18">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -3097,10 +3123,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>467</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>1</v>
+        <v>494</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C20" s="13">
         <v>1</v>
@@ -3108,24 +3134,27 @@
       <c r="D20" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19">
-        <v>1</v>
-      </c>
-      <c r="L20" s="19"/>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
       <c r="Q20">
-        <v>18</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="9">
@@ -3151,7 +3180,7 @@
       <c r="A22" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="9">
@@ -3201,13 +3230,13 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>545</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>1</v>
+        <v>487</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C24" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>321</v>
@@ -3215,20 +3244,20 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19">
-        <v>1</v>
-      </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="O24" t="s">
-        <v>606</v>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="P24" t="s">
+        <v>388</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -3288,31 +3317,30 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>528</v>
-      </c>
-      <c r="B27" t="s">
-        <v>201</v>
+        <v>579</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C27" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19">
-        <v>1</v>
-      </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="O27" t="s">
-        <v>529</v>
-      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
       <c r="Q27">
-        <v>25</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -3343,13 +3371,13 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>450</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>62</v>
+        <v>481</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C29" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>321</v>
@@ -3357,24 +3385,22 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19">
-        <v>1</v>
-      </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
       <c r="Q29">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="13">
@@ -3398,7 +3424,7 @@
         <v>87</v>
       </c>
       <c r="C31" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>104</v>
@@ -3478,7 +3504,7 @@
       <c r="A34" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="13">
@@ -3498,7 +3524,7 @@
       <c r="A35" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="13">
@@ -3516,54 +3542,54 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>508</v>
+        <v>582</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="13">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="Q36">
         <v>3</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F36" s="19">
-        <v>1</v>
-      </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="Q36">
-        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>530</v>
-      </c>
-      <c r="B37" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19">
-        <v>1</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
       <c r="Q37">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -3623,71 +3649,62 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>497</v>
-      </c>
-      <c r="B40" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="13">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F40" s="19">
-        <v>1</v>
-      </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19">
-        <v>1</v>
-      </c>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" t="s">
-        <v>225</v>
-      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
       <c r="Q40">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>497</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>1</v>
+        <v>554</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C41" s="13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F41" s="19">
-        <v>1</v>
-      </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19">
-        <v>1</v>
-      </c>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" t="s">
-        <v>225</v>
-      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
       <c r="Q41">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="9">
@@ -3824,80 +3841,89 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>551</v>
+        <v>462</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C47" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F47" s="19">
-        <v>1</v>
-      </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="O47" t="s">
+        <v>472</v>
+      </c>
       <c r="Q47">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>551</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>87</v>
+        <v>467</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C48" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F48" s="19">
-        <v>1</v>
-      </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3">
+        <v>1</v>
+      </c>
+      <c r="L48" s="3"/>
       <c r="Q48">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>556</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>198</v>
+        <v>545</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C49" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F49" s="19">
-        <v>1</v>
-      </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="O49" t="s">
+        <v>606</v>
+      </c>
       <c r="Q49">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -3976,31 +4002,31 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>578</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>1</v>
+        <v>528</v>
+      </c>
+      <c r="B52" t="s">
+        <v>201</v>
       </c>
       <c r="C52" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19">
-        <v>1</v>
-      </c>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" t="s">
-        <v>224</v>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="O52" t="s">
+        <v>529</v>
       </c>
       <c r="Q52">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -4027,7 +4053,7 @@
       <c r="A54" t="s">
         <v>154</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="13">
@@ -4045,64 +4071,61 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C55" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F55" s="19">
-        <v>1</v>
-      </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
       <c r="Q55">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>504</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>87</v>
+        <v>530</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C56" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19">
-        <v>1</v>
-      </c>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
       <c r="Q56">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C57" s="9">
@@ -4126,31 +4149,33 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>484</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>24</v>
+        <v>497</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C58" s="13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19">
-        <v>1</v>
-      </c>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3">
+        <v>1</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
       <c r="M58" t="s">
         <v>225</v>
       </c>
       <c r="Q58">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -4181,35 +4206,40 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>440</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>24</v>
+        <v>497</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C60" s="13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F60" s="19">
-        <v>1</v>
-      </c>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3">
+        <v>1</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" t="s">
+        <v>225</v>
+      </c>
       <c r="Q60">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C61" s="9">
@@ -4233,52 +4263,54 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>537</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>198</v>
+        <v>551</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C62" s="13">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
       <c r="Q62">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>451</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>1</v>
+        <v>551</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C63" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F63" s="19">
-        <v>1</v>
-      </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
       <c r="Q63">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -4309,72 +4341,64 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>560</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>62</v>
+        <v>556</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C65" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19">
-        <v>1</v>
-      </c>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="16" t="s">
-        <v>561</v>
-      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
       <c r="Q65">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>469</v>
-      </c>
-      <c r="B66" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="B66" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="13">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F66" s="19">
-        <v>1</v>
-      </c>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19">
-        <v>1</v>
-      </c>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="O66" s="16" t="s">
-        <v>470</v>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" t="s">
+        <v>224</v>
       </c>
       <c r="Q66">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C67" s="9">
@@ -4472,7 +4496,7 @@
       <c r="A71" t="s">
         <v>105</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="13">
@@ -4495,7 +4519,7 @@
       <c r="A72" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="13">
@@ -4516,35 +4540,35 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>458</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>62</v>
+        <v>475</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C73" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19">
-        <v>1</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
       <c r="Q73">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>30</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C74" s="9">
@@ -4661,7 +4685,7 @@
       <c r="A79" t="s">
         <v>133</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C79" s="13">
@@ -4705,28 +4729,31 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>430</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>198</v>
+        <v>484</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C81" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19">
-        <v>1</v>
-      </c>
-      <c r="L81" s="19"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3">
+        <v>1</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" t="s">
+        <v>225</v>
+      </c>
       <c r="Q81">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
@@ -4757,28 +4784,28 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>513</v>
-      </c>
-      <c r="B83" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="B83" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C83" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19">
-        <v>1</v>
-      </c>
-      <c r="L83" s="19"/>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
       <c r="Q83">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -4837,35 +4864,33 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>441</v>
+        <v>537</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>198</v>
       </c>
       <c r="C86" s="13">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19">
-        <v>1</v>
-      </c>
-      <c r="L86" s="19"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
       <c r="Q86">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C87" s="13">
@@ -4905,7 +4930,7 @@
       <c r="A89" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C89" s="9">
@@ -5007,35 +5032,35 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>524</v>
-      </c>
-      <c r="B93" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="B93" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C93" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F93" s="19">
-        <v>1</v>
-      </c>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
       <c r="Q93">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>150</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C94" s="13">
@@ -5079,13 +5104,13 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>521</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>24</v>
+        <v>560</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C96" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>321</v>
@@ -5093,24 +5118,27 @@
       <c r="E96">
         <v>1</v>
       </c>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19">
-        <v>1</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="19"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3">
+        <v>1</v>
+      </c>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="16" t="s">
+        <v>561</v>
+      </c>
       <c r="Q96">
-        <v>94</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>136</v>
       </c>
-      <c r="B97" s="24" t="s">
+      <c r="B97" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C97" s="13">
@@ -5155,192 +5183,192 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>493</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>87</v>
+        <v>469</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C99" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19"/>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3">
+        <v>1</v>
+      </c>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="O99" s="16" t="s">
+        <v>470</v>
+      </c>
       <c r="Q99">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>516</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>87</v>
+        <v>458</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C100" s="13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19">
-        <v>1</v>
-      </c>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
-      <c r="O100" t="s">
-        <v>520</v>
-      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
       <c r="Q100">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>591</v>
-      </c>
-      <c r="B101" s="24" t="s">
-        <v>24</v>
+        <v>430</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C101" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F101" s="19">
-        <v>1</v>
-      </c>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="19"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3">
+        <v>1</v>
+      </c>
+      <c r="L101" s="3"/>
       <c r="Q101">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>429</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>87</v>
+        <v>513</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C102" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3">
+        <v>1</v>
+      </c>
+      <c r="L102" s="3"/>
       <c r="Q102">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>453</v>
-      </c>
-      <c r="B103" s="24" t="s">
-        <v>24</v>
+        <v>441</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C103" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F103" s="19">
-        <v>1</v>
-      </c>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19"/>
-      <c r="L103" s="19"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3">
+        <v>1</v>
+      </c>
+      <c r="L103" s="3"/>
       <c r="Q103">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>476</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>198</v>
+        <v>524</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C104" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19">
-        <v>1</v>
-      </c>
-      <c r="J104" s="19"/>
-      <c r="K104" s="19"/>
-      <c r="L104" s="19"/>
-      <c r="M104" t="s">
-        <v>224</v>
-      </c>
+      <c r="F104" s="3">
+        <v>1</v>
+      </c>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
       <c r="Q104">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>459</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>62</v>
+        <v>521</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C105" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19">
-        <v>1</v>
-      </c>
-      <c r="L105" s="19"/>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3">
+        <v>1</v>
+      </c>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
       <c r="Q105">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -5403,28 +5431,29 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>525</v>
-      </c>
-      <c r="B108" t="s">
-        <v>201</v>
+        <v>493</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C108" s="13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
-      <c r="K108" s="19">
-        <v>1</v>
-      </c>
-      <c r="L108" s="19"/>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
       <c r="Q108">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
@@ -5455,35 +5484,38 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>454</v>
+        <v>516</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C110" s="13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F110" s="19">
-        <v>1</v>
-      </c>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="19"/>
-      <c r="K110" s="19"/>
-      <c r="L110" s="19"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3">
+        <v>1</v>
+      </c>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="O110" t="s">
+        <v>520</v>
+      </c>
       <c r="Q110">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>31</v>
       </c>
-      <c r="B111" s="23" t="s">
+      <c r="B111" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C111" s="9">
@@ -5512,7 +5544,7 @@
       <c r="A112" t="s">
         <v>137</v>
       </c>
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C112" s="13">
@@ -5538,7 +5570,7 @@
       <c r="A113" t="s">
         <v>137</v>
       </c>
-      <c r="B113" s="24" t="s">
+      <c r="B113" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C113" s="13">
@@ -5562,37 +5594,36 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>573</v>
-      </c>
-      <c r="B114" s="21" t="s">
-        <v>1</v>
+        <v>591</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C114" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19"/>
-      <c r="L114" s="19"/>
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
       <c r="Q114">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>431</v>
-      </c>
-      <c r="B115" t="s">
-        <v>432</v>
+        <v>429</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C115" s="13">
         <v>1</v>
@@ -5600,20 +5631,15 @@
       <c r="D115" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19">
-        <v>1</v>
-      </c>
-      <c r="J115" s="19"/>
-      <c r="K115" s="19"/>
-      <c r="L115" s="19"/>
-      <c r="M115" t="s">
-        <v>224</v>
-      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
       <c r="Q115">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
@@ -5670,10 +5696,10 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>442</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>87</v>
+        <v>453</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C118" s="13">
         <v>0</v>
@@ -5681,17 +5707,17 @@
       <c r="D118" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19">
-        <v>1</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19"/>
-      <c r="L118" s="19"/>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
       <c r="Q118">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -5722,59 +5748,67 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>567</v>
-      </c>
-      <c r="B120" s="24" t="s">
-        <v>24</v>
+        <v>476</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C120" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="19"/>
-      <c r="K120" s="19">
-        <v>1</v>
-      </c>
-      <c r="L120" s="19"/>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3">
+        <v>1</v>
+      </c>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" t="s">
+        <v>224</v>
+      </c>
       <c r="Q120">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>512</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>87</v>
+        <v>459</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C121" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="19"/>
-      <c r="K121" s="19"/>
-      <c r="L121" s="19"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3">
+        <v>1</v>
+      </c>
+      <c r="L121" s="3"/>
       <c r="Q121">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>11</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C122" s="9">
@@ -5798,35 +5832,35 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>436</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>198</v>
+        <v>525</v>
+      </c>
+      <c r="B123" t="s">
+        <v>201</v>
       </c>
       <c r="C123" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="19"/>
-      <c r="K123" s="19">
-        <v>1</v>
-      </c>
-      <c r="L123" s="19"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3">
+        <v>1</v>
+      </c>
+      <c r="L123" s="3"/>
       <c r="Q123">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>383</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="B124" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C124" s="13" t="s">
@@ -5855,7 +5889,7 @@
       <c r="A125" t="s">
         <v>212</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B125" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C125" s="9">
@@ -5882,7 +5916,7 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>87</v>
@@ -5893,17 +5927,17 @@
       <c r="D126" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19">
-        <v>1</v>
-      </c>
-      <c r="L126" s="19"/>
+      <c r="F126" s="3">
+        <v>1</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
       <c r="Q126">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
@@ -5939,7 +5973,7 @@
       <c r="A128" t="s">
         <v>155</v>
       </c>
-      <c r="B128" s="24" t="s">
+      <c r="B128" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C128" s="13">
@@ -6002,7 +6036,7 @@
       <c r="A131" t="s">
         <v>12</v>
       </c>
-      <c r="B131" s="20" t="s">
+      <c r="B131" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C131" s="9">
@@ -6149,54 +6183,58 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>540</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>62</v>
+        <v>573</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C136" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F136" s="19">
-        <v>1</v>
-      </c>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
-      <c r="L136" s="19"/>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
       <c r="Q136">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B137" t="s">
-        <v>595</v>
+        <v>432</v>
       </c>
       <c r="C137" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="19">
-        <v>1</v>
-      </c>
-      <c r="L137" s="19"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3">
+        <v>1</v>
+      </c>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" t="s">
+        <v>224</v>
+      </c>
       <c r="Q137">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
@@ -6227,87 +6265,78 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>502</v>
-      </c>
-      <c r="B139" s="15" t="s">
-        <v>198</v>
+        <v>442</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C139" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19">
-        <v>1</v>
-      </c>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
-      <c r="K139" s="19"/>
-      <c r="L139" s="19"/>
-      <c r="O139" t="s">
-        <v>503</v>
-      </c>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3">
+        <v>1</v>
+      </c>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
       <c r="Q139">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>483</v>
-      </c>
-      <c r="B140" s="21" t="s">
-        <v>1</v>
+        <v>567</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C140" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
-      <c r="K140" s="19"/>
-      <c r="L140" s="19"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3">
+        <v>1</v>
+      </c>
+      <c r="L140" s="3"/>
       <c r="Q140">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>515</v>
-      </c>
-      <c r="B141" t="s">
-        <v>491</v>
+        <v>512</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C141" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F141" s="19">
-        <v>1</v>
-      </c>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="19"/>
-      <c r="L141" s="19"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
       <c r="Q141">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
@@ -6343,7 +6372,7 @@
       <c r="A143" t="s">
         <v>23</v>
       </c>
-      <c r="B143" s="22" t="s">
+      <c r="B143" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C143" s="9">
@@ -6368,10 +6397,10 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>446</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>62</v>
+        <v>436</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C144" s="13">
         <v>2</v>
@@ -6379,18 +6408,17 @@
       <c r="D144" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="19"/>
-      <c r="K144" s="19"/>
-      <c r="L144" s="19"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3">
+        <v>1</v>
+      </c>
+      <c r="L144" s="3"/>
       <c r="Q144">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
@@ -6421,10 +6449,10 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>439</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>62</v>
+        <v>477</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C146" s="13">
         <v>2</v>
@@ -6432,43 +6460,43 @@
       <c r="D146" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F146" s="19">
-        <v>1</v>
-      </c>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="19"/>
-      <c r="L146" s="19"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3">
+        <v>1</v>
+      </c>
+      <c r="L146" s="3"/>
       <c r="Q146">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>514</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>198</v>
+        <v>540</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C147" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F147" s="19">
-        <v>1</v>
-      </c>
-      <c r="G147" s="19"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="19"/>
-      <c r="K147" s="19"/>
-      <c r="L147" s="19"/>
+      <c r="F147" s="3">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
       <c r="Q147">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
@@ -6536,7 +6564,7 @@
       <c r="A150" t="s">
         <v>134</v>
       </c>
-      <c r="B150" s="21" t="s">
+      <c r="B150" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C150" s="13">
@@ -6556,7 +6584,7 @@
       <c r="A151" t="s">
         <v>4</v>
       </c>
-      <c r="B151" s="21" t="s">
+      <c r="B151" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C151" s="13">
@@ -6608,65 +6636,60 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>589</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>87</v>
+        <v>435</v>
+      </c>
+      <c r="B153" t="s">
+        <v>595</v>
       </c>
       <c r="C153" s="13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E153">
-        <v>1</v>
-      </c>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19">
-        <v>1</v>
-      </c>
-      <c r="J153" s="19"/>
-      <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="16" t="s">
-        <v>590</v>
-      </c>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3">
+        <v>1</v>
+      </c>
+      <c r="L153" s="3"/>
       <c r="Q153">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>498</v>
-      </c>
-      <c r="B154" t="s">
-        <v>203</v>
+        <v>502</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C154" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F154" s="19">
-        <v>1</v>
-      </c>
-      <c r="G154" s="19"/>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19">
-        <v>1</v>
-      </c>
-      <c r="J154" s="19"/>
-      <c r="K154" s="19"/>
-      <c r="L154" s="19"/>
-      <c r="M154" s="16" t="s">
-        <v>222</v>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3">
+        <v>1</v>
+      </c>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
+      <c r="O154" t="s">
+        <v>503</v>
       </c>
       <c r="Q154">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
@@ -6725,7 +6748,7 @@
       <c r="A157" t="s">
         <v>13</v>
       </c>
-      <c r="B157" s="20" t="s">
+      <c r="B157" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C157" s="9">
@@ -6749,10 +6772,10 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>452</v>
-      </c>
-      <c r="B158" s="24" t="s">
-        <v>24</v>
+        <v>483</v>
+      </c>
+      <c r="B158" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C158" s="13">
         <v>3</v>
@@ -6763,15 +6786,15 @@
       <c r="E158">
         <v>1</v>
       </c>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="19"/>
-      <c r="K158" s="19"/>
-      <c r="L158" s="19"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
       <c r="Q158">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
@@ -6802,28 +6825,28 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>447</v>
-      </c>
-      <c r="B160" s="24" t="s">
-        <v>24</v>
+        <v>515</v>
+      </c>
+      <c r="B160" t="s">
+        <v>491</v>
       </c>
       <c r="C160" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F160" s="19">
-        <v>1</v>
-      </c>
-      <c r="G160" s="19"/>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="19"/>
-      <c r="K160" s="19"/>
-      <c r="L160" s="19"/>
+      <c r="F160" s="3">
+        <v>1</v>
+      </c>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
       <c r="Q160">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
@@ -6857,147 +6880,144 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>602</v>
-      </c>
-      <c r="B162" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>385</v>
+        <v>446</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C162" s="13">
+        <v>2</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F162" s="19"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="19">
-        <v>1</v>
-      </c>
-      <c r="I162" s="19"/>
-      <c r="J162" s="19"/>
-      <c r="K162" s="19"/>
-      <c r="L162" s="19"/>
-      <c r="O162" t="s">
-        <v>412</v>
-      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
       <c r="Q162">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>602</v>
-      </c>
-      <c r="B163" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>385</v>
+        <v>439</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C163" s="13">
+        <v>2</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="19">
-        <v>1</v>
-      </c>
-      <c r="I163" s="19"/>
-      <c r="J163" s="19"/>
-      <c r="K163" s="19"/>
-      <c r="L163" s="19"/>
-      <c r="O163" t="s">
-        <v>412</v>
-      </c>
+      <c r="F163" s="3">
+        <v>1</v>
+      </c>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
       <c r="Q163">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>602</v>
-      </c>
-      <c r="B164" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>385</v>
+        <v>514</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C164" s="13">
+        <v>0</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="19">
-        <v>1</v>
-      </c>
-      <c r="I164" s="19"/>
-      <c r="J164" s="19"/>
-      <c r="K164" s="19"/>
-      <c r="L164" s="19"/>
-      <c r="O164" t="s">
-        <v>412</v>
-      </c>
+      <c r="F164" s="3">
+        <v>1</v>
+      </c>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
       <c r="Q164">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>602</v>
-      </c>
-      <c r="B165" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>385</v>
+        <v>589</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C165" s="13">
+        <v>8</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="19">
-        <v>1</v>
-      </c>
-      <c r="I165" s="19"/>
-      <c r="J165" s="19"/>
-      <c r="K165" s="19"/>
-      <c r="L165" s="19"/>
-      <c r="O165" t="s">
-        <v>412</v>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3">
+        <v>1</v>
+      </c>
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="16" t="s">
+        <v>590</v>
       </c>
       <c r="Q165">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>602</v>
-      </c>
-      <c r="B166" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>385</v>
+        <v>498</v>
+      </c>
+      <c r="B166" t="s">
+        <v>203</v>
+      </c>
+      <c r="C166" s="13">
+        <v>1</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="19">
-        <v>1</v>
-      </c>
-      <c r="I166" s="19"/>
-      <c r="J166" s="19"/>
-      <c r="K166" s="19"/>
-      <c r="L166" s="19"/>
-      <c r="O166" t="s">
-        <v>412</v>
+      <c r="F166" s="3">
+        <v>1</v>
+      </c>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3">
+        <v>1</v>
+      </c>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="Q166">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
@@ -7233,7 +7253,7 @@
       <c r="A175" t="s">
         <v>32</v>
       </c>
-      <c r="B175" s="23" t="s">
+      <c r="B175" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C175" s="9">
@@ -7259,7 +7279,7 @@
       <c r="A176" t="s">
         <v>132</v>
       </c>
-      <c r="B176" s="21" t="s">
+      <c r="B176" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C176" s="13">
@@ -7277,13 +7297,13 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>580</v>
-      </c>
-      <c r="B177" t="s">
-        <v>202</v>
+        <v>452</v>
+      </c>
+      <c r="B177" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C177" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>321</v>
@@ -7291,58 +7311,48 @@
       <c r="E177">
         <v>1</v>
       </c>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="19">
-        <v>1</v>
-      </c>
-      <c r="I177" s="19"/>
-      <c r="J177" s="19">
-        <v>1</v>
-      </c>
-      <c r="K177" s="19"/>
-      <c r="L177" s="19"/>
-      <c r="O177" t="s">
-        <v>581</v>
-      </c>
-      <c r="P177" t="s">
-        <v>604</v>
-      </c>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3"/>
+      <c r="L177" s="3"/>
       <c r="Q177">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>531</v>
-      </c>
-      <c r="B178" s="15" t="s">
-        <v>198</v>
+        <v>447</v>
+      </c>
+      <c r="B178" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C178" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19">
-        <v>1</v>
-      </c>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="19"/>
-      <c r="K178" s="19"/>
-      <c r="L178" s="19"/>
+      <c r="F178" s="3">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="J178" s="3"/>
+      <c r="K178" s="3"/>
+      <c r="L178" s="3"/>
       <c r="Q178">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>108</v>
       </c>
-      <c r="B179" s="22" t="s">
+      <c r="B179" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C179" s="9">
@@ -7371,7 +7381,7 @@
       <c r="A180" t="s">
         <v>108</v>
       </c>
-      <c r="B180" s="22" t="s">
+      <c r="B180" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C180" s="9">
@@ -7398,87 +7408,96 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>543</v>
-      </c>
-      <c r="B181" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C181" s="13">
-        <v>4</v>
+        <v>602</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>385</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F181" s="19"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="19"/>
-      <c r="K181" s="19">
-        <v>1</v>
-      </c>
-      <c r="L181" s="19"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3">
+        <v>1</v>
+      </c>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
+      <c r="O181" t="s">
+        <v>412</v>
+      </c>
       <c r="Q181">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>465</v>
-      </c>
-      <c r="B182" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C182" s="13">
-        <v>0</v>
+        <v>602</v>
+      </c>
+      <c r="B182" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>385</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F182" s="19">
-        <v>1</v>
-      </c>
-      <c r="G182" s="19"/>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="19"/>
-      <c r="K182" s="19"/>
-      <c r="L182" s="19"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3">
+        <v>1</v>
+      </c>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
+      <c r="O182" t="s">
+        <v>412</v>
+      </c>
       <c r="Q182">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>532</v>
-      </c>
-      <c r="B183" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="B183" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C183" s="13">
-        <v>4</v>
+      <c r="C183" s="13" t="s">
+        <v>385</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F183" s="19"/>
-      <c r="G183" s="19"/>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="19"/>
-      <c r="K183" s="19">
-        <v>1</v>
-      </c>
-      <c r="L183" s="19"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3">
+        <v>1</v>
+      </c>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+      <c r="L183" s="3"/>
+      <c r="O183" t="s">
+        <v>412</v>
+      </c>
       <c r="Q183">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>106</v>
       </c>
-      <c r="B184" s="21" t="s">
+      <c r="B184" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C184" s="13">
@@ -7509,7 +7528,7 @@
       <c r="A185" t="s">
         <v>106</v>
       </c>
-      <c r="B185" s="21" t="s">
+      <c r="B185" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C185" s="13">
@@ -7538,26 +7557,31 @@
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>547</v>
-      </c>
-      <c r="B186" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C186" s="13">
-        <v>1</v>
+        <v>602</v>
+      </c>
+      <c r="B186" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>385</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F186" s="19"/>
-      <c r="G186" s="19"/>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="19"/>
-      <c r="K186" s="19"/>
-      <c r="L186" s="19"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3">
+        <v>1</v>
+      </c>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+      <c r="L186" s="3"/>
+      <c r="O186" t="s">
+        <v>412</v>
+      </c>
       <c r="Q186">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
@@ -7588,29 +7612,31 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>544</v>
-      </c>
-      <c r="B188" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C188" s="13">
-        <v>9</v>
+        <v>602</v>
+      </c>
+      <c r="B188" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>385</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E188">
-        <v>1</v>
-      </c>
-      <c r="F188" s="19"/>
-      <c r="G188" s="19"/>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="19"/>
-      <c r="K188" s="19"/>
-      <c r="L188" s="19"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3">
+        <v>1</v>
+      </c>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+      <c r="L188" s="3"/>
+      <c r="O188" t="s">
+        <v>412</v>
+      </c>
       <c r="Q188">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
@@ -7637,7 +7663,7 @@
       <c r="A190" t="s">
         <v>14</v>
       </c>
-      <c r="B190" s="20" t="s">
+      <c r="B190" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C190" s="9">
@@ -7661,29 +7687,28 @@
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>583</v>
-      </c>
-      <c r="B191" s="14" t="s">
-        <v>87</v>
+        <v>531</v>
+      </c>
+      <c r="B191" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C191" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E191">
-        <v>1</v>
-      </c>
-      <c r="F191" s="19"/>
-      <c r="G191" s="19"/>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="19"/>
-      <c r="K191" s="19"/>
-      <c r="L191" s="19"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3">
+        <v>1</v>
+      </c>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+      <c r="L191" s="3"/>
       <c r="Q191">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
@@ -7748,7 +7773,7 @@
       <c r="A194" t="s">
         <v>129</v>
       </c>
-      <c r="B194" s="19" t="s">
+      <c r="B194" s="3" t="s">
         <v>491</v>
       </c>
       <c r="C194" s="9">
@@ -7796,104 +7821,85 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>433</v>
-      </c>
-      <c r="B196" s="15" t="s">
-        <v>198</v>
+        <v>543</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C196" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F196" s="19"/>
-      <c r="G196" s="19">
-        <v>1</v>
-      </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19">
-        <v>1</v>
-      </c>
-      <c r="J196" s="19"/>
-      <c r="K196" s="19"/>
-      <c r="L196" s="19"/>
-      <c r="M196" t="s">
-        <v>224</v>
-      </c>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3">
+        <v>1</v>
+      </c>
+      <c r="L196" s="3"/>
       <c r="Q196">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="B197" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C197" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E197">
-        <v>1</v>
-      </c>
-      <c r="F197" s="19"/>
-      <c r="G197" s="19">
-        <v>1</v>
-      </c>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="19"/>
-      <c r="K197" s="19"/>
-      <c r="L197" s="19"/>
+      <c r="F197" s="3">
+        <v>1</v>
+      </c>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
       <c r="Q197">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>607</v>
-      </c>
-      <c r="B198" s="15" t="s">
-        <v>198</v>
+        <v>532</v>
+      </c>
+      <c r="B198" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C198" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E198">
-        <v>1</v>
-      </c>
-      <c r="F198" s="19"/>
-      <c r="G198" s="19"/>
-      <c r="H198" s="19">
-        <v>1</v>
-      </c>
-      <c r="I198" s="19">
-        <v>1</v>
-      </c>
-      <c r="J198" s="19"/>
-      <c r="K198" s="19"/>
-      <c r="L198" s="19"/>
-      <c r="M198" t="s">
-        <v>552</v>
-      </c>
-      <c r="O198" t="s">
-        <v>553</v>
-      </c>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3"/>
+      <c r="K198" s="3">
+        <v>1</v>
+      </c>
+      <c r="L198" s="3"/>
       <c r="Q198">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="B199" s="12" t="s">
         <v>62</v>
@@ -7904,46 +7910,49 @@
       <c r="D199" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F199" s="19"/>
-      <c r="G199" s="19"/>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="19"/>
-      <c r="K199" s="19"/>
-      <c r="L199" s="19"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3"/>
+      <c r="K199" s="3"/>
+      <c r="L199" s="3"/>
       <c r="Q199">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B200" s="15" t="s">
         <v>198</v>
       </c>
       <c r="C200" s="13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F200" s="19"/>
-      <c r="G200" s="19"/>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="19"/>
-      <c r="K200" s="19"/>
-      <c r="L200" s="19"/>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="3"/>
+      <c r="L200" s="3"/>
       <c r="Q200">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>109</v>
       </c>
-      <c r="B201" s="24" t="s">
+      <c r="B201" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C201" s="13" t="s">
@@ -7974,7 +7983,7 @@
       <c r="A202" t="s">
         <v>109</v>
       </c>
-      <c r="B202" s="24" t="s">
+      <c r="B202" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C202" s="13" t="s">
@@ -8023,13 +8032,13 @@
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>539</v>
-      </c>
-      <c r="B204" s="24" t="s">
-        <v>24</v>
+        <v>583</v>
+      </c>
+      <c r="B204" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C204" s="13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>321</v>
@@ -8037,58 +8046,53 @@
       <c r="E204">
         <v>1</v>
       </c>
-      <c r="F204" s="19"/>
-      <c r="G204" s="19"/>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-      <c r="J204" s="19">
-        <v>1</v>
-      </c>
-      <c r="K204" s="19"/>
-      <c r="L204" s="19"/>
-      <c r="P204" t="s">
-        <v>388</v>
-      </c>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3"/>
+      <c r="L204" s="3"/>
       <c r="Q204">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>576</v>
-      </c>
-      <c r="B205" s="21" t="s">
-        <v>1</v>
+        <v>433</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C205" s="13">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F205" s="19"/>
-      <c r="G205" s="19">
-        <v>1</v>
-      </c>
-      <c r="H205" s="19">
-        <v>1</v>
-      </c>
-      <c r="I205" s="19"/>
-      <c r="J205" s="19"/>
-      <c r="K205" s="19"/>
-      <c r="L205" s="19"/>
-      <c r="O205" t="s">
-        <v>577</v>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3">
+        <v>1</v>
+      </c>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3">
+        <v>1</v>
+      </c>
+      <c r="J205" s="3"/>
+      <c r="K205" s="3"/>
+      <c r="L205" s="3"/>
+      <c r="M205" t="s">
+        <v>224</v>
       </c>
       <c r="Q205">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>107</v>
       </c>
-      <c r="B206" s="21" t="s">
+      <c r="B206" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C206" s="13">
@@ -8106,28 +8110,31 @@
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>474</v>
-      </c>
-      <c r="B207" s="15" t="s">
-        <v>198</v>
+        <v>489</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C207" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F207" s="19"/>
-      <c r="G207" s="19">
-        <v>1</v>
-      </c>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-      <c r="J207" s="19"/>
-      <c r="K207" s="19"/>
-      <c r="L207" s="19"/>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3">
+        <v>1</v>
+      </c>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="3"/>
+      <c r="K207" s="3"/>
+      <c r="L207" s="3"/>
       <c r="Q207">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
@@ -8184,41 +8191,47 @@
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>592</v>
-      </c>
-      <c r="B210" s="24" t="s">
-        <v>24</v>
+        <v>607</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C210" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F210" s="19">
-        <v>1</v>
-      </c>
-      <c r="G210" s="19"/>
-      <c r="H210" s="19">
-        <v>1</v>
-      </c>
-      <c r="I210" s="19"/>
-      <c r="J210" s="19"/>
-      <c r="K210" s="19"/>
-      <c r="L210" s="19"/>
-      <c r="O210" s="16" t="s">
-        <v>593</v>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3">
+        <v>1</v>
+      </c>
+      <c r="I210" s="3">
+        <v>1</v>
+      </c>
+      <c r="J210" s="3"/>
+      <c r="K210" s="3"/>
+      <c r="L210" s="3"/>
+      <c r="M210" t="s">
+        <v>552</v>
+      </c>
+      <c r="O210" t="s">
+        <v>553</v>
       </c>
       <c r="Q210">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>434</v>
-      </c>
-      <c r="B211" s="24" t="s">
-        <v>24</v>
+        <v>566</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C211" s="13">
         <v>1</v>
@@ -8226,88 +8239,70 @@
       <c r="D211" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E211">
-        <v>1</v>
-      </c>
-      <c r="F211" s="19"/>
-      <c r="G211" s="19"/>
-      <c r="H211" s="19">
-        <v>1</v>
-      </c>
-      <c r="I211" s="19"/>
-      <c r="J211" s="19"/>
-      <c r="K211" s="19"/>
-      <c r="L211" s="19"/>
-      <c r="O211" t="s">
-        <v>608</v>
-      </c>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
+      <c r="K211" s="3"/>
+      <c r="L211" s="3"/>
       <c r="Q211">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>461</v>
-      </c>
-      <c r="B212" s="14" t="s">
-        <v>87</v>
+        <v>549</v>
+      </c>
+      <c r="B212" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C212" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F212" s="19">
-        <v>1</v>
-      </c>
-      <c r="G212" s="19"/>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="19"/>
-      <c r="K212" s="19"/>
-      <c r="L212" s="19"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="3"/>
+      <c r="K212" s="3"/>
+      <c r="L212" s="3"/>
       <c r="Q212">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>526</v>
-      </c>
-      <c r="B213" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C213" s="13" t="s">
-        <v>527</v>
+        <v>576</v>
+      </c>
+      <c r="B213" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="13">
+        <v>-3</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E213">
-        <v>1</v>
-      </c>
-      <c r="F213" s="19"/>
-      <c r="G213" s="19">
-        <v>1</v>
-      </c>
-      <c r="H213" s="19">
-        <v>1</v>
-      </c>
-      <c r="I213" s="19"/>
-      <c r="J213" s="19">
-        <v>1</v>
-      </c>
-      <c r="K213" s="19"/>
-      <c r="L213" s="19"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3">
+        <v>1</v>
+      </c>
+      <c r="H213" s="3">
+        <v>1</v>
+      </c>
+      <c r="I213" s="3"/>
+      <c r="J213" s="3"/>
+      <c r="K213" s="3"/>
+      <c r="L213" s="3"/>
       <c r="O213" t="s">
-        <v>527</v>
-      </c>
-      <c r="P213" t="s">
-        <v>527</v>
+        <v>577</v>
       </c>
       <c r="Q213">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.2">
@@ -8341,7 +8336,7 @@
       <c r="A215" t="s">
         <v>138</v>
       </c>
-      <c r="B215" s="24" t="s">
+      <c r="B215" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C215" s="13">
@@ -8361,7 +8356,7 @@
       <c r="A216" t="s">
         <v>138</v>
       </c>
-      <c r="B216" s="24" t="s">
+      <c r="B216" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C216" s="13">
@@ -8381,7 +8376,7 @@
       <c r="A217" t="s">
         <v>33</v>
       </c>
-      <c r="B217" s="23" t="s">
+      <c r="B217" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C217" s="9">
@@ -8410,7 +8405,7 @@
       <c r="A218" t="s">
         <v>25</v>
       </c>
-      <c r="B218" s="22" t="s">
+      <c r="B218" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C218" s="9">
@@ -8442,7 +8437,7 @@
       <c r="A219" t="s">
         <v>25</v>
       </c>
-      <c r="B219" s="22" t="s">
+      <c r="B219" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C219" s="9">
@@ -8474,7 +8469,7 @@
       <c r="A220" t="s">
         <v>15</v>
       </c>
-      <c r="B220" s="20" t="s">
+      <c r="B220" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C220" s="9">
@@ -8524,31 +8519,28 @@
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>533</v>
-      </c>
-      <c r="B222" s="24" t="s">
-        <v>24</v>
+        <v>474</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C222" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E222">
-        <v>1</v>
-      </c>
-      <c r="F222" s="19"/>
-      <c r="G222" s="19">
-        <v>1</v>
-      </c>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="19"/>
-      <c r="K222" s="19"/>
-      <c r="L222" s="19"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3">
+        <v>1</v>
+      </c>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3"/>
+      <c r="K222" s="3"/>
+      <c r="L222" s="3"/>
       <c r="Q222">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.2">
@@ -8581,7 +8573,7 @@
       <c r="A224" t="s">
         <v>34</v>
       </c>
-      <c r="B224" s="23" t="s">
+      <c r="B224" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C224" s="9">
@@ -8631,80 +8623,91 @@
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>457</v>
-      </c>
-      <c r="B226" t="s">
-        <v>432</v>
+        <v>592</v>
+      </c>
+      <c r="B226" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C226" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F226" s="19"/>
-      <c r="G226" s="19">
-        <v>1</v>
-      </c>
-      <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="19"/>
-      <c r="K226" s="19"/>
-      <c r="L226" s="19"/>
+      <c r="F226" s="3">
+        <v>1</v>
+      </c>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3">
+        <v>1</v>
+      </c>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3"/>
+      <c r="K226" s="3"/>
+      <c r="L226" s="3"/>
+      <c r="O226" s="16" t="s">
+        <v>593</v>
+      </c>
       <c r="Q226">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>457</v>
-      </c>
-      <c r="B227" t="s">
-        <v>432</v>
+        <v>434</v>
+      </c>
+      <c r="B227" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C227" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F227" s="19"/>
-      <c r="G227" s="19">
-        <v>1</v>
-      </c>
-      <c r="H227" s="19"/>
-      <c r="I227" s="19"/>
-      <c r="J227" s="19"/>
-      <c r="K227" s="19"/>
-      <c r="L227" s="19"/>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3">
+        <v>1</v>
+      </c>
+      <c r="I227" s="3"/>
+      <c r="J227" s="3"/>
+      <c r="K227" s="3"/>
+      <c r="L227" s="3"/>
+      <c r="O227" t="s">
+        <v>608</v>
+      </c>
       <c r="Q227">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>501</v>
-      </c>
-      <c r="B228" s="12" t="s">
-        <v>62</v>
+        <v>461</v>
+      </c>
+      <c r="B228" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C228" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F228" s="19">
-        <v>1</v>
-      </c>
-      <c r="G228" s="19"/>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
-      <c r="J228" s="19"/>
-      <c r="K228" s="19"/>
-      <c r="L228" s="19"/>
+      <c r="F228" s="3">
+        <v>1</v>
+      </c>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3"/>
+      <c r="K228" s="3"/>
+      <c r="L228" s="3"/>
       <c r="Q228">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.2">
@@ -8737,7 +8740,7 @@
       <c r="A230" t="s">
         <v>35</v>
       </c>
-      <c r="B230" s="23" t="s">
+      <c r="B230" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C230" s="9">
@@ -8816,64 +8819,64 @@
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>534</v>
-      </c>
-      <c r="B233" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="B233" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C233" s="13">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F233" s="19"/>
-      <c r="G233" s="19">
-        <v>1</v>
-      </c>
-      <c r="H233" s="19"/>
-      <c r="I233" s="19"/>
-      <c r="J233" s="19"/>
-      <c r="K233" s="19"/>
-      <c r="L233" s="19"/>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3">
+        <v>1</v>
+      </c>
+      <c r="H233" s="3"/>
+      <c r="I233" s="3"/>
+      <c r="J233" s="3"/>
+      <c r="K233" s="3"/>
+      <c r="L233" s="3"/>
       <c r="Q233">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>518</v>
-      </c>
-      <c r="B234" s="21" t="s">
-        <v>1</v>
+        <v>457</v>
+      </c>
+      <c r="B234" t="s">
+        <v>432</v>
       </c>
       <c r="C234" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F234" s="19"/>
-      <c r="G234" s="19"/>
-      <c r="H234" s="19">
-        <v>1</v>
-      </c>
-      <c r="I234" s="19"/>
-      <c r="J234" s="19"/>
-      <c r="K234" s="19"/>
-      <c r="L234" s="19"/>
-      <c r="O234" t="s">
-        <v>519</v>
-      </c>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3">
+        <v>1</v>
+      </c>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
+      <c r="L234" s="3"/>
       <c r="Q234">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>36</v>
       </c>
-      <c r="B235" s="23" t="s">
+      <c r="B235" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C235" s="9">
@@ -8917,67 +8920,61 @@
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>506</v>
-      </c>
-      <c r="B237" s="12" t="s">
-        <v>62</v>
+        <v>457</v>
+      </c>
+      <c r="B237" t="s">
+        <v>432</v>
       </c>
       <c r="C237" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237" s="19"/>
-      <c r="G237" s="19"/>
-      <c r="H237" s="19">
-        <v>1</v>
-      </c>
-      <c r="I237" s="19"/>
-      <c r="J237" s="19"/>
-      <c r="K237" s="19"/>
-      <c r="L237" s="19"/>
-      <c r="O237" s="16" t="s">
-        <v>507</v>
-      </c>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3">
+        <v>1</v>
+      </c>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
+      <c r="J237" s="3"/>
+      <c r="K237" s="3"/>
+      <c r="L237" s="3"/>
       <c r="Q237">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>557</v>
-      </c>
-      <c r="B238" s="21" t="s">
-        <v>1</v>
+        <v>501</v>
+      </c>
+      <c r="B238" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C238" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F238" s="19">
-        <v>1</v>
-      </c>
-      <c r="G238" s="19"/>
-      <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
-      <c r="J238" s="19"/>
-      <c r="K238" s="19"/>
-      <c r="L238" s="19"/>
+      <c r="F238" s="3">
+        <v>1</v>
+      </c>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+      <c r="J238" s="3"/>
+      <c r="K238" s="3"/>
+      <c r="L238" s="3"/>
       <c r="Q238">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>151</v>
       </c>
-      <c r="B239" s="21" t="s">
+      <c r="B239" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C239" s="13">
@@ -8997,7 +8994,7 @@
       <c r="A240" t="s">
         <v>151</v>
       </c>
-      <c r="B240" s="21" t="s">
+      <c r="B240" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C240" s="13">
@@ -9039,60 +9036,57 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>494</v>
-      </c>
-      <c r="B242" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="B242" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C242" s="13">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242" s="19"/>
-      <c r="G242" s="19"/>
-      <c r="H242" s="19"/>
-      <c r="I242" s="19"/>
-      <c r="J242" s="19">
-        <v>1</v>
-      </c>
-      <c r="K242" s="19"/>
-      <c r="L242" s="19"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3">
+        <v>1</v>
+      </c>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+      <c r="J242" s="3"/>
+      <c r="K242" s="3"/>
+      <c r="L242" s="3"/>
       <c r="Q242">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>494</v>
-      </c>
-      <c r="B243" s="24" t="s">
-        <v>24</v>
+        <v>518</v>
+      </c>
+      <c r="B243" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C243" s="13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243" s="19"/>
-      <c r="G243" s="19"/>
-      <c r="H243" s="19"/>
-      <c r="I243" s="19"/>
-      <c r="J243" s="19">
-        <v>1</v>
-      </c>
-      <c r="K243" s="19"/>
-      <c r="L243" s="19"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3">
+        <v>1</v>
+      </c>
+      <c r="I243" s="3"/>
+      <c r="J243" s="3"/>
+      <c r="K243" s="3"/>
+      <c r="L243" s="3"/>
+      <c r="O243" t="s">
+        <v>519</v>
+      </c>
       <c r="Q243">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.2">
@@ -9123,28 +9117,34 @@
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>523</v>
-      </c>
-      <c r="B245" s="21" t="s">
-        <v>1</v>
+        <v>506</v>
+      </c>
+      <c r="B245" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C245" s="13">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F245" s="19"/>
-      <c r="G245" s="19">
-        <v>1</v>
-      </c>
-      <c r="H245" s="19"/>
-      <c r="I245" s="19"/>
-      <c r="J245" s="19"/>
-      <c r="K245" s="19"/>
-      <c r="L245" s="19"/>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245" s="3"/>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3">
+        <v>1</v>
+      </c>
+      <c r="I245" s="3"/>
+      <c r="J245" s="3"/>
+      <c r="K245" s="3"/>
+      <c r="L245" s="3"/>
+      <c r="O245" s="16" t="s">
+        <v>507</v>
+      </c>
       <c r="Q245">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.2">
@@ -9189,10 +9189,10 @@
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>448</v>
-      </c>
-      <c r="B248" s="15" t="s">
-        <v>198</v>
+        <v>557</v>
+      </c>
+      <c r="B248" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C248" s="13">
         <v>1</v>
@@ -9200,30 +9200,24 @@
       <c r="D248" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-      <c r="F248" s="19"/>
-      <c r="G248" s="19"/>
-      <c r="H248" s="19">
-        <v>1</v>
-      </c>
-      <c r="I248" s="19"/>
-      <c r="J248" s="19"/>
-      <c r="K248" s="19"/>
-      <c r="L248" s="19"/>
-      <c r="O248" s="16" t="s">
-        <v>449</v>
-      </c>
+      <c r="F248" s="3">
+        <v>1</v>
+      </c>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
+      <c r="J248" s="3"/>
+      <c r="K248" s="3"/>
+      <c r="L248" s="3"/>
       <c r="Q248">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>37</v>
       </c>
-      <c r="B249" s="23" t="s">
+      <c r="B249" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C249" s="13" t="s">
@@ -9250,29 +9244,28 @@
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>438</v>
-      </c>
-      <c r="B250" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="B250" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C250" s="13">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250" s="19"/>
-      <c r="G250" s="19"/>
-      <c r="H250" s="19"/>
-      <c r="I250" s="19"/>
-      <c r="J250" s="19"/>
-      <c r="K250" s="19"/>
-      <c r="L250" s="19"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3">
+        <v>1</v>
+      </c>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3"/>
+      <c r="J250" s="3"/>
+      <c r="K250" s="3"/>
+      <c r="L250" s="3"/>
       <c r="Q250">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.2">
@@ -9305,7 +9298,7 @@
       <c r="A252" t="s">
         <v>16</v>
       </c>
-      <c r="B252" s="20" t="s">
+      <c r="B252" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C252" s="9">
@@ -9329,7 +9322,7 @@
       <c r="A253" t="s">
         <v>16</v>
       </c>
-      <c r="B253" s="20" t="s">
+      <c r="B253" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C253" s="9">
@@ -9377,7 +9370,7 @@
       <c r="A255" t="s">
         <v>135</v>
       </c>
-      <c r="B255" s="21" t="s">
+      <c r="B255" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C255" s="13">
@@ -9395,54 +9388,61 @@
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>455</v>
-      </c>
-      <c r="B256" s="24" t="s">
-        <v>24</v>
+        <v>448</v>
+      </c>
+      <c r="B256" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C256" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F256" s="19">
-        <v>1</v>
-      </c>
-      <c r="G256" s="19"/>
-      <c r="H256" s="19"/>
-      <c r="I256" s="19"/>
-      <c r="J256" s="19"/>
-      <c r="K256" s="19"/>
-      <c r="L256" s="19"/>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256" s="3"/>
+      <c r="G256" s="3"/>
+      <c r="H256" s="3">
+        <v>1</v>
+      </c>
+      <c r="I256" s="3"/>
+      <c r="J256" s="3"/>
+      <c r="K256" s="3"/>
+      <c r="L256" s="3"/>
+      <c r="O256" s="16" t="s">
+        <v>449</v>
+      </c>
       <c r="Q256">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>555</v>
-      </c>
-      <c r="B257" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="B257" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C257" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F257" s="19"/>
-      <c r="G257" s="19"/>
-      <c r="H257" s="19"/>
-      <c r="I257" s="19"/>
-      <c r="J257" s="19"/>
-      <c r="K257" s="19">
-        <v>1</v>
-      </c>
-      <c r="L257" s="19"/>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3"/>
+      <c r="I257" s="3"/>
+      <c r="J257" s="3"/>
+      <c r="K257" s="3"/>
+      <c r="L257" s="3"/>
       <c r="Q257">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.2">
@@ -9513,7 +9513,7 @@
       <c r="A260" t="s">
         <v>17</v>
       </c>
-      <c r="B260" s="20" t="s">
+      <c r="B260" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C260" s="9">
@@ -9540,10 +9540,10 @@
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>466</v>
-      </c>
-      <c r="B261" s="15" t="s">
-        <v>198</v>
+        <v>455</v>
+      </c>
+      <c r="B261" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C261" s="13">
         <v>2</v>
@@ -9551,17 +9551,17 @@
       <c r="D261" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F261" s="19">
-        <v>1</v>
-      </c>
-      <c r="G261" s="19"/>
-      <c r="H261" s="19"/>
-      <c r="I261" s="19"/>
-      <c r="J261" s="19"/>
-      <c r="K261" s="19"/>
-      <c r="L261" s="19"/>
+      <c r="F261" s="3">
+        <v>1</v>
+      </c>
+      <c r="G261" s="3"/>
+      <c r="H261" s="3"/>
+      <c r="I261" s="3"/>
+      <c r="J261" s="3"/>
+      <c r="K261" s="3"/>
+      <c r="L261" s="3"/>
       <c r="Q261">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.2">
@@ -9621,62 +9621,61 @@
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>559</v>
-      </c>
-      <c r="B264" s="12" t="s">
-        <v>62</v>
+        <v>555</v>
+      </c>
+      <c r="B264" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C264" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E264">
-        <v>1</v>
-      </c>
-      <c r="F264" s="19"/>
-      <c r="G264" s="19"/>
-      <c r="H264" s="19"/>
-      <c r="I264" s="19"/>
-      <c r="J264" s="19"/>
-      <c r="K264" s="19"/>
-      <c r="L264" s="19"/>
+      <c r="F264" s="3"/>
+      <c r="G264" s="3"/>
+      <c r="H264" s="3"/>
+      <c r="I264" s="3"/>
+      <c r="J264" s="3"/>
+      <c r="K264" s="3">
+        <v>1</v>
+      </c>
+      <c r="L264" s="3"/>
       <c r="Q264">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>569</v>
-      </c>
-      <c r="B265" s="14" t="s">
-        <v>87</v>
+        <v>466</v>
+      </c>
+      <c r="B265" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C265" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F265" s="19"/>
-      <c r="G265" s="19"/>
-      <c r="H265" s="19"/>
-      <c r="I265" s="19"/>
-      <c r="J265" s="19"/>
-      <c r="K265" s="19">
-        <v>1</v>
-      </c>
-      <c r="L265" s="19"/>
+      <c r="F265" s="3">
+        <v>1</v>
+      </c>
+      <c r="G265" s="3"/>
+      <c r="H265" s="3"/>
+      <c r="I265" s="3"/>
+      <c r="J265" s="3"/>
+      <c r="K265" s="3"/>
+      <c r="L265" s="3"/>
       <c r="Q265">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>22</v>
       </c>
-      <c r="B266" s="20" t="s">
+      <c r="B266" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C266" s="9">
@@ -9700,34 +9699,37 @@
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>492</v>
-      </c>
-      <c r="B267" s="24" t="s">
-        <v>24</v>
+        <v>559</v>
+      </c>
+      <c r="B267" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C267" s="13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F267" s="19"/>
-      <c r="G267" s="19"/>
-      <c r="H267" s="19"/>
-      <c r="I267" s="19"/>
-      <c r="J267" s="19"/>
-      <c r="K267" s="19"/>
-      <c r="L267" s="19"/>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267" s="3"/>
+      <c r="G267" s="3"/>
+      <c r="H267" s="3"/>
+      <c r="I267" s="3"/>
+      <c r="J267" s="3"/>
+      <c r="K267" s="3"/>
+      <c r="L267" s="3"/>
       <c r="Q267">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>478</v>
-      </c>
-      <c r="B268" s="15" t="s">
-        <v>198</v>
+        <v>569</v>
+      </c>
+      <c r="B268" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C268" s="13">
         <v>1</v>
@@ -9735,24 +9737,24 @@
       <c r="D268" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F268" s="19">
-        <v>1</v>
-      </c>
-      <c r="G268" s="19"/>
-      <c r="H268" s="19"/>
-      <c r="I268" s="19"/>
-      <c r="J268" s="19"/>
-      <c r="K268" s="19"/>
-      <c r="L268" s="19"/>
+      <c r="F268" s="3"/>
+      <c r="G268" s="3"/>
+      <c r="H268" s="3"/>
+      <c r="I268" s="3"/>
+      <c r="J268" s="3"/>
+      <c r="K268" s="3">
+        <v>1</v>
+      </c>
+      <c r="L268" s="3"/>
       <c r="Q268">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>18</v>
       </c>
-      <c r="B269" s="20" t="s">
+      <c r="B269" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C269" s="9">
@@ -9802,35 +9804,33 @@
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>444</v>
-      </c>
-      <c r="B271" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="B271" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C271" s="13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F271" s="19">
-        <v>1</v>
-      </c>
-      <c r="G271" s="19"/>
-      <c r="H271" s="19"/>
-      <c r="I271" s="19"/>
-      <c r="J271" s="19"/>
-      <c r="K271" s="19"/>
-      <c r="L271" s="19"/>
+      <c r="F271" s="3"/>
+      <c r="G271" s="3"/>
+      <c r="H271" s="3"/>
+      <c r="I271" s="3"/>
+      <c r="J271" s="3"/>
+      <c r="K271" s="3"/>
+      <c r="L271" s="3"/>
       <c r="Q271">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>38</v>
       </c>
-      <c r="B272" s="23" t="s">
+      <c r="B272" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C272" s="9">
@@ -9856,7 +9856,7 @@
       <c r="A273" t="s">
         <v>38</v>
       </c>
-      <c r="B273" s="23" t="s">
+      <c r="B273" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C273" s="9">
@@ -9989,35 +9989,35 @@
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>546</v>
-      </c>
-      <c r="B278" s="12" t="s">
-        <v>62</v>
+        <v>478</v>
+      </c>
+      <c r="B278" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C278" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F278" s="19">
-        <v>1</v>
-      </c>
-      <c r="G278" s="19"/>
-      <c r="H278" s="19"/>
-      <c r="I278" s="19"/>
-      <c r="J278" s="19"/>
-      <c r="K278" s="19"/>
-      <c r="L278" s="19"/>
+      <c r="F278" s="3">
+        <v>1</v>
+      </c>
+      <c r="G278" s="3"/>
+      <c r="H278" s="3"/>
+      <c r="I278" s="3"/>
+      <c r="J278" s="3"/>
+      <c r="K278" s="3"/>
+      <c r="L278" s="3"/>
       <c r="Q278">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>485</v>
-      </c>
-      <c r="B279" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="B279" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C279" s="13">
@@ -10026,170 +10026,165 @@
       <c r="D279" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F279" s="19"/>
-      <c r="G279" s="19"/>
-      <c r="H279" s="19">
-        <v>1</v>
-      </c>
-      <c r="I279" s="19"/>
-      <c r="J279" s="19"/>
-      <c r="K279" s="19"/>
-      <c r="L279" s="19"/>
-      <c r="O279" s="16" t="s">
-        <v>486</v>
-      </c>
+      <c r="F279" s="3">
+        <v>1</v>
+      </c>
+      <c r="G279" s="3"/>
+      <c r="H279" s="3"/>
+      <c r="I279" s="3"/>
+      <c r="J279" s="3"/>
+      <c r="K279" s="3"/>
+      <c r="L279" s="3"/>
       <c r="Q279">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="280" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>468</v>
-      </c>
-      <c r="B280" s="15" t="s">
-        <v>198</v>
+        <v>546</v>
+      </c>
+      <c r="B280" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C280" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F280" s="19"/>
-      <c r="G280" s="19"/>
-      <c r="H280" s="19">
-        <v>1</v>
-      </c>
-      <c r="I280" s="19"/>
-      <c r="J280" s="19"/>
-      <c r="K280" s="19"/>
-      <c r="L280" s="19"/>
-      <c r="O280" t="s">
-        <v>473</v>
-      </c>
+      <c r="F280" s="3">
+        <v>1</v>
+      </c>
+      <c r="G280" s="3"/>
+      <c r="H280" s="3"/>
+      <c r="I280" s="3"/>
+      <c r="J280" s="3"/>
+      <c r="K280" s="3"/>
+      <c r="L280" s="3"/>
       <c r="Q280">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>460</v>
-      </c>
-      <c r="B281" s="15" t="s">
-        <v>198</v>
+        <v>485</v>
+      </c>
+      <c r="B281" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C281" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F281" s="19"/>
-      <c r="G281" s="19"/>
-      <c r="H281" s="19"/>
-      <c r="I281" s="19">
-        <v>1</v>
-      </c>
-      <c r="J281" s="19"/>
-      <c r="K281" s="19"/>
-      <c r="L281" s="19"/>
-      <c r="M281" t="s">
-        <v>225</v>
+      <c r="F281" s="3"/>
+      <c r="G281" s="3"/>
+      <c r="H281" s="3">
+        <v>1</v>
+      </c>
+      <c r="I281" s="3"/>
+      <c r="J281" s="3"/>
+      <c r="K281" s="3"/>
+      <c r="L281" s="3"/>
+      <c r="O281" s="16" t="s">
+        <v>486</v>
       </c>
       <c r="Q281">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>482</v>
-      </c>
-      <c r="B282" s="12" t="s">
-        <v>62</v>
+        <v>468</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C282" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E282">
-        <v>1</v>
-      </c>
-      <c r="F282" s="19"/>
-      <c r="G282" s="19"/>
-      <c r="H282" s="19"/>
-      <c r="I282" s="19"/>
-      <c r="J282" s="19"/>
-      <c r="K282" s="19"/>
-      <c r="L282" s="19"/>
+      <c r="F282" s="3"/>
+      <c r="G282" s="3"/>
+      <c r="H282" s="3">
+        <v>1</v>
+      </c>
+      <c r="I282" s="3"/>
+      <c r="J282" s="3"/>
+      <c r="K282" s="3"/>
+      <c r="L282" s="3"/>
+      <c r="O282" t="s">
+        <v>473</v>
+      </c>
       <c r="Q282">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>572</v>
-      </c>
-      <c r="B283" s="21" t="s">
-        <v>1</v>
+        <v>460</v>
+      </c>
+      <c r="B283" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C283" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F283" s="19">
-        <v>1</v>
-      </c>
-      <c r="G283" s="19"/>
-      <c r="H283" s="19"/>
-      <c r="I283" s="19"/>
-      <c r="J283" s="19"/>
-      <c r="K283" s="19"/>
-      <c r="L283" s="19"/>
+      <c r="F283" s="3"/>
+      <c r="G283" s="3"/>
+      <c r="H283" s="3"/>
+      <c r="I283" s="3">
+        <v>1</v>
+      </c>
+      <c r="J283" s="3"/>
+      <c r="K283" s="3"/>
+      <c r="L283" s="3"/>
+      <c r="M283" t="s">
+        <v>225</v>
+      </c>
       <c r="Q283">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>535</v>
-      </c>
-      <c r="B284" s="21" t="s">
-        <v>1</v>
+        <v>482</v>
+      </c>
+      <c r="B284" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C284" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F284" s="19"/>
-      <c r="G284" s="19">
-        <v>1</v>
-      </c>
-      <c r="H284" s="19"/>
-      <c r="I284" s="19">
-        <v>1</v>
-      </c>
-      <c r="J284" s="19"/>
-      <c r="K284" s="19"/>
-      <c r="L284" s="19"/>
-      <c r="M284" t="s">
-        <v>536</v>
-      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284" s="3"/>
+      <c r="G284" s="3"/>
+      <c r="H284" s="3"/>
+      <c r="I284" s="3"/>
+      <c r="J284" s="3"/>
+      <c r="K284" s="3"/>
+      <c r="L284" s="3"/>
       <c r="Q284">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>488</v>
-      </c>
-      <c r="B285" s="12" t="s">
-        <v>62</v>
+        <v>572</v>
+      </c>
+      <c r="B285" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C285" s="13">
         <v>2</v>
@@ -10197,46 +10192,48 @@
       <c r="D285" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F285" s="19"/>
-      <c r="G285" s="19"/>
-      <c r="H285" s="19"/>
-      <c r="I285" s="19"/>
-      <c r="J285" s="19"/>
-      <c r="K285" s="19">
-        <v>1</v>
-      </c>
-      <c r="L285" s="19"/>
+      <c r="F285" s="3">
+        <v>1</v>
+      </c>
+      <c r="G285" s="3"/>
+      <c r="H285" s="3"/>
+      <c r="I285" s="3"/>
+      <c r="J285" s="3"/>
+      <c r="K285" s="3"/>
+      <c r="L285" s="3"/>
       <c r="Q285">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="286" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>584</v>
-      </c>
-      <c r="B286" t="s">
-        <v>204</v>
+        <v>535</v>
+      </c>
+      <c r="B286" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C286" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E286">
-        <v>1</v>
-      </c>
-      <c r="F286" s="19"/>
-      <c r="G286" s="19">
-        <v>1</v>
-      </c>
-      <c r="H286" s="19"/>
-      <c r="I286" s="19"/>
-      <c r="J286" s="19"/>
-      <c r="K286" s="19"/>
-      <c r="L286" s="19"/>
+      <c r="F286" s="3"/>
+      <c r="G286" s="3">
+        <v>1</v>
+      </c>
+      <c r="H286" s="3"/>
+      <c r="I286" s="3">
+        <v>1</v>
+      </c>
+      <c r="J286" s="3"/>
+      <c r="K286" s="3"/>
+      <c r="L286" s="3"/>
+      <c r="M286" t="s">
+        <v>536</v>
+      </c>
       <c r="Q286">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.2">
@@ -10267,7 +10264,7 @@
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="B288" s="12" t="s">
         <v>62</v>
@@ -10278,134 +10275,134 @@
       <c r="D288" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F288" s="19">
-        <v>1</v>
-      </c>
-      <c r="G288" s="19"/>
-      <c r="H288" s="19"/>
-      <c r="I288" s="19"/>
-      <c r="J288" s="19"/>
-      <c r="K288" s="19"/>
-      <c r="L288" s="19"/>
+      <c r="F288" s="3"/>
+      <c r="G288" s="3"/>
+      <c r="H288" s="3"/>
+      <c r="I288" s="3"/>
+      <c r="J288" s="3"/>
+      <c r="K288" s="3">
+        <v>1</v>
+      </c>
+      <c r="L288" s="3"/>
       <c r="Q288">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>464</v>
+        <v>584</v>
       </c>
       <c r="B289" t="s">
-        <v>432</v>
+        <v>204</v>
       </c>
       <c r="C289" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F289" s="19"/>
-      <c r="G289" s="19"/>
-      <c r="H289" s="19">
-        <v>1</v>
-      </c>
-      <c r="I289" s="19"/>
-      <c r="J289" s="19"/>
-      <c r="K289" s="19"/>
-      <c r="L289" s="19"/>
-      <c r="O289" t="s">
-        <v>471</v>
-      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289" s="3"/>
+      <c r="G289" s="3">
+        <v>1</v>
+      </c>
+      <c r="H289" s="3"/>
+      <c r="I289" s="3"/>
+      <c r="J289" s="3"/>
+      <c r="K289" s="3"/>
+      <c r="L289" s="3"/>
       <c r="Q289">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>570</v>
-      </c>
-      <c r="B290" t="s">
-        <v>432</v>
+        <v>538</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C290" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F290" s="19"/>
-      <c r="G290" s="19"/>
-      <c r="H290" s="19"/>
-      <c r="I290" s="19"/>
-      <c r="J290" s="19"/>
-      <c r="K290" s="19">
-        <v>1</v>
-      </c>
-      <c r="L290" s="19"/>
+      <c r="F290" s="3">
+        <v>1</v>
+      </c>
+      <c r="G290" s="3"/>
+      <c r="H290" s="3"/>
+      <c r="I290" s="3"/>
+      <c r="J290" s="3"/>
+      <c r="K290" s="3"/>
+      <c r="L290" s="3"/>
       <c r="Q290">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>511</v>
-      </c>
-      <c r="B291" s="21" t="s">
-        <v>1</v>
+        <v>464</v>
+      </c>
+      <c r="B291" t="s">
+        <v>432</v>
       </c>
       <c r="C291" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F291" s="19"/>
-      <c r="G291" s="19"/>
-      <c r="H291" s="19"/>
-      <c r="I291" s="19"/>
-      <c r="J291" s="19"/>
-      <c r="K291" s="19">
-        <v>1</v>
-      </c>
-      <c r="L291" s="19"/>
+      <c r="F291" s="3"/>
+      <c r="G291" s="3"/>
+      <c r="H291" s="3">
+        <v>1</v>
+      </c>
+      <c r="I291" s="3"/>
+      <c r="J291" s="3"/>
+      <c r="K291" s="3"/>
+      <c r="L291" s="3"/>
+      <c r="O291" t="s">
+        <v>471</v>
+      </c>
       <c r="Q291">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="292" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="B292" t="s">
-        <v>203</v>
+        <v>432</v>
       </c>
       <c r="C292" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F292" s="19"/>
-      <c r="G292" s="19"/>
-      <c r="H292" s="19">
-        <v>1</v>
-      </c>
-      <c r="I292" s="19"/>
-      <c r="J292" s="19"/>
-      <c r="K292" s="19"/>
-      <c r="L292" s="19"/>
-      <c r="O292" t="s">
-        <v>563</v>
-      </c>
+      <c r="F292" s="3"/>
+      <c r="G292" s="3"/>
+      <c r="H292" s="3"/>
+      <c r="I292" s="3"/>
+      <c r="J292" s="3"/>
+      <c r="K292" s="3">
+        <v>1</v>
+      </c>
+      <c r="L292" s="3"/>
       <c r="Q292">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>19</v>
       </c>
-      <c r="B293" s="20" t="s">
+      <c r="B293" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C293" s="9">
@@ -10429,70 +10426,64 @@
     </row>
     <row r="294" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>509</v>
-      </c>
-      <c r="B294" s="24" t="s">
-        <v>24</v>
+        <v>511</v>
+      </c>
+      <c r="B294" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C294" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F294" s="19"/>
-      <c r="G294" s="19"/>
-      <c r="H294" s="19"/>
-      <c r="I294" s="19">
-        <v>1</v>
-      </c>
-      <c r="J294" s="19"/>
-      <c r="K294" s="19"/>
-      <c r="L294" s="19"/>
-      <c r="M294" t="s">
-        <v>510</v>
-      </c>
+      <c r="F294" s="3"/>
+      <c r="G294" s="3"/>
+      <c r="H294" s="3"/>
+      <c r="I294" s="3"/>
+      <c r="J294" s="3"/>
+      <c r="K294" s="3">
+        <v>1</v>
+      </c>
+      <c r="L294" s="3"/>
       <c r="Q294">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="295" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>487</v>
-      </c>
-      <c r="B295" s="14" t="s">
-        <v>87</v>
+        <v>562</v>
+      </c>
+      <c r="B295" t="s">
+        <v>203</v>
       </c>
       <c r="C295" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E295">
-        <v>1</v>
-      </c>
-      <c r="F295" s="19"/>
-      <c r="G295" s="19"/>
-      <c r="H295" s="19"/>
-      <c r="I295" s="19"/>
-      <c r="J295" s="19">
-        <v>1</v>
-      </c>
-      <c r="K295" s="19"/>
-      <c r="L295" s="19"/>
-      <c r="P295" t="s">
-        <v>388</v>
+      <c r="F295" s="3"/>
+      <c r="G295" s="3"/>
+      <c r="H295" s="3">
+        <v>1</v>
+      </c>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3"/>
+      <c r="L295" s="3"/>
+      <c r="O295" t="s">
+        <v>563</v>
       </c>
       <c r="Q295">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>500</v>
-      </c>
-      <c r="B296" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="B296" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C296" s="13">
@@ -10501,25 +10492,28 @@
       <c r="D296" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F296" s="19">
-        <v>1</v>
-      </c>
-      <c r="G296" s="19"/>
-      <c r="H296" s="19"/>
-      <c r="I296" s="19"/>
-      <c r="J296" s="19"/>
-      <c r="K296" s="19"/>
-      <c r="L296" s="19"/>
+      <c r="F296" s="3"/>
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
+      <c r="I296" s="3">
+        <v>1</v>
+      </c>
+      <c r="J296" s="3"/>
+      <c r="K296" s="3"/>
+      <c r="L296" s="3"/>
+      <c r="M296" t="s">
+        <v>510</v>
+      </c>
       <c r="Q296">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>541</v>
-      </c>
-      <c r="B297" s="14" t="s">
-        <v>87</v>
+        <v>500</v>
+      </c>
+      <c r="B297" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C297" s="13">
         <v>1</v>
@@ -10527,17 +10521,17 @@
       <c r="D297" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F297" s="19">
-        <v>1</v>
-      </c>
-      <c r="G297" s="19"/>
-      <c r="H297" s="19"/>
-      <c r="I297" s="19"/>
-      <c r="J297" s="19"/>
-      <c r="K297" s="19"/>
-      <c r="L297" s="19"/>
+      <c r="F297" s="3">
+        <v>1</v>
+      </c>
+      <c r="G297" s="3"/>
+      <c r="H297" s="3"/>
+      <c r="I297" s="3"/>
+      <c r="J297" s="3"/>
+      <c r="K297" s="3"/>
+      <c r="L297" s="3"/>
       <c r="Q297">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.2">
@@ -10571,10 +10565,10 @@
     </row>
     <row r="299" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>568</v>
-      </c>
-      <c r="B299" s="12" t="s">
-        <v>62</v>
+        <v>541</v>
+      </c>
+      <c r="B299" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C299" s="13">
         <v>1</v>
@@ -10582,43 +10576,43 @@
       <c r="D299" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F299" s="19"/>
-      <c r="G299" s="19"/>
-      <c r="H299" s="19"/>
-      <c r="I299" s="19"/>
-      <c r="J299" s="19"/>
-      <c r="K299" s="19">
-        <v>1</v>
-      </c>
-      <c r="L299" s="19"/>
+      <c r="F299" s="3">
+        <v>1</v>
+      </c>
+      <c r="G299" s="3"/>
+      <c r="H299" s="3"/>
+      <c r="I299" s="3"/>
+      <c r="J299" s="3"/>
+      <c r="K299" s="3"/>
+      <c r="L299" s="3"/>
       <c r="Q299">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="B300" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C300" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F300" s="19">
-        <v>1</v>
-      </c>
-      <c r="G300" s="19"/>
-      <c r="H300" s="19"/>
-      <c r="I300" s="19"/>
-      <c r="J300" s="19"/>
-      <c r="K300" s="19"/>
-      <c r="L300" s="19"/>
+      <c r="F300" s="3"/>
+      <c r="G300" s="3"/>
+      <c r="H300" s="3"/>
+      <c r="I300" s="3"/>
+      <c r="J300" s="3"/>
+      <c r="K300" s="3">
+        <v>1</v>
+      </c>
+      <c r="L300" s="3"/>
       <c r="Q300">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="301" spans="1:17" x14ac:dyDescent="0.2">
@@ -10711,30 +10705,28 @@
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B304" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C304" s="13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F304" s="19"/>
-      <c r="G304" s="19">
-        <v>1</v>
-      </c>
-      <c r="H304" s="19"/>
-      <c r="I304" s="19"/>
-      <c r="J304" s="19">
-        <v>1</v>
-      </c>
-      <c r="K304" s="19"/>
-      <c r="L304" s="19"/>
+      <c r="F304" s="3">
+        <v>1</v>
+      </c>
+      <c r="G304" s="3"/>
+      <c r="H304" s="3"/>
+      <c r="I304" s="3"/>
+      <c r="J304" s="3"/>
+      <c r="K304" s="3"/>
+      <c r="L304" s="3"/>
       <c r="Q304">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="305" spans="1:17" x14ac:dyDescent="0.2">
@@ -10779,15 +10771,15 @@
       <c r="D306" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F306" s="19">
-        <v>1</v>
-      </c>
-      <c r="G306" s="19"/>
-      <c r="H306" s="19"/>
-      <c r="I306" s="19"/>
-      <c r="J306" s="19"/>
-      <c r="K306" s="19"/>
-      <c r="L306" s="19"/>
+      <c r="F306" s="3">
+        <v>1</v>
+      </c>
+      <c r="G306" s="3"/>
+      <c r="H306" s="3"/>
+      <c r="I306" s="3"/>
+      <c r="J306" s="3"/>
+      <c r="K306" s="3"/>
+      <c r="L306" s="3"/>
       <c r="Q306">
         <v>304</v>
       </c>
@@ -10796,7 +10788,7 @@
       <c r="A307" t="s">
         <v>598</v>
       </c>
-      <c r="B307" s="21" t="s">
+      <c r="B307" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C307" s="13" t="s">
@@ -10805,15 +10797,15 @@
       <c r="D307" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F307" s="19"/>
-      <c r="G307" s="19"/>
-      <c r="H307" s="19">
-        <v>1</v>
-      </c>
-      <c r="I307" s="19"/>
-      <c r="J307" s="19"/>
-      <c r="K307" s="19"/>
-      <c r="L307" s="19"/>
+      <c r="F307" s="3"/>
+      <c r="G307" s="3"/>
+      <c r="H307" s="3">
+        <v>1</v>
+      </c>
+      <c r="I307" s="3"/>
+      <c r="J307" s="3"/>
+      <c r="K307" s="3"/>
+      <c r="L307" s="3"/>
       <c r="O307" t="s">
         <v>411</v>
       </c>
@@ -10834,15 +10826,15 @@
       <c r="D308" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F308" s="19"/>
-      <c r="G308" s="19"/>
-      <c r="H308" s="19">
-        <v>1</v>
-      </c>
-      <c r="I308" s="19"/>
-      <c r="J308" s="19"/>
-      <c r="K308" s="19"/>
-      <c r="L308" s="19"/>
+      <c r="F308" s="3"/>
+      <c r="G308" s="3"/>
+      <c r="H308" s="3">
+        <v>1</v>
+      </c>
+      <c r="I308" s="3"/>
+      <c r="J308" s="3"/>
+      <c r="K308" s="3"/>
+      <c r="L308" s="3"/>
       <c r="O308" t="s">
         <v>411</v>
       </c>
@@ -10854,7 +10846,7 @@
       <c r="A309" t="s">
         <v>597</v>
       </c>
-      <c r="B309" s="23" t="s">
+      <c r="B309" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C309" s="13" t="s">
@@ -10883,7 +10875,7 @@
       <c r="A310" t="s">
         <v>597</v>
       </c>
-      <c r="B310" s="23" t="s">
+      <c r="B310" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C310" s="13" t="s">
@@ -10912,7 +10904,7 @@
       <c r="A311" t="s">
         <v>597</v>
       </c>
-      <c r="B311" s="23" t="s">
+      <c r="B311" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C311" s="13" t="s">
@@ -10941,7 +10933,7 @@
       <c r="A312" t="s">
         <v>597</v>
       </c>
-      <c r="B312" s="23" t="s">
+      <c r="B312" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C312" s="13" t="s">
@@ -10970,7 +10962,7 @@
       <c r="A313" t="s">
         <v>597</v>
       </c>
-      <c r="B313" s="23" t="s">
+      <c r="B313" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C313" s="13" t="s">
@@ -10999,7 +10991,7 @@
       <c r="A314" t="s">
         <v>597</v>
       </c>
-      <c r="B314" s="23" t="s">
+      <c r="B314" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C314" s="13" t="s">
@@ -11028,7 +11020,7 @@
       <c r="A315" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="B315" s="24" t="s">
+      <c r="B315" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C315" s="13" t="s">
@@ -11037,15 +11029,15 @@
       <c r="D315" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F315" s="19"/>
-      <c r="G315" s="19"/>
-      <c r="H315" s="19">
-        <v>1</v>
-      </c>
-      <c r="I315" s="19"/>
-      <c r="J315" s="19"/>
-      <c r="K315" s="19"/>
-      <c r="L315" s="19"/>
+      <c r="F315" s="3"/>
+      <c r="G315" s="3"/>
+      <c r="H315" s="3">
+        <v>1</v>
+      </c>
+      <c r="I315" s="3"/>
+      <c r="J315" s="3"/>
+      <c r="K315" s="3"/>
+      <c r="L315" s="3"/>
       <c r="O315" t="s">
         <v>411</v>
       </c>
@@ -11066,15 +11058,15 @@
       <c r="D316" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F316" s="19"/>
-      <c r="G316" s="19"/>
-      <c r="H316" s="19">
-        <v>1</v>
-      </c>
-      <c r="I316" s="19"/>
-      <c r="J316" s="19"/>
-      <c r="K316" s="19"/>
-      <c r="L316" s="19"/>
+      <c r="F316" s="3"/>
+      <c r="G316" s="3"/>
+      <c r="H316" s="3">
+        <v>1</v>
+      </c>
+      <c r="I316" s="3"/>
+      <c r="J316" s="3"/>
+      <c r="K316" s="3"/>
+      <c r="L316" s="3"/>
       <c r="O316" t="s">
         <v>411</v>
       </c>
@@ -11095,15 +11087,15 @@
       <c r="D317" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F317" s="19"/>
-      <c r="G317" s="19"/>
-      <c r="H317" s="19">
-        <v>1</v>
-      </c>
-      <c r="I317" s="19"/>
-      <c r="J317" s="19"/>
-      <c r="K317" s="19"/>
-      <c r="L317" s="19"/>
+      <c r="F317" s="3"/>
+      <c r="G317" s="3"/>
+      <c r="H317" s="3">
+        <v>1</v>
+      </c>
+      <c r="I317" s="3"/>
+      <c r="J317" s="3"/>
+      <c r="K317" s="3"/>
+      <c r="L317" s="3"/>
       <c r="O317" t="s">
         <v>411</v>
       </c>
@@ -11115,7 +11107,7 @@
       <c r="A318" t="s">
         <v>20</v>
       </c>
-      <c r="B318" s="20" t="s">
+      <c r="B318" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C318" s="9">
@@ -11150,15 +11142,15 @@
       <c r="D319" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F319" s="19"/>
-      <c r="G319" s="19"/>
-      <c r="H319" s="19">
-        <v>1</v>
-      </c>
-      <c r="I319" s="19"/>
-      <c r="J319" s="19"/>
-      <c r="K319" s="19"/>
-      <c r="L319" s="19"/>
+      <c r="F319" s="3"/>
+      <c r="G319" s="3"/>
+      <c r="H319" s="3">
+        <v>1</v>
+      </c>
+      <c r="I319" s="3"/>
+      <c r="J319" s="3"/>
+      <c r="K319" s="3"/>
+      <c r="L319" s="3"/>
       <c r="O319" t="s">
         <v>565</v>
       </c>
@@ -11179,15 +11171,15 @@
       <c r="D320" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F320" s="19"/>
-      <c r="G320" s="19"/>
-      <c r="H320" s="19">
-        <v>1</v>
-      </c>
-      <c r="I320" s="19"/>
-      <c r="J320" s="19"/>
-      <c r="K320" s="19"/>
-      <c r="L320" s="19"/>
+      <c r="F320" s="3"/>
+      <c r="G320" s="3"/>
+      <c r="H320" s="3">
+        <v>1</v>
+      </c>
+      <c r="I320" s="3"/>
+      <c r="J320" s="3"/>
+      <c r="K320" s="3"/>
+      <c r="L320" s="3"/>
       <c r="O320" t="s">
         <v>480</v>
       </c>
@@ -11199,7 +11191,7 @@
       <c r="A321" t="s">
         <v>26</v>
       </c>
-      <c r="B321" s="22" t="s">
+      <c r="B321" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C321" s="9">
@@ -11332,7 +11324,7 @@
       <c r="A326" t="s">
         <v>548</v>
       </c>
-      <c r="B326" s="24" t="s">
+      <c r="B326" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C326" s="13">
@@ -11341,15 +11333,15 @@
       <c r="D326" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F326" s="19"/>
-      <c r="G326" s="19"/>
-      <c r="H326" s="19">
-        <v>1</v>
-      </c>
-      <c r="I326" s="19"/>
-      <c r="J326" s="19"/>
-      <c r="K326" s="19"/>
-      <c r="L326" s="19"/>
+      <c r="F326" s="3"/>
+      <c r="G326" s="3"/>
+      <c r="H326" s="3">
+        <v>1</v>
+      </c>
+      <c r="I326" s="3"/>
+      <c r="J326" s="3"/>
+      <c r="K326" s="3"/>
+      <c r="L326" s="3"/>
       <c r="O326" t="s">
         <v>517</v>
       </c>
@@ -11361,7 +11353,7 @@
       <c r="A327" t="s">
         <v>21</v>
       </c>
-      <c r="B327" s="20" t="s">
+      <c r="B327" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C327" s="9">
@@ -11387,7 +11379,7 @@
       <c r="A328" t="s">
         <v>21</v>
       </c>
-      <c r="B328" s="20" t="s">
+      <c r="B328" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C328" s="9">
@@ -11465,7 +11457,7 @@
       <c r="A331" t="s">
         <v>152</v>
       </c>
-      <c r="B331" s="21" t="s">
+      <c r="B331" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C331" s="13">
@@ -11482,7 +11474,7 @@
       <c r="A332" t="s">
         <v>156</v>
       </c>
-      <c r="B332" s="24" t="s">
+      <c r="B332" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C332" s="13">
@@ -11532,7 +11524,7 @@
       <c r="A334" t="s">
         <v>5</v>
       </c>
-      <c r="B334" s="20" t="s">
+      <c r="B334" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C334" s="9">
@@ -11587,7 +11579,7 @@
       <c r="A336" t="s">
         <v>40</v>
       </c>
-      <c r="B336" s="23" t="s">
+      <c r="B336" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C336" s="9">
@@ -11622,15 +11614,15 @@
       <c r="D337" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F337" s="19"/>
-      <c r="G337" s="19"/>
-      <c r="H337" s="19"/>
-      <c r="I337" s="19"/>
-      <c r="J337" s="19"/>
-      <c r="K337" s="19">
-        <v>1</v>
-      </c>
-      <c r="L337" s="19"/>
+      <c r="F337" s="3"/>
+      <c r="G337" s="3"/>
+      <c r="H337" s="3"/>
+      <c r="I337" s="3"/>
+      <c r="J337" s="3"/>
+      <c r="K337" s="3">
+        <v>1</v>
+      </c>
+      <c r="L337" s="3"/>
       <c r="Q337">
         <v>335</v>
       </c>
@@ -11648,15 +11640,15 @@
       <c r="D338" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F338" s="19"/>
-      <c r="G338" s="19"/>
-      <c r="H338" s="19"/>
-      <c r="I338" s="19"/>
-      <c r="J338" s="19"/>
-      <c r="K338" s="19">
-        <v>1</v>
-      </c>
-      <c r="L338" s="19"/>
+      <c r="F338" s="3"/>
+      <c r="G338" s="3"/>
+      <c r="H338" s="3"/>
+      <c r="I338" s="3"/>
+      <c r="J338" s="3"/>
+      <c r="K338" s="3">
+        <v>1</v>
+      </c>
+      <c r="L338" s="3"/>
       <c r="Q338">
         <v>336</v>
       </c>
@@ -11674,15 +11666,15 @@
       <c r="D339" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F339" s="19">
-        <v>1</v>
-      </c>
-      <c r="G339" s="19"/>
-      <c r="H339" s="19"/>
-      <c r="I339" s="19"/>
-      <c r="J339" s="19"/>
-      <c r="K339" s="19"/>
-      <c r="L339" s="19"/>
+      <c r="F339" s="3">
+        <v>1</v>
+      </c>
+      <c r="G339" s="3"/>
+      <c r="H339" s="3"/>
+      <c r="I339" s="3"/>
+      <c r="J339" s="3"/>
+      <c r="K339" s="3"/>
+      <c r="L339" s="3"/>
       <c r="Q339">
         <v>337</v>
       </c>
@@ -11700,15 +11692,15 @@
       <c r="D340" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F340" s="19">
-        <v>1</v>
-      </c>
-      <c r="G340" s="19"/>
-      <c r="H340" s="19"/>
-      <c r="I340" s="19"/>
-      <c r="J340" s="19"/>
-      <c r="K340" s="19"/>
-      <c r="L340" s="19"/>
+      <c r="F340" s="3">
+        <v>1</v>
+      </c>
+      <c r="G340" s="3"/>
+      <c r="H340" s="3"/>
+      <c r="I340" s="3"/>
+      <c r="J340" s="3"/>
+      <c r="K340" s="3"/>
+      <c r="L340" s="3"/>
       <c r="Q340">
         <v>338</v>
       </c>
@@ -11726,15 +11718,15 @@
       <c r="D341" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F341" s="19">
-        <v>1</v>
-      </c>
-      <c r="G341" s="19"/>
-      <c r="H341" s="19"/>
-      <c r="I341" s="19"/>
-      <c r="J341" s="19"/>
-      <c r="K341" s="19"/>
-      <c r="L341" s="19"/>
+      <c r="F341" s="3">
+        <v>1</v>
+      </c>
+      <c r="G341" s="3"/>
+      <c r="H341" s="3"/>
+      <c r="I341" s="3"/>
+      <c r="J341" s="3"/>
+      <c r="K341" s="3"/>
+      <c r="L341" s="3"/>
       <c r="Q341">
         <v>339</v>
       </c>
@@ -11743,7 +11735,7 @@
       <c r="A342" t="s">
         <v>371</v>
       </c>
-      <c r="B342" s="22" t="s">
+      <c r="B342" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C342" s="9">
@@ -11772,7 +11764,7 @@
       <c r="A343" t="s">
         <v>371</v>
       </c>
-      <c r="B343" s="22" t="s">
+      <c r="B343" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C343" s="9">
@@ -11801,7 +11793,7 @@
       <c r="A344" t="s">
         <v>495</v>
       </c>
-      <c r="B344" s="21" t="s">
+      <c r="B344" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C344" s="13">
@@ -11810,15 +11802,15 @@
       <c r="D344" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F344" s="19">
-        <v>1</v>
-      </c>
-      <c r="G344" s="19"/>
-      <c r="H344" s="19"/>
-      <c r="I344" s="19"/>
-      <c r="J344" s="19"/>
-      <c r="K344" s="19"/>
-      <c r="L344" s="19"/>
+      <c r="F344" s="3">
+        <v>1</v>
+      </c>
+      <c r="G344" s="3"/>
+      <c r="H344" s="3"/>
+      <c r="I344" s="3"/>
+      <c r="J344" s="3"/>
+      <c r="K344" s="3"/>
+      <c r="L344" s="3"/>
       <c r="Q344">
         <v>342</v>
       </c>
@@ -11827,7 +11819,7 @@
       <c r="A345" t="s">
         <v>505</v>
       </c>
-      <c r="B345" s="24" t="s">
+      <c r="B345" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C345" s="13">
@@ -11836,15 +11828,15 @@
       <c r="D345" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F345" s="19">
-        <v>1</v>
-      </c>
-      <c r="G345" s="19"/>
-      <c r="H345" s="19"/>
-      <c r="I345" s="19"/>
-      <c r="J345" s="19"/>
-      <c r="K345" s="19"/>
-      <c r="L345" s="19"/>
+      <c r="F345" s="3">
+        <v>1</v>
+      </c>
+      <c r="G345" s="3"/>
+      <c r="H345" s="3"/>
+      <c r="I345" s="3"/>
+      <c r="J345" s="3"/>
+      <c r="K345" s="3"/>
+      <c r="L345" s="3"/>
       <c r="Q345">
         <v>343</v>
       </c>
@@ -11862,15 +11854,15 @@
       <c r="D346" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F346" s="19"/>
-      <c r="G346" s="19">
-        <v>1</v>
-      </c>
-      <c r="H346" s="19"/>
-      <c r="I346" s="19"/>
-      <c r="J346" s="19"/>
-      <c r="K346" s="19"/>
-      <c r="L346" s="19"/>
+      <c r="F346" s="3"/>
+      <c r="G346" s="3">
+        <v>1</v>
+      </c>
+      <c r="H346" s="3"/>
+      <c r="I346" s="3"/>
+      <c r="J346" s="3"/>
+      <c r="K346" s="3"/>
+      <c r="L346" s="3"/>
       <c r="Q346">
         <v>344</v>
       </c>
@@ -11879,7 +11871,7 @@
       <c r="A347" t="s">
         <v>41</v>
       </c>
-      <c r="B347" s="23" t="s">
+      <c r="B347" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C347" s="9">
@@ -11905,7 +11897,7 @@
       <c r="A348" t="s">
         <v>119</v>
       </c>
-      <c r="B348" s="20" t="s">
+      <c r="B348" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C348" s="9">
@@ -11940,15 +11932,15 @@
       <c r="D349" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F349" s="19"/>
-      <c r="G349" s="19"/>
-      <c r="H349" s="19"/>
-      <c r="I349" s="19"/>
-      <c r="J349" s="19"/>
-      <c r="K349" s="19">
-        <v>1</v>
-      </c>
-      <c r="L349" s="19"/>
+      <c r="F349" s="3"/>
+      <c r="G349" s="3"/>
+      <c r="H349" s="3"/>
+      <c r="I349" s="3"/>
+      <c r="J349" s="3"/>
+      <c r="K349" s="3">
+        <v>1</v>
+      </c>
+      <c r="L349" s="3"/>
       <c r="Q349">
         <v>347</v>
       </c>
@@ -11966,15 +11958,15 @@
       <c r="D350" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F350" s="19">
-        <v>1</v>
-      </c>
-      <c r="G350" s="19"/>
-      <c r="H350" s="19"/>
-      <c r="I350" s="19"/>
-      <c r="J350" s="19"/>
-      <c r="K350" s="19"/>
-      <c r="L350" s="19"/>
+      <c r="F350" s="3">
+        <v>1</v>
+      </c>
+      <c r="G350" s="3"/>
+      <c r="H350" s="3"/>
+      <c r="I350" s="3"/>
+      <c r="J350" s="3"/>
+      <c r="K350" s="3"/>
+      <c r="L350" s="3"/>
       <c r="Q350">
         <v>348</v>
       </c>
@@ -12082,15 +12074,15 @@
       <c r="D354" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F354" s="19"/>
-      <c r="G354" s="19"/>
-      <c r="H354" s="19">
-        <v>1</v>
-      </c>
-      <c r="I354" s="19"/>
-      <c r="J354" s="19"/>
-      <c r="K354" s="19"/>
-      <c r="L354" s="19"/>
+      <c r="F354" s="3"/>
+      <c r="G354" s="3"/>
+      <c r="H354" s="3">
+        <v>1</v>
+      </c>
+      <c r="I354" s="3"/>
+      <c r="J354" s="3"/>
+      <c r="K354" s="3"/>
+      <c r="L354" s="3"/>
       <c r="O354" t="s">
         <v>575</v>
       </c>
@@ -12137,15 +12129,15 @@
       <c r="D356" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F356" s="19">
-        <v>1</v>
-      </c>
-      <c r="G356" s="19"/>
-      <c r="H356" s="19"/>
-      <c r="I356" s="19"/>
-      <c r="J356" s="19"/>
-      <c r="K356" s="19"/>
-      <c r="L356" s="19"/>
+      <c r="F356" s="3">
+        <v>1</v>
+      </c>
+      <c r="G356" s="3"/>
+      <c r="H356" s="3"/>
+      <c r="I356" s="3"/>
+      <c r="J356" s="3"/>
+      <c r="K356" s="3"/>
+      <c r="L356" s="3"/>
       <c r="Q356">
         <v>354</v>
       </c>
@@ -12192,15 +12184,15 @@
       <c r="D358" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F358" s="19"/>
-      <c r="G358" s="19"/>
-      <c r="H358" s="19"/>
-      <c r="I358" s="19"/>
-      <c r="J358" s="19"/>
-      <c r="K358" s="19">
-        <v>1</v>
-      </c>
-      <c r="L358" s="19"/>
+      <c r="F358" s="3"/>
+      <c r="G358" s="3"/>
+      <c r="H358" s="3"/>
+      <c r="I358" s="3"/>
+      <c r="J358" s="3"/>
+      <c r="K358" s="3">
+        <v>1</v>
+      </c>
+      <c r="L358" s="3"/>
       <c r="Q358">
         <v>356</v>
       </c>
@@ -12209,7 +12201,7 @@
       <c r="A359" t="s">
         <v>594</v>
       </c>
-      <c r="B359" s="21" t="s">
+      <c r="B359" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C359" s="13">
@@ -12221,13 +12213,13 @@
       <c r="E359">
         <v>1</v>
       </c>
-      <c r="F359" s="19"/>
-      <c r="G359" s="19"/>
-      <c r="H359" s="19"/>
-      <c r="I359" s="19"/>
-      <c r="J359" s="19"/>
-      <c r="K359" s="19"/>
-      <c r="L359" s="19"/>
+      <c r="F359" s="3"/>
+      <c r="G359" s="3"/>
+      <c r="H359" s="3"/>
+      <c r="I359" s="3"/>
+      <c r="J359" s="3"/>
+      <c r="K359" s="3"/>
+      <c r="L359" s="3"/>
       <c r="Q359">
         <v>357</v>
       </c>
@@ -12294,7 +12286,7 @@
       <c r="A362" t="s">
         <v>571</v>
       </c>
-      <c r="B362" s="21" t="s">
+      <c r="B362" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C362" s="13">
@@ -12303,15 +12295,15 @@
       <c r="D362" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F362" s="19">
-        <v>1</v>
-      </c>
-      <c r="G362" s="19"/>
-      <c r="H362" s="19"/>
-      <c r="I362" s="19"/>
-      <c r="J362" s="19"/>
-      <c r="K362" s="19"/>
-      <c r="L362" s="19"/>
+      <c r="F362" s="3">
+        <v>1</v>
+      </c>
+      <c r="G362" s="3"/>
+      <c r="H362" s="3"/>
+      <c r="I362" s="3"/>
+      <c r="J362" s="3"/>
+      <c r="K362" s="3"/>
+      <c r="L362" s="3"/>
       <c r="Q362">
         <v>360</v>
       </c>
@@ -12340,7 +12332,7 @@
       <c r="A364" t="s">
         <v>42</v>
       </c>
-      <c r="B364" s="23" t="s">
+      <c r="B364" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C364" s="9">
@@ -12375,15 +12367,15 @@
       <c r="D365" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F365" s="19">
-        <v>1</v>
-      </c>
-      <c r="G365" s="19"/>
-      <c r="H365" s="19"/>
-      <c r="I365" s="19"/>
-      <c r="J365" s="19"/>
-      <c r="K365" s="19"/>
-      <c r="L365" s="19"/>
+      <c r="F365" s="3">
+        <v>1</v>
+      </c>
+      <c r="G365" s="3"/>
+      <c r="H365" s="3"/>
+      <c r="I365" s="3"/>
+      <c r="J365" s="3"/>
+      <c r="K365" s="3"/>
+      <c r="L365" s="3"/>
       <c r="Q365">
         <v>363</v>
       </c>
@@ -12401,15 +12393,15 @@
       <c r="D366" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F366" s="19"/>
-      <c r="G366" s="19"/>
-      <c r="H366" s="19"/>
-      <c r="I366" s="19">
-        <v>1</v>
-      </c>
-      <c r="J366" s="19"/>
-      <c r="K366" s="19"/>
-      <c r="L366" s="19"/>
+      <c r="F366" s="3"/>
+      <c r="G366" s="3"/>
+      <c r="H366" s="3"/>
+      <c r="I366" s="3">
+        <v>1</v>
+      </c>
+      <c r="J366" s="3"/>
+      <c r="K366" s="3"/>
+      <c r="L366" s="3"/>
       <c r="M366" t="s">
         <v>224</v>
       </c>

--- a/DoomPy/files/cards.xlsx
+++ b/DoomPy/files/cards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/DoomPy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B06FA2B-9399-924D-9BB8-0FEE6E277C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC91282-A78C-F04C-8B7E-878D9A43E530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="880" windowWidth="34360" windowHeight="21640" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="611">
   <si>
     <t>Echolocation</t>
   </si>
@@ -1134,9 +1134,6 @@
     <t>play_when</t>
   </si>
   <si>
-    <t>effect_attachment</t>
-  </si>
-  <si>
     <t>effect_drop</t>
   </si>
   <si>
@@ -1155,36 +1152,6 @@
     <t>Transg. Modific.</t>
   </si>
   <si>
-    <t>any none</t>
-  </si>
-  <si>
-    <t>effectless none</t>
-  </si>
-  <si>
-    <t>color none</t>
-  </si>
-  <si>
-    <t>negative_face none</t>
-  </si>
-  <si>
-    <t>any NoDiscard</t>
-  </si>
-  <si>
-    <t>any NoRemove</t>
-  </si>
-  <si>
-    <t>any NoSwap_NoSteal</t>
-  </si>
-  <si>
-    <t>non_blue IsBlue</t>
-  </si>
-  <si>
-    <t>non_green IsGreen</t>
-  </si>
-  <si>
-    <t>any Inactive</t>
-  </si>
-  <si>
     <t>Boredom (~)</t>
   </si>
   <si>
@@ -1867,6 +1834,42 @@
   </si>
   <si>
     <t>Swarm (c)</t>
+  </si>
+  <si>
+    <t>attachment_effect</t>
+  </si>
+  <si>
+    <t>IsBlue</t>
+  </si>
+  <si>
+    <t>NoRemove</t>
+  </si>
+  <si>
+    <t>NoDiscard</t>
+  </si>
+  <si>
+    <t>IsGreen</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>NoSwap NoSteal</t>
+  </si>
+  <si>
+    <t>attachment_target</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>negative_face</t>
+  </si>
+  <si>
+    <t>non_blue</t>
+  </si>
+  <si>
+    <t>non_green</t>
   </si>
 </sst>
 </file>
@@ -2196,12 +2199,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}" name="Tabelle2" displayName="Tabelle2" ref="A1:Q367" totalsRowShown="0">
-  <autoFilter ref="A1:Q367" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:Q366">
-    <sortCondition ref="J1:J367"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}" name="Tabelle2" displayName="Tabelle2" ref="A1:R367" totalsRowShown="0">
+  <autoFilter ref="A1:R367" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R367">
+    <sortCondition ref="R1:R367"/>
   </sortState>
-  <tableColumns count="17">
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{8166F61C-4699-3D4C-9D61-28AD00136FEA}" name="trait"/>
     <tableColumn id="4" xr3:uid="{EC3D3AE7-EA86-024F-A6FA-64A0E67A5FC7}" name="color"/>
     <tableColumn id="5" xr3:uid="{5EA3E41F-9CF4-7D4B-A611-5E5B5050CE5B}" name="face" dataDxfId="8"/>
@@ -2215,7 +2218,8 @@
     <tableColumn id="9" xr3:uid="{5FC9496A-D300-0447-A155-EF65E2E0A70D}" name="effectless" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{4FE6ABC4-B4EE-1242-BA77-A00BB170BB1F}" name="attachment" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{158FD56B-9FED-6144-BC1B-BC4F62C6C809}" name="effect_gene_pool"/>
-    <tableColumn id="13" xr3:uid="{0E4D733B-AB86-5546-A677-552DF9EA7E44}" name="effect_attachment"/>
+    <tableColumn id="13" xr3:uid="{0E4D733B-AB86-5546-A677-552DF9EA7E44}" name="attachment_target"/>
+    <tableColumn id="10" xr3:uid="{AA505828-60AD-1748-8172-71BE3B21EF34}" name="attachment_effect"/>
     <tableColumn id="14" xr3:uid="{DACAC41D-17E5-1D4B-80BB-50B9E1EE313B}" name="effect_drop"/>
     <tableColumn id="15" xr3:uid="{1EAC9979-1BCC-1D4C-A9CA-291C531B4E2F}" name="effect_worlds_end"/>
     <tableColumn id="3" xr3:uid="{F35E4567-14CB-9741-8C79-F7ABE066199C}" name="id"/>
@@ -2538,11 +2542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AE435C-BBFF-4D4C-B457-AFC1FAEE6491}">
-  <dimension ref="A1:Q367"/>
+  <dimension ref="A1:R367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2561,19 +2565,20 @@
     <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="49.5" customWidth="1"/>
-    <col min="16" max="16" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.1640625" customWidth="1"/>
+    <col min="16" max="16" width="49.5" customWidth="1"/>
+    <col min="17" max="17" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>192</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>194</v>
@@ -2588,7 +2593,7 @@
         <v>364</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>199</v>
@@ -2606,19 +2611,22 @@
         <v>363</v>
       </c>
       <c r="N1" t="s">
+        <v>606</v>
+      </c>
+      <c r="O1" t="s">
+        <v>599</v>
+      </c>
+      <c r="P1" t="s">
         <v>365</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>366</v>
       </c>
-      <c r="P1" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -2640,11 +2648,11 @@
         <v>1</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="Q2">
+      <c r="R2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -2666,19 +2674,19 @@
         <v>1</v>
       </c>
       <c r="L3" s="3"/>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>522</v>
-      </c>
-      <c r="B4" t="s">
-        <v>596</v>
+        <v>470</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C4" s="13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>321</v>
@@ -2688,55 +2696,42 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
+      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="O4" s="16" t="s">
-        <v>605</v>
-      </c>
-      <c r="P4" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>62</v>
+        <v>571</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C5" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="Q5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -2744,7 +2739,7 @@
         <v>198</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>361</v>
@@ -2758,22 +2753,22 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="O6" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q6">
+      <c r="P6" t="s">
+        <v>403</v>
+      </c>
+      <c r="R6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>504</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>87</v>
+        <v>511</v>
+      </c>
+      <c r="B7" t="s">
+        <v>585</v>
       </c>
       <c r="C7" s="13">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>321</v>
@@ -2783,18 +2778,26 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3">
         <v>1</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="Q7">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P7" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>592</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>145</v>
       </c>
@@ -2810,11 +2813,11 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -2830,48 +2833,37 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>580</v>
-      </c>
-      <c r="B10" t="s">
-        <v>202</v>
+        <v>445</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="O10" t="s">
-        <v>581</v>
-      </c>
-      <c r="P10" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q10">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -2893,11 +2885,11 @@
         <v>1</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="Q11">
+      <c r="R11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -2922,14 +2914,14 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="O12" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q12">
+      <c r="P12" t="s">
+        <v>399</v>
+      </c>
+      <c r="R12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2951,19 +2943,19 @@
         <v>1</v>
       </c>
       <c r="L13" s="3"/>
-      <c r="Q13">
+      <c r="R13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>539</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>24</v>
+        <v>432</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C14" s="13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>321</v>
@@ -2975,58 +2967,40 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="P14" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q14">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>526</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>527</v>
+        <v>543</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="O15" t="s">
-        <v>527</v>
-      </c>
-      <c r="P15" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q15">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -3042,11 +3016,11 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>218</v>
       </c>
@@ -3062,40 +3036,40 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>494</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>24</v>
+        <v>451</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
+      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="Q18">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P18" t="s">
+        <v>461</v>
+      </c>
+      <c r="R18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -3117,40 +3091,37 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="Q19">
+      <c r="R19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>494</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>24</v>
+        <v>456</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C20" s="13">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
       <c r="L20" s="3"/>
-      <c r="Q20">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -3172,11 +3143,11 @@
         <v>1</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="Q21">
+      <c r="R21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -3198,11 +3169,11 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="Q22">
+      <c r="R22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -3224,19 +3195,19 @@
         <v>1</v>
       </c>
       <c r="L23" s="3"/>
-      <c r="Q23">
+      <c r="R23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>487</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>87</v>
+        <v>534</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C24" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>321</v>
@@ -3246,21 +3217,21 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="P24" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q24">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+      <c r="R24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -3282,11 +3253,11 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="Q25">
+      <c r="R25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -3308,42 +3279,43 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="O26" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q26">
+      <c r="P26" t="s">
+        <v>393</v>
+      </c>
+      <c r="R26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>579</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>62</v>
+        <v>517</v>
+      </c>
+      <c r="B27" t="s">
+        <v>201</v>
       </c>
       <c r="C27" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="3">
-        <v>1</v>
-      </c>
+      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="Q27">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P27" t="s">
+        <v>518</v>
+      </c>
+      <c r="R27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>125</v>
       </c>
@@ -3365,19 +3337,19 @@
         <v>1</v>
       </c>
       <c r="L28" s="3"/>
-      <c r="Q28">
+      <c r="R28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>481</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>198</v>
+        <v>439</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C29" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>321</v>
@@ -3389,14 +3361,16 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="Q29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -3412,13 +3386,13 @@
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>87</v>
@@ -3439,15 +3413,18 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q31">
+        <v>607</v>
+      </c>
+      <c r="O31" t="s">
+        <v>605</v>
+      </c>
+      <c r="R31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>87</v>
@@ -3468,13 +3445,16 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q32">
+        <v>608</v>
+      </c>
+      <c r="O32" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>121</v>
       </c>
@@ -3496,11 +3476,11 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="Q33">
+      <c r="R33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -3516,11 +3496,11 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -3536,19 +3516,19 @@
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>582</v>
+        <v>497</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>321</v>
@@ -3562,45 +3542,45 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-      <c r="Q36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="Q37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>198</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>361</v>
@@ -3614,14 +3594,14 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="O38" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q38">
+      <c r="P38" t="s">
+        <v>408</v>
+      </c>
+      <c r="R38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>207</v>
       </c>
@@ -3643,46 +3623,50 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-      <c r="Q39">
+      <c r="R39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="13">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-      <c r="Q40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M40" t="s">
+        <v>225</v>
+      </c>
+      <c r="R40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>554</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>62</v>
+        <v>486</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C41" s="13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>321</v>
@@ -3692,15 +3676,20 @@
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-      <c r="Q41">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M41" t="s">
+        <v>225</v>
+      </c>
+      <c r="R41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -3722,14 +3711,14 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="O42" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q42">
+      <c r="P42" t="s">
+        <v>385</v>
+      </c>
+      <c r="R42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>219</v>
       </c>
@@ -3751,14 +3740,14 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-      <c r="O43" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q43">
+      <c r="P43" t="s">
+        <v>406</v>
+      </c>
+      <c r="R43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>220</v>
       </c>
@@ -3780,11 +3769,11 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-      <c r="Q44">
+      <c r="R44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -3809,11 +3798,11 @@
       <c r="M45" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>126</v>
       </c>
@@ -3835,98 +3824,89 @@
         <v>1</v>
       </c>
       <c r="L46" s="3"/>
-      <c r="Q46">
+      <c r="R46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>462</v>
+        <v>540</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C47" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F47" s="3"/>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
       <c r="G47" s="3"/>
-      <c r="H47" s="3">
-        <v>1</v>
-      </c>
+      <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
-      <c r="O47" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q47">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>467</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>1</v>
+        <v>540</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C48" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F48" s="3"/>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="3">
-        <v>1</v>
-      </c>
+      <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-      <c r="Q48">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>545</v>
       </c>
-      <c r="B49" s="20" t="s">
-        <v>1</v>
+      <c r="B49" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C49" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3"/>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
       <c r="G49" s="3"/>
-      <c r="H49" s="3">
-        <v>1</v>
-      </c>
+      <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-      <c r="O49" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q49">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>217</v>
       </c>
@@ -3956,14 +3936,14 @@
       <c r="M50" t="s">
         <v>224</v>
       </c>
-      <c r="O50" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q50">
+      <c r="P50" t="s">
+        <v>407</v>
+      </c>
+      <c r="R50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -3993,43 +3973,43 @@
       <c r="M51" t="s">
         <v>224</v>
       </c>
-      <c r="O51" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q51">
+      <c r="P51" t="s">
+        <v>407</v>
+      </c>
+      <c r="R51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>528</v>
-      </c>
-      <c r="B52" t="s">
-        <v>201</v>
+        <v>567</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C52" s="13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="3">
-        <v>1</v>
-      </c>
-      <c r="I52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3">
+        <v>1</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="O52" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q52">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M52" t="s">
+        <v>224</v>
+      </c>
+      <c r="R52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -4045,11 +4025,11 @@
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>154</v>
       </c>
@@ -4065,19 +4045,19 @@
       <c r="K54">
         <v>1</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>508</v>
+        <v>464</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C55" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>321</v>
@@ -4091,37 +4071,40 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-      <c r="Q55">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>530</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>24</v>
+        <v>493</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C56" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>321</v>
       </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
       <c r="F56" s="3"/>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
+      <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="J56" s="3">
+        <v>1</v>
+      </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-      <c r="Q56">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -4143,26 +4126,24 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
-      <c r="Q57">
+      <c r="R57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>497</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>1</v>
+        <v>473</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C58" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
+      <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3">
@@ -4174,11 +4155,11 @@
       <c r="M58" t="s">
         <v>225</v>
       </c>
-      <c r="Q58">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -4200,19 +4181,19 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-      <c r="Q59">
+      <c r="R59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>497</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>1</v>
+        <v>429</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C60" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>321</v>
@@ -4222,20 +4203,15 @@
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="3">
-        <v>1</v>
-      </c>
+      <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q60">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -4257,45 +4233,43 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-      <c r="Q61">
+      <c r="R61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>551</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>87</v>
+        <v>526</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C62" s="13">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
+      <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-      <c r="Q62">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>551</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>87</v>
+        <v>440</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C63" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>321</v>
@@ -4309,11 +4283,11 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="Q63">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -4335,66 +4309,74 @@
         <v>1</v>
       </c>
       <c r="L64" s="3"/>
-      <c r="Q64">
+      <c r="R64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>556</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>198</v>
+        <v>549</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C65" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
+      <c r="I65" s="3">
+        <v>1</v>
+      </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="Q65">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M65" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="R65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>578</v>
+        <v>458</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="13">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F66" s="3"/>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
       <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3">
-        <v>1</v>
-      </c>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q66">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P66" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="R66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -4416,11 +4398,11 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-      <c r="Q67">
+      <c r="R67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>157</v>
       </c>
@@ -4436,14 +4418,14 @@
       <c r="H68">
         <v>1</v>
       </c>
-      <c r="O68" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q68">
+      <c r="P68" t="s">
+        <v>382</v>
+      </c>
+      <c r="R68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>157</v>
       </c>
@@ -4459,19 +4441,19 @@
       <c r="H69">
         <v>1</v>
       </c>
-      <c r="O69" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q69">
+      <c r="P69" t="s">
+        <v>382</v>
+      </c>
+      <c r="R69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>127</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C70" s="9">
         <v>1</v>
@@ -4488,11 +4470,11 @@
         <v>1</v>
       </c>
       <c r="L70" s="3"/>
-      <c r="Q70">
+      <c r="R70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>105</v>
       </c>
@@ -4509,13 +4491,16 @@
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q71">
+        <v>609</v>
+      </c>
+      <c r="O71" t="s">
+        <v>600</v>
+      </c>
+      <c r="R71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -4532,39 +4517,42 @@
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q72">
+        <v>609</v>
+      </c>
+      <c r="O72" t="s">
+        <v>600</v>
+      </c>
+      <c r="R72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>475</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>87</v>
+        <v>447</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C73" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F73" s="3">
-        <v>1</v>
-      </c>
-      <c r="G73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
-      <c r="Q73">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>30</v>
       </c>
@@ -4586,11 +4574,11 @@
         <v>1</v>
       </c>
       <c r="L74" s="3"/>
-      <c r="Q74">
+      <c r="R74">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -4610,11 +4598,11 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-      <c r="Q75">
+      <c r="R75">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -4637,11 +4625,11 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-      <c r="Q76">
+      <c r="R76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -4657,11 +4645,11 @@
       <c r="F77">
         <v>1</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -4677,11 +4665,11 @@
       <c r="K78">
         <v>1</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>133</v>
       </c>
@@ -4697,11 +4685,11 @@
       <c r="K79">
         <v>1</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>68</v>
       </c>
@@ -4723,19 +4711,19 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
-      <c r="Q80">
+      <c r="R80">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>484</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>24</v>
+        <v>419</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C81" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>321</v>
@@ -4743,20 +4731,17 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="3">
-        <v>1</v>
-      </c>
+      <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
+      <c r="K81" s="3">
+        <v>1</v>
+      </c>
       <c r="L81" s="3"/>
-      <c r="M81" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q81">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>49</v>
       </c>
@@ -4778,37 +4763,37 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-      <c r="Q82">
+      <c r="R82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>440</v>
+        <v>502</v>
       </c>
       <c r="B83" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C83" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F83" s="3">
-        <v>1</v>
-      </c>
+      <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
+      <c r="K83" s="3">
+        <v>1</v>
+      </c>
       <c r="L83" s="3"/>
-      <c r="Q83">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>146</v>
       </c>
@@ -4826,14 +4811,14 @@
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="O84" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q84">
+      <c r="P84" t="s">
+        <v>398</v>
+      </c>
+      <c r="R84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>69</v>
       </c>
@@ -4858,19 +4843,19 @@
       <c r="M85" t="s">
         <v>224</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>537</v>
+        <v>430</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>198</v>
       </c>
       <c r="C86" s="13">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>321</v>
@@ -4880,13 +4865,15 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+      <c r="K86" s="3">
+        <v>1</v>
+      </c>
       <c r="L86" s="3"/>
-      <c r="Q86">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -4902,11 +4889,11 @@
       <c r="E87">
         <v>1</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>140</v>
       </c>
@@ -4922,11 +4909,11 @@
       <c r="G88">
         <v>1</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -4948,14 +4935,14 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
-      <c r="O89" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q89">
+      <c r="P89" t="s">
+        <v>386</v>
+      </c>
+      <c r="R89">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>160</v>
       </c>
@@ -4971,11 +4958,11 @@
       <c r="F90">
         <v>1</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>114</v>
       </c>
@@ -4998,13 +4985,16 @@
         <v>1</v>
       </c>
       <c r="N91" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q91">
+        <v>607</v>
+      </c>
+      <c r="O91" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>221</v>
       </c>
@@ -5026,19 +5016,19 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
-      <c r="Q92">
+      <c r="R92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
       <c r="B93" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C93" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>321</v>
@@ -5052,11 +5042,11 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
-      <c r="Q93">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>150</v>
       </c>
@@ -5072,11 +5062,11 @@
       <c r="F94">
         <v>1</v>
       </c>
-      <c r="Q94">
+      <c r="R94">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>213</v>
       </c>
@@ -5098,19 +5088,19 @@
       </c>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-      <c r="Q95">
+      <c r="R95">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>560</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>62</v>
+        <v>510</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C96" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>321</v>
@@ -5119,22 +5109,19 @@
         <v>1</v>
       </c>
       <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
+      <c r="G96" s="3">
+        <v>1</v>
+      </c>
       <c r="H96" s="3"/>
-      <c r="I96" s="3">
-        <v>1</v>
-      </c>
+      <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
-      <c r="M96" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q96">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>136</v>
       </c>
@@ -5150,14 +5137,14 @@
       <c r="H97">
         <v>1</v>
       </c>
-      <c r="O97" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q97">
+      <c r="P97" t="s">
+        <v>381</v>
+      </c>
+      <c r="R97">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>92</v>
       </c>
@@ -5177,102 +5164,101 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
-      <c r="Q98">
+      <c r="R98">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>469</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>1</v>
+        <v>482</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C99" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F99" s="3">
-        <v>1</v>
-      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="3">
-        <v>1</v>
-      </c>
+      <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
-      <c r="O99" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q99">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>458</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>62</v>
+        <v>505</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C100" s="13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F100" s="3"/>
-      <c r="G100" s="3">
-        <v>1</v>
-      </c>
-      <c r="H100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3">
+        <v>1</v>
+      </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
-      <c r="Q100">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P100" t="s">
+        <v>509</v>
+      </c>
+      <c r="R100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>430</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>198</v>
+        <v>580</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C101" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F101" s="3"/>
+      <c r="F101" s="3">
+        <v>1</v>
+      </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="3">
-        <v>1</v>
-      </c>
+      <c r="K101" s="3"/>
       <c r="L101" s="3"/>
-      <c r="Q101">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>513</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>24</v>
+        <v>418</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C102" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>321</v>
@@ -5282,96 +5268,97 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="3">
-        <v>1</v>
-      </c>
+      <c r="K102" s="3"/>
       <c r="L102" s="3"/>
-      <c r="Q102">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>441</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>198</v>
+        <v>442</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C103" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F103" s="3"/>
+      <c r="F103" s="3">
+        <v>1</v>
+      </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="3">
-        <v>1</v>
-      </c>
+      <c r="K103" s="3"/>
       <c r="L103" s="3"/>
-      <c r="Q103">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>524</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>1</v>
+        <v>465</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C104" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F104" s="3">
-        <v>1</v>
-      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
+      <c r="I104" s="3">
+        <v>1</v>
+      </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
-      <c r="Q104">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M104" t="s">
+        <v>224</v>
+      </c>
+      <c r="R104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>521</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>24</v>
+        <v>448</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C105" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
       <c r="F105" s="3"/>
-      <c r="G105" s="3">
-        <v>1</v>
-      </c>
+      <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
+      <c r="K105" s="3">
+        <v>1</v>
+      </c>
       <c r="L105" s="3"/>
-      <c r="Q105">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>44</v>
       </c>
@@ -5396,14 +5383,14 @@
       </c>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
-      <c r="P106" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q106">
+      <c r="Q106" t="s">
+        <v>376</v>
+      </c>
+      <c r="R106">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>93</v>
       </c>
@@ -5425,38 +5412,37 @@
         <v>1</v>
       </c>
       <c r="L107" s="3"/>
-      <c r="Q107">
+      <c r="R107">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>493</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>87</v>
+        <v>514</v>
+      </c>
+      <c r="B108" t="s">
+        <v>201</v>
       </c>
       <c r="C108" s="13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
+      <c r="K108" s="3">
+        <v>1</v>
+      </c>
       <c r="L108" s="3"/>
-      <c r="Q108">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>50</v>
       </c>
@@ -5478,40 +5464,37 @@
         <v>1</v>
       </c>
       <c r="L109" s="3"/>
-      <c r="Q109">
+      <c r="R109">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>516</v>
+        <v>443</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C110" s="13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F110" s="3"/>
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
       <c r="G110" s="3"/>
-      <c r="H110" s="3">
-        <v>1</v>
-      </c>
+      <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
-      <c r="O110" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q110">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -5536,11 +5519,11 @@
       <c r="M111" t="s">
         <v>224</v>
       </c>
-      <c r="Q111">
+      <c r="R111">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>137</v>
       </c>
@@ -5562,11 +5545,11 @@
       <c r="M112" t="s">
         <v>226</v>
       </c>
-      <c r="Q112">
+      <c r="R112">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>137</v>
       </c>
@@ -5588,42 +5571,43 @@
       <c r="M113" t="s">
         <v>226</v>
       </c>
-      <c r="Q113">
+      <c r="R113">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>591</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>24</v>
+        <v>562</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C114" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F114" s="3">
-        <v>1</v>
-      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
-      <c r="Q114">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>429</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>87</v>
+        <v>420</v>
+      </c>
+      <c r="B115" t="s">
+        <v>421</v>
       </c>
       <c r="C115" s="13">
         <v>1</v>
@@ -5634,15 +5618,20 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
+      <c r="I115" s="3">
+        <v>1</v>
+      </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
-      <c r="Q115">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M115" t="s">
+        <v>224</v>
+      </c>
+      <c r="R115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>70</v>
       </c>
@@ -5664,11 +5653,11 @@
         <v>1</v>
       </c>
       <c r="L116" s="3"/>
-      <c r="Q116">
+      <c r="R116">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>94</v>
       </c>
@@ -5690,16 +5679,16 @@
         <v>1</v>
       </c>
       <c r="L117" s="3"/>
-      <c r="Q117">
+      <c r="R117">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>453</v>
-      </c>
-      <c r="B118" s="23" t="s">
-        <v>24</v>
+        <v>431</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C118" s="13">
         <v>0</v>
@@ -5707,20 +5696,20 @@
       <c r="D118" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F118" s="3">
-        <v>1</v>
-      </c>
-      <c r="G118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3">
+        <v>1</v>
+      </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
-      <c r="Q118">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>51</v>
       </c>
@@ -5742,51 +5731,45 @@
         <v>1</v>
       </c>
       <c r="L119" s="3"/>
-      <c r="Q119">
+      <c r="R119">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>476</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>198</v>
+        <v>556</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C120" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
-      <c r="I120" s="3">
-        <v>1</v>
-      </c>
+      <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
+      <c r="K120" s="3">
+        <v>1</v>
+      </c>
       <c r="L120" s="3"/>
-      <c r="M120" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q120">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>459</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>62</v>
+        <v>501</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C121" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>321</v>
@@ -5796,15 +5779,13 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="3">
-        <v>1</v>
-      </c>
+      <c r="K121" s="3"/>
       <c r="L121" s="3"/>
-      <c r="Q121">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -5826,19 +5807,19 @@
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
-      <c r="Q122">
+      <c r="R122">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>525</v>
-      </c>
-      <c r="B123" t="s">
-        <v>201</v>
+        <v>425</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C123" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>321</v>
@@ -5852,19 +5833,19 @@
         <v>1</v>
       </c>
       <c r="L123" s="3"/>
-      <c r="Q123">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B124" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>361</v>
@@ -5878,14 +5859,14 @@
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
-      <c r="O124" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q124">
+      <c r="P124" t="s">
+        <v>409</v>
+      </c>
+      <c r="R124">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>212</v>
       </c>
@@ -5907,16 +5888,16 @@
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
-      <c r="O125" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q125">
+      <c r="P125" t="s">
+        <v>395</v>
+      </c>
+      <c r="R125">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>87</v>
@@ -5927,20 +5908,20 @@
       <c r="D126" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F126" s="3">
-        <v>1</v>
-      </c>
+      <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
+      <c r="K126" s="3">
+        <v>1</v>
+      </c>
       <c r="L126" s="3"/>
-      <c r="Q126">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -5962,14 +5943,14 @@
       </c>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
-      <c r="P127" t="s">
+      <c r="Q127" t="s">
         <v>210</v>
       </c>
-      <c r="Q127">
+      <c r="R127">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>155</v>
       </c>
@@ -5988,145 +5969,151 @@
       <c r="M128" t="s">
         <v>225</v>
       </c>
-      <c r="Q128">
+      <c r="R128">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C129" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3">
+        <v>1</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3">
+        <v>1</v>
+      </c>
+      <c r="N129" t="s">
+        <v>192</v>
+      </c>
+      <c r="O129" t="s">
+        <v>3</v>
+      </c>
+      <c r="P129" t="s">
+        <v>387</v>
+      </c>
+      <c r="R129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>112</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C130" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3">
+        <v>1</v>
+      </c>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3">
+        <v>1</v>
+      </c>
+      <c r="N130" t="s">
+        <v>192</v>
+      </c>
+      <c r="O130" t="s">
+        <v>3</v>
+      </c>
+      <c r="P130" t="s">
+        <v>387</v>
+      </c>
+      <c r="R130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>147</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B131" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C129" s="13">
+      <c r="C131" s="13">
         <v>2</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D131" t="s">
         <v>131</v>
       </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="Q129">
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="R131">
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>147</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B132" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C130" s="13">
+      <c r="C132" s="13">
         <v>2</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D132" t="s">
         <v>131</v>
       </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
-      <c r="Q130">
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="R132">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>12</v>
       </c>
-      <c r="B131" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C131" s="9">
-        <v>1</v>
-      </c>
-      <c r="D131" s="3" t="s">
+      <c r="B133" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="9">
+        <v>1</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3">
-        <v>1</v>
-      </c>
-      <c r="L131" s="3"/>
-      <c r="Q131">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>112</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C132" s="9">
-        <v>-1</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3">
-        <v>1</v>
-      </c>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3">
-        <v>1</v>
-      </c>
-      <c r="N132" t="s">
-        <v>374</v>
-      </c>
-      <c r="O132" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q132">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>112</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C133" s="9">
-        <v>-1</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="3">
-        <v>1</v>
-      </c>
+      <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
-      <c r="L133" s="3">
-        <v>1</v>
-      </c>
-      <c r="N133" t="s">
-        <v>374</v>
-      </c>
-      <c r="O133" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q133">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K133" s="3">
+        <v>1</v>
+      </c>
+      <c r="L133" s="3"/>
+      <c r="R133">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>52</v>
       </c>
@@ -6134,7 +6121,7 @@
         <v>198</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>361</v>
@@ -6148,14 +6135,14 @@
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
-      <c r="O134" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q134">
+      <c r="P134" t="s">
+        <v>404</v>
+      </c>
+      <c r="R134">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>113</v>
       </c>
@@ -6177,46 +6164,45 @@
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
-      <c r="Q135">
+      <c r="R135">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>573</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>1</v>
+        <v>529</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C136" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136" s="3"/>
+      <c r="F136" s="3">
+        <v>1</v>
+      </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
-      <c r="Q136">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R136">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B137" t="s">
-        <v>432</v>
+        <v>584</v>
       </c>
       <c r="C137" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>321</v>
@@ -6224,20 +6210,17 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
-      <c r="I137" s="3">
-        <v>1</v>
-      </c>
+      <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="3"/>
+      <c r="K137" s="3">
+        <v>1</v>
+      </c>
       <c r="L137" s="3"/>
-      <c r="M137" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q137">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>128</v>
       </c>
@@ -6259,87 +6242,96 @@
         <v>1</v>
       </c>
       <c r="L138" s="3"/>
-      <c r="Q138">
+      <c r="R138">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>442</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>87</v>
+        <v>491</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C139" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>321</v>
       </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
       <c r="F139" s="3"/>
-      <c r="G139" s="3">
-        <v>1</v>
-      </c>
-      <c r="H139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3">
+        <v>1</v>
+      </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
-      <c r="Q139">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P139" t="s">
+        <v>492</v>
+      </c>
+      <c r="R139">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>567</v>
-      </c>
-      <c r="B140" s="23" t="s">
-        <v>24</v>
+        <v>472</v>
+      </c>
+      <c r="B140" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C140" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>321</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="3">
-        <v>1</v>
-      </c>
+      <c r="K140" s="3"/>
       <c r="L140" s="3"/>
-      <c r="Q140">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R140">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>512</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>87</v>
+        <v>504</v>
+      </c>
+      <c r="B141" t="s">
+        <v>480</v>
       </c>
       <c r="C141" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F141" s="3"/>
+      <c r="F141" s="3">
+        <v>1</v>
+      </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
-      <c r="Q141">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R141">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>95</v>
       </c>
@@ -6361,14 +6353,14 @@
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
-      <c r="O142" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q142">
+      <c r="P142" t="s">
+        <v>392</v>
+      </c>
+      <c r="R142">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>23</v>
       </c>
@@ -6391,37 +6383,38 @@
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
-      <c r="Q143">
+      <c r="R143">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>436</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>198</v>
+        <v>435</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C144" s="13">
         <v>2</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>321</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="3">
-        <v>1</v>
-      </c>
+      <c r="K144" s="3"/>
       <c r="L144" s="3"/>
-      <c r="Q144">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>96</v>
       </c>
@@ -6443,16 +6436,16 @@
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
-      <c r="Q145">
+      <c r="R145">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>477</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>87</v>
+        <v>428</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C146" s="13">
         <v>2</v>
@@ -6460,28 +6453,28 @@
       <c r="D146" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F146" s="3"/>
+      <c r="F146" s="3">
+        <v>1</v>
+      </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
-      <c r="K146" s="3">
-        <v>1</v>
-      </c>
+      <c r="K146" s="3"/>
       <c r="L146" s="3"/>
-      <c r="Q146">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R146">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>540</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>62</v>
+        <v>503</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C147" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>321</v>
@@ -6495,13 +6488,13 @@
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
-      <c r="Q147">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R147">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>87</v>
@@ -6524,14 +6517,14 @@
       </c>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
-      <c r="P148" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q148">
+      <c r="Q148" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="R148">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>115</v>
       </c>
@@ -6539,7 +6532,7 @@
         <v>62</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>104</v>
@@ -6553,14 +6546,14 @@
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
-      <c r="O149" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q149">
+      <c r="P149" t="s">
+        <v>402</v>
+      </c>
+      <c r="R149">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>134</v>
       </c>
@@ -6576,11 +6569,11 @@
       <c r="K150">
         <v>1</v>
       </c>
-      <c r="Q150">
+      <c r="R150">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -6601,14 +6594,14 @@
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="O151" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q151">
+      <c r="P151" t="s">
+        <v>397</v>
+      </c>
+      <c r="R151">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>71</v>
       </c>
@@ -6630,69 +6623,74 @@
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
-      <c r="Q152">
+      <c r="R152">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>435</v>
-      </c>
-      <c r="B153" t="s">
-        <v>595</v>
+        <v>578</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C153" s="13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>321</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
       </c>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
+      <c r="I153" s="3">
+        <v>1</v>
+      </c>
       <c r="J153" s="3"/>
-      <c r="K153" s="3">
-        <v>1</v>
-      </c>
+      <c r="K153" s="3"/>
       <c r="L153" s="3"/>
-      <c r="Q153">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M153" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="R153">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>502</v>
-      </c>
-      <c r="B154" s="15" t="s">
-        <v>198</v>
+        <v>487</v>
+      </c>
+      <c r="B154" t="s">
+        <v>203</v>
       </c>
       <c r="C154" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E154">
-        <v>1</v>
-      </c>
-      <c r="F154" s="3"/>
+      <c r="F154" s="3">
+        <v>1</v>
+      </c>
       <c r="G154" s="3"/>
-      <c r="H154" s="3">
-        <v>1</v>
-      </c>
-      <c r="I154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3">
+        <v>1</v>
+      </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
-      <c r="O154" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q154">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M154" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="R154">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>53</v>
       </c>
@@ -6714,11 +6712,11 @@
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
-      <c r="Q155">
+      <c r="R155">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>72</v>
       </c>
@@ -6740,11 +6738,11 @@
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
-      <c r="Q156">
+      <c r="R156">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -6766,16 +6764,16 @@
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
-      <c r="Q157">
+      <c r="R157">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>483</v>
-      </c>
-      <c r="B158" s="20" t="s">
-        <v>1</v>
+        <v>441</v>
+      </c>
+      <c r="B158" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C158" s="13">
         <v>3</v>
@@ -6793,11 +6791,11 @@
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
-      <c r="Q158">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R158">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>122</v>
       </c>
@@ -6819,19 +6817,19 @@
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
-      <c r="Q159">
+      <c r="R159">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>515</v>
-      </c>
-      <c r="B160" t="s">
-        <v>491</v>
+        <v>436</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C160" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>321</v>
@@ -6845,11 +6843,11 @@
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
-      <c r="Q160">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R160">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>54</v>
       </c>
@@ -6874,161 +6872,164 @@
       <c r="M161" t="s">
         <v>224</v>
       </c>
-      <c r="Q161">
+      <c r="R161">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>446</v>
-      </c>
-      <c r="B162" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C162" s="13">
-        <v>2</v>
+        <v>591</v>
+      </c>
+      <c r="B162" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>374</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E162">
-        <v>1</v>
       </c>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
+      <c r="H162" s="3">
+        <v>1</v>
+      </c>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
-      <c r="Q162">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P162" t="s">
+        <v>401</v>
+      </c>
+      <c r="R162">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>439</v>
-      </c>
-      <c r="B163" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C163" s="13">
-        <v>2</v>
+        <v>591</v>
+      </c>
+      <c r="B163" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>374</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F163" s="3">
-        <v>1</v>
-      </c>
+      <c r="F163" s="3"/>
       <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
+      <c r="H163" s="3">
+        <v>1</v>
+      </c>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
-      <c r="Q163">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P163" t="s">
+        <v>401</v>
+      </c>
+      <c r="R163">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>514</v>
-      </c>
-      <c r="B164" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C164" s="13">
-        <v>0</v>
+        <v>591</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>374</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F164" s="3">
-        <v>1</v>
-      </c>
+      <c r="F164" s="3"/>
       <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
+      <c r="H164" s="3">
+        <v>1</v>
+      </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
-      <c r="Q164">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P164" t="s">
+        <v>401</v>
+      </c>
+      <c r="R164">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>589</v>
-      </c>
-      <c r="B165" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C165" s="13">
-        <v>8</v>
+        <v>591</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>374</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E165">
-        <v>1</v>
       </c>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3">
-        <v>1</v>
-      </c>
+      <c r="H165" s="3">
+        <v>1</v>
+      </c>
+      <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
-      <c r="M165" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="Q165">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P165" t="s">
+        <v>401</v>
+      </c>
+      <c r="R165">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>498</v>
-      </c>
-      <c r="B166" t="s">
-        <v>203</v>
-      </c>
-      <c r="C166" s="13">
-        <v>1</v>
+        <v>591</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>374</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F166" s="3">
-        <v>1</v>
-      </c>
+      <c r="F166" s="3"/>
       <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3">
-        <v>1</v>
-      </c>
+      <c r="H166" s="3">
+        <v>1</v>
+      </c>
+      <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
-      <c r="M166" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q166">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P166" t="s">
+        <v>401</v>
+      </c>
+      <c r="R166">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>361</v>
@@ -7042,22 +7043,22 @@
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
-      <c r="O167" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q167">
+      <c r="P167" t="s">
+        <v>401</v>
+      </c>
+      <c r="R167">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>361</v>
@@ -7071,22 +7072,22 @@
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
-      <c r="O168" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q168">
+      <c r="P168" t="s">
+        <v>401</v>
+      </c>
+      <c r="R168">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>361</v>
@@ -7100,22 +7101,22 @@
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
-      <c r="O169" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q169">
+      <c r="P169" t="s">
+        <v>401</v>
+      </c>
+      <c r="R169">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>361</v>
@@ -7129,22 +7130,22 @@
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
-      <c r="O170" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q170">
+      <c r="P170" t="s">
+        <v>401</v>
+      </c>
+      <c r="R170">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>361</v>
@@ -7158,22 +7159,22 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
-      <c r="O171" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q171">
+      <c r="P171" t="s">
+        <v>401</v>
+      </c>
+      <c r="R171">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>361</v>
@@ -7187,22 +7188,22 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
-      <c r="O172" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q172">
+      <c r="P172" t="s">
+        <v>401</v>
+      </c>
+      <c r="R172">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>361</v>
@@ -7216,14 +7217,14 @@
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
-      <c r="O173" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q173">
+      <c r="P173" t="s">
+        <v>401</v>
+      </c>
+      <c r="R173">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>55</v>
       </c>
@@ -7245,11 +7246,11 @@
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
-      <c r="Q174">
+      <c r="R174">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>32</v>
       </c>
@@ -7271,11 +7272,11 @@
         <v>1</v>
       </c>
       <c r="L175" s="3"/>
-      <c r="Q175">
+      <c r="R175">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>132</v>
       </c>
@@ -7291,19 +7292,19 @@
       <c r="E176">
         <v>1</v>
       </c>
-      <c r="Q176">
+      <c r="R176">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>452</v>
-      </c>
-      <c r="B177" s="23" t="s">
-        <v>24</v>
+        <v>569</v>
+      </c>
+      <c r="B177" t="s">
+        <v>202</v>
       </c>
       <c r="C177" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>321</v>
@@ -7313,42 +7314,52 @@
       </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
+      <c r="H177" s="3">
+        <v>1</v>
+      </c>
       <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
+      <c r="J177" s="3">
+        <v>1</v>
+      </c>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
-      <c r="Q177">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P177" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>593</v>
+      </c>
+      <c r="R177">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>447</v>
-      </c>
-      <c r="B178" s="23" t="s">
-        <v>24</v>
+        <v>520</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C178" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F178" s="3">
-        <v>1</v>
-      </c>
-      <c r="G178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3">
+        <v>1</v>
+      </c>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
-      <c r="Q178">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R178">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>108</v>
       </c>
@@ -7371,13 +7382,16 @@
         <v>1</v>
       </c>
       <c r="N179" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q179">
+        <v>607</v>
+      </c>
+      <c r="O179" t="s">
+        <v>604</v>
+      </c>
+      <c r="R179">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>108</v>
       </c>
@@ -7400,100 +7414,94 @@
         <v>1</v>
       </c>
       <c r="N180" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q180">
+        <v>607</v>
+      </c>
+      <c r="O180" t="s">
+        <v>604</v>
+      </c>
+      <c r="R180">
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>602</v>
-      </c>
-      <c r="B181" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C181" s="13" t="s">
-        <v>385</v>
+        <v>532</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C181" s="13">
+        <v>4</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
-      <c r="H181" s="3">
-        <v>1</v>
-      </c>
+      <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="3"/>
+      <c r="K181" s="3">
+        <v>1</v>
+      </c>
       <c r="L181" s="3"/>
-      <c r="O181" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q181">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R181">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>602</v>
-      </c>
-      <c r="B182" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C182" s="13" t="s">
-        <v>385</v>
+        <v>454</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C182" s="13">
+        <v>0</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F182" s="3"/>
+      <c r="F182" s="3">
+        <v>1</v>
+      </c>
       <c r="G182" s="3"/>
-      <c r="H182" s="3">
-        <v>1</v>
-      </c>
+      <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
-      <c r="O182" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q182">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R182">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>602</v>
+        <v>521</v>
       </c>
       <c r="B183" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C183" s="13" t="s">
-        <v>385</v>
+      <c r="C183" s="13">
+        <v>4</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
-      <c r="H183" s="3">
-        <v>1</v>
-      </c>
+      <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
-      <c r="K183" s="3"/>
+      <c r="K183" s="3">
+        <v>1</v>
+      </c>
       <c r="L183" s="3"/>
-      <c r="O183" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q183">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R183">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>106</v>
       </c>
@@ -7515,16 +7523,19 @@
         <v>1</v>
       </c>
       <c r="N184" t="s">
-        <v>373</v>
+        <v>209</v>
       </c>
       <c r="O184" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q184">
+        <v>3</v>
+      </c>
+      <c r="P184" t="s">
+        <v>389</v>
+      </c>
+      <c r="R184">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>106</v>
       </c>
@@ -7546,45 +7557,43 @@
         <v>1</v>
       </c>
       <c r="N185" t="s">
-        <v>373</v>
+        <v>209</v>
       </c>
       <c r="O185" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q185">
+        <v>3</v>
+      </c>
+      <c r="P185" t="s">
+        <v>389</v>
+      </c>
+      <c r="R185">
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>602</v>
-      </c>
-      <c r="B186" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C186" s="13" t="s">
-        <v>385</v>
+        <v>536</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C186" s="13">
+        <v>1</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
-      <c r="H186" s="3">
-        <v>1</v>
-      </c>
+      <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
-      <c r="O186" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q186">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R186">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>73</v>
       </c>
@@ -7606,40 +7615,38 @@
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
-      <c r="Q187">
+      <c r="R187">
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>602</v>
-      </c>
-      <c r="B188" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C188" s="13" t="s">
-        <v>385</v>
+        <v>533</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C188" s="13">
+        <v>9</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>321</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
       </c>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
-      <c r="H188" s="3">
-        <v>1</v>
-      </c>
+      <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
-      <c r="O188" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q188">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R188">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>148</v>
       </c>
@@ -7655,11 +7662,11 @@
       <c r="F189">
         <v>1</v>
       </c>
-      <c r="Q189">
+      <c r="R189">
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -7681,37 +7688,38 @@
         <v>1</v>
       </c>
       <c r="L190" s="3"/>
-      <c r="Q190">
+      <c r="R190">
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>531</v>
-      </c>
-      <c r="B191" s="15" t="s">
-        <v>198</v>
+        <v>572</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C191" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>321</v>
       </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
       <c r="F191" s="3"/>
-      <c r="G191" s="3">
-        <v>1</v>
-      </c>
+      <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
-      <c r="Q191">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R191">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>56</v>
       </c>
@@ -7733,14 +7741,14 @@
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
-      <c r="O192" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q192">
+      <c r="P192" t="s">
+        <v>379</v>
+      </c>
+      <c r="R192">
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>57</v>
       </c>
@@ -7765,16 +7773,16 @@
       <c r="M193" t="s">
         <v>224</v>
       </c>
-      <c r="Q193">
+      <c r="R193">
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>129</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C194" s="9">
         <v>1</v>
@@ -7791,11 +7799,11 @@
         <v>1</v>
       </c>
       <c r="L194" s="3"/>
-      <c r="Q194">
+      <c r="R194">
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>58</v>
       </c>
@@ -7815,91 +7823,110 @@
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
-      <c r="Q195">
+      <c r="R195">
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>543</v>
-      </c>
-      <c r="B196" s="14" t="s">
-        <v>87</v>
+        <v>422</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C196" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
+      <c r="G196" s="3">
+        <v>1</v>
+      </c>
       <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
+      <c r="I196" s="3">
+        <v>1</v>
+      </c>
       <c r="J196" s="3"/>
-      <c r="K196" s="3">
-        <v>1</v>
-      </c>
+      <c r="K196" s="3"/>
       <c r="L196" s="3"/>
-      <c r="Q196">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M196" t="s">
+        <v>224</v>
+      </c>
+      <c r="R196">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="B197" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C197" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F197" s="3">
-        <v>1</v>
-      </c>
-      <c r="G197" s="3"/>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3">
+        <v>1</v>
+      </c>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
-      <c r="Q197">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R197">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>532</v>
-      </c>
-      <c r="B198" s="23" t="s">
-        <v>24</v>
+        <v>596</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C198" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>321</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
       </c>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
+      <c r="H198" s="3">
+        <v>1</v>
+      </c>
+      <c r="I198" s="3">
+        <v>1</v>
+      </c>
       <c r="J198" s="3"/>
-      <c r="K198" s="3">
-        <v>1</v>
-      </c>
+      <c r="K198" s="3"/>
       <c r="L198" s="3"/>
-      <c r="Q198">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M198" t="s">
+        <v>541</v>
+      </c>
+      <c r="P198" t="s">
+        <v>542</v>
+      </c>
+      <c r="R198">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B199" s="12" t="s">
         <v>62</v>
@@ -7917,25 +7944,22 @@
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
-      <c r="Q199">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R199">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B200" s="15" t="s">
         <v>198</v>
       </c>
       <c r="C200" s="13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E200">
-        <v>1</v>
       </c>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
@@ -7944,11 +7968,11 @@
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
-      <c r="Q200">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R200">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>109</v>
       </c>
@@ -7956,7 +7980,7 @@
         <v>24</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D201" t="s">
         <v>104</v>
@@ -7970,16 +7994,19 @@
         <v>1</v>
       </c>
       <c r="N201" t="s">
-        <v>372</v>
+        <v>607</v>
       </c>
       <c r="O201" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q201">
+        <v>3</v>
+      </c>
+      <c r="P201" t="s">
+        <v>405</v>
+      </c>
+      <c r="R201">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>109</v>
       </c>
@@ -7987,7 +8014,7 @@
         <v>24</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D202" t="s">
         <v>104</v>
@@ -8001,16 +8028,19 @@
         <v>1</v>
       </c>
       <c r="N202" t="s">
-        <v>372</v>
+        <v>607</v>
       </c>
       <c r="O202" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q202">
+        <v>3</v>
+      </c>
+      <c r="P202" t="s">
+        <v>405</v>
+      </c>
+      <c r="R202">
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>142</v>
       </c>
@@ -8026,19 +8056,19 @@
       <c r="G203">
         <v>1</v>
       </c>
-      <c r="Q203">
+      <c r="R203">
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>583</v>
-      </c>
-      <c r="B204" s="14" t="s">
-        <v>87</v>
+        <v>528</v>
+      </c>
+      <c r="B204" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C204" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>321</v>
@@ -8050,22 +8080,27 @@
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
+      <c r="J204" s="3">
+        <v>1</v>
+      </c>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
-      <c r="Q204">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q204" t="s">
+        <v>377</v>
+      </c>
+      <c r="R204">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>433</v>
-      </c>
-      <c r="B205" s="15" t="s">
-        <v>198</v>
+        <v>565</v>
+      </c>
+      <c r="B205" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C205" s="13">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>321</v>
@@ -8074,21 +8109,21 @@
       <c r="G205" s="3">
         <v>1</v>
       </c>
-      <c r="H205" s="3"/>
-      <c r="I205" s="3">
-        <v>1</v>
-      </c>
+      <c r="H205" s="3">
+        <v>1</v>
+      </c>
+      <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
-      <c r="M205" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q205">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P205" t="s">
+        <v>566</v>
+      </c>
+      <c r="R205">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>107</v>
       </c>
@@ -8104,25 +8139,22 @@
       <c r="F206">
         <v>1</v>
       </c>
-      <c r="Q206">
+      <c r="R206">
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>489</v>
-      </c>
-      <c r="B207" s="14" t="s">
-        <v>87</v>
+        <v>463</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C207" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E207">
-        <v>1</v>
       </c>
       <c r="F207" s="3"/>
       <c r="G207" s="3">
@@ -8133,11 +8165,11 @@
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
-      <c r="Q207">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R207">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>74</v>
       </c>
@@ -8159,11 +8191,11 @@
         <v>1</v>
       </c>
       <c r="L208" s="3"/>
-      <c r="Q208">
+      <c r="R208">
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>75</v>
       </c>
@@ -8185,107 +8217,114 @@
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
-      <c r="Q209">
+      <c r="R209">
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>607</v>
-      </c>
-      <c r="B210" s="15" t="s">
-        <v>198</v>
+        <v>581</v>
+      </c>
+      <c r="B210" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C210" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E210">
-        <v>1</v>
-      </c>
-      <c r="F210" s="3"/>
+      <c r="F210" s="3">
+        <v>1</v>
+      </c>
       <c r="G210" s="3"/>
       <c r="H210" s="3">
         <v>1</v>
       </c>
-      <c r="I210" s="3">
-        <v>1</v>
-      </c>
+      <c r="I210" s="3"/>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
-      <c r="M210" t="s">
-        <v>552</v>
-      </c>
-      <c r="O210" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q210">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P210" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="R210">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>566</v>
-      </c>
-      <c r="B211" s="12" t="s">
-        <v>62</v>
+        <v>423</v>
+      </c>
+      <c r="B211" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C211" s="13">
         <v>1</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>321</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
+      <c r="H211" s="3">
+        <v>1</v>
+      </c>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
-      <c r="Q211">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P211" t="s">
+        <v>597</v>
+      </c>
+      <c r="R211">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>549</v>
-      </c>
-      <c r="B212" s="15" t="s">
-        <v>198</v>
+        <v>450</v>
+      </c>
+      <c r="B212" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C212" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F212" s="3"/>
+      <c r="F212" s="3">
+        <v>1</v>
+      </c>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
-      <c r="Q212">
+      <c r="R212">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>515</v>
+      </c>
+      <c r="B213" s="15" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>576</v>
-      </c>
-      <c r="B213" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C213" s="13">
-        <v>-3</v>
+      <c r="C213" s="13" t="s">
+        <v>516</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>321</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
       </c>
       <c r="F213" s="3"/>
       <c r="G213" s="3">
@@ -8295,17 +8334,22 @@
         <v>1</v>
       </c>
       <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
+      <c r="J213" s="3">
+        <v>1</v>
+      </c>
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
-      <c r="O213" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q213">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P213" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>516</v>
+      </c>
+      <c r="R213">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>45</v>
       </c>
@@ -8328,11 +8372,11 @@
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
-      <c r="Q214">
+      <c r="R214">
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>138</v>
       </c>
@@ -8348,11 +8392,11 @@
       <c r="G215">
         <v>1</v>
       </c>
-      <c r="Q215">
+      <c r="R215">
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>138</v>
       </c>
@@ -8368,11 +8412,11 @@
       <c r="G216">
         <v>1</v>
       </c>
-      <c r="Q216">
+      <c r="R216">
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>33</v>
       </c>
@@ -8394,14 +8438,14 @@
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
-      <c r="O217" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q217">
+      <c r="P217" t="s">
+        <v>390</v>
+      </c>
+      <c r="R217">
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>25</v>
       </c>
@@ -8426,14 +8470,14 @@
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
-      <c r="O218" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q218">
+      <c r="P218" t="s">
+        <v>410</v>
+      </c>
+      <c r="R218">
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>25</v>
       </c>
@@ -8458,14 +8502,14 @@
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
-      <c r="O219" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q219">
+      <c r="P219" t="s">
+        <v>410</v>
+      </c>
+      <c r="R219">
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>15</v>
       </c>
@@ -8487,11 +8531,11 @@
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
-      <c r="Q220">
+      <c r="R220">
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>76</v>
       </c>
@@ -8513,22 +8557,25 @@
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
-      <c r="Q221">
+      <c r="R221">
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>474</v>
-      </c>
-      <c r="B222" s="15" t="s">
-        <v>198</v>
+        <v>522</v>
+      </c>
+      <c r="B222" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C222" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>321</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3">
@@ -8539,11 +8586,11 @@
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
-      <c r="Q222">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R222">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>77</v>
       </c>
@@ -8565,11 +8612,11 @@
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
-      <c r="Q223">
+      <c r="R223">
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>34</v>
       </c>
@@ -8591,11 +8638,11 @@
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
-      <c r="Q224">
+      <c r="R224">
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>118</v>
       </c>
@@ -8617,82 +8664,71 @@
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
-      <c r="Q225">
+      <c r="R225">
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>592</v>
-      </c>
-      <c r="B226" s="23" t="s">
-        <v>24</v>
+        <v>446</v>
+      </c>
+      <c r="B226" t="s">
+        <v>421</v>
       </c>
       <c r="C226" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F226" s="3">
-        <v>1</v>
-      </c>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3">
-        <v>1</v>
-      </c>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3">
+        <v>1</v>
+      </c>
+      <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
-      <c r="O226" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q226">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R226">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>434</v>
-      </c>
-      <c r="B227" s="23" t="s">
-        <v>24</v>
+        <v>446</v>
+      </c>
+      <c r="B227" t="s">
+        <v>421</v>
       </c>
       <c r="C227" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E227">
-        <v>1</v>
-      </c>
       <c r="F227" s="3"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3">
-        <v>1</v>
-      </c>
+      <c r="G227" s="3">
+        <v>1</v>
+      </c>
+      <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
-      <c r="O227" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q227">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R227">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>461</v>
-      </c>
-      <c r="B228" s="14" t="s">
-        <v>87</v>
+        <v>490</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C228" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>321</v>
@@ -8706,11 +8742,11 @@
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
-      <c r="Q228">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R228">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>78</v>
       </c>
@@ -8732,11 +8768,11 @@
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
-      <c r="Q229">
+      <c r="R229">
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>35</v>
       </c>
@@ -8758,14 +8794,14 @@
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
-      <c r="O230" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q230">
+      <c r="P230" t="s">
+        <v>394</v>
+      </c>
+      <c r="R230">
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>59</v>
       </c>
@@ -8787,11 +8823,11 @@
       </c>
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
-      <c r="Q231">
+      <c r="R231">
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>123</v>
       </c>
@@ -8813,25 +8849,22 @@
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
-      <c r="Q232">
+      <c r="R232">
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B233" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C233" s="13">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E233">
-        <v>1</v>
       </c>
       <c r="F233" s="3"/>
       <c r="G233" s="3">
@@ -8842,37 +8875,40 @@
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
-      <c r="Q233">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R233">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>457</v>
-      </c>
-      <c r="B234" t="s">
-        <v>432</v>
+        <v>507</v>
+      </c>
+      <c r="B234" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C234" s="13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F234" s="3"/>
-      <c r="G234" s="3">
-        <v>1</v>
-      </c>
-      <c r="H234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3">
+        <v>1</v>
+      </c>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
-      <c r="Q234">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P234" t="s">
+        <v>508</v>
+      </c>
+      <c r="R234">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>36</v>
       </c>
@@ -8894,11 +8930,11 @@
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
-      <c r="Q235">
+      <c r="R235">
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>161</v>
       </c>
@@ -8914,45 +8950,51 @@
       <c r="F236">
         <v>1</v>
       </c>
-      <c r="Q236">
+      <c r="R236">
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>457</v>
-      </c>
-      <c r="B237" t="s">
-        <v>432</v>
+        <v>495</v>
+      </c>
+      <c r="B237" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C237" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>321</v>
       </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
       <c r="F237" s="3"/>
-      <c r="G237" s="3">
-        <v>1</v>
-      </c>
-      <c r="H237" s="3"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3">
+        <v>1</v>
+      </c>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
-      <c r="Q237">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P237" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="R237">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>501</v>
-      </c>
-      <c r="B238" s="12" t="s">
-        <v>62</v>
+        <v>546</v>
+      </c>
+      <c r="B238" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C238" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>321</v>
@@ -8966,11 +9008,11 @@
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
-      <c r="Q238">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R238">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>151</v>
       </c>
@@ -8986,11 +9028,11 @@
       <c r="F239">
         <v>1</v>
       </c>
-      <c r="Q239">
+      <c r="R239">
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>151</v>
       </c>
@@ -9006,11 +9048,11 @@
       <c r="F240">
         <v>1</v>
       </c>
-      <c r="Q240">
+      <c r="R240">
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>159</v>
       </c>
@@ -9030,66 +9072,69 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
-      <c r="Q241">
+      <c r="R241">
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>534</v>
+        <v>483</v>
       </c>
       <c r="B242" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C242" s="13">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>321</v>
       </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
       <c r="F242" s="3"/>
-      <c r="G242" s="3">
-        <v>1</v>
-      </c>
+      <c r="G242" s="3"/>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
-      <c r="J242" s="3"/>
+      <c r="J242" s="3">
+        <v>1</v>
+      </c>
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
-      <c r="Q242">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R242">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>518</v>
-      </c>
-      <c r="B243" s="20" t="s">
-        <v>1</v>
+        <v>483</v>
+      </c>
+      <c r="B243" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C243" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>321</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
       </c>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
-      <c r="H243" s="3">
-        <v>1</v>
-      </c>
+      <c r="H243" s="3"/>
       <c r="I243" s="3"/>
-      <c r="J243" s="3"/>
+      <c r="J243" s="3">
+        <v>1</v>
+      </c>
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
-      <c r="O243" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q243">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R243">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>97</v>
       </c>
@@ -9111,43 +9156,37 @@
         <v>1</v>
       </c>
       <c r="L244" s="3"/>
-      <c r="Q244">
+      <c r="R244">
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>506</v>
-      </c>
-      <c r="B245" s="12" t="s">
-        <v>62</v>
+        <v>512</v>
+      </c>
+      <c r="B245" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C245" s="13">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E245">
-        <v>1</v>
-      </c>
       <c r="F245" s="3"/>
-      <c r="G245" s="3"/>
-      <c r="H245" s="3">
-        <v>1</v>
-      </c>
+      <c r="G245" s="3">
+        <v>1</v>
+      </c>
+      <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
-      <c r="O245" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q245">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R245">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>141</v>
       </c>
@@ -9163,11 +9202,11 @@
       <c r="G246">
         <v>1</v>
       </c>
-      <c r="Q246">
+      <c r="R246">
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>141</v>
       </c>
@@ -9183,16 +9222,16 @@
       <c r="G247">
         <v>1</v>
       </c>
-      <c r="Q247">
+      <c r="R247">
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>557</v>
-      </c>
-      <c r="B248" s="20" t="s">
-        <v>1</v>
+        <v>437</v>
+      </c>
+      <c r="B248" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C248" s="13">
         <v>1</v>
@@ -9200,20 +9239,26 @@
       <c r="D248" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F248" s="3">
-        <v>1</v>
-      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248" s="3"/>
       <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
+      <c r="H248" s="3">
+        <v>1</v>
+      </c>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
       <c r="L248" s="3"/>
-      <c r="Q248">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P248" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="R248">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>37</v>
       </c>
@@ -9221,7 +9266,7 @@
         <v>24</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>361</v>
@@ -9235,40 +9280,41 @@
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
-      <c r="O249" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q249">
+      <c r="P249" t="s">
+        <v>403</v>
+      </c>
+      <c r="R249">
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>523</v>
+        <v>427</v>
       </c>
       <c r="B250" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C250" s="13">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>321</v>
       </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
       <c r="F250" s="3"/>
-      <c r="G250" s="3">
-        <v>1</v>
-      </c>
+      <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
-      <c r="Q250">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R250">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>98</v>
       </c>
@@ -9290,11 +9336,11 @@
       <c r="J251" s="3"/>
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
-      <c r="Q251">
+      <c r="R251">
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>16</v>
       </c>
@@ -9314,11 +9360,11 @@
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
-      <c r="Q252">
+      <c r="R252">
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>16</v>
       </c>
@@ -9338,11 +9384,11 @@
       <c r="J253" s="3"/>
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
-      <c r="Q253">
+      <c r="R253">
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>99</v>
       </c>
@@ -9362,11 +9408,11 @@
       <c r="J254" s="3"/>
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
-      <c r="Q254">
+      <c r="R254">
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>135</v>
       </c>
@@ -9382,70 +9428,63 @@
       <c r="G255">
         <v>1</v>
       </c>
-      <c r="Q255">
+      <c r="R255">
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>448</v>
-      </c>
-      <c r="B256" s="15" t="s">
-        <v>198</v>
+        <v>444</v>
+      </c>
+      <c r="B256" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C256" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256" s="3"/>
+      <c r="F256" s="3">
+        <v>1</v>
+      </c>
       <c r="G256" s="3"/>
-      <c r="H256" s="3">
-        <v>1</v>
-      </c>
+      <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
-      <c r="O256" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q256">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R256">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>438</v>
+        <v>544</v>
       </c>
       <c r="B257" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C257" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E257">
-        <v>1</v>
       </c>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
-      <c r="K257" s="3"/>
+      <c r="K257" s="3">
+        <v>1</v>
+      </c>
       <c r="L257" s="3"/>
-      <c r="Q257">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R257">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>110</v>
       </c>
@@ -9471,13 +9510,16 @@
         <v>1</v>
       </c>
       <c r="N258" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q258">
+        <v>607</v>
+      </c>
+      <c r="O258" t="s">
+        <v>601</v>
+      </c>
+      <c r="R258">
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>110</v>
       </c>
@@ -9503,13 +9545,16 @@
         <v>1</v>
       </c>
       <c r="N259" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q259">
+        <v>607</v>
+      </c>
+      <c r="O259" t="s">
+        <v>601</v>
+      </c>
+      <c r="R259">
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -9534,16 +9579,16 @@
       <c r="M260" t="s">
         <v>224</v>
       </c>
-      <c r="Q260">
+      <c r="R260">
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>455</v>
       </c>
-      <c r="B261" s="23" t="s">
-        <v>24</v>
+      <c r="B261" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C261" s="13">
         <v>2</v>
@@ -9560,11 +9605,11 @@
       <c r="J261" s="3"/>
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
-      <c r="Q261">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R261">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>215</v>
       </c>
@@ -9586,14 +9631,14 @@
       <c r="J262" s="3"/>
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
-      <c r="O262" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q262">
+      <c r="P262" t="s">
+        <v>411</v>
+      </c>
+      <c r="R262">
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>214</v>
       </c>
@@ -9615,63 +9660,64 @@
         <v>1</v>
       </c>
       <c r="L263" s="3"/>
-      <c r="Q263">
+      <c r="R263">
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>555</v>
-      </c>
-      <c r="B264" s="20" t="s">
-        <v>1</v>
+        <v>548</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C264" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>321</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
       </c>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
-      <c r="K264" s="3">
-        <v>1</v>
-      </c>
+      <c r="K264" s="3"/>
       <c r="L264" s="3"/>
-      <c r="Q264">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R264">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>466</v>
-      </c>
-      <c r="B265" s="15" t="s">
-        <v>198</v>
+        <v>558</v>
+      </c>
+      <c r="B265" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C265" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F265" s="3">
-        <v>1</v>
-      </c>
+      <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="3"/>
+      <c r="K265" s="3">
+        <v>1</v>
+      </c>
       <c r="L265" s="3"/>
-      <c r="Q265">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R265">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>22</v>
       </c>
@@ -9693,25 +9739,22 @@
       <c r="J266" s="3"/>
       <c r="K266" s="3"/>
       <c r="L266" s="3"/>
-      <c r="Q266">
+      <c r="R266">
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>559</v>
-      </c>
-      <c r="B267" s="12" t="s">
-        <v>62</v>
+        <v>481</v>
+      </c>
+      <c r="B267" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C267" s="13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E267">
-        <v>1</v>
       </c>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
@@ -9720,16 +9763,16 @@
       <c r="J267" s="3"/>
       <c r="K267" s="3"/>
       <c r="L267" s="3"/>
-      <c r="Q267">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R267">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>569</v>
-      </c>
-      <c r="B268" s="14" t="s">
-        <v>87</v>
+        <v>467</v>
+      </c>
+      <c r="B268" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C268" s="13">
         <v>1</v>
@@ -9737,20 +9780,20 @@
       <c r="D268" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F268" s="3"/>
+      <c r="F268" s="3">
+        <v>1</v>
+      </c>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
-      <c r="K268" s="3">
-        <v>1</v>
-      </c>
+      <c r="K268" s="3"/>
       <c r="L268" s="3"/>
-      <c r="Q268">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R268">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>18</v>
       </c>
@@ -9772,11 +9815,11 @@
       <c r="J269" s="3"/>
       <c r="K269" s="3"/>
       <c r="L269" s="3"/>
-      <c r="Q269">
+      <c r="R269">
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>60</v>
       </c>
@@ -9798,35 +9841,37 @@
       <c r="J270" s="3"/>
       <c r="K270" s="3"/>
       <c r="L270" s="3"/>
-      <c r="Q270">
+      <c r="R270">
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>492</v>
+        <v>433</v>
       </c>
       <c r="B271" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C271" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F271" s="3"/>
+      <c r="F271" s="3">
+        <v>1</v>
+      </c>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
       <c r="K271" s="3"/>
       <c r="L271" s="3"/>
-      <c r="Q271">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R271">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>38</v>
       </c>
@@ -9848,11 +9893,11 @@
       <c r="J272" s="3"/>
       <c r="K272" s="3"/>
       <c r="L272" s="3"/>
-      <c r="Q272">
+      <c r="R272">
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>38</v>
       </c>
@@ -9874,11 +9919,11 @@
       <c r="J273" s="3"/>
       <c r="K273" s="3"/>
       <c r="L273" s="3"/>
-      <c r="Q273">
+      <c r="R273">
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>79</v>
       </c>
@@ -9900,11 +9945,11 @@
       <c r="J274" s="3"/>
       <c r="K274" s="3"/>
       <c r="L274" s="3"/>
-      <c r="Q274">
+      <c r="R274">
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>88</v>
       </c>
@@ -9931,17 +9976,17 @@
       </c>
       <c r="K275" s="3"/>
       <c r="L275" s="3"/>
-      <c r="O275" t="s">
-        <v>399</v>
-      </c>
-      <c r="P275" s="16" t="s">
+      <c r="P275" t="s">
         <v>388</v>
       </c>
-      <c r="Q275">
+      <c r="Q275" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="R275">
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>360</v>
       </c>
@@ -9957,14 +10002,14 @@
       <c r="H276">
         <v>1</v>
       </c>
-      <c r="O276" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q276">
+      <c r="P276" t="s">
+        <v>384</v>
+      </c>
+      <c r="R276">
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>360</v>
       </c>
@@ -9980,22 +10025,22 @@
       <c r="H277">
         <v>1</v>
       </c>
-      <c r="O277" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q277">
+      <c r="P277" t="s">
+        <v>384</v>
+      </c>
+      <c r="R277">
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>478</v>
-      </c>
-      <c r="B278" s="15" t="s">
-        <v>198</v>
+        <v>535</v>
+      </c>
+      <c r="B278" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C278" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>321</v>
@@ -10009,13 +10054,13 @@
       <c r="J278" s="3"/>
       <c r="K278" s="3"/>
       <c r="L278" s="3"/>
-      <c r="Q278">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R278">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="B279" s="23" t="s">
         <v>24</v>
@@ -10026,165 +10071,170 @@
       <c r="D279" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F279" s="3">
-        <v>1</v>
-      </c>
+      <c r="F279" s="3"/>
       <c r="G279" s="3"/>
-      <c r="H279" s="3"/>
+      <c r="H279" s="3">
+        <v>1</v>
+      </c>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
       <c r="K279" s="3"/>
       <c r="L279" s="3"/>
-      <c r="Q279">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P279" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="R279">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>546</v>
-      </c>
-      <c r="B280" s="12" t="s">
-        <v>62</v>
+        <v>457</v>
+      </c>
+      <c r="B280" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C280" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F280" s="3">
-        <v>1</v>
-      </c>
+      <c r="F280" s="3"/>
       <c r="G280" s="3"/>
-      <c r="H280" s="3"/>
+      <c r="H280" s="3">
+        <v>1</v>
+      </c>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
       <c r="K280" s="3"/>
       <c r="L280" s="3"/>
-      <c r="Q280">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P280" t="s">
+        <v>462</v>
+      </c>
+      <c r="R280">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>485</v>
-      </c>
-      <c r="B281" s="23" t="s">
-        <v>24</v>
+        <v>449</v>
+      </c>
+      <c r="B281" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C281" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
-      <c r="H281" s="3">
-        <v>1</v>
-      </c>
-      <c r="I281" s="3"/>
+      <c r="H281" s="3"/>
+      <c r="I281" s="3">
+        <v>1</v>
+      </c>
       <c r="J281" s="3"/>
       <c r="K281" s="3"/>
       <c r="L281" s="3"/>
-      <c r="O281" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q281">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M281" t="s">
+        <v>225</v>
+      </c>
+      <c r="R281">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>468</v>
-      </c>
-      <c r="B282" s="15" t="s">
-        <v>198</v>
+        <v>471</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C282" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>321</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
       </c>
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
-      <c r="H282" s="3">
-        <v>1</v>
-      </c>
+      <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
       <c r="K282" s="3"/>
       <c r="L282" s="3"/>
-      <c r="O282" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q282">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R282">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>460</v>
-      </c>
-      <c r="B283" s="15" t="s">
-        <v>198</v>
+        <v>561</v>
+      </c>
+      <c r="B283" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C283" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F283" s="3"/>
+      <c r="F283" s="3">
+        <v>1</v>
+      </c>
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
-      <c r="I283" s="3">
-        <v>1</v>
-      </c>
+      <c r="I283" s="3"/>
       <c r="J283" s="3"/>
       <c r="K283" s="3"/>
       <c r="L283" s="3"/>
-      <c r="M283" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q283">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R283">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>482</v>
-      </c>
-      <c r="B284" s="12" t="s">
-        <v>62</v>
+        <v>524</v>
+      </c>
+      <c r="B284" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C284" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E284">
-        <v>1</v>
-      </c>
       <c r="F284" s="3"/>
-      <c r="G284" s="3"/>
+      <c r="G284" s="3">
+        <v>1</v>
+      </c>
       <c r="H284" s="3"/>
-      <c r="I284" s="3"/>
+      <c r="I284" s="3">
+        <v>1</v>
+      </c>
       <c r="J284" s="3"/>
       <c r="K284" s="3"/>
       <c r="L284" s="3"/>
-      <c r="Q284">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M284" t="s">
+        <v>525</v>
+      </c>
+      <c r="R284">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>572</v>
-      </c>
-      <c r="B285" s="20" t="s">
-        <v>1</v>
+        <v>477</v>
+      </c>
+      <c r="B285" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C285" s="13">
         <v>2</v>
@@ -10192,51 +10242,49 @@
       <c r="D285" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F285" s="3">
-        <v>1</v>
-      </c>
+      <c r="F285" s="3"/>
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
-      <c r="K285" s="3"/>
+      <c r="K285" s="3">
+        <v>1</v>
+      </c>
       <c r="L285" s="3"/>
-      <c r="Q285">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R285">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>535</v>
-      </c>
-      <c r="B286" s="20" t="s">
-        <v>1</v>
+        <v>573</v>
+      </c>
+      <c r="B286" t="s">
+        <v>204</v>
       </c>
       <c r="C286" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>321</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
       </c>
       <c r="F286" s="3"/>
       <c r="G286" s="3">
         <v>1</v>
       </c>
       <c r="H286" s="3"/>
-      <c r="I286" s="3">
-        <v>1</v>
-      </c>
+      <c r="I286" s="3"/>
       <c r="J286" s="3"/>
       <c r="K286" s="3"/>
       <c r="L286" s="3"/>
-      <c r="M286" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q286">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R286">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>80</v>
       </c>
@@ -10258,13 +10306,13 @@
       </c>
       <c r="K287" s="3"/>
       <c r="L287" s="3"/>
-      <c r="Q287">
+      <c r="R287">
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>488</v>
+        <v>527</v>
       </c>
       <c r="B288" s="12" t="s">
         <v>62</v>
@@ -10275,130 +10323,130 @@
       <c r="D288" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F288" s="3"/>
+      <c r="F288" s="3">
+        <v>1</v>
+      </c>
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
-      <c r="K288" s="3">
-        <v>1</v>
-      </c>
+      <c r="K288" s="3"/>
       <c r="L288" s="3"/>
-      <c r="Q288">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R288">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>584</v>
+        <v>453</v>
       </c>
       <c r="B289" t="s">
-        <v>204</v>
+        <v>421</v>
       </c>
       <c r="C289" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E289">
-        <v>1</v>
-      </c>
       <c r="F289" s="3"/>
-      <c r="G289" s="3">
-        <v>1</v>
-      </c>
-      <c r="H289" s="3"/>
+      <c r="G289" s="3"/>
+      <c r="H289" s="3">
+        <v>1</v>
+      </c>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
       <c r="K289" s="3"/>
       <c r="L289" s="3"/>
-      <c r="Q289">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P289" t="s">
+        <v>460</v>
+      </c>
+      <c r="R289">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>538</v>
-      </c>
-      <c r="B290" s="12" t="s">
-        <v>62</v>
+        <v>559</v>
+      </c>
+      <c r="B290" t="s">
+        <v>421</v>
       </c>
       <c r="C290" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F290" s="3">
-        <v>1</v>
-      </c>
+      <c r="F290" s="3"/>
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
-      <c r="K290" s="3"/>
+      <c r="K290" s="3">
+        <v>1</v>
+      </c>
       <c r="L290" s="3"/>
-      <c r="Q290">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R290">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>464</v>
-      </c>
-      <c r="B291" t="s">
-        <v>432</v>
+        <v>500</v>
+      </c>
+      <c r="B291" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C291" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
-      <c r="H291" s="3">
-        <v>1</v>
-      </c>
+      <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
-      <c r="K291" s="3"/>
+      <c r="K291" s="3">
+        <v>1</v>
+      </c>
       <c r="L291" s="3"/>
-      <c r="O291" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q291">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R291">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="B292" t="s">
-        <v>432</v>
+        <v>203</v>
       </c>
       <c r="C292" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>321</v>
       </c>
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
-      <c r="H292" s="3"/>
+      <c r="H292" s="3">
+        <v>1</v>
+      </c>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
-      <c r="K292" s="3">
-        <v>1</v>
-      </c>
+      <c r="K292" s="3"/>
       <c r="L292" s="3"/>
-      <c r="Q292">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P292" t="s">
+        <v>552</v>
+      </c>
+      <c r="R292">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>19</v>
       </c>
@@ -10420,19 +10468,19 @@
         <v>1</v>
       </c>
       <c r="L293" s="3"/>
-      <c r="Q293">
+      <c r="R293">
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>511</v>
-      </c>
-      <c r="B294" s="20" t="s">
-        <v>1</v>
+        <v>498</v>
+      </c>
+      <c r="B294" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C294" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>321</v>
@@ -10440,48 +10488,54 @@
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
-      <c r="I294" s="3"/>
+      <c r="I294" s="3">
+        <v>1</v>
+      </c>
       <c r="J294" s="3"/>
-      <c r="K294" s="3">
-        <v>1</v>
-      </c>
+      <c r="K294" s="3"/>
       <c r="L294" s="3"/>
-      <c r="Q294">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M294" t="s">
+        <v>499</v>
+      </c>
+      <c r="R294">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>562</v>
-      </c>
-      <c r="B295" t="s">
-        <v>203</v>
+        <v>476</v>
+      </c>
+      <c r="B295" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C295" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>321</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
       </c>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
-      <c r="H295" s="3">
-        <v>1</v>
-      </c>
+      <c r="H295" s="3"/>
       <c r="I295" s="3"/>
-      <c r="J295" s="3"/>
+      <c r="J295" s="3">
+        <v>1</v>
+      </c>
       <c r="K295" s="3"/>
       <c r="L295" s="3"/>
-      <c r="O295" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q295">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q295" t="s">
+        <v>377</v>
+      </c>
+      <c r="R295">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="B296" s="23" t="s">
         <v>24</v>
@@ -10492,28 +10546,25 @@
       <c r="D296" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F296" s="3"/>
+      <c r="F296" s="3">
+        <v>1</v>
+      </c>
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
-      <c r="I296" s="3">
-        <v>1</v>
-      </c>
+      <c r="I296" s="3"/>
       <c r="J296" s="3"/>
       <c r="K296" s="3"/>
       <c r="L296" s="3"/>
-      <c r="M296" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q296">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R296">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>500</v>
-      </c>
-      <c r="B297" s="23" t="s">
-        <v>24</v>
+        <v>530</v>
+      </c>
+      <c r="B297" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C297" s="13">
         <v>1</v>
@@ -10530,11 +10581,11 @@
       <c r="J297" s="3"/>
       <c r="K297" s="3"/>
       <c r="L297" s="3"/>
-      <c r="Q297">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R297">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>81</v>
       </c>
@@ -10556,19 +10607,19 @@
       <c r="J298" s="3"/>
       <c r="K298" s="3"/>
       <c r="L298" s="3"/>
-      <c r="O298" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q298">
+      <c r="P298" t="s">
+        <v>391</v>
+      </c>
+      <c r="R298">
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>541</v>
-      </c>
-      <c r="B299" s="14" t="s">
-        <v>87</v>
+        <v>557</v>
+      </c>
+      <c r="B299" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C299" s="13">
         <v>1</v>
@@ -10576,46 +10627,46 @@
       <c r="D299" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F299" s="3">
-        <v>1</v>
-      </c>
+      <c r="F299" s="3"/>
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
-      <c r="K299" s="3"/>
+      <c r="K299" s="3">
+        <v>1</v>
+      </c>
       <c r="L299" s="3"/>
-      <c r="Q299">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R299">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="B300" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C300" s="13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F300" s="3"/>
+      <c r="F300" s="3">
+        <v>1</v>
+      </c>
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
-      <c r="K300" s="3">
-        <v>1</v>
-      </c>
+      <c r="K300" s="3"/>
       <c r="L300" s="3"/>
-      <c r="Q300">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R300">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>100</v>
       </c>
@@ -10637,11 +10688,11 @@
         <v>1</v>
       </c>
       <c r="L301" s="3"/>
-      <c r="Q301">
+      <c r="R301">
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>116</v>
       </c>
@@ -10666,13 +10717,16 @@
         <v>1</v>
       </c>
       <c r="N302" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q302">
+        <v>607</v>
+      </c>
+      <c r="O302" t="s">
+        <v>602</v>
+      </c>
+      <c r="R302">
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>116</v>
       </c>
@@ -10697,39 +10751,44 @@
         <v>1</v>
       </c>
       <c r="N303" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q303">
+        <v>607</v>
+      </c>
+      <c r="O303" t="s">
+        <v>602</v>
+      </c>
+      <c r="R303">
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="B304" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C304" s="13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F304" s="3">
-        <v>1</v>
-      </c>
-      <c r="G304" s="3"/>
+      <c r="F304" s="3"/>
+      <c r="G304" s="3">
+        <v>1</v>
+      </c>
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
-      <c r="J304" s="3"/>
+      <c r="J304" s="3">
+        <v>1</v>
+      </c>
       <c r="K304" s="3"/>
       <c r="L304" s="3"/>
-      <c r="Q304">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R304">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>82</v>
       </c>
@@ -10754,13 +10813,13 @@
       <c r="M305" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="Q305">
+      <c r="R305">
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B306" t="s">
         <v>202</v>
@@ -10780,22 +10839,22 @@
       <c r="J306" s="3"/>
       <c r="K306" s="3"/>
       <c r="L306" s="3"/>
-      <c r="Q306">
+      <c r="R306">
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>598</v>
-      </c>
-      <c r="B307" s="20" t="s">
-        <v>1</v>
+        <v>586</v>
+      </c>
+      <c r="B307" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
@@ -10806,25 +10865,25 @@
       <c r="J307" s="3"/>
       <c r="K307" s="3"/>
       <c r="L307" s="3"/>
-      <c r="O307" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q307">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P307" t="s">
+        <v>400</v>
+      </c>
+      <c r="R307">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>609</v>
-      </c>
-      <c r="B308" s="15" t="s">
-        <v>198</v>
+        <v>586</v>
+      </c>
+      <c r="B308" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="C308" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
@@ -10835,22 +10894,22 @@
       <c r="J308" s="3"/>
       <c r="K308" s="3"/>
       <c r="L308" s="3"/>
-      <c r="O308" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q308">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P308" t="s">
+        <v>400</v>
+      </c>
+      <c r="R308">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="B309" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>361</v>
@@ -10864,22 +10923,22 @@
       <c r="J309" s="3"/>
       <c r="K309" s="3"/>
       <c r="L309" s="3"/>
-      <c r="O309" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q309">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P309" t="s">
+        <v>400</v>
+      </c>
+      <c r="R309">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="B310" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C310" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>361</v>
@@ -10893,22 +10952,22 @@
       <c r="J310" s="3"/>
       <c r="K310" s="3"/>
       <c r="L310" s="3"/>
-      <c r="O310" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q310">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P310" t="s">
+        <v>400</v>
+      </c>
+      <c r="R310">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="B311" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>361</v>
@@ -10922,22 +10981,22 @@
       <c r="J311" s="3"/>
       <c r="K311" s="3"/>
       <c r="L311" s="3"/>
-      <c r="O311" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q311">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P311" t="s">
+        <v>400</v>
+      </c>
+      <c r="R311">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="B312" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>361</v>
@@ -10951,25 +11010,25 @@
       <c r="J312" s="3"/>
       <c r="K312" s="3"/>
       <c r="L312" s="3"/>
-      <c r="O312" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q312">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P312" t="s">
+        <v>400</v>
+      </c>
+      <c r="R312">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>597</v>
-      </c>
-      <c r="B313" s="22" t="s">
-        <v>24</v>
+        <v>587</v>
+      </c>
+      <c r="B313" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
@@ -10980,25 +11039,25 @@
       <c r="J313" s="3"/>
       <c r="K313" s="3"/>
       <c r="L313" s="3"/>
-      <c r="O313" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q313">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P313" t="s">
+        <v>400</v>
+      </c>
+      <c r="R313">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>597</v>
-      </c>
-      <c r="B314" s="22" t="s">
-        <v>24</v>
+        <v>598</v>
+      </c>
+      <c r="B314" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="C314" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
@@ -11009,22 +11068,22 @@
       <c r="J314" s="3"/>
       <c r="K314" s="3"/>
       <c r="L314" s="3"/>
-      <c r="O314" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q314">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P314" t="s">
+        <v>400</v>
+      </c>
+      <c r="R314">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="B315" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>321</v>
@@ -11038,22 +11097,22 @@
       <c r="J315" s="3"/>
       <c r="K315" s="3"/>
       <c r="L315" s="3"/>
-      <c r="O315" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q315">
+      <c r="P315" t="s">
+        <v>400</v>
+      </c>
+      <c r="R315">
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="B316" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C316" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>321</v>
@@ -11067,22 +11126,22 @@
       <c r="J316" s="3"/>
       <c r="K316" s="3"/>
       <c r="L316" s="3"/>
-      <c r="O316" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q316">
+      <c r="P316" t="s">
+        <v>400</v>
+      </c>
+      <c r="R316">
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B317" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>321</v>
@@ -11096,14 +11155,14 @@
       <c r="J317" s="3"/>
       <c r="K317" s="3"/>
       <c r="L317" s="3"/>
-      <c r="O317" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q317">
+      <c r="P317" t="s">
+        <v>400</v>
+      </c>
+      <c r="R317">
         <v>315</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>20</v>
       </c>
@@ -11125,13 +11184,13 @@
       <c r="J318" s="3"/>
       <c r="K318" s="3"/>
       <c r="L318" s="3"/>
-      <c r="Q318">
+      <c r="R318">
         <v>316</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B319" t="s">
         <v>202</v>
@@ -11151,16 +11210,16 @@
       <c r="J319" s="3"/>
       <c r="K319" s="3"/>
       <c r="L319" s="3"/>
-      <c r="O319" t="s">
-        <v>565</v>
-      </c>
-      <c r="Q319">
+      <c r="P319" t="s">
+        <v>554</v>
+      </c>
+      <c r="R319">
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B320" s="15" t="s">
         <v>198</v>
@@ -11180,14 +11239,14 @@
       <c r="J320" s="3"/>
       <c r="K320" s="3"/>
       <c r="L320" s="3"/>
-      <c r="O320" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q320">
+      <c r="P320" t="s">
+        <v>469</v>
+      </c>
+      <c r="R320">
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>26</v>
       </c>
@@ -11212,14 +11271,14 @@
       <c r="J321" s="3"/>
       <c r="K321" s="3"/>
       <c r="L321" s="3"/>
-      <c r="O321" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q321">
+      <c r="P321" t="s">
+        <v>396</v>
+      </c>
+      <c r="R321">
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>162</v>
       </c>
@@ -11235,11 +11294,11 @@
       <c r="K322">
         <v>1</v>
       </c>
-      <c r="Q322">
+      <c r="R322">
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>83</v>
       </c>
@@ -11264,11 +11323,11 @@
       <c r="M323" t="s">
         <v>224</v>
       </c>
-      <c r="Q323">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R323">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>84</v>
       </c>
@@ -11290,11 +11349,11 @@
       <c r="J324" s="3"/>
       <c r="K324" s="3"/>
       <c r="L324" s="3"/>
-      <c r="Q324">
+      <c r="R324">
         <v>322</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>84</v>
       </c>
@@ -11316,13 +11375,13 @@
       <c r="J325" s="3"/>
       <c r="K325" s="3"/>
       <c r="L325" s="3"/>
-      <c r="Q325">
+      <c r="R325">
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B326" s="23" t="s">
         <v>24</v>
@@ -11342,14 +11401,14 @@
       <c r="J326" s="3"/>
       <c r="K326" s="3"/>
       <c r="L326" s="3"/>
-      <c r="O326" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q326">
+      <c r="P326" t="s">
+        <v>506</v>
+      </c>
+      <c r="R326">
         <v>324</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>21</v>
       </c>
@@ -11371,11 +11430,11 @@
       <c r="J327" s="3"/>
       <c r="K327" s="3"/>
       <c r="L327" s="3"/>
-      <c r="Q327">
+      <c r="R327">
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>21</v>
       </c>
@@ -11397,11 +11456,11 @@
       <c r="J328" s="3"/>
       <c r="K328" s="3"/>
       <c r="L328" s="3"/>
-      <c r="Q328">
+      <c r="R328">
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>101</v>
       </c>
@@ -11423,11 +11482,11 @@
       <c r="J329" s="3"/>
       <c r="K329" s="3"/>
       <c r="L329" s="3"/>
-      <c r="Q329">
+      <c r="R329">
         <v>327</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>101</v>
       </c>
@@ -11449,11 +11508,11 @@
       <c r="J330" s="3"/>
       <c r="K330" s="3"/>
       <c r="L330" s="3"/>
-      <c r="Q330">
+      <c r="R330">
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>152</v>
       </c>
@@ -11466,11 +11525,11 @@
       <c r="D331" t="s">
         <v>149</v>
       </c>
-      <c r="Q331">
+      <c r="R331">
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>156</v>
       </c>
@@ -11490,11 +11549,11 @@
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
-      <c r="Q332">
+      <c r="R332">
         <v>330</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>61</v>
       </c>
@@ -11516,11 +11575,11 @@
       <c r="J333" s="3"/>
       <c r="K333" s="3"/>
       <c r="L333" s="3"/>
-      <c r="Q333">
+      <c r="R333">
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>5</v>
       </c>
@@ -11545,14 +11604,14 @@
       <c r="J334" s="3"/>
       <c r="K334" s="3"/>
       <c r="L334" s="3"/>
-      <c r="O334" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q334">
+      <c r="P334" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="R334">
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>164</v>
       </c>
@@ -11568,14 +11627,14 @@
       <c r="H335">
         <v>1</v>
       </c>
-      <c r="O335" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q335">
+      <c r="P335" t="s">
+        <v>383</v>
+      </c>
+      <c r="R335">
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>40</v>
       </c>
@@ -11597,13 +11656,13 @@
       <c r="J336" s="3"/>
       <c r="K336" s="3"/>
       <c r="L336" s="3"/>
-      <c r="Q336">
+      <c r="R336">
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B337" s="15" t="s">
         <v>198</v>
@@ -11623,13 +11682,13 @@
         <v>1</v>
       </c>
       <c r="L337" s="3"/>
-      <c r="Q337">
+      <c r="R337">
         <v>335</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B338" s="15" t="s">
         <v>198</v>
@@ -11649,13 +11708,13 @@
         <v>1</v>
       </c>
       <c r="L338" s="3"/>
-      <c r="Q338">
+      <c r="R338">
         <v>336</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B339" s="14" t="s">
         <v>87</v>
@@ -11675,13 +11734,13 @@
       <c r="J339" s="3"/>
       <c r="K339" s="3"/>
       <c r="L339" s="3"/>
-      <c r="Q339">
+      <c r="R339">
         <v>337</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="B340" s="12" t="s">
         <v>62</v>
@@ -11701,16 +11760,16 @@
       <c r="J340" s="3"/>
       <c r="K340" s="3"/>
       <c r="L340" s="3"/>
-      <c r="Q340">
+      <c r="R340">
         <v>338</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="B341" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C341" s="13">
         <v>-2</v>
@@ -11727,13 +11786,13 @@
       <c r="J341" s="3"/>
       <c r="K341" s="3"/>
       <c r="L341" s="3"/>
-      <c r="Q341">
+      <c r="R341">
         <v>339</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B342" s="21" t="s">
         <v>24</v>
@@ -11754,15 +11813,18 @@
         <v>1</v>
       </c>
       <c r="N342" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q342">
+        <v>610</v>
+      </c>
+      <c r="O342" t="s">
+        <v>603</v>
+      </c>
+      <c r="R342">
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B343" s="21" t="s">
         <v>24</v>
@@ -11783,15 +11845,18 @@
         <v>1</v>
       </c>
       <c r="N343" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q343">
+        <v>610</v>
+      </c>
+      <c r="O343" t="s">
+        <v>603</v>
+      </c>
+      <c r="R343">
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B344" s="20" t="s">
         <v>1</v>
@@ -11811,13 +11876,13 @@
       <c r="J344" s="3"/>
       <c r="K344" s="3"/>
       <c r="L344" s="3"/>
-      <c r="Q344">
+      <c r="R344">
         <v>342</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B345" s="23" t="s">
         <v>24</v>
@@ -11837,13 +11902,13 @@
       <c r="J345" s="3"/>
       <c r="K345" s="3"/>
       <c r="L345" s="3"/>
-      <c r="Q345">
+      <c r="R345">
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="B346" s="15" t="s">
         <v>198</v>
@@ -11863,11 +11928,11 @@
       <c r="J346" s="3"/>
       <c r="K346" s="3"/>
       <c r="L346" s="3"/>
-      <c r="Q346">
+      <c r="R346">
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>41</v>
       </c>
@@ -11889,11 +11954,11 @@
       <c r="J347" s="3"/>
       <c r="K347" s="3"/>
       <c r="L347" s="3"/>
-      <c r="Q347">
+      <c r="R347">
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>119</v>
       </c>
@@ -11915,13 +11980,13 @@
       <c r="J348" s="3"/>
       <c r="K348" s="3"/>
       <c r="L348" s="3"/>
-      <c r="Q348">
+      <c r="R348">
         <v>346</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="B349" s="15" t="s">
         <v>198</v>
@@ -11941,13 +12006,13 @@
         <v>1</v>
       </c>
       <c r="L349" s="3"/>
-      <c r="Q349">
+      <c r="R349">
         <v>347</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B350" s="12" t="s">
         <v>62</v>
@@ -11967,11 +12032,11 @@
       <c r="J350" s="3"/>
       <c r="K350" s="3"/>
       <c r="L350" s="3"/>
-      <c r="Q350">
+      <c r="R350">
         <v>348</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>63</v>
       </c>
@@ -11994,11 +12059,11 @@
       <c r="J351" s="3"/>
       <c r="K351" s="3"/>
       <c r="L351" s="3"/>
-      <c r="Q351">
+      <c r="R351">
         <v>349</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>85</v>
       </c>
@@ -12020,11 +12085,11 @@
       <c r="J352" s="3"/>
       <c r="K352" s="3"/>
       <c r="L352" s="3"/>
-      <c r="Q352">
+      <c r="R352">
         <v>350</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>64</v>
       </c>
@@ -12051,19 +12116,19 @@
       </c>
       <c r="K353" s="3"/>
       <c r="L353" s="3"/>
-      <c r="O353" s="16" t="s">
-        <v>423</v>
-      </c>
       <c r="P353" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q353">
+        <v>412</v>
+      </c>
+      <c r="Q353" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="R353">
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="B354" s="12" t="s">
         <v>62</v>
@@ -12083,14 +12148,14 @@
       <c r="J354" s="3"/>
       <c r="K354" s="3"/>
       <c r="L354" s="3"/>
-      <c r="O354" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q354">
+      <c r="P354" t="s">
+        <v>564</v>
+      </c>
+      <c r="R354">
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>102</v>
       </c>
@@ -12112,13 +12177,13 @@
       <c r="J355" s="3"/>
       <c r="K355" s="3"/>
       <c r="L355" s="3"/>
-      <c r="Q355">
+      <c r="R355">
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B356" s="15" t="s">
         <v>198</v>
@@ -12138,11 +12203,11 @@
       <c r="J356" s="3"/>
       <c r="K356" s="3"/>
       <c r="L356" s="3"/>
-      <c r="Q356">
+      <c r="R356">
         <v>354</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>103</v>
       </c>
@@ -12167,13 +12232,13 @@
       <c r="M357" t="s">
         <v>225</v>
       </c>
-      <c r="Q357">
+      <c r="R357">
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="B358" s="14" t="s">
         <v>87</v>
@@ -12193,13 +12258,13 @@
         <v>1</v>
       </c>
       <c r="L358" s="3"/>
-      <c r="Q358">
+      <c r="R358">
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="B359" s="20" t="s">
         <v>1</v>
@@ -12220,16 +12285,16 @@
       <c r="J359" s="3"/>
       <c r="K359" s="3"/>
       <c r="L359" s="3"/>
-      <c r="Q359">
+      <c r="R359">
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>200</v>
       </c>
       <c r="B360" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="C360" s="13">
         <v>4</v>
@@ -12249,16 +12314,16 @@
         <v>1</v>
       </c>
       <c r="L360" s="3"/>
-      <c r="Q360">
+      <c r="R360">
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>200</v>
       </c>
       <c r="B361" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="C361" s="13">
         <v>4</v>
@@ -12278,13 +12343,13 @@
         <v>1</v>
       </c>
       <c r="L361" s="3"/>
-      <c r="Q361">
+      <c r="R361">
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="B362" s="20" t="s">
         <v>1</v>
@@ -12304,11 +12369,11 @@
       <c r="J362" s="3"/>
       <c r="K362" s="3"/>
       <c r="L362" s="3"/>
-      <c r="Q362">
+      <c r="R362">
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>143</v>
       </c>
@@ -12324,11 +12389,11 @@
       <c r="G363">
         <v>1</v>
       </c>
-      <c r="Q363">
+      <c r="R363">
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>42</v>
       </c>
@@ -12350,13 +12415,13 @@
         <v>1</v>
       </c>
       <c r="L364" s="3"/>
-      <c r="Q364">
+      <c r="R364">
         <v>362</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="B365" s="14" t="s">
         <v>87</v>
@@ -12376,13 +12441,13 @@
       <c r="J365" s="3"/>
       <c r="K365" s="3"/>
       <c r="L365" s="3"/>
-      <c r="Q365">
+      <c r="R365">
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B366" s="12" t="s">
         <v>62</v>
@@ -12405,11 +12470,11 @@
       <c r="M366" t="s">
         <v>224</v>
       </c>
-      <c r="Q366">
+      <c r="R366">
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>144</v>
       </c>
@@ -12425,12 +12490,12 @@
       <c r="G367">
         <v>1</v>
       </c>
-      <c r="Q367">
+      <c r="R367">
         <v>365</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:R219">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:S219">
     <sortCondition descending="1" ref="F1:F219"/>
     <sortCondition ref="A1:A219"/>
   </sortState>
@@ -12855,7 +12920,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>257</v>
@@ -12872,7 +12937,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>257</v>
@@ -13023,7 +13088,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>257</v>
@@ -13253,7 +13318,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>257</v>

--- a/DoomPy/files/cards.xlsx
+++ b/DoomPy/files/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/DoomPy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0331BF4B-56A4-6F40-976A-7E469001DD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BCE75B-0FC6-C246-BB8A-C01DAE4A8028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="880" windowWidth="30500" windowHeight="21640" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
+    <workbookView xWindow="6180" yWindow="880" windowWidth="31260" windowHeight="21640" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
   <sheets>
     <sheet name="traits" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="617">
   <si>
     <t>Echolocation</t>
   </si>
@@ -2247,7 +2247,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}" name="Tabelle2" displayName="Tabelle2" ref="A1:X367" totalsRowShown="0">
   <autoFilter ref="A1:X367" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X367">
-    <sortCondition ref="A1:A367"/>
+    <sortCondition ref="W1:W367"/>
   </sortState>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{8166F61C-4699-3D4C-9D61-28AD00136FEA}" name="trait"/>
@@ -2595,9 +2595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AE435C-BBFF-4D4C-B457-AFC1FAEE6491}">
   <dimension ref="A1:X367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A254" sqref="A254"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W233" sqref="W233:W260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3133,6 +3133,9 @@
       <c r="W16">
         <v>14</v>
       </c>
+      <c r="X16" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -3738,65 +3741,68 @@
       <c r="W37">
         <v>35</v>
       </c>
+      <c r="X37" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>362</v>
+        <v>206</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>365</v>
+      <c r="C38" s="9">
+        <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
+      <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="S38" t="s">
-        <v>398</v>
-      </c>
       <c r="W38">
-        <v>37</v>
-      </c>
-      <c r="X38" s="24" t="s">
-        <v>594</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>362</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C39" s="9">
-        <v>1</v>
+      <c r="C39" s="13" t="s">
+        <v>365</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
+      <c r="S39" t="s">
+        <v>398</v>
+      </c>
       <c r="W39">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="X39" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
@@ -4374,6 +4380,9 @@
       <c r="M57" s="3"/>
       <c r="W57">
         <v>55</v>
+      </c>
+      <c r="X57" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
@@ -4519,6 +4528,9 @@
       <c r="W62">
         <v>60</v>
       </c>
+      <c r="X62" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -4846,6 +4858,9 @@
       <c r="W73">
         <v>71</v>
       </c>
+      <c r="X73" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -4902,6 +4917,9 @@
       <c r="M75" s="3"/>
       <c r="W75">
         <v>73</v>
+      </c>
+      <c r="X75" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
@@ -4931,6 +4949,9 @@
       <c r="W76">
         <v>74</v>
       </c>
+      <c r="X76" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -5247,6 +5268,9 @@
       </c>
       <c r="W88">
         <v>86</v>
+      </c>
+      <c r="X88" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
@@ -5527,6 +5551,9 @@
       <c r="W98">
         <v>96</v>
       </c>
+      <c r="X98" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
@@ -5645,6 +5672,9 @@
       <c r="W102">
         <v>100</v>
       </c>
+      <c r="X102" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
@@ -6152,6 +6182,9 @@
       <c r="W118">
         <v>116</v>
       </c>
+      <c r="X118" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -6237,6 +6270,9 @@
       <c r="W121">
         <v>119</v>
       </c>
+      <c r="X121" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -6297,13 +6333,13 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>363</v>
+        <v>211</v>
       </c>
       <c r="B124" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C124" s="13" t="s">
-        <v>365</v>
+      <c r="C124" s="9">
+        <v>1</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>355</v>
@@ -6319,10 +6355,10 @@
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
       <c r="S124" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="W124">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X124" s="24" t="s">
         <v>594</v>
@@ -6330,13 +6366,13 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>211</v>
+        <v>363</v>
       </c>
       <c r="B125" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C125" s="9">
-        <v>1</v>
+      <c r="C125" s="13" t="s">
+        <v>365</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>355</v>
@@ -6352,10 +6388,10 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
       <c r="S125" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="W125">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X125" s="24" t="s">
         <v>594</v>
@@ -6458,69 +6494,104 @@
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>146</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C129" s="13">
-        <v>2</v>
-      </c>
-      <c r="D129" t="s">
-        <v>130</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C129" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3">
+        <v>1</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>191</v>
+      </c>
+      <c r="R129" t="s">
+        <v>3</v>
+      </c>
+      <c r="S129" t="s">
+        <v>377</v>
       </c>
       <c r="W129">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="X129" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>146</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C130" s="13">
-        <v>2</v>
-      </c>
-      <c r="D130" t="s">
-        <v>130</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C130" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3">
+        <v>1</v>
+      </c>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>191</v>
+      </c>
+      <c r="R130" t="s">
+        <v>3</v>
+      </c>
+      <c r="S130" t="s">
+        <v>377</v>
       </c>
       <c r="W130">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="X130" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>12</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C131" s="9">
-        <v>1</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3">
-        <v>1</v>
-      </c>
-      <c r="L131" s="3"/>
-      <c r="M131" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C131" s="13">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>130</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
       <c r="W131">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="X131" s="24" t="s">
         <v>594</v>
@@ -6528,40 +6599,22 @@
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>111</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C132" s="9">
-        <v>-1</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3">
-        <v>1</v>
-      </c>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
-      <c r="M132" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>191</v>
-      </c>
-      <c r="R132" t="s">
-        <v>3</v>
-      </c>
-      <c r="S132" t="s">
-        <v>377</v>
+        <v>146</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C132" s="13">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>130</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
       </c>
       <c r="W132">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="X132" s="24" t="s">
         <v>594</v>
@@ -6569,40 +6622,29 @@
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>111</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>197</v>
+        <v>12</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>1</v>
       </c>
       <c r="C133" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>103</v>
+        <v>355</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="3">
-        <v>1</v>
-      </c>
+      <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
+      <c r="K133" s="3">
+        <v>1</v>
+      </c>
       <c r="L133" s="3"/>
-      <c r="M133" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>191</v>
-      </c>
-      <c r="R133" t="s">
-        <v>3</v>
-      </c>
-      <c r="S133" t="s">
-        <v>377</v>
-      </c>
+      <c r="M133" s="3"/>
       <c r="W133">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="X133" s="24" t="s">
         <v>594</v>
@@ -7888,6 +7930,9 @@
       <c r="W174">
         <v>172</v>
       </c>
+      <c r="X174" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
@@ -8008,6 +8053,9 @@
       <c r="M178" s="3"/>
       <c r="W178">
         <v>176</v>
+      </c>
+      <c r="X178" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="179" spans="1:24" x14ac:dyDescent="0.2">
@@ -8543,6 +8591,9 @@
       <c r="W195">
         <v>193</v>
       </c>
+      <c r="X195" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
@@ -8685,6 +8736,9 @@
       <c r="W199">
         <v>197</v>
       </c>
+      <c r="X199" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
@@ -8710,6 +8764,9 @@
       <c r="W200">
         <v>198</v>
       </c>
+      <c r="X200" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
@@ -8803,6 +8860,9 @@
       </c>
       <c r="W203">
         <v>201</v>
+      </c>
+      <c r="X203" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.2">
@@ -8921,6 +8981,9 @@
       <c r="M207" s="3"/>
       <c r="W207">
         <v>205</v>
+      </c>
+      <c r="X207" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.2">
@@ -9118,6 +9181,9 @@
       </c>
       <c r="W213">
         <v>211</v>
+      </c>
+      <c r="X213" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.2">
@@ -9170,6 +9236,9 @@
       <c r="W215">
         <v>213</v>
       </c>
+      <c r="X215" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
@@ -9189,6 +9258,9 @@
       </c>
       <c r="W216">
         <v>214</v>
+      </c>
+      <c r="X216" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="217" spans="1:24" x14ac:dyDescent="0.2">
@@ -9349,6 +9421,9 @@
       <c r="W221">
         <v>219</v>
       </c>
+      <c r="X221" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
@@ -9490,6 +9565,9 @@
       <c r="W226">
         <v>224</v>
       </c>
+      <c r="X226" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
@@ -9516,6 +9594,9 @@
       <c r="M227" s="3"/>
       <c r="W227">
         <v>225</v>
+      </c>
+      <c r="X227" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="228" spans="1:24" x14ac:dyDescent="0.2">
@@ -9688,6 +9769,9 @@
       <c r="W233">
         <v>231</v>
       </c>
+      <c r="X233" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
@@ -10018,6 +10102,9 @@
       <c r="W245">
         <v>243</v>
       </c>
+      <c r="X245" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
@@ -10038,6 +10125,9 @@
       <c r="W246">
         <v>244</v>
       </c>
+      <c r="X246" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
@@ -10057,6 +10147,9 @@
       </c>
       <c r="W247">
         <v>245</v>
+      </c>
+      <c r="X247" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="248" spans="1:24" x14ac:dyDescent="0.2">
@@ -10210,6 +10303,9 @@
       <c r="W252">
         <v>250</v>
       </c>
+      <c r="X252" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
@@ -10235,6 +10331,9 @@
       <c r="W253">
         <v>251</v>
       </c>
+      <c r="X253" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
@@ -10262,6 +10361,9 @@
       <c r="W254">
         <v>252</v>
       </c>
+      <c r="X254" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
@@ -10281,6 +10383,9 @@
       </c>
       <c r="W255">
         <v>253</v>
+      </c>
+      <c r="X255" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="256" spans="1:24" x14ac:dyDescent="0.2">
@@ -10656,6 +10761,9 @@
       <c r="W267">
         <v>265</v>
       </c>
+      <c r="X267" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
@@ -10736,6 +10844,9 @@
       <c r="M270" s="3"/>
       <c r="W270">
         <v>268</v>
+      </c>
+      <c r="X270" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="271" spans="1:24" x14ac:dyDescent="0.2">
@@ -11872,16 +11983,16 @@
     </row>
     <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>571</v>
-      </c>
-      <c r="B307" s="20" t="s">
-        <v>1</v>
+        <v>570</v>
+      </c>
+      <c r="B307" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="C307" s="13" t="s">
         <v>365</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
@@ -11897,7 +12008,7 @@
         <v>390</v>
       </c>
       <c r="W307">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="X307" s="24" t="s">
         <v>594</v>
@@ -11905,16 +12016,16 @@
     </row>
     <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>581</v>
-      </c>
-      <c r="B308" s="15" t="s">
-        <v>197</v>
+        <v>570</v>
+      </c>
+      <c r="B308" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="C308" s="13" t="s">
         <v>365</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
@@ -11930,7 +12041,7 @@
         <v>390</v>
       </c>
       <c r="W308">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="X308" s="24" t="s">
         <v>594</v>
@@ -11963,7 +12074,7 @@
         <v>390</v>
       </c>
       <c r="W309">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="X309" s="24" t="s">
         <v>594</v>
@@ -11996,7 +12107,7 @@
         <v>390</v>
       </c>
       <c r="W310">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="X310" s="24" t="s">
         <v>594</v>
@@ -12029,7 +12140,7 @@
         <v>390</v>
       </c>
       <c r="W311">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X311" s="24" t="s">
         <v>594</v>
@@ -12062,7 +12173,7 @@
         <v>390</v>
       </c>
       <c r="W312">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X312" s="24" t="s">
         <v>594</v>
@@ -12070,16 +12181,16 @@
     </row>
     <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>570</v>
-      </c>
-      <c r="B313" s="22" t="s">
-        <v>24</v>
+        <v>571</v>
+      </c>
+      <c r="B313" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C313" s="13" t="s">
         <v>365</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
@@ -12095,7 +12206,7 @@
         <v>390</v>
       </c>
       <c r="W313">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="X313" s="24" t="s">
         <v>594</v>
@@ -12103,16 +12214,16 @@
     </row>
     <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>570</v>
-      </c>
-      <c r="B314" s="22" t="s">
-        <v>24</v>
+        <v>581</v>
+      </c>
+      <c r="B314" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="C314" s="13" t="s">
         <v>365</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
@@ -12128,7 +12239,7 @@
         <v>390</v>
       </c>
       <c r="W314">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="X314" s="24" t="s">
         <v>594</v>
@@ -12635,6 +12746,9 @@
       <c r="W331">
         <v>329</v>
       </c>
+      <c r="X331" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="332" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
@@ -13068,6 +13182,9 @@
       <c r="M346" s="3"/>
       <c r="W346">
         <v>344</v>
+      </c>
+      <c r="X346" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="347" spans="1:24" x14ac:dyDescent="0.2">
@@ -13578,6 +13695,9 @@
       <c r="W363">
         <v>361</v>
       </c>
+      <c r="X363" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
@@ -13692,6 +13812,9 @@
       </c>
       <c r="W367">
         <v>365</v>
+      </c>
+      <c r="X367" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>

--- a/DoomPy/files/cards.xlsx
+++ b/DoomPy/files/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/DoomPy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BCE75B-0FC6-C246-BB8A-C01DAE4A8028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C84CFBA-94A2-C44F-8665-DDC82B666DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="880" windowWidth="31260" windowHeight="21640" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
+    <workbookView xWindow="1640" yWindow="880" windowWidth="34360" windowHeight="21640" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
   <sheets>
     <sheet name="traits" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="617">
   <si>
     <t>Echolocation</t>
   </si>
@@ -2044,24 +2044,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2087,6 +2069,24 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2247,7 +2247,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}" name="Tabelle2" displayName="Tabelle2" ref="A1:X367" totalsRowShown="0">
   <autoFilter ref="A1:X367" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X367">
-    <sortCondition ref="W1:W367"/>
+    <sortCondition ref="A1:A367"/>
   </sortState>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{8166F61C-4699-3D4C-9D61-28AD00136FEA}" name="trait"/>
@@ -2261,8 +2261,8 @@
     <tableColumn id="17" xr3:uid="{56C331E6-086C-B74A-B509-520DFB7181F6}" name="gene_pool" dataDxfId="5"/>
     <tableColumn id="18" xr3:uid="{76418466-3B9D-6048-80E3-690DEC50E74E}" name="worlds_end" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{5FC9496A-D300-0447-A155-EF65E2E0A70D}" name="effectless" dataDxfId="3"/>
-    <tableColumn id="25" xr3:uid="{B500B51A-0147-674C-9317-829EA8A15B54}" name="requirement" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{4FE6ABC4-B4EE-1242-BA77-A00BB170BB1F}" name="attachment" dataDxfId="2"/>
+    <tableColumn id="25" xr3:uid="{B500B51A-0147-674C-9317-829EA8A15B54}" name="requirement" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{4FE6ABC4-B4EE-1242-BA77-A00BB170BB1F}" name="attachment" dataDxfId="1"/>
     <tableColumn id="12" xr3:uid="{158FD56B-9FED-6144-BC1B-BC4F62C6C809}" name="gene_pool_target"/>
     <tableColumn id="21" xr3:uid="{4839B0A0-8B56-0C4F-9B43-9687CAB02CC6}" name="gene_pool_rule"/>
     <tableColumn id="19" xr3:uid="{93F44E7A-37B7-624E-9ACC-6633F60F8001}" name="gene_pool_effect"/>
@@ -2273,7 +2273,7 @@
     <tableColumn id="24" xr3:uid="{77E47952-8A57-1146-B89E-226435713E4C}" name="trait_effect"/>
     <tableColumn id="23" xr3:uid="{E499AC6D-7EAF-6B4C-B132-B10BD5BAE254}" name="trait_effect_rule"/>
     <tableColumn id="3" xr3:uid="{F35E4567-14CB-9741-8C79-F7ABE066199C}" name="id"/>
-    <tableColumn id="16" xr3:uid="{97612D27-253B-B742-94CC-92285CED241C}" name="check" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{97612D27-253B-B742-94CC-92285CED241C}" name="check" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2596,8 +2596,8 @@
   <dimension ref="A1:X367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W233" sqref="W233:W260"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y318" sqref="Y318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2818,6 +2818,9 @@
       <c r="W5">
         <v>3</v>
       </c>
+      <c r="X5" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2912,6 +2915,9 @@
       <c r="W8">
         <v>6</v>
       </c>
+      <c r="X8" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2931,6 +2937,9 @@
       </c>
       <c r="W9">
         <v>7</v>
+      </c>
+      <c r="X9" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -2958,6 +2967,9 @@
       <c r="M10" s="3"/>
       <c r="W10">
         <v>8</v>
+      </c>
+      <c r="X10" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -3113,6 +3125,9 @@
       <c r="W15">
         <v>13</v>
       </c>
+      <c r="X15" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3155,6 +3170,9 @@
       </c>
       <c r="W17">
         <v>15</v>
+      </c>
+      <c r="X17" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -3216,6 +3234,9 @@
       <c r="W19">
         <v>17</v>
       </c>
+      <c r="X19" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -3303,6 +3324,9 @@
       <c r="W22">
         <v>20</v>
       </c>
+      <c r="X22" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -3396,6 +3420,9 @@
       <c r="W25">
         <v>23</v>
       </c>
+      <c r="X25" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -3647,6 +3674,9 @@
       <c r="W33">
         <v>31</v>
       </c>
+      <c r="X33" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -3667,6 +3697,9 @@
       <c r="W34">
         <v>32</v>
       </c>
+      <c r="X34" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -3686,6 +3719,9 @@
       </c>
       <c r="W35">
         <v>33</v>
+      </c>
+      <c r="X35" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
@@ -3714,6 +3750,9 @@
       <c r="W36">
         <v>34</v>
       </c>
+      <c r="X36" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -3747,59 +3786,62 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>362</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="9">
-        <v>1</v>
+      <c r="C38" s="13" t="s">
+        <v>365</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
+      <c r="S38" t="s">
+        <v>398</v>
+      </c>
       <c r="W38">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="X38" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>362</v>
+        <v>206</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>365</v>
+      <c r="C39" s="9">
+        <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="3">
-        <v>1</v>
-      </c>
+      <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-      <c r="S39" t="s">
-        <v>398</v>
-      </c>
       <c r="W39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X39" s="24" t="s">
         <v>594</v>
@@ -3973,6 +4015,9 @@
       <c r="W44">
         <v>42</v>
       </c>
+      <c r="X44" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -4067,6 +4112,9 @@
       <c r="W47">
         <v>45</v>
       </c>
+      <c r="X47" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -4094,6 +4142,9 @@
       <c r="W48">
         <v>46</v>
       </c>
+      <c r="X48" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -4121,6 +4172,9 @@
       <c r="W49">
         <v>47</v>
       </c>
+      <c r="X49" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -4321,6 +4375,9 @@
       <c r="W55">
         <v>53</v>
       </c>
+      <c r="X55" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -4449,6 +4506,9 @@
       <c r="W59">
         <v>57</v>
       </c>
+      <c r="X59" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -4476,6 +4536,9 @@
       <c r="W60">
         <v>58</v>
       </c>
+      <c r="X60" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -4502,6 +4565,9 @@
       <c r="M61" s="3"/>
       <c r="W61">
         <v>59</v>
+      </c>
+      <c r="X61" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
@@ -4558,6 +4624,9 @@
       <c r="W63">
         <v>61</v>
       </c>
+      <c r="X63" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -4688,6 +4757,9 @@
       <c r="M67" s="3"/>
       <c r="W67">
         <v>65</v>
+      </c>
+      <c r="X67" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
@@ -4972,6 +5044,9 @@
       <c r="W77">
         <v>75</v>
       </c>
+      <c r="X77" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -5045,6 +5120,9 @@
       <c r="W80">
         <v>78</v>
       </c>
+      <c r="X80" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -5102,6 +5180,9 @@
       <c r="W82">
         <v>80</v>
       </c>
+      <c r="X82" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -5324,6 +5405,9 @@
       </c>
       <c r="W90">
         <v>88</v>
+      </c>
+      <c r="X90" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
@@ -5388,6 +5472,9 @@
       <c r="W92">
         <v>90</v>
       </c>
+      <c r="X92" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -5415,6 +5502,9 @@
       <c r="W93">
         <v>91</v>
       </c>
+      <c r="X93" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -5434,6 +5524,9 @@
       </c>
       <c r="W94">
         <v>92</v>
+      </c>
+      <c r="X94" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
@@ -5647,6 +5740,9 @@
       <c r="W101">
         <v>99</v>
       </c>
+      <c r="X101" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
@@ -5702,6 +5798,9 @@
       <c r="W103">
         <v>101</v>
       </c>
+      <c r="X103" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -5925,6 +6024,9 @@
       <c r="M110" s="3"/>
       <c r="W110">
         <v>108</v>
+      </c>
+      <c r="X110" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
@@ -6300,6 +6402,9 @@
       <c r="W122">
         <v>120</v>
       </c>
+      <c r="X122" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -6333,13 +6438,13 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>211</v>
+        <v>363</v>
       </c>
       <c r="B124" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C124" s="9">
-        <v>1</v>
+      <c r="C124" s="13" t="s">
+        <v>365</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>355</v>
@@ -6355,10 +6460,10 @@
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
       <c r="S124" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="W124">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X124" s="24" t="s">
         <v>594</v>
@@ -6366,13 +6471,13 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>363</v>
+        <v>211</v>
       </c>
       <c r="B125" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C125" s="13" t="s">
-        <v>365</v>
+      <c r="C125" s="9">
+        <v>1</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>355</v>
@@ -6388,10 +6493,10 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
       <c r="S125" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="W125">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X125" s="24" t="s">
         <v>594</v>
@@ -6494,40 +6599,22 @@
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>111</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C129" s="9">
-        <v>-1</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3">
-        <v>1</v>
-      </c>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-      <c r="L129" s="3"/>
-      <c r="M129" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>191</v>
-      </c>
-      <c r="R129" t="s">
-        <v>3</v>
-      </c>
-      <c r="S129" t="s">
-        <v>377</v>
+        <v>146</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" s="13">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>130</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
       </c>
       <c r="W129">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="X129" s="24" t="s">
         <v>594</v>
@@ -6535,40 +6622,22 @@
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>111</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C130" s="9">
-        <v>-1</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3">
-        <v>1</v>
-      </c>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q130" t="s">
-        <v>191</v>
-      </c>
-      <c r="R130" t="s">
-        <v>3</v>
-      </c>
-      <c r="S130" t="s">
-        <v>377</v>
+        <v>146</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C130" s="13">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>130</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
       </c>
       <c r="W130">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="X130" s="24" t="s">
         <v>594</v>
@@ -6576,22 +6645,29 @@
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>146</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C131" s="13">
-        <v>2</v>
-      </c>
-      <c r="D131" t="s">
-        <v>130</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="9">
+        <v>1</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3">
+        <v>1</v>
+      </c>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
       <c r="W131">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="X131" s="24" t="s">
         <v>594</v>
@@ -6599,22 +6675,40 @@
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>146</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C132" s="13">
-        <v>2</v>
-      </c>
-      <c r="D132" t="s">
-        <v>130</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C132" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3">
+        <v>1</v>
+      </c>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>191</v>
+      </c>
+      <c r="R132" t="s">
+        <v>3</v>
+      </c>
+      <c r="S132" t="s">
+        <v>377</v>
       </c>
       <c r="W132">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="X132" s="24" t="s">
         <v>594</v>
@@ -6622,29 +6716,40 @@
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>12</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="C133" s="9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>355</v>
+        <v>103</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
+      <c r="H133" s="3">
+        <v>1</v>
+      </c>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="3">
-        <v>1</v>
-      </c>
+      <c r="K133" s="3"/>
       <c r="L133" s="3"/>
-      <c r="M133" s="3"/>
+      <c r="M133" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>191</v>
+      </c>
+      <c r="R133" t="s">
+        <v>3</v>
+      </c>
+      <c r="S133" t="s">
+        <v>377</v>
+      </c>
       <c r="W133">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="X133" s="24" t="s">
         <v>594</v>
@@ -6709,6 +6814,9 @@
       <c r="W135">
         <v>133</v>
       </c>
+      <c r="X135" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -6735,6 +6843,9 @@
       <c r="M136" s="3"/>
       <c r="W136">
         <v>134</v>
+      </c>
+      <c r="X136" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.2">
@@ -6890,6 +7001,9 @@
       <c r="W141">
         <v>139</v>
       </c>
+      <c r="X141" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
@@ -7014,6 +7128,9 @@
       <c r="W145">
         <v>143</v>
       </c>
+      <c r="X145" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
@@ -7041,6 +7158,9 @@
       <c r="W146">
         <v>144</v>
       </c>
+      <c r="X146" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
@@ -7068,6 +7188,9 @@
       <c r="W147">
         <v>145</v>
       </c>
+      <c r="X147" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
@@ -7220,6 +7343,9 @@
       <c r="W152">
         <v>150</v>
       </c>
+      <c r="X152" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
@@ -7326,6 +7452,9 @@
       <c r="W155">
         <v>153</v>
       </c>
+      <c r="X155" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
@@ -7353,6 +7482,9 @@
       <c r="W156">
         <v>154</v>
       </c>
+      <c r="X156" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
@@ -7379,6 +7511,9 @@
       <c r="M157" s="3"/>
       <c r="W157">
         <v>155</v>
+      </c>
+      <c r="X157" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.2">
@@ -7444,6 +7579,9 @@
       <c r="W159">
         <v>157</v>
       </c>
+      <c r="X159" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
@@ -7471,6 +7609,9 @@
       <c r="W160">
         <v>158</v>
       </c>
+      <c r="X160" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
@@ -8185,6 +8326,9 @@
       <c r="M182" s="3"/>
       <c r="W182">
         <v>180</v>
+      </c>
+      <c r="X182" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.2">
@@ -8351,6 +8495,9 @@
       <c r="W187">
         <v>185</v>
       </c>
+      <c r="X187" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
@@ -8403,6 +8550,9 @@
       </c>
       <c r="W189">
         <v>187</v>
+      </c>
+      <c r="X189" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="190" spans="1:24" x14ac:dyDescent="0.2">
@@ -8955,6 +9105,9 @@
       <c r="W206">
         <v>204</v>
       </c>
+      <c r="X206" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
@@ -9042,6 +9195,9 @@
       <c r="W209">
         <v>207</v>
       </c>
+      <c r="X209" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
@@ -9140,6 +9296,9 @@
       <c r="W212">
         <v>210</v>
       </c>
+      <c r="X212" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
@@ -9173,10 +9332,31 @@
         <v>1</v>
       </c>
       <c r="M213" s="3"/>
+      <c r="N213" t="s">
+        <v>505</v>
+      </c>
+      <c r="O213" t="s">
+        <v>505</v>
+      </c>
+      <c r="P213" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>505</v>
+      </c>
+      <c r="R213" t="s">
+        <v>505</v>
+      </c>
       <c r="S213" t="s">
         <v>505</v>
       </c>
       <c r="T213" t="s">
+        <v>505</v>
+      </c>
+      <c r="U213" t="s">
+        <v>505</v>
+      </c>
+      <c r="V213" t="s">
         <v>505</v>
       </c>
       <c r="W213">
@@ -9394,6 +9574,9 @@
       <c r="W220">
         <v>218</v>
       </c>
+      <c r="X220" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
@@ -9484,6 +9667,9 @@
       <c r="W223">
         <v>221</v>
       </c>
+      <c r="X223" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
@@ -9511,6 +9697,9 @@
       <c r="W224">
         <v>222</v>
       </c>
+      <c r="X224" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
@@ -9538,6 +9727,9 @@
       <c r="W225">
         <v>223</v>
       </c>
+      <c r="X225" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
@@ -9625,6 +9817,9 @@
       <c r="W228">
         <v>226</v>
       </c>
+      <c r="X228" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
@@ -9652,6 +9847,9 @@
       <c r="W229">
         <v>227</v>
       </c>
+      <c r="X229" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
@@ -9742,6 +9940,9 @@
       <c r="W232">
         <v>230</v>
       </c>
+      <c r="X232" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
@@ -9832,6 +10033,9 @@
       <c r="W235">
         <v>233</v>
       </c>
+      <c r="X235" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
@@ -9851,6 +10055,9 @@
       </c>
       <c r="W236">
         <v>234</v>
+      </c>
+      <c r="X236" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="237" spans="1:24" x14ac:dyDescent="0.2">
@@ -9915,6 +10122,9 @@
       <c r="W238">
         <v>236</v>
       </c>
+      <c r="X238" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
@@ -9935,6 +10145,9 @@
       <c r="W239">
         <v>237</v>
       </c>
+      <c r="X239" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
@@ -9954,6 +10167,9 @@
       </c>
       <c r="W240">
         <v>238</v>
+      </c>
+      <c r="X240" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="241" spans="1:24" x14ac:dyDescent="0.2">
@@ -9978,6 +10194,9 @@
       <c r="J241" s="3"/>
       <c r="W241">
         <v>239</v>
+      </c>
+      <c r="X241" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="242" spans="1:24" x14ac:dyDescent="0.2">
@@ -10278,6 +10497,9 @@
       <c r="W251">
         <v>249</v>
       </c>
+      <c r="X251" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
@@ -10414,6 +10636,9 @@
       <c r="W256">
         <v>254</v>
       </c>
+      <c r="X256" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
@@ -10584,6 +10809,9 @@
       <c r="M261" s="3"/>
       <c r="W261">
         <v>259</v>
+      </c>
+      <c r="X261" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.2">
@@ -10736,6 +10964,9 @@
       <c r="W266">
         <v>264</v>
       </c>
+      <c r="X266" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
@@ -10791,6 +11022,9 @@
       <c r="W268">
         <v>266</v>
       </c>
+      <c r="X268" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
@@ -10818,6 +11052,9 @@
       <c r="W269">
         <v>267</v>
       </c>
+      <c r="X269" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
@@ -10875,6 +11112,9 @@
       <c r="W271">
         <v>269</v>
       </c>
+      <c r="X271" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
@@ -10902,6 +11142,9 @@
       <c r="W272">
         <v>270</v>
       </c>
+      <c r="X272" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
@@ -10929,6 +11172,9 @@
       <c r="W273">
         <v>271</v>
       </c>
+      <c r="X273" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
@@ -10956,6 +11202,9 @@
       <c r="W274">
         <v>272</v>
       </c>
+      <c r="X274" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
@@ -11077,6 +11326,9 @@
       <c r="M278" s="3"/>
       <c r="W278">
         <v>276</v>
+      </c>
+      <c r="X278" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="279" spans="1:24" x14ac:dyDescent="0.2">
@@ -11240,6 +11492,9 @@
       <c r="W283">
         <v>281</v>
       </c>
+      <c r="X283" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
@@ -11401,6 +11656,9 @@
       <c r="W288">
         <v>286</v>
       </c>
+      <c r="X288" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
@@ -11659,6 +11917,9 @@
       <c r="W296">
         <v>294</v>
       </c>
+      <c r="X296" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
@@ -11686,6 +11947,9 @@
       <c r="W297">
         <v>295</v>
       </c>
+      <c r="X297" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
@@ -11776,6 +12040,9 @@
       <c r="W300">
         <v>298</v>
       </c>
+      <c r="X300" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
@@ -11980,19 +12247,22 @@
       <c r="W306">
         <v>304</v>
       </c>
+      <c r="X306" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>570</v>
-      </c>
-      <c r="B307" s="22" t="s">
-        <v>24</v>
+        <v>571</v>
+      </c>
+      <c r="B307" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C307" s="13" t="s">
         <v>365</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
@@ -12008,7 +12278,7 @@
         <v>390</v>
       </c>
       <c r="W307">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="X307" s="24" t="s">
         <v>594</v>
@@ -12016,16 +12286,16 @@
     </row>
     <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>570</v>
-      </c>
-      <c r="B308" s="22" t="s">
-        <v>24</v>
+        <v>581</v>
+      </c>
+      <c r="B308" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="C308" s="13" t="s">
         <v>365</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
@@ -12041,7 +12311,7 @@
         <v>390</v>
       </c>
       <c r="W308">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="X308" s="24" t="s">
         <v>594</v>
@@ -12074,7 +12344,7 @@
         <v>390</v>
       </c>
       <c r="W309">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="X309" s="24" t="s">
         <v>594</v>
@@ -12107,7 +12377,7 @@
         <v>390</v>
       </c>
       <c r="W310">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="X310" s="24" t="s">
         <v>594</v>
@@ -12140,7 +12410,7 @@
         <v>390</v>
       </c>
       <c r="W311">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="X311" s="24" t="s">
         <v>594</v>
@@ -12173,7 +12443,7 @@
         <v>390</v>
       </c>
       <c r="W312">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="X312" s="24" t="s">
         <v>594</v>
@@ -12181,16 +12451,16 @@
     </row>
     <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>571</v>
-      </c>
-      <c r="B313" s="20" t="s">
-        <v>1</v>
+        <v>570</v>
+      </c>
+      <c r="B313" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="C313" s="13" t="s">
         <v>365</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
@@ -12206,7 +12476,7 @@
         <v>390</v>
       </c>
       <c r="W313">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="X313" s="24" t="s">
         <v>594</v>
@@ -12214,16 +12484,16 @@
     </row>
     <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>581</v>
-      </c>
-      <c r="B314" s="15" t="s">
-        <v>197</v>
+        <v>570</v>
+      </c>
+      <c r="B314" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="C314" s="13" t="s">
         <v>365</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
@@ -12239,7 +12509,7 @@
         <v>390</v>
       </c>
       <c r="W314">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="X314" s="24" t="s">
         <v>594</v>
@@ -12370,6 +12640,9 @@
       <c r="W318">
         <v>316</v>
       </c>
+      <c r="X318" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
@@ -12558,6 +12831,9 @@
       <c r="W324">
         <v>322</v>
       </c>
+      <c r="X324" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="325" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
@@ -12585,6 +12861,9 @@
       <c r="W325">
         <v>323</v>
       </c>
+      <c r="X325" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="326" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
@@ -12645,6 +12924,9 @@
       <c r="W327">
         <v>325</v>
       </c>
+      <c r="X327" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="328" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
@@ -12672,6 +12954,9 @@
       <c r="W328">
         <v>326</v>
       </c>
+      <c r="X328" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="329" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
@@ -12699,6 +12984,9 @@
       <c r="W329">
         <v>327</v>
       </c>
+      <c r="X329" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="330" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
@@ -12726,6 +13014,9 @@
       <c r="W330">
         <v>328</v>
       </c>
+      <c r="X330" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="331" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
@@ -12772,6 +13063,9 @@
       <c r="J332" s="3"/>
       <c r="W332">
         <v>330</v>
+      </c>
+      <c r="X332" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="333" spans="1:24" x14ac:dyDescent="0.2">
@@ -12800,6 +13094,9 @@
       <c r="W333">
         <v>331</v>
       </c>
+      <c r="X333" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="334" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
@@ -12889,6 +13186,9 @@
       <c r="W336">
         <v>334</v>
       </c>
+      <c r="X336" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
@@ -12976,6 +13276,9 @@
       <c r="W339">
         <v>337</v>
       </c>
+      <c r="X339" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
@@ -13003,6 +13306,9 @@
       <c r="W340">
         <v>338</v>
       </c>
+      <c r="X340" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
@@ -13030,6 +13336,9 @@
       <c r="W341">
         <v>339</v>
       </c>
+      <c r="X341" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
@@ -13129,6 +13438,9 @@
       <c r="W344">
         <v>342</v>
       </c>
+      <c r="X344" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
@@ -13156,6 +13468,9 @@
       <c r="W345">
         <v>343</v>
       </c>
+      <c r="X345" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
@@ -13213,6 +13528,9 @@
       <c r="W347">
         <v>345</v>
       </c>
+      <c r="X347" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
@@ -13240,6 +13558,9 @@
       <c r="W348">
         <v>346</v>
       </c>
+      <c r="X348" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
@@ -13296,6 +13617,9 @@
       <c r="M350" s="3"/>
       <c r="W350">
         <v>348</v>
+      </c>
+      <c r="X350" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="351" spans="1:24" x14ac:dyDescent="0.2">
@@ -13355,6 +13679,9 @@
       <c r="W352">
         <v>350</v>
       </c>
+      <c r="X352" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
@@ -13458,6 +13785,9 @@
       <c r="W355">
         <v>353</v>
       </c>
+      <c r="X355" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
@@ -13484,6 +13814,9 @@
       <c r="M356" s="3"/>
       <c r="W356">
         <v>354</v>
+      </c>
+      <c r="X356" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="357" spans="1:24" x14ac:dyDescent="0.2">
@@ -13675,6 +14008,9 @@
       <c r="W362">
         <v>360</v>
       </c>
+      <c r="X362" s="24" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
@@ -13754,6 +14090,9 @@
       <c r="M365" s="3"/>
       <c r="W365">
         <v>363</v>
+      </c>
+      <c r="X365" s="24" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="366" spans="1:24" x14ac:dyDescent="0.2">
@@ -13836,7 +14175,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DoomPy/files/cards.xlsx
+++ b/DoomPy/files/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/DoomPy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046B65A4-8078-344F-AAD6-97BCED58F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B6799C-1C6A-5C43-806B-117A290E5C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14900" yWindow="1720" windowWidth="32620" windowHeight="21640" activeTab="2" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
@@ -2106,7 +2106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2134,11 +2134,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2176,6 +2185,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2199,6 +2209,14 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2237,6 +2255,11 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2725,26 +2748,26 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF236492-2866-7A4C-8166-84E97629A067}" name="Tabelle3" displayName="Tabelle3" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF236492-2866-7A4C-8166-84E97629A067}" name="Tabelle3" displayName="Tabelle3" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
   <autoFilter ref="A1:D1048576" xr:uid="{FF236492-2866-7A4C-8166-84E97629A067}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3E8585BE-B941-1E48-9DBC-BC4A5DFA0274}" name="MOL" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B5611C06-DB54-6747-BEE3-1D24D886F23F}" name="game" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{B76D2281-A8FA-214A-A5D4-A132C9A872EC}" name="condition_A" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{8EA65515-2984-C648-8BE8-09497BB8793B}" name="condition_B" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{B5611C06-DB54-6747-BEE3-1D24D886F23F}" name="game" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B76D2281-A8FA-214A-A5D4-A132C9A872EC}" name="condition_A" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{8EA65515-2984-C648-8BE8-09497BB8793B}" name="condition_B" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{715F6A3D-646B-F247-BD73-8036CDB65C52}" name="Tabelle4" displayName="Tabelle4" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{715F6A3D-646B-F247-BD73-8036CDB65C52}" name="Tabelle4" displayName="Tabelle4" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
   <autoFilter ref="A1:D1048576" xr:uid="{715F6A3D-646B-F247-BD73-8036CDB65C52}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{66C7ED80-D3EC-8F48-924C-CE8C7AC0483C}" name="MOL" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{3D25D872-9D29-3C47-8727-0E8B85603B25}" name="game" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{1E43C93B-7BA5-7D4F-81D2-60C55D1EA81E}" name="condition_A" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B4D6E143-9614-9646-A65C-90C01526CFA4}" name="condition_B" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{66C7ED80-D3EC-8F48-924C-CE8C7AC0483C}" name="MOL" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{3D25D872-9D29-3C47-8727-0E8B85603B25}" name="game" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{1E43C93B-7BA5-7D4F-81D2-60C55D1EA81E}" name="condition_A" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B4D6E143-9614-9646-A65C-90C01526CFA4}" name="condition_B" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16780,11 +16803,325 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB22EBC-98B5-0A4B-BE66-A269A8B9C2CC}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>627</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>645</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>647</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="31"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="31"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="31"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="31"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="31"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C27" s="31"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C28" s="31"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF8EC9B-FEC3-8446-BCFE-151ABD0F12CA}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16820,294 +17157,6 @@
         <v>616</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
-        <v>612</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>617</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>623</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>625</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>627</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>629</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>631</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>633</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>635</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>637</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>639</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>641</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>643</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>645</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>647</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>649</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF8EC9B-FEC3-8446-BCFE-151ABD0F12CA}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.33203125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="31"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>613</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>616</v>
-      </c>
-      <c r="D2" s="31" t="s">
         <v>650</v>
       </c>
     </row>

--- a/DoomPy/files/cards.xlsx
+++ b/DoomPy/files/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/DoomPy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAA3FD0-B34E-C64C-A22D-E7A9B310D169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D6DB41-5D39-7741-813A-5275ACFAEC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="3820" windowWidth="31200" windowHeight="21640" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="752">
   <si>
     <t>Echolocation</t>
   </si>
@@ -2290,6 +2290,9 @@
   </si>
   <si>
     <t>The Vagrant (7/2)</t>
+  </si>
+  <si>
+    <t>Rainbow Horn (WE)</t>
   </si>
 </sst>
 </file>
@@ -3193,9 +3196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AE435C-BBFF-4D4C-B457-AFC1FAEE6491}">
   <dimension ref="A1:Y367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A77" sqref="A77"/>
+      <selection pane="topRight" activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11674,12 +11677,6 @@
       <c r="H246">
         <v>1</v>
       </c>
-      <c r="K246">
-        <v>1</v>
-      </c>
-      <c r="U246" t="s">
-        <v>600</v>
-      </c>
       <c r="X246">
         <v>244</v>
       </c>
@@ -11692,7 +11689,7 @@
         <v>741</v>
       </c>
       <c r="B247" t="s">
-        <v>139</v>
+        <v>751</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>180</v>
@@ -11702,9 +11699,6 @@
       </c>
       <c r="E247" t="s">
         <v>129</v>
-      </c>
-      <c r="H247">
-        <v>1</v>
       </c>
       <c r="K247">
         <v>1</v>

--- a/DoomPy/files/cards.xlsx
+++ b/DoomPy/files/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/DoomPy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D6DB41-5D39-7741-813A-5275ACFAEC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2014A1A7-4F10-CE46-91B7-23A9F43674E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="3820" windowWidth="31200" windowHeight="21640" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
@@ -2881,7 +2881,13 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF236492-2866-7A4C-8166-84E97629A067}" name="Tabelle3" displayName="Tabelle3" ref="A1:F67" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:F67" xr:uid="{FF236492-2866-7A4C-8166-84E97629A067}"/>
+  <autoFilter ref="A1:F67" xr:uid="{FF236492-2866-7A4C-8166-84E97629A067}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="MOL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F67">
     <sortCondition ref="B1:B67"/>
   </sortState>
@@ -3196,9 +3202,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AE435C-BBFF-4D4C-B457-AFC1FAEE6491}">
   <dimension ref="A1:Y367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B247" sqref="B247"/>
+      <selection pane="topRight" activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17710,7 +17716,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>741</v>
       </c>
@@ -17750,7 +17756,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>742</v>
       </c>
@@ -17770,7 +17776,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>741</v>
       </c>
@@ -17790,7 +17796,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>741</v>
       </c>
@@ -17810,7 +17816,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>741</v>
       </c>
@@ -17850,7 +17856,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>742</v>
       </c>
@@ -17870,7 +17876,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>741</v>
       </c>
@@ -17890,7 +17896,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>741</v>
       </c>
@@ -17930,7 +17936,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>742</v>
       </c>
@@ -17970,7 +17976,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>742</v>
       </c>
@@ -17990,7 +17996,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>741</v>
       </c>
@@ -18010,7 +18016,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>741</v>
       </c>
@@ -18050,7 +18056,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>742</v>
       </c>
@@ -18070,7 +18076,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>741</v>
       </c>
@@ -18090,7 +18096,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>741</v>
       </c>
@@ -18110,7 +18116,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>741</v>
       </c>
@@ -18130,7 +18136,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>741</v>
       </c>
@@ -18150,7 +18156,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>741</v>
       </c>
@@ -18170,7 +18176,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>741</v>
       </c>
@@ -18210,7 +18216,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>742</v>
       </c>
@@ -18230,7 +18236,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>741</v>
       </c>
@@ -18270,7 +18276,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>742</v>
       </c>
@@ -18310,7 +18316,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>742</v>
       </c>
@@ -18330,7 +18336,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>741</v>
       </c>
@@ -18370,7 +18376,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>742</v>
       </c>
@@ -18410,7 +18416,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>742</v>
       </c>
@@ -18430,7 +18436,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>741</v>
       </c>
@@ -18450,7 +18456,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>741</v>
       </c>
@@ -18470,7 +18476,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>741</v>
       </c>
@@ -18490,7 +18496,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>741</v>
       </c>
@@ -18510,7 +18516,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>741</v>
       </c>
@@ -18530,7 +18536,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>741</v>
       </c>
@@ -18550,7 +18556,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>741</v>
       </c>
@@ -18570,7 +18576,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>741</v>
       </c>
@@ -18590,7 +18596,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>741</v>
       </c>
@@ -18630,7 +18636,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>742</v>
       </c>
@@ -18670,7 +18676,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>742</v>
       </c>
@@ -18690,7 +18696,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>741</v>
       </c>
@@ -18730,7 +18736,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>742</v>
       </c>
@@ -18750,7 +18756,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>741</v>
       </c>
@@ -18770,7 +18776,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>741</v>
       </c>
@@ -18810,7 +18816,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>742</v>
       </c>
@@ -18850,7 +18856,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>742</v>
       </c>
@@ -18890,7 +18896,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>742</v>
       </c>
@@ -18930,7 +18936,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>742</v>
       </c>
@@ -18970,7 +18976,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>742</v>
       </c>
@@ -18990,7 +18996,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>741</v>
       </c>
@@ -19010,7 +19016,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>741</v>
       </c>
